--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF573D18-FEFE-B14D-B553-C83D98BD2B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C304032-0257-AC47-A971-E4B9EFFEAE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="3660" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="3840" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="230">
   <si>
     <t>WK 1</t>
   </si>
@@ -696,21 +696,12 @@
     <t>Carlos - Sonesy</t>
   </si>
   <si>
-    <t>ROB THE ELDER</t>
-  </si>
-  <si>
     <t>Moo - Duncan</t>
   </si>
   <si>
     <t>Moo</t>
   </si>
   <si>
-    <t>Ditch</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4-3</t>
   </si>
   <si>
@@ -730,6 +721,15 @@
   </si>
   <si>
     <t>Straight Rob v Woger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4-0</t>
+  </si>
+  <si>
+    <t>Matt B v Dom</t>
+  </si>
+  <si>
+    <t>Lost 0-4</t>
   </si>
 </sst>
 </file>
@@ -1610,10 +1610,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2156,7 +2156,9 @@
       <c r="AN5" s="18">
         <v>0</v>
       </c>
-      <c r="AO5" s="18"/>
+      <c r="AO5" s="18">
+        <v>-4</v>
+      </c>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
@@ -2174,7 +2176,7 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
@@ -2186,7 +2188,7 @@
       </c>
       <c r="BF5" s="8">
         <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
@@ -2194,11 +2196,11 @@
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.60416666666666663</v>
+        <v>0.58585858585858586</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2307,7 +2309,9 @@
       <c r="AN6" s="30">
         <v>0</v>
       </c>
-      <c r="AO6" s="30"/>
+      <c r="AO6" s="30">
+        <v>-4</v>
+      </c>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
       <c r="AR6" s="30"/>
@@ -2323,7 +2327,7 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
@@ -2335,7 +2339,7 @@
       </c>
       <c r="BF6" s="8">
         <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
@@ -2343,65 +2347,67 @@
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.55913978494623651</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="45">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-1</v>
       </c>
       <c r="D7" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="7">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
       </c>
       <c r="P7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>3</v>
       </c>
       <c r="R7" s="50"/>
       <c r="S7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T7" s="7">
         <v>-1</v>
@@ -2409,20 +2415,16 @@
       <c r="U7" s="7">
         <v>-4</v>
       </c>
-      <c r="V7" s="7">
-        <v>8</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="50"/>
       <c r="AB7" s="7">
@@ -2432,35 +2434,31 @@
       <c r="AD7" s="45">
         <v>0</v>
       </c>
-      <c r="AE7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="7">
         <v>-5</v>
       </c>
-      <c r="AH7" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7"/>
       <c r="AM7" s="7">
         <v>0</v>
       </c>
       <c r="AN7" s="7">
         <v>0</v>
       </c>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="7">
+        <v>4</v>
+      </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
@@ -2476,11 +2474,11 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
@@ -2488,75 +2486,73 @@
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.46464646464646464</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
         <v>-1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="F8" s="18">
         <v>-1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46">
-        <v>1</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="18">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J8" s="18">
         <v>8</v>
       </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="18">
         <v>-1</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="46">
         <v>0</v>
       </c>
       <c r="O8" s="18">
         <v>1</v>
       </c>
       <c r="P8" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>-3</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T8" s="18">
         <v>-1</v>
@@ -2564,16 +2560,20 @@
       <c r="U8" s="18">
         <v>-4</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="V8" s="18">
+        <v>8</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
       <c r="X8" s="18">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA8" s="48"/>
       <c r="AB8" s="18">
@@ -2583,29 +2583,37 @@
       <c r="AD8" s="46">
         <v>0</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
+      <c r="AE8" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>2</v>
+      </c>
       <c r="AG8" s="18">
         <v>-5</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>1</v>
+      </c>
       <c r="AM8" s="18">
         <v>0</v>
       </c>
       <c r="AN8" s="18">
         <v>0</v>
       </c>
-      <c r="AO8" s="18"/>
+      <c r="AO8" s="18">
+        <v>-4</v>
+      </c>
       <c r="AP8" s="18"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
@@ -2621,7 +2629,7 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
@@ -2633,7 +2641,7 @@
       </c>
       <c r="BF8" s="8">
         <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
@@ -2641,11 +2649,11 @@
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.52873563218390807</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2742,7 +2750,9 @@
       <c r="AN9" s="16">
         <v>0</v>
       </c>
-      <c r="AO9" s="16"/>
+      <c r="AO9" s="16">
+        <v>4</v>
+      </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
@@ -2758,11 +2768,11 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
@@ -2774,15 +2784,15 @@
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.56000000000000005</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2933,63 +2943,61 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B11" s="55"/>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="45">
+        <v>8</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M11" s="7">
         <v>-1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="45">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7">
-        <v>-3</v>
-      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="50"/>
-      <c r="S11" s="7">
-        <v>2</v>
+      <c r="S11" s="45">
+        <v>-2</v>
       </c>
       <c r="T11" s="7">
         <v>1</v>
       </c>
       <c r="U11" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V11" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W11" s="45">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>-5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7"/>
       <c r="Y11" s="7">
         <v>0</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="45">
+        <v>2</v>
+      </c>
       <c r="AA11" s="50"/>
       <c r="AB11" s="7">
         <v>-1</v>
@@ -3002,32 +3010,30 @@
         <v>4</v>
       </c>
       <c r="AF11" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG11" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="45">
-        <v>2</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>-1</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
       <c r="AJ11" s="7">
         <v>-1</v>
       </c>
-      <c r="AK11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7">
         <v>0</v>
       </c>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>4</v>
+      </c>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="55"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -3040,7 +3046,7 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
@@ -3052,7 +3058,7 @@
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
@@ -3060,21 +3066,19 @@
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.48</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7">
         <v>-1</v>
       </c>
@@ -3087,54 +3091,52 @@
         <v>0</v>
       </c>
       <c r="H12" s="50"/>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="K12" s="45">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="45">
         <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q12" s="7"/>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
+        <v>-3</v>
+      </c>
       <c r="R12" s="50"/>
       <c r="S12" s="7">
         <v>2</v>
       </c>
-      <c r="T12" s="45">
-        <v>-1</v>
+      <c r="T12" s="7">
+        <v>1</v>
       </c>
       <c r="U12" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V12" s="7">
         <v>-8</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="45">
         <v>0</v>
       </c>
       <c r="X12" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y12" s="7">
         <v>0</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="7">
+        <v>-1</v>
+      </c>
       <c r="AC12" s="65"/>
       <c r="AD12" s="7">
         <v>0</v>
@@ -3142,27 +3144,29 @@
       <c r="AE12" s="7">
         <v>4</v>
       </c>
-      <c r="AF12" s="7"/>
+      <c r="AF12" s="7">
+        <v>2</v>
+      </c>
       <c r="AG12" s="7">
         <v>5</v>
       </c>
-      <c r="AH12" s="7">
-        <v>-2</v>
+      <c r="AH12" s="45">
+        <v>2</v>
       </c>
       <c r="AI12" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ12" s="7"/>
+      <c r="AJ12" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK12" s="7">
         <v>1</v>
       </c>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
@@ -3179,15 +3183,15 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE12" s="8">
         <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
@@ -3195,21 +3199,21 @@
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.44871794871794873</v>
+        <v>0.48</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
@@ -3218,9 +3222,7 @@
         <v>-1</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>-1</v>
       </c>
@@ -3229,14 +3231,16 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="45">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-2</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3244,18 +3248,20 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>-1</v>
-      </c>
+      <c r="O13" s="7"/>
       <c r="P13" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="45">
-        <v>-4</v>
+      <c r="S13" s="7">
+        <v>2</v>
+      </c>
+      <c r="T13" s="45">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>4</v>
       </c>
       <c r="V13" s="7">
         <v>-8</v>
@@ -3269,9 +3275,7 @@
       <c r="Y13" s="7">
         <v>0</v>
       </c>
-      <c r="Z13" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="50"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="65"/>
@@ -3279,13 +3283,11 @@
         <v>0</v>
       </c>
       <c r="AE13" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="45">
-        <v>-5</v>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7">
+        <v>5</v>
       </c>
       <c r="AH13" s="7">
         <v>-2</v>
@@ -3293,22 +3295,20 @@
       <c r="AI13" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ13" s="7"/>
       <c r="AK13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="45">
         <v>0</v>
       </c>
       <c r="AN13" s="7">
         <v>0</v>
       </c>
-      <c r="AO13" s="7"/>
+      <c r="AO13" s="7">
+        <v>-4</v>
+      </c>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
@@ -3344,27 +3344,31 @@
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.40229885057471265</v>
+        <v>0.43209876543209874</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="7">
+        <v>-1</v>
+      </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="45">
+        <v>-1</v>
+      </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
@@ -3372,77 +3376,91 @@
       <c r="I14" s="7">
         <v>7</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="45">
+        <v>-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" s="7">
+        <v>2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V14" s="7">
         <v>8</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="45">
         <v>-1</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="45">
-        <v>-2</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7">
-        <v>4</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="45">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="7">
-        <v>-1</v>
-      </c>
       <c r="AC14" s="65"/>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>-2</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AF14" s="7"/>
       <c r="AG14" s="7">
         <v>-5</v>
       </c>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="AH14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="7">
         <v>-1</v>
       </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7">
-        <v>0</v>
-      </c>
+      <c r="AK14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM14" s="7"/>
       <c r="AN14" s="7">
         <v>0</v>
       </c>
-      <c r="AO14" s="7"/>
+      <c r="AO14" s="7">
+        <v>4</v>
+      </c>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
-      <c r="AR14" s="55"/>
+      <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -3455,37 +3473,37 @@
       </c>
       <c r="BC14" s="8">
         <f>COUNT(B14:AY14)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.5</v>
+        <v>0.37634408602150538</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7">
         <v>-1</v>
@@ -3493,11 +3511,11 @@
       <c r="C15" s="7">
         <v>-1</v>
       </c>
-      <c r="D15" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="45">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>-1</v>
       </c>
       <c r="G15" s="7">
@@ -3505,44 +3523,36 @@
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="7">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="45">
+        <v>-4</v>
+      </c>
+      <c r="V15" s="7">
         <v>-8</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="45">
-        <v>-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>-3</v>
-      </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="7">
-        <v>2</v>
-      </c>
-      <c r="T15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V15" s="7">
-        <v>8</v>
       </c>
       <c r="W15" s="7">
         <v>0</v>
@@ -3550,43 +3560,51 @@
       <c r="X15" s="7">
         <v>5</v>
       </c>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
       <c r="Z15" s="7">
         <v>2</v>
       </c>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="45">
-        <v>-1</v>
-      </c>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="65"/>
-      <c r="AD15" s="7"/>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
       <c r="AE15" s="7">
         <v>-4</v>
       </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7">
+      <c r="AF15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="45">
         <v>-5</v>
       </c>
       <c r="AH15" s="7">
         <v>-2</v>
       </c>
       <c r="AI15" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ15" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="7">
         <v>-1</v>
       </c>
       <c r="AL15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
       <c r="AN15" s="7">
         <v>0</v>
       </c>
-      <c r="AO15" s="7"/>
+      <c r="AO15" s="7">
+        <v>-4</v>
+      </c>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
@@ -3610,40 +3628,42 @@
       </c>
       <c r="BE15" s="8">
         <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.35555555555555557</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B16" s="45">
+        <v>-1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
       <c r="D16" s="7">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>-9</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
         <v>-1</v>
       </c>
@@ -3651,69 +3671,75 @@
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="45">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7">
         <v>0</v>
       </c>
       <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
         <v>-2</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
       <c r="Q16" s="7">
         <v>3</v>
       </c>
       <c r="R16" s="50"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="S16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>8</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
-      <c r="AB16" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="65"/>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="7">
-        <v>2</v>
-      </c>
+      <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="45">
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="7">
         <v>-1</v>
       </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="45">
-        <v>1</v>
-      </c>
       <c r="AM16" s="7">
         <v>0</v>
       </c>
       <c r="AN16" s="7">
         <v>0</v>
       </c>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="7">
+        <v>4</v>
+      </c>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
@@ -3729,11 +3755,11 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
@@ -3741,63 +3767,57 @@
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="45">
+        <v>85</v>
+      </c>
+      <c r="B17" s="7">
         <v>-1</v>
       </c>
       <c r="C17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
         <v>-9</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>-1</v>
-      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
+      <c r="J17" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="45">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7">
-        <v>-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7">
         <v>3</v>
       </c>
@@ -3805,10 +3825,8 @@
       <c r="S17" s="7">
         <v>-2</v>
       </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
+      <c r="T17" s="7"/>
+      <c r="U17" s="45">
         <v>4</v>
       </c>
       <c r="V17" s="7">
@@ -3820,33 +3838,41 @@
       <c r="X17" s="7">
         <v>-5</v>
       </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="65"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="45">
+        <v>-4</v>
+      </c>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
+      <c r="AG17" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="45">
-        <v>1</v>
-      </c>
+      <c r="AK17" s="7"/>
       <c r="AL17" s="7">
         <v>-1</v>
       </c>
-      <c r="AM17" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM17" s="7"/>
       <c r="AN17" s="7">
         <v>0</v>
       </c>
-      <c r="AO17" s="7"/>
+      <c r="AO17" s="7">
+        <v>4</v>
+      </c>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -3866,11 +3892,11 @@
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE17" s="8">
         <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
@@ -3878,89 +3904,87 @@
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.43478260869565216</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>-1</v>
+      </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K18" s="45">
-        <v>0</v>
-      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="45">
         <v>-1</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>-3</v>
+      </c>
       <c r="R18" s="50"/>
       <c r="S18" s="7">
         <v>2</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
       <c r="U18" s="7">
-        <v>4</v>
-      </c>
-      <c r="V18" s="7"/>
+        <v>-4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>8</v>
+      </c>
       <c r="W18" s="7">
         <v>0</v>
       </c>
-      <c r="X18" s="7">
-        <v>5</v>
-      </c>
+      <c r="X18" s="7"/>
       <c r="Y18" s="45">
         <v>0</v>
       </c>
-      <c r="Z18" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
       <c r="AB18" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="65"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="45">
-        <v>-2</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>-5</v>
-      </c>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AL18" s="7">
         <v>1</v>
@@ -3968,8 +3992,12 @@
       <c r="AM18" s="7">
         <v>0</v>
       </c>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
+      <c r="AN18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="45">
+        <v>4</v>
+      </c>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -3985,7 +4013,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3993,7 +4021,7 @@
       </c>
       <c r="BE18" s="8">
         <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
@@ -4001,46 +4029,52 @@
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.53703703703703709</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
         <v>-1</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
       <c r="D19" s="7">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>-1</v>
+      </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="45">
+      <c r="I19" s="45">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7">
         <v>-8</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7">
         <v>0</v>
       </c>
@@ -4052,55 +4086,47 @@
         <v>3</v>
       </c>
       <c r="R19" s="50"/>
-      <c r="S19" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="45">
-        <v>4</v>
-      </c>
-      <c r="V19" s="7">
-        <v>8</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>-5</v>
-      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="45">
+        <v>1</v>
+      </c>
       <c r="AC19" s="65"/>
       <c r="AD19" s="7">
         <v>0</v>
       </c>
-      <c r="AE19" s="45">
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="45">
+        <v>-1</v>
+      </c>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
         <v>-4</v>
       </c>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -4116,7 +4142,7 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
@@ -4124,95 +4150,97 @@
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.43939393939393939</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="45">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>-3</v>
-      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="50"/>
       <c r="S20" s="7">
         <v>2</v>
       </c>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
+      <c r="T20" s="7"/>
       <c r="U20" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V20" s="7">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>5</v>
+      </c>
       <c r="Y20" s="45">
         <v>0</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7">
+        <v>2</v>
+      </c>
       <c r="AA20" s="50"/>
       <c r="AB20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20" s="65"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
+      <c r="AE20" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="45">
+        <v>-2</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>-5</v>
+      </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="7">
         <v>1</v>
@@ -4220,10 +4248,10 @@
       <c r="AM20" s="7">
         <v>0</v>
       </c>
-      <c r="AN20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7">
+        <v>-4</v>
+      </c>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -4239,44 +4267,48 @@
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE20" s="8">
         <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.5</v>
+        <v>0.50877192982456143</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="45">
+        <v>82</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="7">
@@ -4284,70 +4316,68 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>-8</v>
+      </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
         <v>-2</v>
       </c>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="45">
+        <v>-3</v>
+      </c>
       <c r="R21" s="50"/>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="45">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA21" s="50"/>
       <c r="AB21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="65"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
       <c r="AE21" s="7">
         <v>-4</v>
       </c>
-      <c r="AF21" s="7"/>
+      <c r="AF21" s="7">
+        <v>2</v>
+      </c>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI21" s="7">
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="45">
         <v>1</v>
       </c>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
-      <c r="AM21" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM21" s="7"/>
       <c r="AN21" s="7">
         <v>0</v>
       </c>
-      <c r="AO21" s="7"/>
+      <c r="AO21" s="7">
+        <v>4</v>
+      </c>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="55"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -4355,61 +4385,56 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
+      <c r="AZ21" s="5"/>
       <c r="BA21" s="33">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
         <f>COUNT(B21:AY21)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE21" s="8">
         <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.49019607843137253</v>
+        <v>0.5</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E22" s="7">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="45">
+        <v>1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="45">
-        <v>0</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="50"/>
       <c r="I22" s="7">
         <v>-7</v>
@@ -4420,62 +4445,60 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="45">
+      <c r="S22" s="7">
         <v>2</v>
       </c>
       <c r="T22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="7">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="7">
-        <v>-5</v>
+      <c r="X22" s="45">
+        <v>5</v>
       </c>
       <c r="Y22" s="7">
         <v>0</v>
       </c>
-      <c r="Z22" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="7">
         <v>-1</v>
       </c>
       <c r="AC22" s="65"/>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="45">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7">
         <v>-1</v>
       </c>
-      <c r="AL22" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AL22" s="7"/>
       <c r="AM22" s="7">
         <v>0</v>
       </c>
       <c r="AN22" s="7">
         <v>0</v>
       </c>
-      <c r="AO22" s="7"/>
+      <c r="AO22" s="45">
+        <v>-4</v>
+      </c>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
@@ -4491,115 +4514,125 @@
       </c>
       <c r="BC22" s="8">
         <f>COUNT(B22:AY22)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BD22" s="8">
         <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE22" s="8">
         <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF22" s="8">
         <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BG22" s="8">
         <f>SUM(BD22*3)+BE22</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.36363636363636365</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="55">
-        <v>1</v>
-      </c>
-      <c r="C23" s="45">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>-1</v>
       </c>
       <c r="D23" s="7">
         <v>-9</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
       <c r="H23" s="50"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I23" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q23" s="45">
-        <v>-3</v>
-      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="S23" s="45">
+        <v>2</v>
+      </c>
+      <c r="T23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="7">
+        <v>4</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7">
         <v>0</v>
       </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="X23" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
       <c r="Z23" s="7">
         <v>-2</v>
       </c>
       <c r="AA23" s="50"/>
       <c r="AB23" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23" s="65"/>
       <c r="AD23" s="7">
         <v>0</v>
       </c>
       <c r="AE23" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="45">
+        <v>5</v>
+      </c>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="45">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
+      <c r="AK23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>0</v>
+      </c>
       <c r="AN23" s="7">
         <v>0</v>
       </c>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="55"/>
+      <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4607,25 +4640,24 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
-      <c r="AZ23" s="5"/>
       <c r="BA23" s="33">
         <v>19</v>
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE23" s="8">
         <f>COUNTIF($B23:$AY23, "0")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BF23" s="8">
         <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
@@ -4633,11 +4665,11 @@
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.47058823529411764</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -5166,56 +5198,32 @@
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="45">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="50"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="45">
-        <v>-1</v>
-      </c>
+      <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>3</v>
-      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
       <c r="R29" s="50"/>
-      <c r="S29" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V29" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>0</v>
-      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
@@ -5225,13 +5233,25 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
+      <c r="AI29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
+      <c r="AM29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>4</v>
+      </c>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
@@ -5247,7 +5267,7 @@
       </c>
       <c r="BC29" s="8">
         <f>COUNT(B29:AY29)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD29" s="8">
         <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
@@ -5255,62 +5275,78 @@
       </c>
       <c r="BE29" s="8">
         <f>COUNTIF($B29:$AY29, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF29" s="8">
         <f>COUNTIF($B29:$AY29, "&lt;0")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="8">
         <f>SUM(BD29*3)+BE29</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH29" s="8">
         <f>SUM(B29:AY29)</f>
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="BI29" s="10">
         <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="E30" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="45">
+        <v>-1</v>
+      </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="O30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>3</v>
+      </c>
       <c r="R30" s="50"/>
       <c r="S30" s="7">
-        <v>2</v>
-      </c>
-      <c r="T30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U30" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7">
+        <v>-4</v>
+      </c>
       <c r="V30" s="7">
-        <v>8</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="50"/>
       <c r="AB30" s="7"/>
@@ -5342,7 +5378,7 @@
       </c>
       <c r="BC30" s="8">
         <f>COUNT(B30:AY30)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD30" s="8">
         <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
@@ -5350,46 +5386,36 @@
       </c>
       <c r="BE30" s="8">
         <f>COUNTIF($B30:$AY30, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF30" s="8">
         <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BG30" s="8">
         <f>SUM(BD30*3)+BE30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH30" s="8">
         <f>SUM(B30:AY30)</f>
-        <v>9</v>
+        <v>-20</v>
       </c>
       <c r="BI30" s="10">
         <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D31" s="45">
-        <v>9</v>
-      </c>
-      <c r="E31" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -5401,11 +5427,19 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="50"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
+      <c r="S31" s="7">
+        <v>2</v>
+      </c>
+      <c r="T31" s="7">
+        <v>-1</v>
+      </c>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+      <c r="V31" s="7">
+        <v>8</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -5439,7 +5473,7 @@
       </c>
       <c r="BC31" s="8">
         <f>COUNT(B31:AY31)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD31" s="8">
         <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
@@ -5451,7 +5485,7 @@
       </c>
       <c r="BF31" s="8">
         <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31" s="8">
         <f>SUM(BD31*3)+BE31</f>
@@ -5459,24 +5493,34 @@
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="45">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7">
+        <v>-1</v>
+      </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
       <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -5504,22 +5548,12 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="45">
-        <v>0</v>
-      </c>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
@@ -5540,27 +5574,27 @@
       </c>
       <c r="BD32" s="8">
         <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE32" s="8">
         <f>COUNTIF($B32:$AY32, "0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="8">
         <f>COUNTIF($B32:$AY32, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG32" s="8">
         <f>SUM(BD32*3)+BE32</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
-        <v>0.4</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
@@ -5667,10 +5701,12 @@
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -5678,7 +5714,9 @@
       <c r="H34" s="50"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -5686,7 +5724,9 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="50"/>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7">
+        <v>-2</v>
+      </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -5703,17 +5743,11 @@
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
-      <c r="AJ34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AK34" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
-      <c r="AN34" s="45">
-        <v>0</v>
-      </c>
+      <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
@@ -5750,7 +5784,7 @@
       </c>
       <c r="BH34" s="8">
         <f>SUM(B34:AY34)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI34" s="10">
         <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
@@ -5760,12 +5794,10 @@
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -5773,9 +5805,7 @@
       <c r="H35" s="50"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7">
-        <v>0</v>
-      </c>
+      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -5783,9 +5813,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="50"/>
-      <c r="S35" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -5802,12 +5830,20 @@
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
+      <c r="AJ35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AK35" s="7">
+        <v>1</v>
+      </c>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
+      <c r="AN35" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="7">
+        <v>-4</v>
+      </c>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
@@ -5823,7 +5859,7 @@
       </c>
       <c r="BC35" s="8">
         <f>COUNT(B35:AY35)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD35" s="8">
         <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
@@ -5835,7 +5871,7 @@
       </c>
       <c r="BF35" s="8">
         <f>COUNTIF($B35:$AY35, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG35" s="8">
         <f>SUM(BD35*3)+BE35</f>
@@ -5843,11 +5879,11 @@
       </c>
       <c r="BH35" s="8">
         <f>SUM(B35:AY35)</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="BI35" s="10">
         <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
@@ -6381,7 +6417,7 @@
       </c>
       <c r="AO40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP40" s="27">
         <f t="shared" si="1"/>
@@ -6537,7 +6573,7 @@
         <v>160</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM41" s="8" t="s">
         <v>197</v>
@@ -6545,7 +6581,9 @@
       <c r="AN41" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AO41" s="8"/>
+      <c r="AO41" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="AP41" s="8"/>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
@@ -6888,11 +6926,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G32"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6901,7 +6939,7 @@
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6930,7 +6968,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>78</v>
       </c>
@@ -6950,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="62">
-        <f t="shared" ref="G3:G30" si="0">SUM(C3*3)+D3</f>
+        <f t="shared" ref="G3" si="0">SUM(C3*3)+D3</f>
         <v>9</v>
       </c>
       <c r="K3">
@@ -6961,7 +6999,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>99</v>
       </c>
@@ -6992,7 +7030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -7023,7 +7061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>80</v>
       </c>
@@ -7054,7 +7092,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>110</v>
       </c>
@@ -7085,7 +7123,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -7108,21 +7146,9 @@
         <f>SUM(C8*3)+D8</f>
         <v>7</v>
       </c>
-      <c r="J8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8" s="69">
-        <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="M8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -7145,20 +7171,14 @@
         <f>SUM(C9*3)+D9</f>
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
-      <c r="L9" s="69">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -7167,31 +7187,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <f>SUM(C10*3)+D10</f>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="J10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10">
-        <v>28</v>
-      </c>
-      <c r="L10" s="69">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
@@ -7214,15 +7222,9 @@
         <f>SUM(C11*3)+D11</f>
         <v>6</v>
       </c>
-      <c r="K11">
-        <v>21</v>
-      </c>
-      <c r="L11" s="69">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -7253,9 +7255,9 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -7270,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f>SUM(C13*3)+D13</f>
@@ -7285,40 +7287,40 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="G14">
         <f>SUM(C14*3)+D14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>19</v>
       </c>
       <c r="L14" s="69">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7333,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <f>SUM(C15*3)+D15</f>
@@ -7347,12 +7349,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7361,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f>SUM(C16*3)+D16</f>
@@ -7375,15 +7377,15 @@
       </c>
       <c r="L16" s="69">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7392,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>-3</v>
@@ -7406,12 +7408,12 @@
       </c>
       <c r="L17" s="69">
         <f t="shared" si="1"/>
-        <v>6.333333333333333</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7426,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G18">
         <f>SUM(C18*3)+D18</f>
@@ -7442,7 +7444,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -7457,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G19">
         <f>SUM(C19*3)+D19</f>
@@ -7473,26 +7475,26 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G20">
         <f>SUM(C20*3)+D20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="68">
         <v>14</v>
@@ -7504,7 +7506,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -7519,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G21">
         <f>SUM(C21*3)+D21</f>
@@ -7535,38 +7537,38 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G22">
         <f>SUM(C22*3)+D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="36">
         <v>5</v>
       </c>
       <c r="L22" s="69">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7597,10 +7599,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -7609,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f>SUM(C24*3)+D24</f>
@@ -7623,7 +7625,7 @@
       </c>
       <c r="L24" s="69">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -7859,7 +7861,7 @@
         <v>19</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G31:G34" si="2">SUM(C33*3)+D33</f>
+        <f t="shared" ref="G33:G34" si="2">SUM(C33*3)+D33</f>
         <v>0</v>
       </c>
       <c r="K33">
@@ -7910,10 +7912,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
+      <selection pane="bottomRight" activeCell="BA39" sqref="BA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8153,7 +8155,9 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
+      <c r="AN3" s="7">
+        <v>1</v>
+      </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
@@ -8168,7 +8172,7 @@
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
         <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB3" s="8">
         <v>3</v>
@@ -8179,59 +8183,75 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="50"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
       <c r="O4" s="7">
-        <v>5</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="50"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="50"/>
-      <c r="AB4" s="7"/>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
       <c r="AC4" s="67"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AG4" s="7">
+        <v>1</v>
+      </c>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
+      <c r="AI4" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
+      <c r="AN4" s="7">
+        <v>3</v>
+      </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
@@ -8246,72 +8266,66 @@
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="BB4" s="8">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="50"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>5</v>
+      </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
       <c r="R5" s="50"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7">
+        <v>3</v>
+      </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
+      <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="50"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="67"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
@@ -8330,52 +8344,49 @@
         <v>15</v>
       </c>
       <c r="BB5" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="50"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
       <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
       <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="50"/>
-      <c r="S6" s="7">
-        <v>3</v>
-      </c>
+      <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="7">
-        <v>3</v>
-      </c>
+      <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -8384,16 +8395,18 @@
       <c r="AC6" s="67"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="7">
+        <v>1</v>
+      </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
+      <c r="AM6" s="7">
+        <v>1</v>
+      </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
@@ -8409,70 +8422,69 @@
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB6" s="8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="50"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>3</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="50"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7">
+        <v>3</v>
+      </c>
       <c r="T7" s="7"/>
-      <c r="U7" s="7">
-        <v>2</v>
-      </c>
-      <c r="V7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
       <c r="W7" s="7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="50"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="67"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
@@ -8495,60 +8507,67 @@
         <v>14</v>
       </c>
       <c r="BB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="50"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="50"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7">
+        <v>2</v>
+      </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>1</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="50"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="67"/>
-      <c r="AD8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7">
+        <v>2</v>
+      </c>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
+      <c r="AG8" s="7">
+        <v>1</v>
+      </c>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7">
-        <v>4</v>
-      </c>
+      <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -8568,28 +8587,30 @@
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="50"/>
       <c r="I9" s="7"/>
@@ -8597,42 +8618,32 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="50"/>
-      <c r="S9" s="7">
-        <v>1</v>
-      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="50"/>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="7"/>
       <c r="AC9" s="67"/>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7">
-        <v>3</v>
-      </c>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
+      <c r="AI9" s="7">
+        <v>4</v>
+      </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -8655,7 +8666,7 @@
         <v>13</v>
       </c>
       <c r="BB9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="8">
         <v>1</v>
@@ -8663,53 +8674,47 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="50"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
+      <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>1</v>
       </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
+      <c r="O10" s="7"/>
       <c r="P10" s="7">
         <v>1</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
       <c r="R10" s="50"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7">
-        <v>1</v>
-      </c>
+      <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
+      <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7">
+        <v>2</v>
+      </c>
       <c r="AA10" s="50"/>
       <c r="AB10" s="7">
         <v>1</v>
@@ -8717,14 +8722,12 @@
       <c r="AC10" s="67"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF10" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -8746,6 +8749,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="BB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -8822,17 +8831,13 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="50"/>
       <c r="I12" s="7"/>
@@ -8842,41 +8847,39 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
       <c r="R12" s="50"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7">
-        <v>1</v>
-      </c>
-      <c r="X12" s="7">
-        <v>1</v>
-      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="67"/>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="7">
+        <v>1</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7">
+        <v>7</v>
+      </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7">
+        <v>2</v>
+      </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
@@ -8893,11 +8896,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="BB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>1</v>
+      </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -8906,14 +8915,14 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="50"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7">
+        <v>3</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -8921,37 +8930,37 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="50"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1</v>
-      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
+        <v>1</v>
+      </c>
       <c r="AA13" s="50"/>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
       <c r="AC13" s="67"/>
       <c r="AD13" s="7"/>
-      <c r="AE13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7">
-        <v>4</v>
-      </c>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
+      <c r="AI13" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
+      <c r="AN13" s="7">
+        <v>3</v>
+      </c>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
@@ -8966,70 +8975,68 @@
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="BB13" s="8">
+        <v>11</v>
+      </c>
+      <c r="BC13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="50"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7">
         <v>1</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="67"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="AI14" s="7">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
+      <c r="AM14" s="7">
+        <v>1</v>
+      </c>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
@@ -9045,26 +9052,23 @@
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="BC14" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>4</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
       <c r="H15" s="50"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -9077,23 +9081,31 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="50"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="7">
+        <v>1</v>
+      </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="67"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="7">
+        <v>1</v>
+      </c>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7">
-        <v>2</v>
-      </c>
+      <c r="AG15" s="7">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
@@ -9114,18 +9126,15 @@
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" s="8">
         <v>1</v>
-      </c>
-      <c r="BC15" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -9134,40 +9143,50 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>2</v>
+      </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="67"/>
-      <c r="AD16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7">
+        <v>2</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="7">
-        <v>7</v>
-      </c>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -9186,41 +9205,34 @@
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BB16" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="7">
-        <v>2</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>2</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="50"/>
@@ -9233,24 +9245,20 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="67"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
@@ -9268,58 +9276,57 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="BB17" s="8">
+        <v>1</v>
+      </c>
       <c r="BC17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <v>2</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="50"/>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>1</v>
-      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="7">
+        <v>1</v>
+      </c>
       <c r="AC18" s="67"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7">
@@ -9327,11 +9334,11 @@
       </c>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
+      <c r="AM18" s="7">
+        <v>1</v>
+      </c>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
@@ -9349,60 +9356,69 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="BC18" s="8">
+        <v>1</v>
+      </c>
       <c r="BF18" s="23"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="50"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="7">
-        <v>3</v>
-      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="50"/>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7">
+        <v>1</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7">
-        <v>1</v>
-      </c>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
+      <c r="AK19" s="7">
+        <v>1</v>
+      </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -9420,7 +9436,7 @@
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
@@ -9987,7 +10003,7 @@
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9998,26 +10014,18 @@
       <c r="H28" s="50"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
+      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="7"/>
       <c r="R28" s="50"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
+      <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -10034,8 +10042,12 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
+      <c r="AM28" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="7">
+        <v>2</v>
+      </c>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
@@ -10052,10 +10064,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="BC28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10064,13 +10079,15 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="7">
-        <v>2</v>
-      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -10081,7 +10098,9 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="V29" s="7">
+        <v>1</v>
+      </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -10114,15 +10133,12 @@
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BC29" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10131,7 +10147,9 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="50"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -10139,7 +10157,9 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>1</v>
+      </c>
       <c r="R30" s="50"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -10161,9 +10181,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="7">
-        <v>2</v>
-      </c>
+      <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
@@ -10179,7 +10197,7 @@
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC30" s="8">
         <v>1</v>
@@ -10542,10 +10560,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
-      <c r="BA36" s="23">
-        <f t="shared" ref="BA36" si="1">SUM(B36:AY36)</f>
-        <v>0</v>
-      </c>
+      <c r="BA36" s="23"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -10709,7 +10724,7 @@
       </c>
       <c r="AO38" s="8">
         <f>'League Table'!AO40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP38" s="8">
         <f>'League Table'!AP40</f>
@@ -10749,191 +10764,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10958,10 +10973,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA39" sqref="BA39"/>
+      <selection pane="bottomRight" activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11358,7 +11373,9 @@
       </c>
       <c r="AM6" s="16"/>
       <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
+      <c r="AO6" s="16">
+        <v>1</v>
+      </c>
       <c r="AP6" s="16"/>
       <c r="AQ6" s="16"/>
       <c r="AR6" s="16"/>
@@ -11371,7 +11388,7 @@
       <c r="AY6" s="16"/>
       <c r="BA6">
         <f>SUM(B6:AY6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
@@ -11530,7 +11547,9 @@
       <c r="AN8" s="18">
         <v>1</v>
       </c>
-      <c r="AO8" s="18"/>
+      <c r="AO8" s="18">
+        <v>2</v>
+      </c>
       <c r="AP8" s="18"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
@@ -11543,7 +11562,7 @@
       <c r="AY8" s="18"/>
       <c r="BA8">
         <f>SUM(B8:AY8)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
@@ -12118,7 +12137,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -12128,16 +12147,20 @@
       <c r="G17" s="7"/>
       <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -12150,24 +12173,22 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7">
+        <v>1</v>
+      </c>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -12185,20 +12206,16 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -12206,16 +12223,16 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7">
-        <v>1</v>
-      </c>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -12224,18 +12241,20 @@
       <c r="AD18" s="7">
         <v>1</v>
       </c>
-      <c r="AE18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="7">
+        <v>2</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
+      <c r="AN18" s="7">
+        <v>1</v>
+      </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
@@ -12254,29 +12273,27 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
+      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -12284,21 +12301,25 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
+      <c r="AD19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
@@ -12316,7 +12337,7 @@
       <c r="AY19" s="7"/>
       <c r="BA19">
         <f>SUM(B19:AY19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
@@ -12514,7 +12535,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -13746,7 +13767,7 @@
       </c>
       <c r="AO41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP41" s="8">
         <f t="shared" si="1"/>
@@ -13790,7 +13811,7 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -13811,8 +13832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13980,10 +14001,10 @@
         <v>3</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="N9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -14004,10 +14025,10 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>121</v>
@@ -14016,7 +14037,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="N10" s="8">
         <v>6</v>
@@ -14040,7 +14061,7 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I11" s="8">
         <v>5</v>
@@ -14422,10 +14443,10 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="N22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -14453,7 +14474,7 @@
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="N23" s="8">
         <v>2</v>
@@ -14484,7 +14505,7 @@
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="N24" s="8">
         <v>2</v>
@@ -14541,7 +14562,7 @@
         <v>183</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>178</v>
@@ -14571,10 +14592,13 @@
         <v>204</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>127</v>
+        <v>210</v>
+      </c>
+      <c r="N27" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -14591,9 +14615,11 @@
       <c r="H28" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M28" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -14612,9 +14638,12 @@
       <c r="E29" s="31" t="s">
         <v>196</v>
       </c>
+      <c r="H29" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -14628,7 +14657,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="M30" s="8" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -14648,7 +14677,7 @@
         <v>142</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -14668,7 +14697,7 @@
         <v>208</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -14688,7 +14717,7 @@
         <v>196</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -14708,7 +14737,7 @@
         <v>133</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -14767,7 +14796,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>162</v>
@@ -14784,10 +14813,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>196</v>
@@ -14818,7 +14847,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>141</v>
@@ -14834,10 +14863,18 @@
       <c r="A42" s="31">
         <v>40</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="31">

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csmith01/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C304032-0257-AC47-A971-E4B9EFFEAE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67A887-AF97-C047-A701-1AAB51F1CB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3840" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1740" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="230">
   <si>
     <t>WK 1</t>
   </si>
@@ -1610,10 +1612,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2161,9 @@
       <c r="AO5" s="18">
         <v>-4</v>
       </c>
-      <c r="AP5" s="18"/>
+      <c r="AP5" s="18">
+        <v>-1</v>
+      </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
@@ -2175,32 +2179,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>33</v>
+        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <v>34</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>17</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
         <v>7</v>
       </c>
       <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <v>10</v>
       </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
+        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
         <v>58</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
-        <v>22</v>
+        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
+        <v>21</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.58585858585858586</v>
+        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.56862745098039214</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2312,7 +2316,9 @@
       <c r="AO6" s="30">
         <v>-4</v>
       </c>
-      <c r="AP6" s="30"/>
+      <c r="AP6" s="30">
+        <v>1</v>
+      </c>
       <c r="AQ6" s="30"/>
       <c r="AR6" s="30"/>
       <c r="AS6" s="30"/>
@@ -2326,32 +2332,32 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.54166666666666663</v>
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
@@ -2459,7 +2465,9 @@
       <c r="AO7" s="7">
         <v>4</v>
       </c>
-      <c r="AP7" s="7"/>
+      <c r="AP7" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
@@ -2473,32 +2481,32 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.5444444444444444</v>
+        <f t="shared" si="6"/>
+        <v>0.55913978494623651</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
@@ -2614,7 +2622,9 @@
       <c r="AO8" s="18">
         <v>-4</v>
       </c>
-      <c r="AP8" s="18"/>
+      <c r="AP8" s="18">
+        <v>1</v>
+      </c>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
       <c r="AS8" s="18"/>
@@ -2628,32 +2638,32 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.45098039215686275</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2753,7 +2763,9 @@
       <c r="AO9" s="16">
         <v>4</v>
       </c>
-      <c r="AP9" s="16"/>
+      <c r="AP9" s="16">
+        <v>-1</v>
+      </c>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
@@ -2767,32 +2779,32 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.57692307692307687</v>
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2912,48 +2924,52 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <f t="shared" si="6"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>-1</v>
+      </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="45">
+        <v>-1</v>
+      </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
@@ -2961,79 +2977,93 @@
       <c r="I11" s="7">
         <v>7</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="45">
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="7">
+        <v>2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V11" s="7">
         <v>8</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="45">
         <v>-1</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="45">
-        <v>-2</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7">
-        <v>4</v>
-      </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="45">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="7">
-        <v>-1</v>
-      </c>
       <c r="AC11" s="65"/>
-      <c r="AD11" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="7"/>
       <c r="AE11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>-2</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="7">
         <v>-5</v>
       </c>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
+      <c r="AH11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="7">
         <v>-1</v>
       </c>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7">
-        <v>0</v>
-      </c>
+      <c r="AK11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM11" s="7"/>
       <c r="AN11" s="7">
         <v>0</v>
       </c>
       <c r="AO11" s="7">
         <v>4</v>
       </c>
-      <c r="AP11" s="7"/>
+      <c r="AP11" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="55"/>
+      <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -3045,94 +3075,92 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>-11</v>
       </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.52173913043478259</v>
+        <f t="shared" si="6"/>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B12" s="55"/>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="45">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M12" s="7">
         <v>-1</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="45">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7">
-        <v>-3</v>
-      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="7">
-        <v>2</v>
+      <c r="S12" s="45">
+        <v>-2</v>
       </c>
       <c r="T12" s="7">
         <v>1</v>
       </c>
       <c r="U12" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V12" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W12" s="45">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>-5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7">
         <v>0</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="45">
+        <v>2</v>
+      </c>
       <c r="AA12" s="50"/>
       <c r="AB12" s="7">
         <v>-1</v>
@@ -3145,32 +3173,30 @@
         <v>4</v>
       </c>
       <c r="AF12" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG12" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="45">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>-1</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
       <c r="AJ12" s="7">
         <v>-1</v>
       </c>
-      <c r="AK12" s="7">
-        <v>1</v>
-      </c>
+      <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7">
         <v>0</v>
       </c>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
+      <c r="AN12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>4</v>
+      </c>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="55"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -3182,47 +3208,51 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.48</v>
+        <f t="shared" si="6"/>
+        <v>0.52173913043478259</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="7">
+        <v>106</v>
+      </c>
+      <c r="B13" s="45">
         <v>-1</v>
       </c>
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="7">
         <v>-1</v>
       </c>
@@ -3230,47 +3260,45 @@
         <v>0</v>
       </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="7">
-        <v>7</v>
-      </c>
-      <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="45">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="45">
+        <v>1</v>
+      </c>
       <c r="P13" s="7">
         <v>-2</v>
       </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>3</v>
+      </c>
       <c r="R13" s="50"/>
       <c r="S13" s="7">
-        <v>2</v>
-      </c>
-      <c r="T13" s="45">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
       </c>
       <c r="U13" s="7">
         <v>4</v>
       </c>
       <c r="V13" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -3279,37 +3307,31 @@
       <c r="AA13" s="50"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="7">
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
         <v>4</v>
       </c>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AP13" s="7"/>
+      <c r="AP13" s="45">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
@@ -3323,69 +3345,59 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BE13" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="BF13" s="8">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>8</v>
-      </c>
-      <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>10</v>
-      </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.43209876543209874</v>
+        <f t="shared" si="6"/>
+        <v>0.48</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="45">
+      <c r="F14" s="7">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="50"/>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>2</v>
-      </c>
-      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="45">
         <v>1</v>
       </c>
       <c r="N14" s="7">
@@ -3394,9 +3406,7 @@
       <c r="O14" s="7">
         <v>1</v>
       </c>
-      <c r="P14" s="45">
-        <v>-2</v>
-      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7">
         <v>-3</v>
       </c>
@@ -3405,59 +3415,59 @@
         <v>2</v>
       </c>
       <c r="T14" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U14" s="7">
         <v>-4</v>
       </c>
       <c r="V14" s="7">
-        <v>8</v>
-      </c>
-      <c r="W14" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W14" s="45">
         <v>0</v>
       </c>
       <c r="X14" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="7">
         <v>5</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="45">
+      <c r="AH14" s="45">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="7">
         <v>-1</v>
-      </c>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>1</v>
       </c>
       <c r="AJ14" s="7">
         <v>-1</v>
       </c>
       <c r="AK14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
@@ -3472,38 +3482,38 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
-        <v>-12</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.37634408602150538</v>
+        <f t="shared" si="6"/>
+        <v>0.48</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7">
         <v>-1</v>
@@ -3512,9 +3522,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7">
         <v>-1</v>
       </c>
@@ -3523,14 +3531,16 @@
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="45">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="J15" s="7">
+        <v>8</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-2</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3538,18 +3548,20 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>-1</v>
-      </c>
+      <c r="O15" s="7"/>
       <c r="P15" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="50"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="45">
-        <v>-4</v>
+      <c r="S15" s="7">
+        <v>2</v>
+      </c>
+      <c r="T15" s="45">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>4</v>
       </c>
       <c r="V15" s="7">
         <v>-8</v>
@@ -3563,9 +3575,7 @@
       <c r="Y15" s="7">
         <v>0</v>
       </c>
-      <c r="Z15" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="65"/>
@@ -3573,13 +3583,11 @@
         <v>0</v>
       </c>
       <c r="AE15" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="45">
-        <v>-5</v>
+        <v>4</v>
+      </c>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7">
+        <v>5</v>
       </c>
       <c r="AH15" s="7">
         <v>-2</v>
@@ -3587,16 +3595,12 @@
       <c r="AI15" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ15" s="7"/>
       <c r="AK15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="45">
         <v>0</v>
       </c>
       <c r="AN15" s="7">
@@ -3605,7 +3609,9 @@
       <c r="AO15" s="7">
         <v>-4</v>
       </c>
-      <c r="AP15" s="7"/>
+      <c r="AP15" s="7">
+        <v>-1</v>
+      </c>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
@@ -3619,48 +3625,46 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="BG15" s="8">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="BH15" s="8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
-        <v>35</v>
-      </c>
-      <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
-        <v>-23</v>
-      </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.3888888888888889</v>
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="45">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7">
         <v>-1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7">
         <v>1</v>
       </c>
@@ -3671,76 +3675,92 @@
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>-7</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="45">
         <v>2</v>
       </c>
       <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
         <v>-1</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="45">
-        <v>1</v>
-      </c>
       <c r="P16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
-      <c r="S16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7">
-        <v>4</v>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="45">
+        <v>-4</v>
       </c>
       <c r="V16" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W16" s="7">
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="7">
         <v>0</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>2</v>
+      </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="65"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="45">
-        <v>1</v>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="45">
+        <v>-5</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>-1</v>
       </c>
       <c r="AL16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AP16" s="7">
         <v>-1</v>
       </c>
-      <c r="AM16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -3754,80 +3774,76 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-24</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="6"/>
+        <v>0.37634408602150538</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="7">
+        <v>108</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>-1</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="45">
-        <v>-8</v>
-      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
+      <c r="N17" s="7"/>
+      <c r="O17" s="45">
+        <v>-1</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R17" s="50"/>
       <c r="S17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="45">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>-4</v>
       </c>
       <c r="V17" s="7">
         <v>8</v>
@@ -3835,45 +3851,43 @@
       <c r="W17" s="7">
         <v>0</v>
       </c>
-      <c r="X17" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7">
-        <v>-2</v>
-      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
       <c r="AC17" s="65"/>
       <c r="AD17" s="7">
         <v>0</v>
       </c>
-      <c r="AE17" s="45">
-        <v>-4</v>
-      </c>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
+      <c r="AK17" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
       <c r="AN17" s="7">
         <v>0</v>
       </c>
-      <c r="AO17" s="7">
+      <c r="AO17" s="45">
         <v>4</v>
       </c>
-      <c r="AP17" s="7"/>
+      <c r="AP17" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7"/>
@@ -3887,76 +3901,80 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="BF17" s="8">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>9</v>
-      </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
-        <v>-6</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.46376811594202899</v>
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B18" s="7">
+        <v>-1</v>
+      </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>-1</v>
-      </c>
+      <c r="D18" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="45">
+        <v>-8</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
         <v>1</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="45">
-        <v>-1</v>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R18" s="50"/>
       <c r="S18" s="7">
-        <v>2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <v>-4</v>
+        <v>-2</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="45">
+        <v>4</v>
       </c>
       <c r="V18" s="7">
         <v>8</v>
@@ -3964,38 +3982,42 @@
       <c r="W18" s="7">
         <v>0</v>
       </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7"/>
+      <c r="X18" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="65"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="45">
+        <v>-4</v>
+      </c>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
+      <c r="AG18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="7">
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7">
         <v>-1</v>
       </c>
-      <c r="AL18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM18" s="7"/>
       <c r="AN18" s="7">
         <v>0</v>
       </c>
-      <c r="AO18" s="45">
+      <c r="AO18" s="7">
         <v>4</v>
       </c>
       <c r="AP18" s="7"/>
@@ -4012,32 +4034,32 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>-6</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.52631578947368418</v>
+        <f t="shared" si="6"/>
+        <v>0.46376811594202899</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
@@ -4141,120 +4163,120 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <f t="shared" si="6"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
         <v>-8</v>
       </c>
-      <c r="K20" s="45">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>-3</v>
+      </c>
       <c r="R20" s="50"/>
-      <c r="S20" s="7">
-        <v>2</v>
-      </c>
+      <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7">
-        <v>4</v>
-      </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="45">
-        <v>0</v>
-      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA20" s="50"/>
       <c r="AB20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="65"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
       <c r="AE20" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7">
         <v>4</v>
       </c>
-      <c r="AF20" s="45">
-        <v>-2</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AP20" s="7"/>
+      <c r="AP20" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="55"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -4262,122 +4284,127 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
+      <c r="AZ20" s="5"/>
       <c r="BA20" s="33">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-15</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.50877192982456143</v>
+        <f t="shared" si="6"/>
+        <v>0.52631578947368418</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="55">
-        <v>1</v>
-      </c>
-      <c r="C21" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7">
         <v>-8</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7">
-        <v>2</v>
-      </c>
-      <c r="M21" s="7"/>
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
+        <v>-1</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q21" s="45">
-        <v>-3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7">
+        <v>2</v>
+      </c>
       <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+      <c r="U21" s="7">
+        <v>4</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="X21" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="45">
+        <v>0</v>
+      </c>
       <c r="Z21" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="50"/>
       <c r="AB21" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21" s="65"/>
       <c r="AD21" s="7">
         <v>0</v>
       </c>
       <c r="AE21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="45">
+        <v>-2</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7">
         <v>-4</v>
       </c>
-      <c r="AF21" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="45">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP21" s="7"/>
+      <c r="AP21" s="7">
+        <v>-1</v>
+      </c>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="55"/>
+      <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -4385,37 +4412,36 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
-      <c r="AZ21" s="5"/>
       <c r="BA21" s="33">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
-        <v>-16</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.48333333333333334</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
@@ -4499,7 +4525,9 @@
       <c r="AO22" s="45">
         <v>-4</v>
       </c>
-      <c r="AP22" s="7"/>
+      <c r="AP22" s="7">
+        <v>-1</v>
+      </c>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
@@ -4513,32 +4541,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>-10</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.46296296296296297</v>
+        <f t="shared" si="6"/>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4630,7 +4658,9 @@
         <v>0</v>
       </c>
       <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
+      <c r="AP23" s="7">
+        <v>-1</v>
+      </c>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
@@ -4644,32 +4674,32 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
-        <v>-12</v>
+        <f t="shared" si="5"/>
+        <v>-13</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="6"/>
+        <v>0.34782608695652173</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4759,31 +4789,31 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="BJ24" s="10"/>
@@ -4862,38 +4892,38 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4914,48 +4944,42 @@
       <c r="R26" s="50"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7">
-        <v>4</v>
-      </c>
+      <c r="U26" s="7"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>5</v>
-      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z26" s="7"/>
       <c r="AA26" s="50"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="65"/>
-      <c r="AD26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>-4</v>
-      </c>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AK26" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="7">
         <v>-1</v>
       </c>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7">
         <v>0</v>
       </c>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
+      <c r="AN26" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP26" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
@@ -4969,38 +4993,38 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5021,10 +5045,10 @@
       <c r="R27" s="50"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="45">
-        <v>-8</v>
-      </c>
+      <c r="U27" s="7">
+        <v>4</v>
+      </c>
+      <c r="V27" s="7"/>
       <c r="W27" s="7">
         <v>0</v>
       </c>
@@ -5032,11 +5056,11 @@
         <v>5</v>
       </c>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA27" s="50"/>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="65"/>
       <c r="AD27" s="7">
         <v>0</v>
@@ -5044,21 +5068,27 @@
       <c r="AE27" s="7">
         <v>-4</v>
       </c>
-      <c r="AF27" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AK27" s="45">
+        <v>-1</v>
+      </c>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
+      <c r="AM27" s="7">
+        <v>0</v>
+      </c>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
+      <c r="AP27" s="45">
+        <v>-1</v>
+      </c>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
@@ -5072,48 +5102,44 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
-        <v>-6</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="6"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7">
-        <v>9</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="50"/>
       <c r="I28" s="7"/>
@@ -5129,24 +5155,36 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="V28" s="45">
+        <v>-8</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>5</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="50"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="7">
+        <v>1</v>
+      </c>
       <c r="AC28" s="65"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7">
         <v>2</v>
       </c>
-      <c r="AI28" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
@@ -5167,44 +5205,48 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>-6</v>
       </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.75</v>
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7">
+        <v>9</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
       <c r="I29" s="7"/>
@@ -5232,26 +5274,18 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
+      <c r="AH29" s="7">
+        <v>2</v>
+      </c>
       <c r="AI29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="7">
         <v>-1</v>
       </c>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
-      <c r="AM29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>4</v>
-      </c>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
@@ -5266,32 +5300,32 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.75</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
@@ -5377,31 +5411,31 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="BJ30" s="10"/>
@@ -5472,31 +5506,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BI31" s="10">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <f t="shared" si="6"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -5569,31 +5603,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BI32" s="10">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5656,7 +5690,9 @@
         <v>0</v>
       </c>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
+      <c r="AP33" s="7">
+        <v>0</v>
+      </c>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
@@ -5670,32 +5706,32 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BD33" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE33" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="BF33" s="8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="BG33" s="8">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
-        <v>1</v>
-      </c>
-      <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
-        <v>3</v>
-      </c>
-      <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
-        <v>3</v>
-      </c>
-      <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
-        <v>6</v>
-      </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="BI33" s="10">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="6"/>
+        <v>0.29166666666666669</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
@@ -5763,31 +5799,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI34" s="10">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5858,31 +5894,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="BI35" s="10">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -5957,31 +5993,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI36" s="10">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -6048,31 +6084,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -6137,31 +6173,31 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f>COUNT(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f>COUNTIF($B38:$AY38, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f>SUM(BD38*3)+BE38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f>SUM(B38:AY38)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
@@ -6226,31 +6262,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f>COUNT(B39:AY39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f>COUNTIF($B39:$AY39, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f>SUM(BD39*3)+BE39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f>SUM(B39:AY39)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -6260,203 +6296,203 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
         <v>18</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6584,7 +6620,9 @@
       <c r="AO41" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AP41" s="8"/>
+      <c r="AP41" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
@@ -6930,7 +6968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7001,38 +7039,38 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="1">SUM(C4*3)+D4</f>
         <v>9</v>
-      </c>
-      <c r="G4">
-        <f>SUM(C4*3)+D4</f>
-        <v>7</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
-        <v>8</v>
+        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -7047,23 +7085,23 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="62">
         <v>3</v>
@@ -7078,23 +7116,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" s="62">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -7109,23 +7147,23 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -7143,14 +7181,14 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7159,23 +7197,23 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7190,10 +7228,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
@@ -7201,7 +7239,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -7216,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L11" s="69"/>
@@ -7244,14 +7282,14 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
       <c r="L12" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7275,7 +7313,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H13" s="23"/>
@@ -7283,7 +7321,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7307,14 +7345,14 @@
         <v>-4</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K14">
         <v>19</v>
       </c>
       <c r="L14" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -7338,14 +7376,14 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7369,14 +7407,14 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K16">
         <v>23</v>
       </c>
       <c r="L16" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -7400,14 +7438,14 @@
         <v>-3</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K17" s="36">
         <v>19</v>
       </c>
       <c r="L17" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
@@ -7431,14 +7469,14 @@
         <v>-3</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K18" s="36">
         <v>15</v>
       </c>
       <c r="L18" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7462,14 +7500,14 @@
         <v>-7</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K19" s="36">
         <v>22</v>
       </c>
       <c r="L19" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -7493,14 +7531,14 @@
         <v>-8</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K20" s="68">
         <v>14</v>
       </c>
       <c r="L20" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -7524,14 +7562,14 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K21" s="36">
         <v>25</v>
       </c>
       <c r="L21" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7555,14 +7593,14 @@
         <v>-2</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K22" s="36">
         <v>5</v>
       </c>
       <c r="L22" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7586,14 +7624,14 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K23" s="36">
         <v>12</v>
       </c>
       <c r="L23" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7617,14 +7655,14 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K24" s="36">
         <v>15</v>
       </c>
       <c r="L24" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7648,20 +7686,20 @@
         <v>-4</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K25" s="36">
         <v>25</v>
       </c>
       <c r="L25" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7679,23 +7717,23 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="36">
         <v>8</v>
       </c>
       <c r="L26" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7704,21 +7742,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -7741,7 +7779,7 @@
         <v>-2</v>
       </c>
       <c r="G28">
-        <f>SUM(C28*3)+D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="36">
@@ -7768,7 +7806,7 @@
         <v>-3</v>
       </c>
       <c r="G29">
-        <f>SUM(C29*3)+D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="36">
@@ -7795,7 +7833,7 @@
         <v>-4</v>
       </c>
       <c r="G30">
-        <f>SUM(C30*3)+D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="36">
@@ -7822,7 +7860,7 @@
         <v>-8</v>
       </c>
       <c r="G31">
-        <f>SUM(C31*3)+D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -7849,7 +7887,7 @@
         <v>-9</v>
       </c>
       <c r="G32">
-        <f>SUM(C32*3)+D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -7861,7 +7899,7 @@
         <v>19</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G34" si="2">SUM(C33*3)+D33</f>
+        <f t="shared" ref="G33:G34" si="3">SUM(C33*3)+D33</f>
         <v>0</v>
       </c>
       <c r="K33">
@@ -7873,7 +7911,7 @@
         <v>84</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -7885,7 +7923,7 @@
         <v>20</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35" si="3">SUM(C35*3)+D35</f>
+        <f t="shared" ref="G35" si="4">SUM(C35*3)+D35</f>
         <v>0</v>
       </c>
       <c r="K35">
@@ -7912,10 +7950,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA39" sqref="BA39"/>
+      <selection pane="bottomRight" activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8097,69 +8135,69 @@
     </row>
     <row r="3" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>6</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="50"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="50"/>
       <c r="S3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7">
-        <v>2</v>
-      </c>
-      <c r="U3" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="7">
         <v>3</v>
       </c>
-      <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7">
-        <v>3</v>
-      </c>
+      <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="50"/>
-      <c r="AB3" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="7"/>
       <c r="AC3" s="67"/>
-      <c r="AD3" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
+      <c r="AI3" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
@@ -8171,88 +8209,79 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
-        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
-        <v>20</v>
+        <f>SUM(B3:AY3)</f>
+        <v>22</v>
       </c>
       <c r="BB3" s="8">
-        <v>3</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="50"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7">
         <v>1</v>
       </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="50"/>
-      <c r="S4" s="7"/>
+      <c r="S4" s="7">
+        <v>1</v>
+      </c>
       <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
       <c r="V4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7">
+        <v>3</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="50"/>
       <c r="AB4" s="7">
         <v>1</v>
       </c>
       <c r="AC4" s="67"/>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7">
+        <v>1</v>
+      </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>1</v>
+      </c>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
@@ -8265,8 +8294,11 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(B4:AY4)</f>
+        <v>21</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>3</v>
       </c>
       <c r="BC4" s="8">
         <v>1</v>
@@ -8327,7 +8359,9 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
+      <c r="AO5" s="7">
+        <v>1</v>
+      </c>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
@@ -8340,8 +8374,8 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(B5:AY5)</f>
+        <v>16</v>
       </c>
       <c r="BB5" s="8">
         <v>4</v>
@@ -8349,65 +8383,75 @@
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="50"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
       <c r="K6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
-        <v>4</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="50"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7">
         <v>1</v>
       </c>
       <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="50"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
       <c r="AC6" s="67"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7">
+        <v>1</v>
+      </c>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="AI6" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
-      <c r="AM6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7">
+        <v>3</v>
+      </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
@@ -8421,11 +8465,8 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>2</v>
+        <f>SUM(B6:AY6)</f>
+        <v>16</v>
       </c>
       <c r="BC6" s="8">
         <v>1</v>
@@ -8433,44 +8474,44 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="50"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
       <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
       <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="50"/>
-      <c r="S7" s="7">
-        <v>3</v>
-      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7">
         <v>1</v>
       </c>
-      <c r="W7" s="7">
-        <v>3</v>
-      </c>
+      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -8479,16 +8520,18 @@
       <c r="AC7" s="67"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
+      <c r="AM7" s="7">
+        <v>1</v>
+      </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
@@ -8503,77 +8546,72 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="23">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B7:AY7)</f>
+        <v>15</v>
       </c>
       <c r="BB7" s="8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="50"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="50"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7">
-        <v>2</v>
-      </c>
+      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7">
-        <v>1</v>
-      </c>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>1</v>
-      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="50"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="67"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7">
-        <v>2</v>
-      </c>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+      <c r="AI8" s="7">
+        <v>4</v>
+      </c>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7">
+        <v>1</v>
+      </c>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
@@ -8586,64 +8624,74 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>14</v>
       </c>
       <c r="BB8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="50"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="50"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="7">
+        <v>2</v>
+      </c>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="50"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="67"/>
-      <c r="AD9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7">
+        <v>2</v>
+      </c>
       <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
+      <c r="AG9" s="7">
+        <v>1</v>
+      </c>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7">
-        <v>4</v>
-      </c>
+      <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -8662,50 +8710,42 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUM(B9:AY9)</f>
+        <v>14</v>
       </c>
       <c r="BB9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="50"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="50"/>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -8713,7 +8753,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="50"/>
       <c r="AB10" s="7">
@@ -8723,18 +8763,26 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AI10" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
+      <c r="AN10" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
@@ -8746,11 +8794,8 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>1</v>
+        <f>SUM(B10:AY10)</f>
+        <v>14</v>
       </c>
       <c r="BC10" s="8">
         <v>1</v>
@@ -8758,13 +8803,17 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="50"/>
       <c r="I11" s="7"/>
@@ -8772,40 +8821,44 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="50"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="7">
-        <v>2</v>
-      </c>
-      <c r="X11" s="7">
-        <v>3</v>
-      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="7">
+        <v>2</v>
+      </c>
       <c r="AA11" s="50"/>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
       <c r="AC11" s="67"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7">
+        <v>3</v>
+      </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="7">
-        <v>3</v>
-      </c>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -8822,66 +8875,81 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B11:AY11)</f>
+        <v>13</v>
       </c>
       <c r="BB11" s="8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="50"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="67"/>
-      <c r="AD12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7">
+        <v>1</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
+      <c r="AH12" s="7">
+        <v>1</v>
+      </c>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="7">
-        <v>7</v>
-      </c>
-      <c r="AK12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7">
+        <v>1</v>
+      </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="7">
-        <v>2</v>
-      </c>
+      <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
+      <c r="AP12" s="7">
+        <v>4</v>
+      </c>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
@@ -8893,24 +8961,19 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B12:AY12)</f>
+        <v>13</v>
       </c>
       <c r="BB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="8">
         <v>1</v>
       </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8920,14 +8983,14 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7">
-        <v>3</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
       <c r="R13" s="50"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -8936,33 +8999,31 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="50"/>
-      <c r="AB13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="7"/>
       <c r="AC13" s="67"/>
-      <c r="AD13" s="7"/>
+      <c r="AD13" s="7">
+        <v>1</v>
+      </c>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7">
+        <v>7</v>
+      </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
+      <c r="AP13" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
@@ -8974,8 +9035,11 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B13:AY13)</f>
+        <v>12</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>1</v>
       </c>
       <c r="BC13" s="8">
         <v>1</v>
@@ -8983,17 +9047,13 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="50"/>
       <c r="I14" s="7"/>
@@ -9004,7 +9064,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="50"/>
@@ -9013,10 +9073,10 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -9024,19 +9084,19 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="67"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7">
+        <v>1</v>
+      </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7">
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
-      <c r="AM14" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
@@ -9051,24 +9111,27 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>11</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="50"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -9077,40 +9140,40 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="50"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7">
-        <v>1</v>
-      </c>
+      <c r="W15" s="7">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="67"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="7">
-        <v>4</v>
-      </c>
+      <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
+      <c r="AI15" s="7">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
+      <c r="AM15" s="7">
+        <v>1</v>
+      </c>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
@@ -9125,65 +9188,60 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="BB15" s="8">
-        <v>1</v>
+        <f>SUM(B15:AY15)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
       <c r="U16" s="7">
         <v>1</v>
       </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="7">
-        <v>1</v>
-      </c>
+      <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="67"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
+      <c r="AG16" s="7">
+        <v>4</v>
+      </c>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
@@ -9204,33 +9262,37 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>10</v>
       </c>
-      <c r="BC16" s="8">
-        <v>2</v>
+      <c r="BB16" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>4</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -9238,22 +9300,28 @@
       <c r="R17" s="50"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="Z17" s="7">
+        <v>2</v>
+      </c>
       <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="67"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="7">
+        <v>2</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="7">
-        <v>2</v>
-      </c>
+      <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -9273,11 +9341,8 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BB17" s="8">
-        <v>1</v>
+        <f>SUM(B17:AY17)</f>
+        <v>10</v>
       </c>
       <c r="BC17" s="8">
         <v>2</v>
@@ -9340,7 +9405,9 @@
         <v>1</v>
       </c>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
+      <c r="AO18" s="7">
+        <v>1</v>
+      </c>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -9353,8 +9420,8 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(B18:AY18)</f>
+        <v>10</v>
       </c>
       <c r="BC18" s="8">
         <v>1</v>
@@ -9363,62 +9430,50 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="50"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="50"/>
-      <c r="S19" s="7">
-        <v>1</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>1</v>
-      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
-      <c r="AK19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -9435,8 +9490,14 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>9</v>
+      </c>
+      <c r="BB19" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
@@ -9507,7 +9568,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>7</v>
       </c>
       <c r="BC20" s="8">
@@ -9580,7 +9641,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>7</v>
       </c>
       <c r="BC21" s="8">
@@ -9589,7 +9650,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -9602,19 +9663,13 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="7">
-        <v>1</v>
-      </c>
+      <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -9626,9 +9681,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="67"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
@@ -9636,10 +9689,18 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
+      <c r="AM22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
@@ -9651,43 +9712,43 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BB22" s="8">
+        <f>SUM(B22:AY22)</f>
+        <v>7</v>
+      </c>
+      <c r="BC22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="50"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
       <c r="T23" s="7"/>
-      <c r="U23" s="32"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -9697,7 +9758,9 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="67"/>
       <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7">
+        <v>1</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
@@ -9720,23 +9783,29 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BC23" s="8">
+        <f>SUM(B23:AY23)</f>
+        <v>6</v>
+      </c>
+      <c r="BB23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="50"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -9748,16 +9817,10 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="7">
-        <v>2</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1</v>
-      </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7">
-        <v>2</v>
-      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -9789,49 +9852,48 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>5</v>
+      </c>
+      <c r="BC24" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="50"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
+      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="50"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="S25" s="7">
+        <v>2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="67"/>
@@ -9859,44 +9921,44 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="50"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="50"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7">
-        <v>1</v>
-      </c>
+      <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7">
         <v>1</v>
       </c>
-      <c r="W26" s="7">
-        <v>1</v>
-      </c>
+      <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7">
@@ -9929,15 +9991,17 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -9955,29 +10019,29 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="50"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="V27" s="7">
+        <v>1</v>
+      </c>
       <c r="W27" s="7">
         <v>1</v>
       </c>
-      <c r="X27" s="7">
-        <v>2</v>
-      </c>
+      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="7">
+        <v>1</v>
+      </c>
       <c r="AA27" s="50"/>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="67"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
@@ -9997,13 +10061,13 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -10026,28 +10090,32 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="W28" s="7">
+        <v>1</v>
+      </c>
+      <c r="X28" s="7">
+        <v>2</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="50"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="7">
+        <v>1</v>
+      </c>
       <c r="AC28" s="67"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
+      <c r="AH28" s="7">
+        <v>1</v>
+      </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>2</v>
-      </c>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
@@ -10061,11 +10129,8 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BC28" s="8">
-        <v>1</v>
+        <f>SUM(B28:AY28)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
@@ -10132,7 +10197,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>4</v>
       </c>
     </row>
@@ -10196,7 +10261,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>3</v>
       </c>
       <c r="BC30" s="8">
@@ -10261,7 +10326,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>2</v>
       </c>
     </row>
@@ -10323,7 +10388,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>1</v>
       </c>
     </row>
@@ -10383,7 +10448,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -10443,7 +10508,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -10503,7 +10568,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -10728,7 +10793,7 @@
       </c>
       <c r="AP38" s="8">
         <f>'League Table'!AP40</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ38" s="8">
         <f>'League Table'!AQ40</f>
@@ -10764,191 +10829,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10976,7 +11041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV17" sqref="AV17"/>
+      <selection pane="bottomRight" activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11298,7 +11363,7 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
         <v>26</v>
       </c>
     </row>
@@ -11387,7 +11452,7 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -11478,7 +11543,7 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -11561,7 +11626,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -11638,7 +11703,7 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -11713,7 +11778,7 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -11786,7 +11851,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -11857,7 +11922,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -11924,7 +11989,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -11989,7 +12054,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -12060,7 +12125,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12131,7 +12196,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12200,7 +12265,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -12256,7 +12321,9 @@
         <v>1</v>
       </c>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
+      <c r="AP18" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
@@ -12267,8 +12334,8 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
@@ -12336,7 +12403,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -12401,7 +12468,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12464,7 +12531,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12529,7 +12596,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12594,7 +12661,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12657,7 +12724,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -12720,7 +12787,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -12781,7 +12848,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12842,7 +12909,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12903,7 +12970,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12964,7 +13031,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13025,7 +13092,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13086,7 +13153,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13147,7 +13214,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13206,7 +13273,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13265,7 +13332,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13324,7 +13391,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13383,7 +13450,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13442,7 +13509,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13610,208 +13677,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AK41" s="8">
+      <c r="D41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="P41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AK41" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AL41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -13832,11 +13899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="8" max="9" width="10.83203125" style="8"/>
@@ -14100,7 +14167,7 @@
         <v>196</v>
       </c>
       <c r="I12" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>123</v>
@@ -14182,10 +14249,10 @@
         <v>2</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="N14" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -14212,11 +14279,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
       <c r="M15" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N15" s="8">
         <v>4</v>
@@ -14246,11 +14315,11 @@
         <v>3</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="N16" s="8">
         <v>4</v>
@@ -14280,11 +14349,11 @@
         <v>3</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="N17" s="8">
         <v>4</v>
@@ -14314,7 +14383,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
@@ -14342,7 +14411,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
@@ -14376,7 +14445,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
@@ -14410,7 +14479,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
@@ -14439,7 +14508,7 @@
         <v>122</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
@@ -14470,7 +14539,7 @@
         <v>163</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
@@ -14501,7 +14570,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
@@ -14532,8 +14601,9 @@
         <v>182</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="L25" s="8"/>
       <c r="M25" s="8" t="s">
         <v>122</v>
       </c>
@@ -14562,7 +14632,7 @@
         <v>183</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>178</v>
@@ -14619,7 +14689,10 @@
         <v>208</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>127</v>
+        <v>219</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -14643,7 +14716,10 @@
       </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>138</v>
+        <v>223</v>
+      </c>
+      <c r="N29" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -14656,8 +14732,11 @@
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
+      <c r="H30" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="M30" s="8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -14677,7 +14756,7 @@
         <v>142</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -14697,7 +14776,7 @@
         <v>208</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -14717,7 +14796,7 @@
         <v>196</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -14737,7 +14816,7 @@
         <v>133</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -14880,10 +14959,18 @@
       <c r="A43" s="31">
         <v>41</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="B43" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="31">
@@ -14959,8 +15046,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H9:I21">
-    <sortCondition descending="1" ref="I9:I21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N34">
+    <sortCondition descending="1" ref="N9:N34"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -14972,9 +15059,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00EC563D-906A-4189-83A3-CE33E4961DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csmith01/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67A887-AF97-C047-A701-1AAB51F1CB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7FD98-43E9-8E44-925D-F67CDB6DD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1740" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="2280" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Board Room'!$A$1:$F$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$40</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="230">
   <si>
     <t>WK 1</t>
   </si>
@@ -296,9 +296,6 @@
     <t>FLO</t>
   </si>
   <si>
-    <t>KHEN</t>
-  </si>
-  <si>
     <t>CAPTAIN KIRK</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>Lost 0-4</t>
+  </si>
+  <si>
+    <t>Bruce - Preston</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1656,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5"/>
       <c r="D1" s="1"/>
@@ -1961,13 +1961,13 @@
         <v>81</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>30</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="5" spans="1:62" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -2164,7 +2164,9 @@
       <c r="AP5" s="18">
         <v>-1</v>
       </c>
-      <c r="AQ5" s="18"/>
+      <c r="AQ5" s="18">
+        <v>4</v>
+      </c>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
@@ -2179,95 +2181,97 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
-        <v>34</v>
+        <f>COUNT(B5:AY5)</f>
+        <v>35</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>17</v>
+        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <v>18</v>
       </c>
       <c r="BE5" s="8">
-        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <f>COUNTIF($B5:$AY5, "0")</f>
         <v>7</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>10</v>
       </c>
       <c r="BG5" s="8">
-        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
-        <v>58</v>
+        <f>SUM(BD5*3)+BE5</f>
+        <v>61</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
-        <v>21</v>
+        <f>SUM(B5:AY5)</f>
+        <v>25</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.56862745098039214</v>
+        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.580952380952381</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B6" s="30">
         <v>-1</v>
       </c>
       <c r="C6" s="30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="30">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="54">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="30">
+        <v>7</v>
+      </c>
+      <c r="J6" s="30">
+        <v>8</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2</v>
+      </c>
+      <c r="M6" s="30">
         <v>-1</v>
       </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="54">
-        <v>-7</v>
-      </c>
-      <c r="J6" s="30">
-        <v>-8</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30">
+        <v>1</v>
+      </c>
+      <c r="P6" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>3</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="30">
         <v>-2</v>
       </c>
-      <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
+      <c r="T6" s="30">
         <v>-1</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30">
-        <v>1</v>
-      </c>
       <c r="U6" s="30">
-        <v>4</v>
-      </c>
-      <c r="V6" s="30">
-        <v>8</v>
-      </c>
-      <c r="W6" s="54">
-        <v>0</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
       <c r="X6" s="30">
         <v>-5</v>
       </c>
@@ -2282,44 +2286,40 @@
         <v>1</v>
       </c>
       <c r="AC6" s="64"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="54">
+      <c r="AD6" s="54">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30">
+        <v>-5</v>
+      </c>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="30">
         <v>4</v>
       </c>
-      <c r="AF6" s="30">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="30">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="30">
-        <v>-2</v>
-      </c>
-      <c r="AI6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="30">
-        <v>-4</v>
-      </c>
       <c r="AP6" s="30">
         <v>1</v>
       </c>
-      <c r="AQ6" s="30"/>
+      <c r="AQ6" s="30">
+        <v>4</v>
+      </c>
       <c r="AR6" s="30"/>
       <c r="AS6" s="30"/>
       <c r="AT6" s="30"/>
@@ -2332,97 +2332,95 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>COUNT(B6:AY6)</f>
+        <v>32</v>
       </c>
       <c r="BD6" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
         <v>16</v>
       </c>
       <c r="BE6" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B6:$AY6, "0")</f>
         <v>7</v>
       </c>
       <c r="BF6" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG6" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD6*3)+BE6</f>
         <v>55</v>
       </c>
       <c r="BH6" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B6:AY6)</f>
         <v>11</v>
       </c>
       <c r="BI6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
+        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
+        <v>0.57291666666666663</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7">
         <v>-1</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7">
         <v>-1</v>
       </c>
-      <c r="D7" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="7">
-        <v>7</v>
+      <c r="I7" s="45">
+        <v>-7</v>
       </c>
       <c r="J7" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>4</v>
+      </c>
+      <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="45">
-        <v>3</v>
-      </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="45">
+        <v>0</v>
+      </c>
       <c r="X7" s="7">
         <v>-5</v>
       </c>
@@ -2437,15 +2435,19 @@
         <v>1</v>
       </c>
       <c r="AC7" s="65"/>
-      <c r="AD7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="45">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>2</v>
+      </c>
       <c r="AG7" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH7" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>-2</v>
+      </c>
       <c r="AI7" s="7">
         <v>1</v>
       </c>
@@ -2453,9 +2455,11 @@
         <v>1</v>
       </c>
       <c r="AK7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1</v>
+      </c>
       <c r="AM7" s="7">
         <v>0</v>
       </c>
@@ -2463,12 +2467,14 @@
         <v>0</v>
       </c>
       <c r="AO7" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AP7" s="7">
         <v>1</v>
       </c>
-      <c r="AQ7" s="7"/>
+      <c r="AQ7" s="45">
+        <v>-4</v>
+      </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
@@ -2481,38 +2487,38 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>COUNT(B7:AY7)</f>
+        <v>34</v>
       </c>
       <c r="BD7" s="8">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <v>16</v>
       </c>
       <c r="BE7" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B7:$AY7, "0")</f>
         <v>7</v>
       </c>
       <c r="BF7" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG7" s="8">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f>SUM(BD7*3)+BE7</f>
+        <v>55</v>
       </c>
       <c r="BH7" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B7:AY7)</f>
         <v>7</v>
       </c>
       <c r="BI7" s="10">
-        <f t="shared" si="6"/>
-        <v>0.55913978494623651</v>
+        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
+        <v>0.53921568627450978</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
@@ -2625,7 +2631,9 @@
       <c r="AP8" s="18">
         <v>1</v>
       </c>
-      <c r="AQ8" s="18"/>
+      <c r="AQ8" s="18">
+        <v>-4</v>
+      </c>
       <c r="AR8" s="18"/>
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
@@ -2638,38 +2646,38 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>COUNT(B8:AY8)</f>
+        <v>36</v>
       </c>
       <c r="BD8" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
         <v>14</v>
       </c>
       <c r="BE8" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B8:$AY8, "0")</f>
         <v>7</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <v>15</v>
       </c>
       <c r="BG8" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD8*3)+BE8</f>
         <v>49</v>
       </c>
       <c r="BH8" s="8">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>SUM(B8:AY8)</f>
+        <v>7</v>
       </c>
       <c r="BI8" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
+        <v>0.45370370370370372</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
@@ -2766,7 +2774,9 @@
       <c r="AP9" s="16">
         <v>-1</v>
       </c>
-      <c r="AQ9" s="16"/>
+      <c r="AQ9" s="16">
+        <v>-4</v>
+      </c>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
@@ -2779,32 +2789,32 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>COUNT(B9:AY9)</f>
+        <v>28</v>
       </c>
       <c r="BD9" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
         <v>13</v>
       </c>
       <c r="BE9" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B9:$AY9, "0")</f>
         <v>6</v>
       </c>
       <c r="BF9" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG9" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD9*3)+BE9</f>
         <v>45</v>
       </c>
       <c r="BH9" s="8">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>SUM(B9:AY9)</f>
+        <v>16</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
+        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <v>0.5357142857142857</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2911,7 +2921,9 @@
       </c>
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AQ10" s="16">
+        <v>-4</v>
+      </c>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
@@ -2924,32 +2936,32 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>COUNT(B10:AY10)</f>
+        <v>30</v>
       </c>
       <c r="BD10" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
         <v>12</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B10:$AY10, "0")</f>
         <v>6</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <v>12</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD10*3)+BE10</f>
         <v>42</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>SUM(B10:AY10)</f>
+        <v>8</v>
       </c>
       <c r="BI10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.48275862068965519</v>
+        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -3062,7 +3074,9 @@
       <c r="AP11" s="7">
         <v>1</v>
       </c>
-      <c r="AQ11" s="7"/>
+      <c r="AQ11" s="45">
+        <v>4</v>
+      </c>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
@@ -3075,48 +3089,50 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>COUNT(B11:AY11)</f>
+        <v>33</v>
       </c>
       <c r="BD11" s="8">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
+        <v>12</v>
       </c>
       <c r="BE11" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B11:$AY11, "0")</f>
         <v>5</v>
       </c>
       <c r="BF11" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
         <v>16</v>
       </c>
       <c r="BG11" s="8">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f>SUM(BD11*3)+BE11</f>
+        <v>41</v>
       </c>
       <c r="BH11" s="8">
-        <f t="shared" si="5"/>
-        <v>-11</v>
+        <f>SUM(B11:AY11)</f>
+        <v>-7</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.39583333333333331</v>
+        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
+        <v>0.41414141414141414</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>106</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-1</v>
+      </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>-1</v>
+      </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
@@ -3124,47 +3140,51 @@
       <c r="I12" s="7">
         <v>7</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
       <c r="L12" s="7">
         <v>-2</v>
       </c>
       <c r="M12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="45">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1</v>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="45">
+        <v>-1</v>
       </c>
       <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7">
+        <v>-8</v>
+      </c>
       <c r="W12" s="7">
         <v>0</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7">
         <v>0</v>
       </c>
-      <c r="Z12" s="45">
-        <v>2</v>
-      </c>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
-      <c r="AB12" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="7"/>
       <c r="AC12" s="65"/>
       <c r="AD12" s="7">
         <v>0</v>
@@ -3172,31 +3192,37 @@
       <c r="AE12" s="7">
         <v>4</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="7">
         <v>-2</v>
       </c>
-      <c r="AG12" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7">
+      <c r="AI12" s="7">
         <v>-1</v>
       </c>
-      <c r="AK12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7">
+        <v>1</v>
+      </c>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="7">
+      <c r="AM12" s="45">
         <v>0</v>
       </c>
       <c r="AN12" s="7">
         <v>0</v>
       </c>
       <c r="AO12" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ12" s="7">
         <v>4</v>
       </c>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="55"/>
+      <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -3208,81 +3234,73 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>COUNT(B12:AY12)</f>
+        <v>29</v>
       </c>
       <c r="BD12" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
         <v>10</v>
       </c>
       <c r="BE12" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B12:$AY12, "0")</f>
+        <v>8</v>
       </c>
       <c r="BF12" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG12" s="8">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f>SUM(BD12*3)+BE12</f>
+        <v>38</v>
       </c>
       <c r="BH12" s="8">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f>SUM(B12:AY12)</f>
+        <v>17</v>
       </c>
       <c r="BI12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.52173913043478259</v>
+        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
+        <v>0.43678160919540232</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="45">
-        <v>-1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B13" s="55"/>
       <c r="C13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>-1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7">
+        <v>7</v>
+      </c>
+      <c r="J13" s="45">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="7">
         <v>-1</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="45">
-        <v>1</v>
-      </c>
+      <c r="O13" s="7"/>
       <c r="P13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="7">
+      <c r="S13" s="45">
         <v>-2</v>
       </c>
       <c r="T13" s="7">
@@ -3291,35 +3309,41 @@
       <c r="U13" s="7">
         <v>4</v>
       </c>
-      <c r="V13" s="7">
-        <v>8</v>
-      </c>
+      <c r="V13" s="7"/>
       <c r="W13" s="7">
         <v>0</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AG13" s="7">
         <v>-5</v>
       </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="7">
+      <c r="AJ13" s="7">
         <v>-1</v>
       </c>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
       <c r="AM13" s="7">
         <v>0</v>
       </c>
@@ -3329,11 +3353,11 @@
       <c r="AO13" s="7">
         <v>4</v>
       </c>
-      <c r="AP13" s="45">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AR13" s="55"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -3345,66 +3369,62 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>COUNT(B13:AY13)</f>
+        <v>24</v>
       </c>
       <c r="BD13" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
         <v>10</v>
       </c>
       <c r="BE13" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B13:$AY13, "0")</f>
         <v>6</v>
       </c>
       <c r="BF13" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG13" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD13*3)+BE13</f>
         <v>36</v>
       </c>
       <c r="BH13" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>SUM(B13:AY13)</f>
+        <v>24</v>
       </c>
       <c r="BI13" s="10">
-        <f t="shared" si="6"/>
-        <v>0.48</v>
+        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7">
-        <v>8</v>
-      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="45">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="45">
+        <v>-1</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7">
@@ -3421,55 +3441,51 @@
         <v>-4</v>
       </c>
       <c r="V14" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W14" s="45">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y14" s="7">
+        <v>8</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="45">
         <v>0</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="65"/>
       <c r="AD14" s="7">
         <v>0</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="45">
         <v>4</v>
       </c>
-      <c r="AF14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="45">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
+      <c r="AP14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>4</v>
+      </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
@@ -3482,42 +3498,40 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>COUNT(B14:AY14)</f>
+        <v>21</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
         <v>10</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B14:$AY14, "0")</f>
         <v>6</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD14*3)+BE14</f>
         <v>36</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>SUM(B14:AY14)</f>
+        <v>14</v>
       </c>
       <c r="BI14" s="10">
-        <f t="shared" si="6"/>
-        <v>0.48</v>
+        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7">
         <v>-1</v>
       </c>
@@ -3530,54 +3544,52 @@
         <v>0</v>
       </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="7">
-        <v>7</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7">
         <v>8</v>
       </c>
-      <c r="K15" s="45">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="45">
         <v>1</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q15" s="7"/>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>-3</v>
+      </c>
       <c r="R15" s="50"/>
       <c r="S15" s="7">
         <v>2</v>
       </c>
-      <c r="T15" s="45">
-        <v>-1</v>
+      <c r="T15" s="7">
+        <v>1</v>
       </c>
       <c r="U15" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V15" s="7">
         <v>-8</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y15" s="7">
         <v>0</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>-1</v>
+      </c>
       <c r="AC15" s="65"/>
       <c r="AD15" s="7">
         <v>0</v>
@@ -3585,33 +3597,31 @@
       <c r="AE15" s="7">
         <v>4</v>
       </c>
-      <c r="AF15" s="7"/>
+      <c r="AF15" s="7">
+        <v>2</v>
+      </c>
       <c r="AG15" s="7">
         <v>5</v>
       </c>
-      <c r="AH15" s="7">
-        <v>-2</v>
+      <c r="AH15" s="45">
+        <v>2</v>
       </c>
       <c r="AI15" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ15" s="7"/>
+      <c r="AJ15" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK15" s="7">
         <v>1</v>
       </c>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
@@ -3625,46 +3635,48 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>COUNT(B15:AY15)</f>
+        <v>25</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <v>10</v>
+      </c>
+      <c r="BE15" s="8">
+        <f>COUNTIF($B15:$AY15, "0")</f>
+        <v>6</v>
+      </c>
+      <c r="BF15" s="8">
+        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
         <v>9</v>
       </c>
-      <c r="BE15" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="BF15" s="8">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
       <c r="BG15" s="8">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>SUM(BD15*3)+BE15</f>
+        <v>36</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>SUM(B15:AY15)</f>
+        <v>2</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <v>0.48</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="7">
+        <v>105</v>
+      </c>
+      <c r="B16" s="45">
         <v>-1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>-9</v>
+      </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
@@ -3675,93 +3687,81 @@
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="7">
         <v>2</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
         <v>-1</v>
       </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
       <c r="P16" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>3</v>
+      </c>
       <c r="R16" s="50"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="45">
-        <v>-4</v>
+      <c r="S16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>4</v>
       </c>
       <c r="V16" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W16" s="7">
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y16" s="7">
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="65"/>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="45">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="7">
         <v>-4</v>
       </c>
-      <c r="AF16" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="45">
-        <v>-5</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
@@ -3774,102 +3774,124 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>COUNT(B16:AY16)</f>
+        <v>26</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <v>10</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>COUNTIF($B16:$AY16, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
+        <v>10</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>SUM(BD16*3)+BE16</f>
+        <v>36</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="5"/>
-        <v>-24</v>
+        <f>SUM(B16:AY16)</f>
+        <v>-1</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="6"/>
-        <v>0.37634408602150538</v>
+        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-1</v>
+      </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
         <v>-1</v>
       </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>-7</v>
+      </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>2</v>
+      </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="45">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
         <v>-1</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>-3</v>
-      </c>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="7">
-        <v>2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="45">
         <v>-4</v>
       </c>
       <c r="V17" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W17" s="7">
         <v>0</v>
       </c>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7"/>
+      <c r="X17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>2</v>
+      </c>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="65"/>
       <c r="AD17" s="7">
         <v>0</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
+      <c r="AE17" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="45">
+        <v>-5</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>1</v>
+      </c>
       <c r="AK17" s="7">
         <v>-1</v>
       </c>
@@ -3882,11 +3904,11 @@
       <c r="AN17" s="7">
         <v>0</v>
       </c>
-      <c r="AO17" s="45">
-        <v>4</v>
+      <c r="AO17" s="7">
+        <v>-4</v>
       </c>
       <c r="AP17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -3901,63 +3923,69 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>COUNT(B17:AY17)</f>
+        <v>31</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B17:$AY17, "0")</f>
+        <v>8</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
+        <v>14</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>SUM(BD17*3)+BE17</f>
+        <v>35</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>SUM(B17:AY17)</f>
+        <v>-24</v>
       </c>
       <c r="BI17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.55000000000000004</v>
+        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
+        <v>0.37634408602150538</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
         <v>-1</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
       <c r="D18" s="7">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="45">
+      <c r="I18" s="45">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
         <v>-8</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7">
         <v>0</v>
       </c>
@@ -3969,59 +3997,51 @@
         <v>3</v>
       </c>
       <c r="R18" s="50"/>
-      <c r="S18" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="45">
-        <v>4</v>
-      </c>
-      <c r="V18" s="7">
-        <v>8</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>-5</v>
-      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="45">
+        <v>1</v>
+      </c>
       <c r="AC18" s="65"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="45">
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="45">
+        <v>-1</v>
+      </c>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="7">
         <v>-4</v>
       </c>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="7">
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7">
         <v>4</v>
       </c>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
@@ -4034,69 +4054,63 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>COUNT(B18:AY18)</f>
+        <v>22</v>
       </c>
       <c r="BD18" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE18" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>COUNTIF($B18:$AY18, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF18" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG18" s="8">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f>SUM(BD18*3)+BE18</f>
+        <v>33</v>
       </c>
       <c r="BH18" s="8">
-        <f t="shared" si="5"/>
-        <v>-6</v>
+        <f>SUM(B18:AY18)</f>
+        <v>10</v>
       </c>
       <c r="BI18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46376811594202899</v>
+        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B19" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="45">
-        <v>7</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="7"/>
+      <c r="J19" s="45">
         <v>-8</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
       <c r="N19" s="7">
         <v>0</v>
       </c>
@@ -4108,49 +4122,61 @@
         <v>3</v>
       </c>
       <c r="R19" s="50"/>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7">
+        <v>-2</v>
+      </c>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="U19" s="45">
+        <v>4</v>
+      </c>
+      <c r="V19" s="7">
+        <v>8</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
+      <c r="Z19" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="65"/>
       <c r="AD19" s="7">
         <v>0</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7">
+      <c r="AE19" s="45">
+        <v>-4</v>
+      </c>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="7">
         <v>-2</v>
       </c>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="45">
+      <c r="AI19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7">
         <v>-1</v>
       </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="45">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM19" s="7"/>
       <c r="AN19" s="7">
         <v>0</v>
       </c>
       <c r="AO19" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7">
         <v>-4</v>
       </c>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
@@ -4163,32 +4189,32 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>COUNT(B19:AY19)</f>
+        <v>24</v>
       </c>
       <c r="BD19" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <v>9</v>
       </c>
       <c r="BE19" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B19:$AY19, "0")</f>
+        <v>5</v>
       </c>
       <c r="BF19" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <v>10</v>
       </c>
       <c r="BG19" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>SUM(BD19*3)+BE19</f>
+        <v>32</v>
       </c>
       <c r="BH19" s="8">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>SUM(B19:AY19)</f>
+        <v>-10</v>
       </c>
       <c r="BI19" s="10">
-        <f t="shared" si="6"/>
-        <v>0.47619047619047616</v>
+        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
@@ -4275,7 +4301,9 @@
       <c r="AP20" s="7">
         <v>1</v>
       </c>
-      <c r="AQ20" s="7"/>
+      <c r="AQ20" s="7">
+        <v>-4</v>
+      </c>
       <c r="AR20" s="55"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -4289,32 +4317,32 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNT(B20:AY20)</f>
+        <v>20</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B20:$AY20, "0")</f>
         <v>3</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD20*3)+BE20</f>
         <v>30</v>
       </c>
       <c r="BH20" s="8">
-        <f t="shared" si="5"/>
-        <v>-15</v>
+        <f>SUM(B20:AY20)</f>
+        <v>-19</v>
       </c>
       <c r="BI20" s="10">
-        <f t="shared" si="6"/>
-        <v>0.52631578947368418</v>
+        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -4416,38 +4444,38 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B21:AY21)</f>
         <v>20</v>
       </c>
       <c r="BD21" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE21" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B21:$AY21, "0")</f>
         <v>5</v>
       </c>
       <c r="BF21" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
         <v>7</v>
       </c>
       <c r="BG21" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD21*3)+BE21</f>
         <v>29</v>
       </c>
       <c r="BH21" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B21:AY21)</f>
         <v>-1</v>
       </c>
       <c r="BI21" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
         <v>0.48333333333333334</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7">
@@ -4528,7 +4556,9 @@
       <c r="AP22" s="7">
         <v>-1</v>
       </c>
-      <c r="AQ22" s="7"/>
+      <c r="AQ22" s="7">
+        <v>4</v>
+      </c>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
@@ -4541,32 +4571,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNT(B22:AY22)</f>
+        <v>20</v>
       </c>
       <c r="BD22" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <v>8</v>
       </c>
       <c r="BE22" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B22:$AY22, "0")</f>
         <v>4</v>
       </c>
       <c r="BF22" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
         <v>8</v>
       </c>
       <c r="BG22" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f>SUM(BD22*3)+BE22</f>
+        <v>28</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="5"/>
-        <v>-10</v>
+        <f>SUM(B22:AY22)</f>
+        <v>-6</v>
       </c>
       <c r="BI22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.43859649122807015</v>
+        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4674,38 +4704,38 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B23:AY23)</f>
         <v>23</v>
       </c>
       <c r="BD23" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE23" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B23:$AY23, "0")</f>
         <v>6</v>
       </c>
       <c r="BF23" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
         <v>11</v>
       </c>
       <c r="BG23" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD23*3)+BE23</f>
         <v>24</v>
       </c>
       <c r="BH23" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B23:AY23)</f>
         <v>-13</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
         <v>0.34782608695652173</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4789,42 +4819,40 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B24:AY24)</f>
         <v>14</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B24:$AY24, "0")</f>
         <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD24*3)+BE24</f>
         <v>21</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B24:AY24)</f>
         <v>-4</v>
       </c>
       <c r="BI24" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
         <v>0.5</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4844,42 +4872,44 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>-5</v>
-      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="65"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="7">
-        <v>4</v>
-      </c>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="45">
+      <c r="AI25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
         <v>1</v>
       </c>
       <c r="AK25" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
+      <c r="AM25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="7">
+        <v>4</v>
+      </c>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
@@ -4892,40 +4922,42 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B25:AY25)</f>
         <v>8</v>
       </c>
       <c r="BD25" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE25" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B25:$AY25, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF25" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG25" s="8">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>SUM(BD25*3)+BE25</f>
+        <v>15</v>
       </c>
       <c r="BH25" s="8">
-        <f t="shared" si="5"/>
-        <v>-8</v>
+        <f>SUM(B25:AY25)</f>
+        <v>9</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.54166666666666663</v>
+        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <v>0.625</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4945,41 +4977,41 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="V26" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA26" s="50"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="65"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="7">
+        <v>4</v>
+      </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="7">
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="45">
         <v>1</v>
       </c>
       <c r="AK26" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP26" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
@@ -4993,38 +5025,38 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNT(B26:AY26)</f>
+        <v>8</v>
       </c>
       <c r="BD26" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
+        <v>4</v>
+      </c>
+      <c r="BE26" s="8">
+        <f>COUNTIF($B26:$AY26, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF26" s="8">
+        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BE26" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BF26" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="BG26" s="8">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>SUM(BD26*3)+BE26</f>
+        <v>13</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>SUM(B26:AY26)</f>
+        <v>-8</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <v>0.54166666666666663</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5102,31 +5134,31 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B27:AY27)</f>
         <v>11</v>
       </c>
       <c r="BD27" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
         <v>3</v>
       </c>
       <c r="BE27" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B27:$AY27, "0")</f>
         <v>3</v>
       </c>
       <c r="BF27" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG27" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD27*3)+BE27</f>
         <v>12</v>
       </c>
       <c r="BH27" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
       <c r="BI27" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
         <v>0.36363636363636365</v>
       </c>
       <c r="BJ27" s="10"/>
@@ -5205,48 +5237,44 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:AY28)</f>
         <v>8</v>
       </c>
       <c r="BD28" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
         <v>3</v>
       </c>
       <c r="BE28" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B28:$AY28, "0")</f>
         <v>2</v>
       </c>
       <c r="BF28" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG28" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD28*3)+BE28</f>
         <v>11</v>
       </c>
       <c r="BH28" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B28:AY28)</f>
         <v>-6</v>
       </c>
       <c r="BI28" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
         <v>0.45833333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>9</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
       <c r="I29" s="7"/>
@@ -5257,12 +5285,18 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>-3</v>
+      </c>
       <c r="R29" s="50"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="U29" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V29" s="7">
+        <v>-8</v>
+      </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -5270,24 +5304,32 @@
       <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="65"/>
-      <c r="AD29" s="7"/>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AJ29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7">
+        <v>1</v>
+      </c>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
+      <c r="AL29" s="45">
+        <v>0</v>
+      </c>
       <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
+      <c r="AN29" s="7">
+        <v>0</v>
+      </c>
       <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
+      <c r="AP29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>4</v>
+      </c>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
@@ -5300,87 +5342,67 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B29:AY29)</f>
+        <v>9</v>
+      </c>
+      <c r="BD29" s="8">
+        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <v>2</v>
+      </c>
+      <c r="BE29" s="8">
+        <f>COUNTIF($B29:$AY29, "0")</f>
         <v>4</v>
       </c>
-      <c r="BD29" s="8">
-        <f t="shared" si="1"/>
+      <c r="BF29" s="8">
+        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BE29" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BF29" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="BG29" s="8">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>SUM(BD29*3)+BE29</f>
+        <v>10</v>
       </c>
       <c r="BH29" s="8">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>SUM(B29:AY29)</f>
+        <v>-10</v>
       </c>
       <c r="BI29" s="10">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
+        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
+        <v>0.37037037037037035</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="45">
-        <v>-1</v>
-      </c>
+      <c r="D30" s="7">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="45">
-        <v>-1</v>
-      </c>
+      <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>3</v>
-      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
       <c r="R30" s="50"/>
-      <c r="S30" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V30" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>0</v>
-      </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="50"/>
       <c r="AB30" s="7"/>
@@ -5389,8 +5411,12 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
+      <c r="AH30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
@@ -5411,71 +5437,87 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B30:AY30)</f>
+        <v>4</v>
       </c>
       <c r="BD30" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <v>3</v>
       </c>
       <c r="BE30" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B30:$AY30, "0")</f>
+        <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG30" s="8">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>SUM(BD30*3)+BE30</f>
+        <v>9</v>
       </c>
       <c r="BH30" s="8">
-        <f t="shared" si="5"/>
-        <v>-20</v>
+        <f>SUM(B30:AY30)</f>
+        <v>11</v>
       </c>
       <c r="BI30" s="10">
-        <f t="shared" si="6"/>
-        <v>0.22222222222222221</v>
+        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
+        <v>0.75</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
       <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="45">
+        <v>-1</v>
+      </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="O31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>3</v>
+      </c>
       <c r="R31" s="50"/>
       <c r="S31" s="7">
-        <v>2</v>
-      </c>
-      <c r="T31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U31" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7">
+        <v>-4</v>
+      </c>
       <c r="V31" s="7">
-        <v>8</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="50"/>
       <c r="AB31" s="7"/>
@@ -5506,55 +5548,45 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>COUNT(B31:AY31)</f>
+        <v>12</v>
       </c>
       <c r="BD31" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE31" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B31:$AY31, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF31" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG31" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD31*3)+BE31</f>
+        <v>8</v>
       </c>
       <c r="BH31" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>SUM(B31:AY31)</f>
+        <v>-20</v>
       </c>
       <c r="BI31" s="10">
-        <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
+        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="45">
-        <v>9</v>
-      </c>
-      <c r="E32" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -5566,11 +5598,19 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="50"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="S32" s="7">
+        <v>2</v>
+      </c>
+      <c r="T32" s="7">
+        <v>-1</v>
+      </c>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
+      <c r="V32" s="7">
+        <v>8</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -5603,45 +5643,55 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B32:AY32)</f>
+        <v>4</v>
       </c>
       <c r="BD32" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE32" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B32:$AY32, "0")</f>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG32" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD32*3)+BE32</f>
         <v>7</v>
       </c>
       <c r="BH32" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>SUM(B32:AY32)</f>
+        <v>9</v>
       </c>
       <c r="BI32" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="45">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7">
+        <v>-1</v>
+      </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
       <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -5651,18 +5701,12 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="50"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V33" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -5670,29 +5714,19 @@
       <c r="AA33" s="50"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="65"/>
-      <c r="AD33" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
-      <c r="AJ33" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="45">
-        <v>0</v>
-      </c>
+      <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="7">
-        <v>0</v>
-      </c>
+      <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="7">
-        <v>0</v>
-      </c>
+      <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
@@ -5706,32 +5740,32 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B33:AY33)</f>
+        <v>5</v>
+      </c>
+      <c r="BD33" s="8">
+        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <v>2</v>
+      </c>
+      <c r="BE33" s="8">
+        <f>COUNTIF($B33:$AY33, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF33" s="8">
+        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BG33" s="8">
+        <f>SUM(BD33*3)+BE33</f>
+        <v>7</v>
+      </c>
+      <c r="BH33" s="8">
+        <f>SUM(B33:AY33)</f>
         <v>8</v>
       </c>
-      <c r="BD33" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE33" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BF33" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="BG33" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="BH33" s="8">
-        <f t="shared" si="5"/>
-        <v>-14</v>
-      </c>
       <c r="BI33" s="10">
-        <f t="shared" si="6"/>
-        <v>0.29166666666666669</v>
+        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
@@ -5799,38 +5833,38 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B34:AY34)</f>
         <v>3</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B34:$AY34, "0")</f>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD34*3)+BE34</f>
         <v>4</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B34:AY34)</f>
         <v>-1</v>
       </c>
       <c r="BI34" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5881,7 +5915,9 @@
         <v>-4</v>
       </c>
       <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
+      <c r="AQ35" s="7">
+        <v>-4</v>
+      </c>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
@@ -5894,38 +5930,38 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B35:AY35)</f>
+        <v>5</v>
+      </c>
+      <c r="BD35" s="8">
+        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <v>1</v>
+      </c>
+      <c r="BE35" s="8">
+        <f>COUNTIF($B35:$AY35, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF35" s="8">
+        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="BG35" s="8">
+        <f>SUM(BD35*3)+BE35</f>
         <v>4</v>
       </c>
-      <c r="BD35" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE35" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BF35" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BG35" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="BH35" s="8">
-        <f t="shared" si="5"/>
-        <v>-4</v>
+        <f>SUM(B35:AY35)</f>
+        <v>-8</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5993,31 +6029,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B36:AY36)</f>
         <v>6</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B36:$AY36, "0")</f>
         <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
         <v>4</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD36*3)+BE36</f>
         <v>4</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B36:AY36)</f>
         <v>-9</v>
       </c>
       <c r="BI36" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -6084,38 +6120,38 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B37:AY37)</f>
         <v>2</v>
       </c>
       <c r="BD37" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B37:$AY37, "0")</f>
         <v>1</v>
       </c>
       <c r="BF37" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD37*3)+BE37</f>
         <v>1</v>
       </c>
       <c r="BH37" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B37:AY37)</f>
         <v>-2</v>
       </c>
       <c r="BI37" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ37" s="10"/>
     </row>
     <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6173,38 +6209,38 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B38:AY38)</f>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B38:$AY38, "0")</f>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD38*3)+BE38</f>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B38:AY38)</f>
         <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
     </row>
     <row r="39" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6262,31 +6298,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B39:AY39)</f>
         <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B39:$AY39, "0")</f>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD39*3)+BE39</f>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B39:AY39)</f>
         <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -6296,203 +6332,203 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
         <v>18</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6509,121 +6545,123 @@
         <v>31</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U41" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="V41" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V41" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="W41" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC41" s="8"/>
       <c r="AD41" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH41" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM41" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN41" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AO41" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP41" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ41" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="AQ41" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
@@ -6964,11 +7002,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7000,10 +7038,10 @@
         <v>28</v>
       </c>
       <c r="K1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" t="s">
         <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7039,7 +7077,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -7057,20 +7095,20 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G32" si="1">SUM(C4*3)+D4</f>
+        <f>SUM(C4*3)+D4</f>
         <v>9</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
+        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -7088,14 +7126,14 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>SUM(C5*3)+D5</f>
         <v>7</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -7119,14 +7157,14 @@
         <v>7</v>
       </c>
       <c r="G6" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(C6*3)+D6</f>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -7150,20 +7188,20 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>SUM(C7*3)+D7</f>
         <v>7</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -7181,7 +7219,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8*3)+D8</f>
         <v>7</v>
       </c>
       <c r="L8" s="69"/>
@@ -7206,14 +7244,14 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9*3)+D9</f>
         <v>7</v>
       </c>
       <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7231,7 +7269,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10*3)+D10</f>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
@@ -7239,7 +7277,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -7257,14 +7295,14 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>SUM(C11*3)+D11</f>
         <v>6</v>
       </c>
       <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -7282,20 +7320,20 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>SUM(C12*3)+D12</f>
         <v>5</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
       <c r="L12" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -7313,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>SUM(C13*3)+D13</f>
         <v>4</v>
       </c>
       <c r="H13" s="23"/>
@@ -7321,323 +7359,323 @@
         <v>5</v>
       </c>
       <c r="L13" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>-8</v>
+      </c>
+      <c r="G14">
+        <f>SUM(C14*3)+D14</f>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14" s="69">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <f>SUM(C15*3)+D15</f>
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>-4</v>
-      </c>
-      <c r="G14">
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="69">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>SUM(C16*3)+D16</f>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16" s="69">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>SUM(C17*3)+D17</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="36">
+        <v>19</v>
+      </c>
+      <c r="L17" s="69">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>-3</v>
+      </c>
+      <c r="G18">
+        <f>SUM(C18*3)+D18</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="36">
+        <v>15</v>
+      </c>
+      <c r="L18" s="69">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>-3</v>
+      </c>
+      <c r="G19">
+        <f>SUM(C19*3)+D19</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="36">
+        <v>22</v>
+      </c>
+      <c r="L19" s="69">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>-7</v>
+      </c>
+      <c r="G20">
+        <f>SUM(C20*3)+D20</f>
+        <v>3</v>
+      </c>
+      <c r="K20" s="68">
+        <v>14</v>
+      </c>
+      <c r="L20" s="69">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>-8</v>
+      </c>
+      <c r="G21">
+        <f>SUM(C21*3)+D21</f>
+        <v>3</v>
+      </c>
+      <c r="K21" s="36">
+        <v>25</v>
+      </c>
+      <c r="L21" s="69">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f>SUM(C22*3)+D22</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="36">
+        <v>5</v>
+      </c>
+      <c r="L22" s="69">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>-2</v>
+      </c>
+      <c r="G23">
+        <f>SUM(C23*3)+D23</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="36">
+        <v>12</v>
+      </c>
+      <c r="L23" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K14">
-        <v>19</v>
-      </c>
-      <c r="L14" s="69">
-        <f t="shared" si="2"/>
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>12</v>
-      </c>
-      <c r="L15" s="69">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>23</v>
-      </c>
-      <c r="L16" s="69">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>-3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="36">
-        <v>19</v>
-      </c>
-      <c r="L17" s="69">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>-3</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K18" s="36">
-        <v>15</v>
-      </c>
-      <c r="L18" s="69">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>-7</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K19" s="36">
-        <v>22</v>
-      </c>
-      <c r="L19" s="69">
-        <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>-8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K20" s="68">
-        <v>14</v>
-      </c>
-      <c r="L20" s="69">
-        <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K21" s="36">
-        <v>25</v>
-      </c>
-      <c r="L21" s="69">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>-2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K22" s="36">
-        <v>5</v>
-      </c>
-      <c r="L22" s="69">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="36">
-        <v>12</v>
-      </c>
-      <c r="L23" s="69">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7655,23 +7693,23 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>SUM(C24*3)+D24</f>
         <v>1</v>
       </c>
       <c r="K24" s="36">
         <v>15</v>
       </c>
       <c r="L24" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7680,60 +7718,60 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>SUM(C25*3)+D25</f>
         <v>1</v>
       </c>
       <c r="K25" s="36">
         <v>25</v>
       </c>
       <c r="L25" s="69">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C26*3)+D26</f>
+        <v>1</v>
       </c>
       <c r="K26" s="36">
         <v>8</v>
       </c>
       <c r="L26" s="69">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7742,26 +7780,26 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G27">
+        <f>SUM(C27*3)+D27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="36">
+        <v>1</v>
+      </c>
+      <c r="L27" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="36">
-        <v>1</v>
-      </c>
-      <c r="L27" s="69">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7779,7 +7817,7 @@
         <v>-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f>SUM(C28*3)+D28</f>
         <v>0</v>
       </c>
       <c r="K28" s="36">
@@ -7788,7 +7826,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -7803,10 +7841,10 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f>SUM(C29*3)+D29</f>
         <v>0</v>
       </c>
       <c r="K29" s="36">
@@ -7815,10 +7853,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7827,13 +7865,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f>SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
       <c r="K30" s="36">
@@ -7860,7 +7898,7 @@
         <v>-8</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>SUM(C31*3)+D31</f>
         <v>0</v>
       </c>
       <c r="K31">
@@ -7869,7 +7907,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7887,51 +7925,15 @@
         <v>-9</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>SUM(C32*3)+D32</f>
         <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G34" si="3">SUM(C33*3)+D33</f>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35" si="4">SUM(C35*3)+D35</f>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
+  <autoFilter ref="A1:G32" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G32">
     <sortCondition descending="1" ref="G4:G32"/>
     <sortCondition descending="1" ref="F4:F32"/>
@@ -8115,13 +8117,13 @@
         <v>81</v>
       </c>
       <c r="AW1" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BA1" s="8" t="s">
         <v>62</v>
@@ -8209,7 +8211,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
-        <f>SUM(B3:AY3)</f>
+        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
         <v>22</v>
       </c>
       <c r="BB3" s="8">
@@ -8218,7 +8220,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8294,7 +8296,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
-        <f>SUM(B4:AY4)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="BB4" s="8">
@@ -8306,7 +8308,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -8374,7 +8376,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="BB5" s="8">
@@ -8465,7 +8467,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="BC6" s="8">
@@ -8546,7 +8548,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="23">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="BB7" s="8">
@@ -8558,7 +8560,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -8624,7 +8626,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BB8" s="8">
@@ -8636,7 +8638,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8710,7 +8712,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BB9" s="8">
@@ -8794,7 +8796,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="23">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BC10" s="8">
@@ -8803,7 +8805,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8875,7 +8877,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="23">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="BB11" s="8">
@@ -8887,7 +8889,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8961,7 +8963,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="BB12" s="8">
@@ -8971,7 +8973,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -9035,7 +9037,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BB13" s="8">
@@ -9111,7 +9113,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BB14" s="8">
@@ -9120,7 +9122,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -9188,7 +9190,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -9262,7 +9264,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BB16" s="8">
@@ -9271,7 +9273,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -9341,7 +9343,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BC17" s="8">
@@ -9420,7 +9422,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BC18" s="8">
@@ -9430,7 +9432,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -9490,7 +9492,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="BB19" s="8">
@@ -9502,7 +9504,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -9568,7 +9570,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BC20" s="8">
@@ -9577,7 +9579,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -9641,7 +9643,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="23">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BC21" s="8">
@@ -9650,7 +9652,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -9712,7 +9714,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="23">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BC22" s="8">
@@ -9783,7 +9785,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BB23" s="8">
@@ -9792,7 +9794,7 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -9852,7 +9854,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="23">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BC24" s="8">
@@ -9921,13 +9923,13 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="23">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9991,13 +9993,13 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="23">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -10061,7 +10063,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="23">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10129,13 +10131,13 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="23">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10197,7 +10199,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10261,7 +10263,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BC30" s="8">
@@ -10270,7 +10272,7 @@
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -10326,13 +10328,13 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="23">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -10388,7 +10390,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="23">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10448,7 +10450,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="23">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10508,7 +10510,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="23">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10568,7 +10570,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="23">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10797,7 +10799,7 @@
       </c>
       <c r="AQ38" s="8">
         <f>'League Table'!AQ40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR38" s="8">
         <f>'League Table'!AZ40</f>
@@ -10829,191 +10831,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11038,10 +11040,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP19" sqref="AP19"/>
+      <selection pane="bottomRight" activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11053,7 +11055,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="5"/>
       <c r="D1" s="1"/>
@@ -11212,13 +11214,13 @@
         <v>81</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BA3" s="22" t="s">
         <v>72</v>
@@ -11280,7 +11282,7 @@
     </row>
     <row r="5" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18">
@@ -11352,7 +11354,9 @@
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
       <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
+      <c r="AP5" s="18">
+        <v>1</v>
+      </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
@@ -11363,13 +11367,13 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
-        <v>26</v>
+        <f>SUM(B5:AY5)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="44">
         <v>2</v>
@@ -11452,13 +11456,13 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11543,13 +11547,13 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:AY7)</f>
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -11626,7 +11630,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>19</v>
       </c>
     </row>
@@ -11703,13 +11707,13 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -11778,69 +11782,69 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="59">
-        <v>1</v>
-      </c>
+      <c r="K11" s="59"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7">
+        <v>2</v>
+      </c>
       <c r="Q11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7">
+        <v>2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="AA11" s="7">
+        <v>1</v>
+      </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
-      <c r="AJ11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
+      <c r="AP11" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
@@ -11851,63 +11855,65 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
+      <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="16">
-        <v>2</v>
-      </c>
+      <c r="P12" s="16"/>
       <c r="Q12" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
-      <c r="V12" s="16">
-        <v>2</v>
-      </c>
-      <c r="W12" s="16">
-        <v>1</v>
-      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="16">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AH12" s="16">
+        <v>1</v>
+      </c>
       <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
+      <c r="AJ12" s="16">
+        <v>1</v>
+      </c>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
+      <c r="AL12" s="16">
+        <v>1</v>
+      </c>
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
@@ -11922,13 +11928,13 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B12:AY12)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7">
@@ -11989,13 +11995,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -12006,16 +12012,18 @@
       <c r="H14" s="50"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7">
-        <v>4</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -12033,17 +12041,21 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="7">
-        <v>2</v>
-      </c>
+      <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
+      <c r="AJ14" s="7">
+        <v>1</v>
+      </c>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
+      <c r="AO14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
@@ -12054,13 +12066,13 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -12069,49 +12081,43 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <v>4</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
+      <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7">
-        <v>1</v>
-      </c>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="7">
+        <v>2</v>
+      </c>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
@@ -12125,13 +12131,13 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B15:AY15)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -12143,49 +12149,47 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
+      <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AD16" s="7">
+        <v>1</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
+      <c r="AN16" s="7">
+        <v>1</v>
+      </c>
       <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
+      <c r="AP16" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -12196,13 +12200,13 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -12211,13 +12215,11 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -12229,31 +12231,35 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
+      <c r="AD17" s="7">
+        <v>1</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
-      <c r="AJ17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
+      <c r="AM17" s="7">
+        <v>1</v>
+      </c>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -12265,13 +12271,13 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B17:AY17)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -12283,47 +12289,49 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>1</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
-      <c r="AD18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="7">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7">
+        <v>1</v>
+      </c>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
@@ -12334,7 +12342,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>6</v>
       </c>
     </row>
@@ -12403,7 +12411,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>5</v>
       </c>
     </row>
@@ -12468,7 +12476,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>3</v>
       </c>
     </row>
@@ -12531,7 +12539,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>3</v>
       </c>
     </row>
@@ -12596,13 +12604,13 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -12661,13 +12669,13 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -12724,13 +12732,13 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -12787,7 +12795,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>2</v>
       </c>
     </row>
@@ -12848,13 +12856,13 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12909,13 +12917,13 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -12970,13 +12978,13 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -13031,13 +13039,13 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -13092,13 +13100,13 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -13153,7 +13161,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>1</v>
       </c>
     </row>
@@ -13214,7 +13222,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>1</v>
       </c>
     </row>
@@ -13273,7 +13281,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -13332,7 +13340,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -13391,13 +13399,13 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -13450,13 +13458,13 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -13509,7 +13517,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -13677,208 +13685,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D41" s="8">
+      <c r="AK41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="8">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
+        <v>7</v>
+      </c>
+      <c r="AM41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AN41" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AO41" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AP41" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G41" s="8">
+      <c r="AQ41" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="8">
+      <c r="AS41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="8">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AM41" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AN41" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AO41" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AP41" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -13899,8 +13907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13912,19 +13920,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -13932,16 +13940,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="G3" s="31"/>
     </row>
@@ -13950,16 +13958,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -13968,16 +13976,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="31"/>
     </row>
@@ -13986,16 +13994,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="D6" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="31" t="s">
         <v>130</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>131</v>
       </c>
       <c r="G6" s="31"/>
     </row>
@@ -14004,23 +14012,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>138</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
       <c r="M7" t="s">
         <v>73</v>
@@ -14031,16 +14039,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="31"/>
     </row>
@@ -14049,26 +14057,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="8">
         <v>6</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" s="8">
         <v>3</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N9" s="8">
         <v>7</v>
@@ -14079,35 +14087,35 @@
         <v>8</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>147</v>
-      </c>
       <c r="D10" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="8">
         <v>6</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="8">
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -14115,32 +14123,32 @@
         <v>9</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>151</v>
-      </c>
       <c r="D11" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L11" s="8">
         <v>2</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="8">
         <v>6</v>
@@ -14151,32 +14159,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>155</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I12" s="8">
         <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="8">
         <v>2</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="8">
         <v>6</v>
@@ -14187,33 +14195,33 @@
         <v>11</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>159</v>
-      </c>
       <c r="D13" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="8">
         <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L13" s="8">
         <v>2</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N13" s="8">
         <v>5</v>
@@ -14224,32 +14232,32 @@
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="E14" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L14" s="8">
         <v>2</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N14" s="8">
         <v>5</v>
@@ -14260,35 +14268,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>166</v>
-      </c>
       <c r="D15" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="8">
         <v>3</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L15" s="8">
         <v>2</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N15" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -14296,30 +14304,32 @@
         <v>14</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="8">
         <v>3</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2</v>
+      </c>
       <c r="M16" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N16" s="8">
         <v>4</v>
@@ -14330,30 +14340,30 @@
         <v>15</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>171</v>
-      </c>
       <c r="D17" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="8">
         <v>3</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" s="8">
         <v>4</v>
@@ -14364,30 +14374,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>176</v>
-      </c>
       <c r="D18" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I18" s="8">
         <v>3</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N18" s="8">
         <v>3</v>
@@ -14398,24 +14408,24 @@
         <v>17</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="56" t="s">
-        <v>132</v>
+      <c r="H19" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="I19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="8">
         <v>3</v>
@@ -14426,30 +14436,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="31"/>
-      <c r="H20" s="8" t="s">
-        <v>121</v>
+      <c r="H20" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N20" s="8">
         <v>3</v>
@@ -14460,30 +14470,30 @@
         <v>19</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="E21" s="31" t="s">
         <v>182</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="8">
         <v>3</v>
@@ -14494,25 +14504,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>186</v>
-      </c>
       <c r="D22" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N22" s="8">
         <v>3</v>
@@ -14523,27 +14533,27 @@
         <v>21</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>190</v>
-      </c>
       <c r="D23" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N23" s="8">
         <v>2</v>
@@ -14554,27 +14564,27 @@
         <v>22</v>
       </c>
       <c r="B24" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>192</v>
-      </c>
       <c r="D24" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N24" s="8">
         <v>2</v>
@@ -14585,27 +14595,27 @@
         <v>23</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="D25" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>196</v>
-      </c>
       <c r="E25" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N25" s="8">
         <v>2</v>
@@ -14616,26 +14626,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N26" s="8">
         <v>2</v>
@@ -14646,26 +14656,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N27" s="8">
         <v>2</v>
@@ -14676,20 +14686,20 @@
         <v>26</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N28" s="8">
         <v>2</v>
@@ -14700,23 +14710,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N29" s="8">
         <v>2</v>
@@ -14727,16 +14737,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="H30" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>127</v>
+        <v>147</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -14744,19 +14757,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -14764,19 +14777,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>208</v>
-      </c>
       <c r="M32" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -14784,19 +14797,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -14804,19 +14817,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>213</v>
-      </c>
       <c r="D34" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -14824,16 +14837,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>215</v>
-      </c>
       <c r="E35" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -14841,16 +14854,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -14858,16 +14871,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -14875,16 +14888,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -14892,16 +14905,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="D39" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -14909,16 +14922,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -14926,16 +14939,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="E41" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -14943,16 +14956,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>229</v>
-      </c>
       <c r="D42" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -14960,26 +14973,34 @@
         <v>41</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="31">
         <v>42</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
@@ -15046,8 +15067,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N34">
-    <sortCondition descending="1" ref="N9:N34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N32">
+    <sortCondition descending="1" ref="N9:N32"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7FD98-43E9-8E44-925D-F67CDB6DD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48DDE60-69EF-C542-A534-A7ECD30FFA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2280" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="1440" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="232">
   <si>
     <t>WK 1</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>Bruce - Preston</t>
+  </si>
+  <si>
+    <t>Lost 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-1</t>
   </si>
 </sst>
 </file>
@@ -1611,11 +1617,11 @@
   </sheetPr>
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="AR42" sqref="AR42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2167,7 +2173,9 @@
       <c r="AQ5" s="18">
         <v>4</v>
       </c>
-      <c r="AR5" s="18"/>
+      <c r="AR5" s="46">
+        <v>-2</v>
+      </c>
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
@@ -2181,97 +2189,95 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>35</v>
+        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <v>36</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>18</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
         <v>7</v>
       </c>
       <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>10</v>
+        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
+        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
         <v>61</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
-        <v>25</v>
+        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
+        <v>23</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.580952380952381</v>
+        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.56481481481481477</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B6" s="30">
         <v>-1</v>
       </c>
       <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>9</v>
+      </c>
+      <c r="E6" s="30">
         <v>-1</v>
       </c>
-      <c r="D6" s="30">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="F6" s="30">
         <v>1</v>
       </c>
       <c r="G6" s="30">
         <v>0</v>
       </c>
       <c r="H6" s="49"/>
-      <c r="I6" s="30">
-        <v>7</v>
+      <c r="I6" s="54">
+        <v>-7</v>
       </c>
       <c r="J6" s="30">
+        <v>-8</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <v>-2</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30">
+        <v>1</v>
+      </c>
+      <c r="U6" s="30">
+        <v>4</v>
+      </c>
+      <c r="V6" s="30">
         <v>8</v>
       </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
-        <v>2</v>
-      </c>
-      <c r="M6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-      <c r="P6" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="54">
-        <v>3</v>
-      </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="30">
-        <v>-2</v>
-      </c>
-      <c r="T6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="30">
-        <v>-4</v>
-      </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
+      <c r="W6" s="54">
+        <v>0</v>
+      </c>
       <c r="X6" s="30">
         <v>-5</v>
       </c>
@@ -2286,15 +2292,19 @@
         <v>1</v>
       </c>
       <c r="AC6" s="64"/>
-      <c r="AD6" s="54">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="54">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>2</v>
+      </c>
       <c r="AG6" s="30">
-        <v>-5</v>
-      </c>
-      <c r="AH6" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>-2</v>
+      </c>
       <c r="AI6" s="30">
         <v>1</v>
       </c>
@@ -2302,9 +2312,11 @@
         <v>1</v>
       </c>
       <c r="AK6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="30">
+        <v>1</v>
+      </c>
       <c r="AM6" s="30">
         <v>0</v>
       </c>
@@ -2312,15 +2324,17 @@
         <v>0</v>
       </c>
       <c r="AO6" s="30">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AP6" s="30">
         <v>1</v>
       </c>
-      <c r="AQ6" s="30">
-        <v>4</v>
-      </c>
-      <c r="AR6" s="30"/>
+      <c r="AQ6" s="54">
+        <v>-4</v>
+      </c>
+      <c r="AR6" s="30">
+        <v>2</v>
+      </c>
       <c r="AS6" s="30"/>
       <c r="AT6" s="30"/>
       <c r="AU6" s="30"/>
@@ -2332,95 +2346,97 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="BG6" s="8">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="BH6" s="8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
-        <v>55</v>
-      </c>
-      <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>11</v>
-      </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.57291666666666663</v>
+        <f t="shared" si="6"/>
+        <v>0.55238095238095242</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7">
         <v>-1</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="45">
-        <v>-7</v>
-      </c>
-      <c r="J7" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>3</v>
+      </c>
+      <c r="R7" s="50"/>
+      <c r="S7" s="7">
         <v>-2</v>
       </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="T7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
       <c r="U7" s="7">
-        <v>4</v>
-      </c>
-      <c r="V7" s="7">
-        <v>8</v>
-      </c>
-      <c r="W7" s="45">
-        <v>0</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7">
         <v>-5</v>
       </c>
@@ -2435,45 +2451,39 @@
         <v>1</v>
       </c>
       <c r="AC7" s="65"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="45">
+      <c r="AD7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
         <v>4</v>
       </c>
-      <c r="AF7" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>-4</v>
-      </c>
       <c r="AP7" s="7">
         <v>1</v>
       </c>
-      <c r="AQ7" s="45">
-        <v>-4</v>
+      <c r="AQ7" s="7">
+        <v>4</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
@@ -2487,32 +2497,32 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="BG7" s="8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="BH7" s="8">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>55</v>
-      </c>
-      <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
-        <v>7</v>
-      </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.53921568627450978</v>
+        <f t="shared" si="6"/>
+        <v>0.57291666666666663</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
@@ -2634,7 +2644,9 @@
       <c r="AQ8" s="18">
         <v>-4</v>
       </c>
-      <c r="AR8" s="18"/>
+      <c r="AR8" s="46">
+        <v>2</v>
+      </c>
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
@@ -2646,32 +2658,32 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.45370370370370372</v>
+        <f t="shared" si="6"/>
+        <v>0.46846846846846846</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2777,7 +2789,9 @@
       <c r="AQ9" s="16">
         <v>-4</v>
       </c>
-      <c r="AR9" s="16"/>
+      <c r="AR9" s="16">
+        <v>-2</v>
+      </c>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
@@ -2789,32 +2803,32 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.5357142857142857</v>
+        <f t="shared" si="6"/>
+        <v>0.51724137931034486</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2924,7 +2938,9 @@
       <c r="AQ10" s="16">
         <v>-4</v>
       </c>
-      <c r="AR10" s="16"/>
+      <c r="AR10" s="16">
+        <v>2</v>
+      </c>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2936,38 +2952,38 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="BE10" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="BF10" s="8">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>6</v>
-      </c>
-      <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>12</v>
-      </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.4838709677419355</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B11" s="7">
         <v>-1</v>
@@ -2975,11 +2991,9 @@
       <c r="C11" s="7">
         <v>-1</v>
       </c>
-      <c r="D11" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="45">
+      <c r="F11" s="7">
         <v>-1</v>
       </c>
       <c r="G11" s="7">
@@ -2990,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="J11" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K11" s="7">
+        <v>8</v>
+      </c>
+      <c r="K11" s="45">
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3004,27 +3018,23 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="45">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
         <v>-2</v>
       </c>
-      <c r="Q11" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="50"/>
       <c r="S11" s="7">
         <v>2</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="45">
         <v>-1</v>
       </c>
       <c r="U11" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V11" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W11" s="7">
         <v>0</v>
@@ -3032,52 +3042,52 @@
       <c r="X11" s="7">
         <v>5</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="50"/>
-      <c r="AB11" s="45">
-        <v>-1</v>
-      </c>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="65"/>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
       <c r="AE11" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AH11" s="7">
         <v>-2</v>
       </c>
       <c r="AI11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="7">
         <v>-1</v>
       </c>
+      <c r="AJ11" s="7"/>
       <c r="AK11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AP11" s="7">
         <v>-1</v>
       </c>
-      <c r="AL11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="7">
+      <c r="AQ11" s="7">
         <v>4</v>
       </c>
-      <c r="AP11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="45">
-        <v>4</v>
-      </c>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="7">
+        <v>2</v>
+      </c>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -3089,38 +3099,38 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>-7</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.41414141414141414</v>
+        <f t="shared" si="6"/>
+        <v>0.45555555555555555</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
         <v>-1</v>
@@ -3128,9 +3138,11 @@
       <c r="C12" s="7">
         <v>-1</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>-9</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="F12" s="45">
         <v>-1</v>
       </c>
       <c r="G12" s="7">
@@ -3141,37 +3153,41 @@
         <v>7</v>
       </c>
       <c r="J12" s="7">
-        <v>8</v>
-      </c>
-      <c r="K12" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="45">
         <v>-2</v>
       </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="7">
+        <v>-3</v>
+      </c>
       <c r="R12" s="50"/>
       <c r="S12" s="7">
         <v>2</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="7">
         <v>-1</v>
       </c>
       <c r="U12" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V12" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W12" s="7">
         <v>0</v>
@@ -3179,47 +3195,49 @@
       <c r="X12" s="7">
         <v>5</v>
       </c>
-      <c r="Y12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7">
+        <v>2</v>
+      </c>
       <c r="AA12" s="50"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="45">
+        <v>-1</v>
+      </c>
       <c r="AC12" s="65"/>
-      <c r="AD12" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="7"/>
       <c r="AE12" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AH12" s="7">
         <v>-2</v>
       </c>
       <c r="AI12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ12" s="7"/>
       <c r="AK12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="45">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM12" s="7"/>
       <c r="AN12" s="7">
         <v>0</v>
       </c>
       <c r="AO12" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AP12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AQ12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="45">
         <v>4</v>
       </c>
       <c r="AR12" s="7"/>
@@ -3234,32 +3252,32 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.43678160919540232</v>
+        <f t="shared" si="6"/>
+        <v>0.41414141414141414</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
@@ -3357,7 +3375,9 @@
       <c r="AQ13" s="7">
         <v>-4</v>
       </c>
-      <c r="AR13" s="55"/>
+      <c r="AR13" s="55">
+        <v>2</v>
+      </c>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -3369,32 +3389,32 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.52</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
@@ -3486,7 +3506,9 @@
       <c r="AQ14" s="7">
         <v>4</v>
       </c>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="7">
+        <v>2</v>
+      </c>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -3498,32 +3520,32 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="6"/>
+        <v>0.59090909090909094</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3623,7 +3645,9 @@
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
+      <c r="AR15" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
@@ -3635,32 +3659,32 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.48</v>
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
@@ -3762,7 +3786,9 @@
       <c r="AQ16" s="7">
         <v>-4</v>
       </c>
-      <c r="AR16" s="7"/>
+      <c r="AR16" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -3774,66 +3800,60 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-3</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7">
         <v>-1</v>
       </c>
       <c r="C17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <v>2</v>
-      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7">
         <v>1</v>
       </c>
@@ -3841,32 +3861,32 @@
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
       <c r="R17" s="50"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>-2</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="45">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V17" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W17" s="7">
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
@@ -3874,44 +3894,38 @@
       <c r="AD17" s="7">
         <v>0</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="45">
         <v>-4</v>
       </c>
-      <c r="AF17" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG17" s="45">
-        <v>-5</v>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7">
+        <v>5</v>
       </c>
       <c r="AH17" s="7">
         <v>-2</v>
       </c>
       <c r="AI17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>0</v>
-      </c>
+      <c r="AM17" s="7"/>
       <c r="AN17" s="7">
         <v>0</v>
       </c>
       <c r="AO17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7">
         <v>-4</v>
       </c>
-      <c r="AP17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
+      <c r="AR17" s="7">
+        <v>2</v>
+      </c>
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
@@ -3923,49 +3937,49 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
-        <v>-24</v>
+        <f t="shared" si="5"/>
+        <v>-8</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.37634408602150538</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C18" s="7">
         <v>-1</v>
       </c>
-      <c r="D18" s="7">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
       <c r="F18" s="7">
         <v>-1</v>
       </c>
@@ -3973,60 +3987,78 @@
         <v>0</v>
       </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="45">
-        <v>7</v>
-      </c>
-      <c r="J18" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I18" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="L18" s="45">
+        <v>2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
       <c r="N18" s="7">
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="50"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="U18" s="45">
+        <v>-4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>2</v>
+      </c>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="65"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="45">
+        <v>-5</v>
+      </c>
+      <c r="AH18" s="7">
         <v>-2</v>
       </c>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="45">
+      <c r="AI18" s="7">
         <v>-1</v>
       </c>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="45">
+      <c r="AJ18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AL18" s="7">
         <v>1</v>
       </c>
       <c r="AM18" s="7">
@@ -4038,10 +4070,10 @@
       <c r="AO18" s="7">
         <v>-4</v>
       </c>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7">
-        <v>4</v>
-      </c>
+      <c r="AP18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
@@ -4054,63 +4086,69 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>-24</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.37634408602150538</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
         <v>-1</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
       <c r="D19" s="7">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>-1</v>
+      </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="45">
+      <c r="I19" s="45">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7">
         <v>-8</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7">
         <v>0</v>
       </c>
@@ -4122,62 +4160,54 @@
         <v>3</v>
       </c>
       <c r="R19" s="50"/>
-      <c r="S19" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="45">
-        <v>4</v>
-      </c>
-      <c r="V19" s="7">
-        <v>8</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>-5</v>
-      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="45">
+        <v>1</v>
+      </c>
       <c r="AC19" s="65"/>
       <c r="AD19" s="7">
         <v>0</v>
       </c>
-      <c r="AE19" s="45">
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="45">
+        <v>-1</v>
+      </c>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
         <v>-4</v>
-      </c>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>4</v>
       </c>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AR19" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
@@ -4189,122 +4219,124 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
-        <v>-10</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.47826086956521741</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="55">
-        <v>1</v>
-      </c>
-      <c r="C20" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
         <v>-8</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
-        <v>2</v>
-      </c>
-      <c r="M20" s="7"/>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>-1</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q20" s="45">
-        <v>-3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="7"/>
+      <c r="S20" s="7">
+        <v>2</v>
+      </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>4</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="X20" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="45">
+        <v>0</v>
+      </c>
       <c r="Z20" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="50"/>
       <c r="AB20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20" s="65"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
       <c r="AE20" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="45">
+        <v>-2</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7">
         <v>-4</v>
       </c>
-      <c r="AF20" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="45">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>4</v>
-      </c>
       <c r="AP20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AR20" s="55"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7">
+        <v>2</v>
+      </c>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -4312,127 +4344,128 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
-      <c r="AZ20" s="5"/>
       <c r="BA20" s="33">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
-        <v>-19</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.50793650793650791</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7">
         <v>-8</v>
       </c>
-      <c r="K21" s="45">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q21" s="45">
+        <v>-3</v>
+      </c>
       <c r="R21" s="50"/>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7">
-        <v>4</v>
-      </c>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="45">
-        <v>0</v>
-      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA21" s="50"/>
       <c r="AB21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="65"/>
       <c r="AD21" s="7">
         <v>0</v>
       </c>
       <c r="AE21" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7">
         <v>4</v>
       </c>
-      <c r="AF21" s="45">
+      <c r="AP21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AR21" s="55">
         <v>-2</v>
       </c>
-      <c r="AG21" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AP21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -4440,36 +4473,37 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
+      <c r="AZ21" s="5"/>
       <c r="BA21" s="33">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-21</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.48333333333333334</v>
+        <f t="shared" si="6"/>
+        <v>0.47619047619047616</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
@@ -4571,31 +4605,31 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="5"/>
         <v>-6</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ22" s="10"/>
@@ -4692,7 +4726,9 @@
         <v>-1</v>
       </c>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="7">
+        <v>2</v>
+      </c>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4704,32 +4740,32 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BE23" s="8">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
-        <v>6</v>
-      </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-11</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.34782608695652173</v>
+        <f t="shared" si="6"/>
+        <v>0.375</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4819,31 +4855,31 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="BJ24" s="10"/>
@@ -4910,7 +4946,9 @@
       <c r="AQ25" s="7">
         <v>4</v>
       </c>
-      <c r="AR25" s="7"/>
+      <c r="AR25" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
@@ -4922,32 +4960,32 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.625</v>
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
@@ -5025,31 +5063,31 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="BJ26" s="10"/>
@@ -5134,31 +5172,31 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
+        <f t="shared" si="6"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="BJ27" s="10"/>
@@ -5237,31 +5275,31 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="5"/>
         <v>-6</v>
       </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
@@ -5330,7 +5368,9 @@
       <c r="AQ29" s="7">
         <v>4</v>
       </c>
-      <c r="AR29" s="7"/>
+      <c r="AR29" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
@@ -5342,32 +5382,32 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
-        <v>-10</v>
+        <f t="shared" si="5"/>
+        <v>-12</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.37037037037037035</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
@@ -5437,31 +5477,31 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="BJ30" s="10"/>
@@ -5548,31 +5588,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="BI31" s="10">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -5643,31 +5683,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BI32" s="10">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5740,31 +5780,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BI33" s="10">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -5833,31 +5873,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI34" s="10">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5930,31 +5970,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI35" s="10">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -6017,7 +6057,9 @@
       <c r="AO36" s="7"/>
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
-      <c r="AR36" s="7"/>
+      <c r="AR36" s="7">
+        <v>-2</v>
+      </c>
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
@@ -6029,32 +6071,32 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="BG36" s="8">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
-        <v>4</v>
-      </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>-11</v>
       </c>
       <c r="BI36" s="10">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>0.19047619047619047</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
@@ -6120,31 +6162,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -6209,31 +6251,31 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f>COUNT(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f>COUNTIF($B38:$AY38, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f>SUM(BD38*3)+BE38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f>SUM(B38:AY38)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
@@ -6298,31 +6340,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f>COUNT(B39:AY39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f>COUNTIF($B39:$AY39, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f>SUM(BD39*3)+BE39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f>SUM(B39:AY39)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -6332,203 +6374,203 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
         <v>18</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6662,7 +6704,9 @@
       <c r="AQ41" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="AR41" s="8"/>
+      <c r="AR41" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
       <c r="AU41" s="8"/>
@@ -7006,7 +7050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7095,51 +7139,51 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f>SUM(C4*3)+D4</f>
+        <f t="shared" ref="G4:G32" si="1">SUM(C4*3)+D4</f>
         <v>9</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
+        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>6.75</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B6" s="62">
         <v>3</v>
@@ -7154,23 +7198,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="62">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -7185,23 +7229,23 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -7216,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L8" s="69"/>
@@ -7244,40 +7288,40 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="H10" s="23"/>
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -7292,42 +7336,42 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
       <c r="L12" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7351,7 +7395,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H13" s="23"/>
@@ -7359,7 +7403,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7383,14 +7427,14 @@
         <v>-8</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K14">
         <v>19</v>
       </c>
       <c r="L14" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
@@ -7414,14 +7458,14 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7445,14 +7489,14 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K16">
         <v>23</v>
       </c>
       <c r="L16" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -7476,14 +7520,14 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K17" s="36">
         <v>19</v>
       </c>
       <c r="L17" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
@@ -7507,14 +7551,14 @@
         <v>-3</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K18" s="36">
         <v>15</v>
       </c>
       <c r="L18" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -7538,14 +7582,14 @@
         <v>-3</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K19" s="36">
         <v>22</v>
       </c>
       <c r="L19" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -7569,14 +7613,14 @@
         <v>-7</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K20" s="68">
         <v>14</v>
       </c>
       <c r="L20" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -7600,14 +7644,14 @@
         <v>-8</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K21" s="36">
         <v>25</v>
       </c>
       <c r="L21" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7631,14 +7675,14 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K22" s="36">
         <v>5</v>
       </c>
       <c r="L22" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7662,14 +7706,14 @@
         <v>-2</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K23" s="36">
         <v>12</v>
       </c>
       <c r="L23" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -7693,14 +7737,14 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K24" s="36">
         <v>15</v>
       </c>
       <c r="L24" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7724,14 +7768,14 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K25" s="36">
         <v>25</v>
       </c>
       <c r="L25" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -7755,14 +7799,14 @@
         <v>-4</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K26" s="36">
         <v>8</v>
       </c>
       <c r="L26" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -7786,14 +7830,14 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7817,7 +7861,7 @@
         <v>-2</v>
       </c>
       <c r="G28">
-        <f>SUM(C28*3)+D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="36">
@@ -7844,7 +7888,7 @@
         <v>-2</v>
       </c>
       <c r="G29">
-        <f>SUM(C29*3)+D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="36">
@@ -7871,7 +7915,7 @@
         <v>-3</v>
       </c>
       <c r="G30">
-        <f>SUM(C30*3)+D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="36">
@@ -7898,7 +7942,7 @@
         <v>-8</v>
       </c>
       <c r="G31">
-        <f>SUM(C31*3)+D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -7925,7 +7969,7 @@
         <v>-9</v>
       </c>
       <c r="G32">
-        <f>SUM(C32*3)+D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -7952,10 +7996,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU19" sqref="AU19"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8200,7 +8244,9 @@
       <c r="AP3" s="7">
         <v>1</v>
       </c>
-      <c r="AQ3" s="7"/>
+      <c r="AQ3" s="7">
+        <v>1</v>
+      </c>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
@@ -8212,7 +8258,7 @@
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
         <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" s="8">
         <v>4</v>
@@ -8285,7 +8331,9 @@
         <v>1</v>
       </c>
       <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
+      <c r="AQ4" s="7">
+        <v>2</v>
+      </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -8297,7 +8345,7 @@
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB4" s="8">
         <v>3</v>
@@ -8308,64 +8356,80 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="50"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
       <c r="O5" s="7">
-        <v>5</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="50"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
       <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7">
-        <v>1</v>
-      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="50"/>
-      <c r="AB5" s="7"/>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
       <c r="AC5" s="67"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7">
-        <v>1</v>
-      </c>
+      <c r="AN5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
@@ -8377,84 +8441,70 @@
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="BB5" s="8">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="50"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
       <c r="R6" s="50"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="50"/>
-      <c r="AB6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="7"/>
       <c r="AC6" s="67"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
-      <c r="AN6" s="7">
-        <v>3</v>
-      </c>
-      <c r="AO6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7">
+        <v>1</v>
+      </c>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
@@ -8470,8 +8520,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="BC6" s="8">
-        <v>1</v>
+      <c r="BB6" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
@@ -8889,52 +8939,48 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
       <c r="H12" s="50"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>2</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
+      <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>1</v>
-      </c>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
       <c r="AC12" s="67"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7">
@@ -8942,17 +8988,19 @@
       </c>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="7">
-        <v>1</v>
-      </c>
+      <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
+      <c r="AM12" s="7">
+        <v>1</v>
+      </c>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="7"/>
+      <c r="AO12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7">
+        <v>3</v>
+      </c>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
@@ -8969,62 +9017,75 @@
       <c r="BB12" s="8">
         <v>1</v>
       </c>
+      <c r="BC12" s="8">
+        <v>1</v>
+      </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="50"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>1</v>
+      </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="50"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="67"/>
-      <c r="AD13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7">
+        <v>1</v>
+      </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="AH13" s="7">
+        <v>1</v>
+      </c>
       <c r="AI13" s="7"/>
-      <c r="AJ13" s="7">
-        <v>7</v>
-      </c>
-      <c r="AK13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7">
+        <v>1</v>
+      </c>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="7">
-        <v>2</v>
-      </c>
+      <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
@@ -9038,24 +9099,25 @@
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="50"/>
       <c r="I14" s="7"/>
@@ -9066,7 +9128,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="50"/>
@@ -9075,10 +9137,10 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -9086,23 +9148,25 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="67"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="AI14" s="7">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="7">
-        <v>3</v>
-      </c>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
+      <c r="AM14" s="7">
+        <v>1</v>
+      </c>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
+      <c r="AQ14" s="7">
+        <v>2</v>
+      </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
@@ -9114,25 +9178,18 @@
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BB14" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="50"/>
       <c r="I15" s="7"/>
@@ -9142,43 +9199,43 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
       <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7">
-        <v>1</v>
-      </c>
-      <c r="X15" s="7">
-        <v>1</v>
-      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="67"/>
-      <c r="AD15" s="7"/>
+      <c r="AD15" s="7">
+        <v>1</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7">
+        <v>7</v>
+      </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7">
+        <v>2</v>
+      </c>
       <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="AP15" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
@@ -9191,23 +9248,25 @@
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="50"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -9216,22 +9275,22 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1</v>
-      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7">
-        <v>1</v>
-      </c>
+      <c r="W16" s="7">
+        <v>2</v>
+      </c>
+      <c r="X16" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
@@ -9241,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="7">
-        <v>4</v>
-      </c>
+      <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
+      <c r="AK16" s="7">
+        <v>3</v>
+      </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -9265,64 +9324,62 @@
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="50"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
       <c r="U17" s="7">
         <v>1</v>
       </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="7">
-        <v>1</v>
-      </c>
+      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="67"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
+      <c r="AG17" s="7">
+        <v>4</v>
+      </c>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -9346,70 +9403,70 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="BC17" s="8">
-        <v>2</v>
+      <c r="BB17" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="50"/>
       <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="7">
-        <v>2</v>
-      </c>
+      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="50"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>1</v>
+      </c>
       <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>2</v>
+      </c>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7">
+        <v>2</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
-      <c r="AM18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -9426,7 +9483,7 @@
         <v>10</v>
       </c>
       <c r="BC18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" s="23"/>
     </row>
@@ -10137,7 +10194,7 @@
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10146,15 +10203,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>2</v>
+      </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
+      <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -10165,9 +10220,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
+      <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -10188,7 +10241,9 @@
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
+      <c r="AQ29" s="7">
+        <v>1</v>
+      </c>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
@@ -10202,10 +10257,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="BC29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10214,13 +10272,15 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="50"/>
-      <c r="I30" s="7">
-        <v>2</v>
-      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -10231,7 +10291,9 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -10264,10 +10326,7 @@
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BC30" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
@@ -10996,7 +11055,7 @@
       </c>
       <c r="AQ40" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR40" s="23">
         <f t="shared" si="1"/>
@@ -11039,11 +11098,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR19" sqref="AR19"/>
+      <selection pane="bottomRight" activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11354,11 +11413,13 @@
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
       <c r="AO5" s="18"/>
-      <c r="AP5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>1</v>
+      </c>
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
@@ -11367,8 +11428,8 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
-        <v>27</v>
+        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
@@ -11456,7 +11517,7 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -11538,7 +11599,9 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="7">
+        <v>1</v>
+      </c>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -11547,8 +11610,8 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11621,7 +11684,9 @@
       </c>
       <c r="AP8" s="18"/>
       <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
+      <c r="AR8" s="18">
+        <v>1</v>
+      </c>
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
@@ -11630,8 +11695,8 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
@@ -11698,7 +11763,9 @@
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
+      <c r="AR9" s="16">
+        <v>1</v>
+      </c>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
@@ -11707,8 +11774,8 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
@@ -11782,7 +11849,7 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -11842,10 +11909,10 @@
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
-      <c r="AP11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7">
+        <v>1</v>
+      </c>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
@@ -11855,7 +11922,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -11928,7 +11995,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -11995,7 +12062,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -12053,10 +12120,10 @@
       <c r="AO14" s="7">
         <v>1</v>
       </c>
-      <c r="AP14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7">
+        <v>2</v>
+      </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
@@ -12066,7 +12133,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -12131,7 +12198,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -12200,7 +12267,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12271,7 +12338,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12342,7 +12409,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12411,7 +12478,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -12476,7 +12543,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12539,7 +12606,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12604,7 +12671,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12669,7 +12736,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12732,7 +12799,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -12795,7 +12862,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -12856,7 +12923,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12917,7 +12984,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12978,7 +13045,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13039,7 +13106,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13100,7 +13167,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13161,7 +13228,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13222,7 +13289,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13281,7 +13348,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13340,7 +13407,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13399,7 +13466,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13458,7 +13525,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13517,7 +13584,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13685,208 +13752,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AK41" s="8">
+      <c r="D41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AL41" s="8">
+      <c r="P41" s="8">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AM41" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AN41" s="8">
+        <v>9</v>
+      </c>
+      <c r="R41" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AO41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AP41" s="8">
+        <v>2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AK41" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AL41" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AM41" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AN41" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AO41" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AP41" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -13908,7 +13975,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14064,10 +14131,10 @@
       <c r="E9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>117</v>
@@ -14079,7 +14146,7 @@
         <v>129</v>
       </c>
       <c r="N9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -14100,7 +14167,7 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I10" s="8">
         <v>6</v>
@@ -14115,7 +14182,7 @@
         <v>118</v>
       </c>
       <c r="N10" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -14136,7 +14203,7 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I11" s="8">
         <v>6</v>
@@ -14175,7 +14242,7 @@
         <v>195</v>
       </c>
       <c r="I12" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>122</v>
@@ -14221,10 +14288,10 @@
         <v>2</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="N13" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -14257,7 +14324,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="N14" s="8">
         <v>5</v>
@@ -14724,7 +14791,9 @@
       <c r="H29" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="M29" s="8" t="s">
         <v>222</v>
       </c>
@@ -15006,10 +15075,18 @@
       <c r="A45" s="31">
         <v>43</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="B45" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="31">
@@ -15067,8 +15144,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N32">
-    <sortCondition descending="1" ref="N9:N32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N30">
+    <sortCondition descending="1" ref="N9:N30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -16,14 +16,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="4uBnSwntlU4Hhax0Iq+T2UZXDX3IbZu5xU/Wg66/hms="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="RDdOI1aBrU+AsKN0Dg4Z3SLW2trFK2BCgfcfkP5i58E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="236">
   <si>
     <t>MARLOW DUKES 2024</t>
   </si>
@@ -214,13 +214,13 @@
     <t>INSPECTOR GADGET</t>
   </si>
   <si>
+    <t>KERMIT</t>
+  </si>
+  <si>
     <t>ZIGZAG</t>
   </si>
   <si>
     <t>VINCE</t>
-  </si>
-  <si>
-    <t>KERMIT</t>
   </si>
   <si>
     <t>FATHER TED</t>
@@ -235,16 +235,16 @@
     <t>ARTIST</t>
   </si>
   <si>
+    <t>DUNCAN</t>
+  </si>
+  <si>
+    <t>CAPTAIN KIRK</t>
+  </si>
+  <si>
     <t>BANKSY</t>
   </si>
   <si>
     <t>SMUDGE</t>
-  </si>
-  <si>
-    <t>DUNCAN</t>
-  </si>
-  <si>
-    <t>CAPTAIN KIRK</t>
   </si>
   <si>
     <t>FLO</t>
@@ -265,10 +265,10 @@
     <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
-    <t>MOO</t>
+    <t>SONES</t>
   </si>
   <si>
-    <t>SONES</t>
+    <t>MOO</t>
   </si>
   <si>
     <t>DOGGER</t>
@@ -289,13 +289,13 @@
     <t>GAZZA</t>
   </si>
   <si>
+    <t>CARZOLA</t>
+  </si>
+  <si>
     <t>PANDA</t>
   </si>
   <si>
     <t>WOGER</t>
-  </si>
-  <si>
-    <t>CARZOLA</t>
   </si>
   <si>
     <t>ELBOW</t>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>GUEST</t>
+  </si>
+  <si>
+    <t>SONESY</t>
   </si>
   <si>
     <t>Total</t>
@@ -583,9 +586,6 @@
     <t>Fred?</t>
   </si>
   <si>
-    <t>Dom</t>
-  </si>
-  <si>
     <t>Bruce</t>
   </si>
   <si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>Lost 4-6</t>
+  </si>
+  <si>
+    <t>Dom</t>
   </si>
   <si>
     <t>Dwarf - Gadget</t>
@@ -676,6 +679,9 @@
     <t>Captain Kirk - Bruce</t>
   </si>
   <si>
+    <t>Woger</t>
+  </si>
+  <si>
     <t>Flo - Ian</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t>Gadget v Banksy</t>
+  </si>
+  <si>
+    <t>Posh v Kermit</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1925,9 @@
         <v>-2.0</v>
       </c>
       <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
+      <c r="AT5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
@@ -1929,11 +1940,11 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC39" si="1">COUNT(B5:AX5)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD39" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE39" si="3">COUNTIF($B5:$AX5, "0")</f>
@@ -1945,15 +1956,15 @@
       </c>
       <c r="BG5" s="5">
         <f t="shared" ref="BG5:BG39" si="5">SUM(BD5*3)+BE5</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BH5" s="5">
         <f t="shared" ref="BH5:BH39" si="6">SUM(B5:AX5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI5" s="20">
         <f t="shared" ref="BI5:BI39" si="7">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.5648148148</v>
+        <v>0.5765765766</v>
       </c>
       <c r="BJ5" s="20"/>
     </row>
@@ -2077,7 +2088,9 @@
       <c r="AS6" s="22">
         <v>-2.0</v>
       </c>
-      <c r="AT6" s="22"/>
+      <c r="AT6" s="22">
+        <v>1.0</v>
+      </c>
       <c r="AU6" s="22"/>
       <c r="AV6" s="22"/>
       <c r="AW6" s="22"/>
@@ -2090,11 +2103,11 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="3"/>
@@ -2106,15 +2119,15 @@
       </c>
       <c r="BG6" s="5">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BH6" s="5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI6" s="20">
         <f t="shared" si="7"/>
-        <v>0.537037037</v>
+        <v>0.5495495495</v>
       </c>
       <c r="BJ6" s="20"/>
     </row>
@@ -2242,7 +2255,9 @@
       <c r="AS7" s="27">
         <v>2.0</v>
       </c>
-      <c r="AT7" s="27"/>
+      <c r="AT7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU7" s="27"/>
       <c r="AV7" s="27"/>
       <c r="AW7" s="27"/>
@@ -2255,11 +2270,11 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="3"/>
@@ -2271,15 +2286,15 @@
       </c>
       <c r="BG7" s="5">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BH7" s="5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI7" s="20">
         <f t="shared" si="7"/>
-        <v>0.4824561404</v>
+        <v>0.4957264957</v>
       </c>
       <c r="BJ7" s="20"/>
     </row>
@@ -2397,7 +2412,9 @@
       <c r="AS8" s="15">
         <v>-2.0</v>
       </c>
-      <c r="AT8" s="16"/>
+      <c r="AT8" s="16">
+        <v>-1.0</v>
+      </c>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
       <c r="AW8" s="16"/>
@@ -2410,7 +2427,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="2"/>
@@ -2422,7 +2439,7 @@
       </c>
       <c r="BF8" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG8" s="5">
         <f t="shared" si="5"/>
@@ -2430,11 +2447,11 @@
       </c>
       <c r="BH8" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI8" s="20">
         <f t="shared" si="7"/>
-        <v>0.5555555556</v>
+        <v>0.5392156863</v>
       </c>
       <c r="BJ8" s="20"/>
     </row>
@@ -2443,88 +2460,90 @@
         <v>63</v>
       </c>
       <c r="B9" s="32">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C9" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="32">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G9" s="32">
         <v>0.0</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="I9" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>-2.0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0.0</v>
+      </c>
       <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="P9" s="32">
+        <v>-2.0</v>
+      </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="33"/>
       <c r="S9" s="32">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="T9" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="U9" s="32"/>
-      <c r="V9" s="34">
-        <v>8.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="U9" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>-8.0</v>
       </c>
       <c r="W9" s="32">
         <v>0.0</v>
       </c>
       <c r="X9" s="32">
-        <v>-5.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y9" s="32">
         <v>0.0</v>
       </c>
-      <c r="Z9" s="32">
-        <v>2.0</v>
-      </c>
+      <c r="Z9" s="32"/>
       <c r="AA9" s="33"/>
-      <c r="AB9" s="32">
-        <v>-1.0</v>
-      </c>
+      <c r="AB9" s="32"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="32">
         <v>0.0</v>
       </c>
       <c r="AE9" s="32">
-        <v>-4.0</v>
-      </c>
-      <c r="AF9" s="32">
-        <v>-2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="AF9" s="32"/>
       <c r="AG9" s="32">
         <v>5.0</v>
       </c>
       <c r="AH9" s="32">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AI9" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="AJ9" s="32">
         <v>-1.0</v>
       </c>
+      <c r="AJ9" s="32"/>
       <c r="AK9" s="32">
         <v>1.0</v>
       </c>
-      <c r="AL9" s="32">
-        <v>-1.0</v>
-      </c>
+      <c r="AL9" s="32"/>
       <c r="AM9" s="34">
         <v>0.0</v>
       </c>
@@ -2532,21 +2551,23 @@
         <v>0.0</v>
       </c>
       <c r="AO9" s="32">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AP9" s="32">
         <v>-1.0</v>
       </c>
       <c r="AQ9" s="32">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AR9" s="32">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS9" s="32">
-        <v>-2.0</v>
-      </c>
-      <c r="AT9" s="32"/>
+        <v>2.0</v>
+      </c>
+      <c r="AT9" s="34">
+        <v>1.0</v>
+      </c>
       <c r="AU9" s="32"/>
       <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
@@ -2559,7 +2580,7 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="2"/>
@@ -2567,7 +2588,7 @@
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF9" s="5">
         <f t="shared" si="4"/>
@@ -2575,15 +2596,15 @@
       </c>
       <c r="BG9" s="5">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BH9" s="5">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BI9" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4895833333</v>
       </c>
       <c r="BJ9" s="20"/>
     </row>
@@ -2592,114 +2613,112 @@
         <v>64</v>
       </c>
       <c r="B10" s="32">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="32">
         <v>1.0</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="D10" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.0</v>
+      </c>
       <c r="F10" s="32">
-        <v>-1.0</v>
-      </c>
-      <c r="G10" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="32">
         <v>0.0</v>
       </c>
       <c r="H10" s="33"/>
-      <c r="I10" s="32">
-        <v>-7.0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="K10" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="M10" s="32">
-        <v>-1.0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O10" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="P10" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="33"/>
       <c r="S10" s="32">
         <v>-2.0</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="34">
         <v>1.0</v>
       </c>
       <c r="U10" s="32"/>
-      <c r="V10" s="32">
+      <c r="V10" s="34">
         <v>8.0</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="32">
+        <v>0.0</v>
+      </c>
       <c r="X10" s="32">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="Y10" s="32">
         <v>0.0</v>
       </c>
-      <c r="Z10" s="34">
-        <v>-2.0</v>
+      <c r="Z10" s="32">
+        <v>2.0</v>
       </c>
       <c r="AA10" s="33"/>
       <c r="AB10" s="32">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AC10" s="35"/>
       <c r="AD10" s="32">
         <v>0.0</v>
       </c>
       <c r="AE10" s="32">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AF10" s="32">
         <v>-2.0</v>
       </c>
       <c r="AG10" s="32">
-        <v>-5.0</v>
-      </c>
-      <c r="AH10" s="34">
-        <v>-2.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>2.0</v>
       </c>
       <c r="AI10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="AJ10" s="32">
         <v>-1.0</v>
-      </c>
-      <c r="AJ10" s="32">
-        <v>1.0</v>
       </c>
       <c r="AK10" s="32">
         <v>1.0</v>
       </c>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
+      <c r="AL10" s="32">
+        <v>-1.0</v>
+      </c>
+      <c r="AM10" s="34">
+        <v>0.0</v>
+      </c>
       <c r="AN10" s="32">
         <v>0.0</v>
       </c>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
+      <c r="AO10" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="AP10" s="32">
+        <v>-1.0</v>
+      </c>
       <c r="AQ10" s="32">
         <v>-4.0</v>
       </c>
       <c r="AR10" s="32">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AS10" s="32">
         <v>-2.0</v>
       </c>
-      <c r="AT10" s="32"/>
+      <c r="AT10" s="32">
+        <v>-1.0</v>
+      </c>
       <c r="AU10" s="32"/>
       <c r="AV10" s="32"/>
       <c r="AW10" s="32"/>
@@ -2712,7 +2731,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="2"/>
@@ -2724,7 +2743,7 @@
       </c>
       <c r="BF10" s="5">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG10" s="5">
         <f t="shared" si="5"/>
@@ -2732,11 +2751,11 @@
       </c>
       <c r="BH10" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI10" s="20">
         <f t="shared" si="7"/>
-        <v>0.46875</v>
+        <v>0.4838709677</v>
       </c>
       <c r="BJ10" s="20"/>
     </row>
@@ -2748,65 +2767,69 @@
         <v>-1.0</v>
       </c>
       <c r="C11" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27">
         <v>-1.0</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>0.0</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="27">
-        <v>7.0</v>
+        <v>-7.0</v>
       </c>
       <c r="J11" s="27">
         <v>8.0</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>0.0</v>
       </c>
       <c r="L11" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="N11" s="27">
         <v>0.0</v>
       </c>
-      <c r="O11" s="27"/>
+      <c r="O11" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="P11" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="Q11" s="27"/>
+        <v>2.0</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R11" s="29"/>
       <c r="S11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="T11" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="U11" s="27">
-        <v>4.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="T11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="U11" s="27"/>
       <c r="V11" s="27">
-        <v>-8.0</v>
-      </c>
-      <c r="W11" s="27">
-        <v>0.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="W11" s="27"/>
       <c r="X11" s="27">
         <v>5.0</v>
       </c>
       <c r="Y11" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z11" s="27"/>
+      <c r="Z11" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="AA11" s="29"/>
-      <c r="AB11" s="27"/>
+      <c r="AB11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AC11" s="30"/>
       <c r="AD11" s="27">
         <v>0.0</v>
@@ -2814,41 +2837,39 @@
       <c r="AE11" s="27">
         <v>4.0</v>
       </c>
-      <c r="AF11" s="27"/>
+      <c r="AF11" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AG11" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AH11" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="AH11" s="28">
         <v>-2.0</v>
       </c>
       <c r="AI11" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AJ11" s="27"/>
+      <c r="AJ11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AK11" s="27">
         <v>1.0</v>
       </c>
       <c r="AL11" s="27"/>
-      <c r="AM11" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="AM11" s="27"/>
       <c r="AN11" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27">
         <v>-4.0</v>
-      </c>
-      <c r="AP11" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AQ11" s="27">
-        <v>4.0</v>
       </c>
       <c r="AR11" s="27">
         <v>2.0</v>
       </c>
       <c r="AS11" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AT11" s="27"/>
       <c r="AU11" s="27"/>
@@ -2863,31 +2884,31 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF11" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG11" s="5">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BH11" s="5">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="BI11" s="20">
         <f t="shared" si="7"/>
-        <v>0.4731182796</v>
+        <v>0.46875</v>
       </c>
       <c r="BJ11" s="20"/>
     </row>
@@ -3281,7 +3302,9 @@
       </c>
       <c r="AR14" s="27"/>
       <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
+      <c r="AT14" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AU14" s="27"/>
       <c r="AV14" s="27"/>
       <c r="AW14" s="27"/>
@@ -3294,7 +3317,7 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="2"/>
@@ -3306,7 +3329,7 @@
       </c>
       <c r="BF14" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BG14" s="5">
         <f t="shared" si="5"/>
@@ -3314,11 +3337,11 @@
       </c>
       <c r="BH14" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="BI14" s="20">
         <f t="shared" si="7"/>
-        <v>0.4141414141</v>
+        <v>0.4019607843</v>
       </c>
       <c r="BJ14" s="20"/>
     </row>
@@ -3469,13 +3492,15 @@
       <c r="A16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="28">
         <v>-1.0</v>
       </c>
       <c r="C16" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="27">
+        <v>-9.0</v>
+      </c>
       <c r="E16" s="27">
         <v>1.0</v>
       </c>
@@ -3486,79 +3511,65 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="27">
-        <v>-7.0</v>
-      </c>
+      <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27">
         <v>0.0</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="27">
         <v>2.0</v>
       </c>
       <c r="M16" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28">
         <v>1.0</v>
       </c>
-      <c r="N16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O16" s="27">
-        <v>-1.0</v>
-      </c>
       <c r="P16" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="Q16" s="27"/>
+        <v>-2.0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R16" s="29"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28">
-        <v>-4.0</v>
+      <c r="S16" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="T16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="U16" s="27">
+        <v>4.0</v>
       </c>
       <c r="V16" s="27">
-        <v>-8.0</v>
+        <v>8.0</v>
       </c>
       <c r="W16" s="27">
         <v>0.0</v>
       </c>
       <c r="X16" s="27">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="Y16" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z16" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="Z16" s="27"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="27"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AE16" s="27">
-        <v>-4.0</v>
-      </c>
-      <c r="AF16" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AG16" s="28">
-        <v>-5.0</v>
-      </c>
-      <c r="AH16" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AI16" s="27">
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="AL16" s="27">
         <v>-1.0</v>
-      </c>
-      <c r="AJ16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AK16" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AL16" s="27">
-        <v>1.0</v>
       </c>
       <c r="AM16" s="27">
         <v>0.0</v>
@@ -3567,17 +3578,23 @@
         <v>0.0</v>
       </c>
       <c r="AO16" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AP16" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="AQ16" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AP16" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="AT16" s="27"/>
+      <c r="AR16" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AS16" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AT16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU16" s="27"/>
       <c r="AV16" s="27"/>
       <c r="AW16" s="27"/>
@@ -3590,31 +3607,31 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF16" s="5">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BG16" s="5">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BH16" s="5">
         <f t="shared" si="6"/>
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="BI16" s="20">
         <f t="shared" si="7"/>
-        <v>0.3958333333</v>
+        <v>0.4482758621</v>
       </c>
       <c r="BJ16" s="20"/>
     </row>
@@ -3623,35 +3640,29 @@
         <v>71</v>
       </c>
       <c r="B17" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="C17" s="27">
         <v>1.0</v>
       </c>
-      <c r="C17" s="27">
-        <v>-1.0</v>
-      </c>
       <c r="D17" s="27">
-        <v>9.0</v>
+        <v>-9.0</v>
       </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="27">
         <v>0.0</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="J17" s="27">
+      <c r="I17" s="27"/>
+      <c r="J17" s="28">
         <v>-8.0</v>
       </c>
-      <c r="K17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="M17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="N17" s="27">
         <v>0.0</v>
       </c>
@@ -3663,58 +3674,70 @@
         <v>3.0</v>
       </c>
       <c r="R17" s="29"/>
-      <c r="S17" s="27"/>
+      <c r="S17" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="U17" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="V17" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="W17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="27">
+        <v>-5.0</v>
+      </c>
       <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
+      <c r="Z17" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AA17" s="29"/>
-      <c r="AB17" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="AB17" s="27"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27">
+      <c r="AE17" s="28">
+        <v>-4.0</v>
+      </c>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="AH17" s="27">
         <v>-2.0</v>
       </c>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28">
+      <c r="AI17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AM17" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AM17" s="27"/>
       <c r="AN17" s="27">
         <v>0.0</v>
       </c>
       <c r="AO17" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AR17" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AS17" s="27">
         <v>-2.0</v>
       </c>
-      <c r="AS17" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT17" s="27"/>
+      <c r="AT17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU17" s="27"/>
       <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
@@ -3727,31 +3750,31 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF17" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG17" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BH17" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="BI17" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4691358025</v>
       </c>
       <c r="BJ17" s="20"/>
     </row>
@@ -3759,15 +3782,13 @@
       <c r="A18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>-1.0</v>
       </c>
       <c r="C18" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D18" s="27">
-        <v>-9.0</v>
-      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="27">
         <v>1.0</v>
       </c>
@@ -3778,65 +3799,79 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="27">
+        <v>-7.0</v>
+      </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27">
         <v>0.0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="28">
         <v>2.0</v>
       </c>
       <c r="M18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="27">
         <v>-1.0</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28">
-        <v>1.0</v>
-      </c>
       <c r="P18" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="Q18" s="27"/>
       <c r="R18" s="29"/>
-      <c r="S18" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="T18" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="U18" s="27">
-        <v>4.0</v>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28">
+        <v>-4.0</v>
       </c>
       <c r="V18" s="27">
-        <v>8.0</v>
+        <v>-8.0</v>
       </c>
       <c r="W18" s="27">
         <v>0.0</v>
       </c>
       <c r="X18" s="27">
-        <v>-5.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y18" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z18" s="27"/>
+      <c r="Z18" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AA18" s="29"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="30"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="28">
+      <c r="AD18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" s="27">
+        <v>-4.0</v>
+      </c>
+      <c r="AF18" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AG18" s="28">
+        <v>-5.0</v>
+      </c>
+      <c r="AH18" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AI18" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ18" s="27">
         <v>1.0</v>
       </c>
+      <c r="AK18" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AL18" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM18" s="27">
         <v>0.0</v>
@@ -3845,21 +3880,19 @@
         <v>0.0</v>
       </c>
       <c r="AO18" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AP18" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AQ18" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AR18" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AS18" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AT18" s="27"/>
+      <c r="AP18" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="AT18" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AU18" s="27"/>
       <c r="AV18" s="27"/>
       <c r="AW18" s="27"/>
@@ -3872,7 +3905,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="2"/>
@@ -3880,23 +3913,23 @@
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF18" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BG18" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BH18" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-23</v>
       </c>
       <c r="BI18" s="20">
         <f t="shared" si="7"/>
-        <v>0.4285714286</v>
+        <v>0.3838383838</v>
       </c>
       <c r="BJ18" s="20"/>
     </row>
@@ -3905,29 +3938,35 @@
         <v>73</v>
       </c>
       <c r="B19" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="27">
         <v>-1.0</v>
       </c>
-      <c r="C19" s="27">
-        <v>1.0</v>
-      </c>
       <c r="D19" s="27">
-        <v>-9.0</v>
+        <v>9.0</v>
       </c>
       <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="G19" s="27">
         <v>0.0</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28">
+      <c r="I19" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="J19" s="27">
         <v>-8.0</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="K19" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="M19" s="27"/>
       <c r="N19" s="27">
         <v>0.0</v>
       </c>
@@ -3939,68 +3978,60 @@
         <v>3.0</v>
       </c>
       <c r="R19" s="29"/>
-      <c r="S19" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="V19" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="W19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X19" s="27">
-        <v>-5.0</v>
-      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
-      <c r="Z19" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="29"/>
-      <c r="AB19" s="27"/>
+      <c r="AB19" s="28">
+        <v>1.0</v>
+      </c>
       <c r="AC19" s="30"/>
       <c r="AD19" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE19" s="28">
-        <v>-4.0</v>
-      </c>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27">
-        <v>5.0</v>
-      </c>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AG19" s="27"/>
       <c r="AH19" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AI19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="28">
         <v>1.0</v>
       </c>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AM19" s="27"/>
+      <c r="AM19" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AN19" s="27">
         <v>0.0</v>
       </c>
       <c r="AO19" s="27">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AP19" s="27"/>
       <c r="AQ19" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AR19" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AS19" s="27">
         <v>2.0</v>
       </c>
-      <c r="AS19" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AT19" s="27"/>
+      <c r="AT19" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AU19" s="27"/>
       <c r="AV19" s="27"/>
       <c r="AW19" s="27"/>
@@ -4013,7 +4044,7 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="2"/>
@@ -4021,23 +4052,23 @@
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF19" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BG19" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BH19" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="BI19" s="20">
         <f t="shared" si="7"/>
-        <v>0.4487179487</v>
+        <v>0.48</v>
       </c>
       <c r="BJ19" s="20"/>
     </row>
@@ -4272,7 +4303,9 @@
       <c r="AS21" s="27">
         <v>2.0</v>
       </c>
-      <c r="AT21" s="27"/>
+      <c r="AT21" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="AU21" s="27"/>
       <c r="AV21" s="27"/>
       <c r="AW21" s="27"/>
@@ -4285,7 +4318,7 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="2"/>
@@ -4297,7 +4330,7 @@
       </c>
       <c r="BF21" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG21" s="5">
         <f t="shared" si="5"/>
@@ -4305,11 +4338,11 @@
       </c>
       <c r="BH21" s="5">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="BI21" s="20">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.3846153846</v>
       </c>
       <c r="BJ21" s="20"/>
     </row>
@@ -4807,7 +4840,9 @@
       <c r="A26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -4826,15 +4861,15 @@
       <c r="R26" s="29"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="V26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27">
+        <v>-8.0</v>
+      </c>
       <c r="W26" s="27">
         <v>0.0</v>
       </c>
       <c r="X26" s="27">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="Y26" s="27"/>
       <c r="Z26" s="27">
@@ -4843,39 +4878,31 @@
       <c r="AA26" s="29"/>
       <c r="AB26" s="27"/>
       <c r="AC26" s="30"/>
-      <c r="AD26" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AD26" s="27"/>
       <c r="AE26" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF26" s="27"/>
       <c r="AG26" s="27"/>
       <c r="AH26" s="27"/>
-      <c r="AI26" s="27">
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="28">
         <v>1.0</v>
       </c>
-      <c r="AJ26" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AK26" s="28">
-        <v>-1.0</v>
+      <c r="AK26" s="27">
+        <v>1.0</v>
       </c>
       <c r="AL26" s="27"/>
-      <c r="AM26" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AM26" s="27"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-      <c r="AP26" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="AP26" s="27"/>
       <c r="AQ26" s="27"/>
       <c r="AR26" s="27"/>
-      <c r="AS26" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU26" s="27"/>
       <c r="AV26" s="27"/>
       <c r="AW26" s="27"/>
@@ -4888,31 +4915,31 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD26" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE26" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG26" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BH26" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="BI26" s="20">
         <f t="shared" si="7"/>
-        <v>0.4166666667</v>
+        <v>0.5925925926</v>
       </c>
       <c r="BJ26" s="20"/>
     </row>
@@ -4920,9 +4947,7 @@
       <c r="A27" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -4941,15 +4966,15 @@
       <c r="R27" s="29"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27">
-        <v>-8.0</v>
-      </c>
+      <c r="U27" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="V27" s="27"/>
       <c r="W27" s="27">
         <v>0.0</v>
       </c>
       <c r="X27" s="27">
-        <v>-5.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y27" s="27"/>
       <c r="Z27" s="27">
@@ -4958,28 +4983,38 @@
       <c r="AA27" s="29"/>
       <c r="AB27" s="27"/>
       <c r="AC27" s="30"/>
-      <c r="AD27" s="27"/>
+      <c r="AD27" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AE27" s="27">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="28">
+      <c r="AI27" s="27">
         <v>1.0</v>
       </c>
-      <c r="AK27" s="27">
-        <v>1.0</v>
+      <c r="AJ27" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AK27" s="28">
+        <v>-1.0</v>
       </c>
       <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
+      <c r="AM27" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AN27" s="27"/>
       <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
+      <c r="AP27" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="27"/>
-      <c r="AS27" s="27"/>
+      <c r="AS27" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AT27" s="27"/>
       <c r="AU27" s="27"/>
       <c r="AV27" s="27"/>
@@ -4993,7 +5028,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD27" s="5">
         <f t="shared" si="2"/>
@@ -5001,23 +5036,23 @@
       </c>
       <c r="BE27" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG27" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BH27" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="BI27" s="20">
         <f t="shared" si="7"/>
-        <v>0.5416666667</v>
+        <v>0.4166666667</v>
       </c>
       <c r="BJ27" s="20"/>
     </row>
@@ -5646,9 +5681,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -5659,19 +5692,25 @@
       <c r="K34" s="27">
         <v>0.0</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
+      <c r="L34" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="M34" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R34" s="29"/>
-      <c r="S34" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
+      <c r="V34" s="27">
+        <v>-8.0</v>
+      </c>
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
@@ -5684,7 +5723,9 @@
       <c r="AF34" s="27"/>
       <c r="AG34" s="27"/>
       <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
+      <c r="AI34" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="AJ34" s="27"/>
       <c r="AK34" s="27"/>
       <c r="AL34" s="27"/>
@@ -5693,9 +5734,13 @@
       <c r="AO34" s="27"/>
       <c r="AP34" s="27"/>
       <c r="AQ34" s="27"/>
-      <c r="AR34" s="27"/>
+      <c r="AR34" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AS34" s="27"/>
-      <c r="AT34" s="27"/>
+      <c r="AT34" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
@@ -5708,11 +5753,11 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE34" s="5">
         <f t="shared" si="3"/>
@@ -5720,19 +5765,19 @@
       </c>
       <c r="BF34" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG34" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH34" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="BI34" s="20">
         <f t="shared" si="7"/>
-        <v>0.4444444444</v>
+        <v>0.2916666667</v>
       </c>
       <c r="BJ34" s="20"/>
     </row>
@@ -5741,7 +5786,9 @@
         <v>89</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -5749,7 +5796,9 @@
       <c r="H35" s="29"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="K35" s="27">
+        <v>0.0</v>
+      </c>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -5757,7 +5806,9 @@
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="29"/>
-      <c r="S35" s="27"/>
+      <c r="S35" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
@@ -5774,24 +5825,14 @@
       <c r="AG35" s="27"/>
       <c r="AH35" s="27"/>
       <c r="AI35" s="27"/>
-      <c r="AJ35" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AK35" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
       <c r="AL35" s="27"/>
       <c r="AM35" s="27"/>
-      <c r="AN35" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="AO35" s="27">
-        <v>-4.0</v>
-      </c>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
       <c r="AP35" s="27"/>
-      <c r="AQ35" s="27">
-        <v>-4.0</v>
-      </c>
+      <c r="AQ35" s="27"/>
       <c r="AR35" s="27"/>
       <c r="AS35" s="27"/>
       <c r="AT35" s="27"/>
@@ -5807,7 +5848,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD35" s="5">
         <f t="shared" si="2"/>
@@ -5819,7 +5860,7 @@
       </c>
       <c r="BF35" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG35" s="5">
         <f t="shared" si="5"/>
@@ -5827,11 +5868,11 @@
       </c>
       <c r="BH35" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="BI35" s="20">
         <f t="shared" si="7"/>
-        <v>0.2666666667</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BJ35" s="20"/>
     </row>
@@ -5848,28 +5889,18 @@
       <c r="H36" s="29"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="M36" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="Q36" s="27"/>
       <c r="R36" s="29"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
-      <c r="V36" s="27">
-        <v>-8.0</v>
-      </c>
+      <c r="V36" s="27"/>
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
@@ -5882,22 +5913,30 @@
       <c r="AF36" s="27"/>
       <c r="AG36" s="27"/>
       <c r="AH36" s="27"/>
-      <c r="AI36" s="28">
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
+      <c r="AK36" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AL36" s="27"/>
       <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
+      <c r="AN36" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="AO36" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AP36" s="27"/>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="AQ36" s="27">
+        <v>-4.0</v>
+      </c>
+      <c r="AR36" s="27"/>
       <c r="AS36" s="27"/>
-      <c r="AT36" s="27"/>
+      <c r="AT36" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AU36" s="27"/>
       <c r="AV36" s="27"/>
       <c r="AW36" s="27"/>
@@ -5910,7 +5949,7 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD36" s="5">
         <f t="shared" si="2"/>
@@ -5922,7 +5961,7 @@
       </c>
       <c r="BF36" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG36" s="5">
         <f t="shared" si="5"/>
@@ -5930,11 +5969,11 @@
       </c>
       <c r="BH36" s="5">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="BI36" s="20">
         <f t="shared" si="7"/>
-        <v>0.1904761905</v>
+        <v>0.2222222222</v>
       </c>
       <c r="BJ36" s="20"/>
     </row>
@@ -6395,7 +6434,7 @@
       </c>
       <c r="AT40" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU40" s="32">
         <f t="shared" si="8"/>
@@ -6551,7 +6590,9 @@
       <c r="AS41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AT41" s="5"/>
+      <c r="AT41" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="AU41" s="5"/>
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
@@ -26977,7 +27018,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="45">
         <v>4.0</v>
@@ -27008,7 +27049,7 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="44">
         <v>4.0</v>
@@ -27070,7 +27111,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="45">
         <v>3.0</v>
@@ -27104,7 +27145,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="44">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="44">
         <v>2.0</v>
@@ -27113,10 +27154,10 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" s="44">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" s="44">
         <f t="shared" si="1"/>
@@ -27127,7 +27168,7 @@
       </c>
       <c r="L7" s="46">
         <f t="shared" si="2"/>
-        <v>6.333333333</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="8">
@@ -27264,7 +27305,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="44">
         <v>4.0</v>
@@ -27296,41 +27337,41 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="44">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="44">
         <v>1.0</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="44">
         <v>1.0</v>
       </c>
       <c r="F14" s="44">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="44">
         <v>19.0</v>
       </c>
       <c r="L14" s="46">
         <f t="shared" si="3"/>
-        <v>6.333333333</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B15" s="44">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="44">
         <v>1.0</v>
@@ -27339,10 +27380,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F15" s="44">
-        <v>-8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" s="44">
         <f t="shared" si="1"/>
@@ -27353,43 +27394,43 @@
       </c>
       <c r="L15" s="46">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B16" s="44">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" s="44">
         <v>1.0</v>
       </c>
       <c r="D16" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" s="44">
-        <v>9.0</v>
+        <v>-8.0</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="44">
         <v>23.0</v>
       </c>
       <c r="L16" s="46">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B17" s="44">
         <v>1.0</v>
@@ -27404,7 +27445,7 @@
         <v>0.0</v>
       </c>
       <c r="F17" s="44">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
@@ -27420,10 +27461,10 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B18" s="44">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C18" s="44">
         <v>1.0</v>
@@ -27432,10 +27473,10 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="44">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" s="44">
         <f t="shared" si="1"/>
@@ -27446,15 +27487,15 @@
       </c>
       <c r="L18" s="46">
         <f t="shared" si="3"/>
-        <v>3.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="44">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" s="44">
         <v>1.0</v>
@@ -27463,10 +27504,10 @@
         <v>0.0</v>
       </c>
       <c r="E19" s="44">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F19" s="44">
-        <v>-3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="1"/>
@@ -27477,15 +27518,15 @@
       </c>
       <c r="L19" s="46">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="44">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="44">
         <v>1.0</v>
@@ -27494,7 +27535,7 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="44">
         <v>-3.0</v>
@@ -27508,12 +27549,12 @@
       </c>
       <c r="L20" s="46">
         <f t="shared" si="3"/>
-        <v>4.666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21" s="44">
         <v>3.0</v>
@@ -27528,7 +27569,7 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="44">
-        <v>-8.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G21" s="44">
         <f t="shared" si="1"/>
@@ -27544,26 +27585,26 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B22" s="44">
         <v>3.0</v>
       </c>
       <c r="C22" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="44">
         <v>0.0</v>
       </c>
-      <c r="D22" s="44">
+      <c r="E22" s="44">
         <v>2.0</v>
       </c>
-      <c r="E22" s="44">
-        <v>1.0</v>
-      </c>
       <c r="F22" s="44">
-        <v>-1.0</v>
+        <v>-8.0</v>
       </c>
       <c r="G22" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="47">
         <v>5.0</v>
@@ -27637,7 +27678,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="44">
         <v>1.0</v>
@@ -27668,7 +27709,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="44">
         <v>3.0</v>
@@ -27730,7 +27771,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="44">
         <v>2.0</v>
@@ -27784,7 +27825,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="44">
         <v>2.0</v>
@@ -29133,7 +29174,9 @@
       <c r="AR3" s="27">
         <v>1.0</v>
       </c>
-      <c r="AS3" s="27"/>
+      <c r="AS3" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AT3" s="27"/>
       <c r="AU3" s="27"/>
       <c r="AV3" s="27"/>
@@ -29143,13 +29186,13 @@
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6">
         <f t="shared" ref="BA3:BA35" si="1">SUM(B3:AY3)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB3" s="5">
         <v>3.0</v>
       </c>
       <c r="BC3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -29240,7 +29283,7 @@
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="27">
         <v>1.0</v>
@@ -29334,7 +29377,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="27">
         <v>2.0</v>
@@ -29412,7 +29455,7 @@
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27">
@@ -29498,62 +29541,72 @@
       <c r="A8" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
         <v>1.0</v>
       </c>
-      <c r="C8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27">
+        <v>2.0</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="27">
+        <v>2.0</v>
+      </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="N8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="29"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
+      <c r="U8" s="27">
+        <v>2.0</v>
+      </c>
       <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="W8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="X8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Z8" s="27"/>
       <c r="AA8" s="29"/>
       <c r="AB8" s="27"/>
       <c r="AC8" s="50"/>
-      <c r="AD8" s="27">
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27">
         <v>1.0</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
       <c r="AH8" s="27"/>
-      <c r="AI8" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="27"/>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
-      <c r="AO8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AO8" s="27"/>
       <c r="AP8" s="27"/>
       <c r="AQ8" s="27"/>
       <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
+      <c r="AS8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT8" s="27"/>
       <c r="AU8" s="27"/>
       <c r="AV8" s="27"/>
@@ -29563,18 +29616,18 @@
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC8" s="5">
         <v>2.0</v>
-      </c>
-      <c r="BC8" s="5">
-        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -29583,15 +29636,13 @@
       <c r="F9" s="27">
         <v>1.0</v>
       </c>
-      <c r="G9" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="G9" s="27"/>
       <c r="H9" s="29"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="J9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27">
@@ -29601,15 +29652,13 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="27"/>
+      <c r="S9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T9" s="27"/>
-      <c r="U9" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="U9" s="27"/>
       <c r="V9" s="27"/>
-      <c r="W9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W9" s="27"/>
       <c r="X9" s="27">
         <v>1.0</v>
       </c>
@@ -29622,24 +29671,32 @@
       <c r="AC9" s="50"/>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF9" s="27"/>
-      <c r="AG9" s="27">
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27">
         <v>1.0</v>
       </c>
-      <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
+      <c r="AK9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AL9" s="27"/>
       <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
+      <c r="AP9" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
+      <c r="AR9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AS9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT9" s="27"/>
       <c r="AU9" s="27"/>
       <c r="AV9" s="27"/>
@@ -29649,84 +29706,72 @@
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB9" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC9" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="29"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
-      <c r="N10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="29"/>
-      <c r="S10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
-      <c r="X10" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
       <c r="AA10" s="29"/>
       <c r="AB10" s="27"/>
       <c r="AC10" s="50"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27">
+      <c r="AD10" s="27">
         <v>1.0</v>
       </c>
+      <c r="AE10" s="27"/>
       <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
-      <c r="AH10" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AI10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AJ10" s="27"/>
-      <c r="AK10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AK10" s="27"/>
       <c r="AL10" s="27"/>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AO10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AP10" s="27"/>
       <c r="AQ10" s="27"/>
-      <c r="AR10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AR10" s="27"/>
       <c r="AS10" s="27"/>
       <c r="AT10" s="27"/>
       <c r="AU10" s="27"/>
@@ -29740,9 +29785,11 @@
         <v>14</v>
       </c>
       <c r="BB10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC10" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
@@ -29913,7 +29960,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -30462,14 +30509,10 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="27">
-        <v>2.0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -30477,9 +30520,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -30499,27 +30540,33 @@
       <c r="AB20" s="27"/>
       <c r="AC20" s="50"/>
       <c r="AD20" s="27"/>
-      <c r="AE20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE20" s="27"/>
       <c r="AF20" s="27"/>
       <c r="AG20" s="27"/>
-      <c r="AH20" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
       <c r="AJ20" s="27"/>
       <c r="AK20" s="27"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
+      <c r="AM20" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AN20" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AO20" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AP20" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="27">
         <v>1.0</v>
       </c>
-      <c r="AS20" s="27"/>
+      <c r="AS20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT20" s="27"/>
       <c r="AU20" s="27"/>
       <c r="AV20" s="27"/>
@@ -30529,7 +30576,7 @@
       <c r="AZ20" s="6"/>
       <c r="BA20" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB20" s="5"/>
       <c r="BC20" s="5">
@@ -30538,10 +30585,14 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2.0</v>
+      </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -30549,7 +30600,9 @@
       <c r="H21" s="29"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -30569,26 +30622,22 @@
       <c r="AB21" s="27"/>
       <c r="AC21" s="50"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
+      <c r="AE21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
+      <c r="AH21" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AI21" s="27"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AN21" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AO21" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AP21" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="27">
         <v>1.0</v>
@@ -30612,7 +30661,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -30688,46 +30737,48 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="29"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="N23" s="27">
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27">
         <v>1.0</v>
       </c>
-      <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
+      <c r="V23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="W23" s="27"/>
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
+      <c r="Z23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="27"/>
       <c r="AC23" s="50"/>
       <c r="AD23" s="27"/>
-      <c r="AE23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
@@ -30741,7 +30792,9 @@
       <c r="AP23" s="27"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
+      <c r="AS23" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AT23" s="27"/>
       <c r="AU23" s="27"/>
       <c r="AV23" s="27"/>
@@ -30751,43 +30804,43 @@
       <c r="AZ23" s="6"/>
       <c r="BA23" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BB23" s="5">
+        <v>7</v>
+      </c>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="29"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
+      <c r="M24" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="N24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
+      <c r="S24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T24" s="27"/>
-      <c r="U24" s="51"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
       <c r="X24" s="27"/>
@@ -30797,7 +30850,9 @@
       <c r="AB24" s="27"/>
       <c r="AC24" s="50"/>
       <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
+      <c r="AE24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
@@ -30821,23 +30876,29 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5">
+        <v>6</v>
+      </c>
+      <c r="BB24" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="27">
+        <v>1.0</v>
+      </c>
       <c r="H25" s="29"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -30849,16 +30910,10 @@
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="T25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="27"/>
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
@@ -30894,47 +30949,45 @@
         <v>5</v>
       </c>
       <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
+      <c r="BC25" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="29"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
-      <c r="O26" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
+      <c r="S26" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="T26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
-      <c r="Z26" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z26" s="27"/>
       <c r="AA26" s="29"/>
       <c r="AB26" s="27"/>
       <c r="AC26" s="50"/>
@@ -30970,7 +31023,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="27">
         <v>1.0</v>
@@ -31182,7 +31235,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -31825,17 +31878,17 @@
         <f>'League Table'!AQ40</f>
         <v>18</v>
       </c>
-      <c r="AR38" s="5" t="str">
-        <f>'League Table'!#REF!</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="AS38" s="5" t="str">
-        <f>'League Table'!BA40</f>
-        <v/>
-      </c>
-      <c r="AT38" s="5" t="str">
-        <f>'League Table'!#REF!</f>
-        <v>#ERROR!</v>
+      <c r="AR38" s="5">
+        <f>'League Table'!AR40</f>
+        <v>18</v>
+      </c>
+      <c r="AS38" s="5">
+        <f>'League Table'!AS40</f>
+        <v>19</v>
+      </c>
+      <c r="AT38" s="5">
+        <f>'League Table'!AT40</f>
+        <v>15</v>
       </c>
       <c r="AU38" s="5" t="str">
         <f>'League Table'!BC40</f>
@@ -32063,7 +32116,7 @@
       </c>
       <c r="AS40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT40" s="6">
         <f t="shared" si="2"/>
@@ -63063,7 +63116,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16">
@@ -63143,7 +63196,9 @@
         <v>1.0</v>
       </c>
       <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
+      <c r="AT5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
@@ -63151,12 +63206,12 @@
       <c r="AY5" s="16"/>
       <c r="BA5" s="44">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="55">
         <v>2.0</v>
@@ -63232,7 +63287,9 @@
       <c r="AQ6" s="32"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
+      <c r="AT6" s="32">
+        <v>1.0</v>
+      </c>
       <c r="AU6" s="32"/>
       <c r="AV6" s="32"/>
       <c r="AW6" s="32"/>
@@ -63240,7 +63297,7 @@
       <c r="AY6" s="32"/>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -63504,7 +63561,7 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="27">
         <v>2.0</v>
@@ -63566,7 +63623,9 @@
       <c r="AQ10" s="27"/>
       <c r="AR10" s="27"/>
       <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
+      <c r="AT10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
       <c r="AW10" s="27"/>
@@ -63574,7 +63633,7 @@
       <c r="AY10" s="27"/>
       <c r="BA10" s="44">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -63652,7 +63711,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -64518,7 +64577,9 @@
       <c r="AQ24" s="27"/>
       <c r="AR24" s="27"/>
       <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
+      <c r="AT24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
@@ -64526,7 +64587,7 @@
       <c r="AY24" s="27"/>
       <c r="BA24" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -64594,7 +64655,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -64716,7 +64777,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -64777,7 +64838,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -64899,7 +64960,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -64960,7 +65021,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -65021,7 +65082,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -65067,7 +65128,9 @@
       <c r="AQ33" s="27"/>
       <c r="AR33" s="27"/>
       <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
+      <c r="AT33" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
       <c r="AW33" s="27"/>
@@ -65075,12 +65138,12 @@
       <c r="AY33" s="27"/>
       <c r="BA33" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -65257,7 +65320,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -65475,7 +65538,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -65655,7 +65718,7 @@
       </c>
       <c r="AT41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU41" s="5">
         <f t="shared" si="2"/>
@@ -65679,7 +65742,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -66666,19 +66729,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -66694,16 +66757,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -66715,16 +66778,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="5"/>
@@ -66736,16 +66799,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
@@ -66757,16 +66820,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="5"/>
@@ -66778,27 +66841,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -66807,16 +66870,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="5"/>
@@ -66828,26 +66891,26 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I9" s="5">
         <v>7.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L9" s="5">
         <v>3.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N9" s="5">
         <v>8.0</v>
@@ -66858,32 +66921,32 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I10" s="5">
         <v>6.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L10" s="5">
         <v>2.0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N10" s="5">
         <v>8.0</v>
@@ -66894,32 +66957,32 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>167</v>
-      </c>
       <c r="E11" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I11" s="5">
         <v>6.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" s="5">
         <v>2.0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="5">
         <v>6.0</v>
@@ -66930,32 +66993,32 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I12" s="5">
         <v>6.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" s="5">
         <v>2.0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" s="5">
         <v>6.0</v>
@@ -66966,33 +67029,33 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I13" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13" s="5">
         <v>2.0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N13" s="5">
         <v>6.0</v>
@@ -67003,35 +67066,35 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I14" s="5">
         <v>3.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" s="5">
         <v>2.0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N14" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -67039,32 +67102,32 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I15" s="5">
         <v>3.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" s="5">
         <v>2.0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="5">
         <v>5.0</v>
@@ -67075,20 +67138,20 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="I16" s="5">
         <v>3.0</v>
@@ -67100,7 +67163,7 @@
         <v>2.0</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N16" s="5">
         <v>4.0</v>
@@ -67117,24 +67180,24 @@
         <v>189</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="5" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="I17" s="5">
         <v>3.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N17" s="5">
         <v>4.0</v>
@@ -67145,30 +67208,30 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>186</v>
-      </c>
       <c r="E18" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="5">
         <v>3.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N18" s="5">
         <v>4.0</v>
@@ -67179,24 +67242,24 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I19" s="5">
         <v>3.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="5">
         <v>4.0</v>
@@ -67207,30 +67270,30 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I20" s="5">
         <v>3.0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N20" s="5">
         <v>3.0</v>
@@ -67241,30 +67304,30 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I21" s="5">
         <v>2.0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N21" s="5">
         <v>3.0</v>
@@ -67275,26 +67338,26 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N22" s="5">
         <v>3.0</v>
@@ -67305,24 +67368,24 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
@@ -67337,28 +67400,28 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N24" s="5">
         <v>2.0</v>
@@ -67369,28 +67432,28 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N25" s="5">
         <v>2.0</v>
@@ -67401,27 +67464,27 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N26" s="5">
         <v>2.0</v>
@@ -67432,27 +67495,27 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N27" s="5">
         <v>2.0</v>
@@ -67463,21 +67526,21 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N28" s="5">
         <v>2.0</v>
@@ -67488,26 +67551,26 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N29" s="5">
         <v>2.0</v>
@@ -67518,20 +67581,20 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="H30" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N30" s="5">
         <v>2.0</v>
@@ -67542,23 +67605,26 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>187</v>
       </c>
       <c r="I31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="M31" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N31" s="5"/>
     </row>
@@ -67567,21 +67633,23 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N32" s="5"/>
     </row>
@@ -67590,21 +67658,21 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N33" s="5"/>
     </row>
@@ -67613,21 +67681,21 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N34" s="5"/>
     </row>
@@ -67636,19 +67704,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="N35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -67656,19 +67727,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
+      <c r="M36" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -67676,16 +67750,16 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -67696,16 +67770,16 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -67716,16 +67790,16 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -67736,16 +67810,16 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -67756,16 +67830,16 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -67776,16 +67850,16 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -67796,16 +67870,16 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -67816,16 +67890,16 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -67836,16 +67910,16 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -67856,13 +67930,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>187</v>
@@ -67875,10 +67949,18 @@
       <c r="A47" s="49">
         <v>45.0</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+      <c r="B47" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>218</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="N47" s="5"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -10,20 +10,19 @@
     <sheet state="visible" name="Board Room" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Captains!$A$1:$G$32</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Board Room'!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="RDdOI1aBrU+AsKN0Dg4Z3SLW2trFK2BCgfcfkP5i58E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="YBb/v89E9RD7p/e82SSZhRrUZN6W6DhdfVypsnUF/TA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="239">
   <si>
     <t>MARLOW DUKES 2024</t>
   </si>
@@ -217,22 +216,19 @@
     <t>KERMIT</t>
   </si>
   <si>
+    <t>FATHER TED</t>
+  </si>
+  <si>
     <t>ZIGZAG</t>
   </si>
   <si>
     <t>VINCE</t>
   </si>
   <si>
-    <t>FATHER TED</t>
+    <t>PRESTON</t>
   </si>
   <si>
     <t>DOM</t>
-  </si>
-  <si>
-    <t>PRESTON</t>
-  </si>
-  <si>
-    <t>ARTIST</t>
   </si>
   <si>
     <t>DUNCAN</t>
@@ -241,19 +237,22 @@
     <t>CAPTAIN KIRK</t>
   </si>
   <si>
-    <t>BANKSY</t>
-  </si>
-  <si>
     <t>SMUDGE</t>
   </si>
   <si>
-    <t>FLO</t>
+    <t>ARTIST</t>
+  </si>
+  <si>
+    <t>BANKSY</t>
   </si>
   <si>
     <t>POSH CHRIS</t>
   </si>
   <si>
     <t>DWARF</t>
+  </si>
+  <si>
+    <t>FLO</t>
   </si>
   <si>
     <t>MATT B</t>
@@ -376,6 +375,9 @@
     <t xml:space="preserve"> 3-1</t>
   </si>
   <si>
+    <t xml:space="preserve"> 5-4</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -413,9 +415,6 @@
   </si>
   <si>
     <t>DAY OFF DICKIE</t>
-  </si>
-  <si>
-    <t>CHARLIE</t>
   </si>
   <si>
     <t># VOTES</t>
@@ -529,7 +528,7 @@
     <t>Lost 1-8</t>
   </si>
   <si>
-    <t>Dwarf</t>
+    <t>Bruce</t>
   </si>
   <si>
     <t>Captain Kirk - Father Ted</t>
@@ -538,7 +537,7 @@
     <t>Lost 3-11</t>
   </si>
   <si>
-    <t>Captain Kirk</t>
+    <t>Dwarf</t>
   </si>
   <si>
     <t>Flo - Kermit</t>
@@ -550,13 +549,13 @@
     <t>ZigZag</t>
   </si>
   <si>
+    <t>Captain Kirk</t>
+  </si>
+  <si>
     <t>Casale - Banksy</t>
   </si>
   <si>
     <t>Lost 0-2</t>
-  </si>
-  <si>
-    <t>Vince</t>
   </si>
   <si>
     <t>Fred - Artist</t>
@@ -568,13 +567,13 @@
     <t>Carzola</t>
   </si>
   <si>
+    <t>Vince</t>
+  </si>
+  <si>
     <t>Ian - Wilson</t>
   </si>
   <si>
     <t>Drew 3-3</t>
-  </si>
-  <si>
-    <t>Moo</t>
   </si>
   <si>
     <t>Dom - Duncan</t>
@@ -586,7 +585,7 @@
     <t>Fred?</t>
   </si>
   <si>
-    <t>Bruce</t>
+    <t>Moo</t>
   </si>
   <si>
     <t>Preston - Phantom</t>
@@ -607,13 +606,13 @@
     <t>Woody</t>
   </si>
   <si>
-    <t>Fred</t>
-  </si>
-  <si>
     <t>Matt B</t>
   </si>
   <si>
     <t>Father Ted - Posh</t>
+  </si>
+  <si>
+    <t>Fred</t>
   </si>
   <si>
     <t>Kermit - ZigZag</t>
@@ -628,13 +627,13 @@
     <t>Phantom</t>
   </si>
   <si>
-    <t>Father Ted</t>
-  </si>
-  <si>
     <t>Banksy - Captain Kirk</t>
   </si>
   <si>
     <t>Lost 1-5</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
   </si>
   <si>
     <t>Dogger</t>
@@ -655,10 +654,10 @@
     <t>Lost 2-7</t>
   </si>
   <si>
-    <t>Flo</t>
+    <t>Flo v Dom</t>
   </si>
   <si>
-    <t>Flo v Dom</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>Vince - Father Ted</t>
@@ -683,6 +682,9 @@
   </si>
   <si>
     <t>Flo - Ian</t>
+  </si>
+  <si>
+    <t>Artist</t>
   </si>
   <si>
     <t>Banksy - Posh</t>
@@ -731,6 +733,12 @@
   </si>
   <si>
     <t>Posh v Kermit</t>
+  </si>
+  <si>
+    <t>Bruce - Ian</t>
+  </si>
+  <si>
+    <t>Lost 4-5</t>
   </si>
 </sst>
 </file>
@@ -1928,8 +1936,12 @@
       <c r="AT5" s="16">
         <v>1.0</v>
       </c>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
+      <c r="AU5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>4.0</v>
+      </c>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="19"/>
@@ -1940,11 +1952,11 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC39" si="1">COUNT(B5:AX5)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD39" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE39" si="3">COUNTIF($B5:$AX5, "0")</f>
@@ -1956,15 +1968,15 @@
       </c>
       <c r="BG5" s="5">
         <f t="shared" ref="BG5:BG39" si="5">SUM(BD5*3)+BE5</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BH5" s="5">
         <f t="shared" ref="BH5:BH39" si="6">SUM(B5:AX5)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BI5" s="20">
         <f t="shared" ref="BI5:BI39" si="7">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.5765765766</v>
+        <v>0.5982905983</v>
       </c>
       <c r="BJ5" s="20"/>
     </row>
@@ -2091,8 +2103,12 @@
       <c r="AT6" s="22">
         <v>1.0</v>
       </c>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
+      <c r="AU6" s="24">
+        <v>-1.0</v>
+      </c>
+      <c r="AV6" s="24">
+        <v>-4.0</v>
+      </c>
       <c r="AW6" s="22"/>
       <c r="AX6" s="22"/>
       <c r="AY6" s="19"/>
@@ -2103,7 +2119,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="2"/>
@@ -2115,7 +2131,7 @@
       </c>
       <c r="BF6" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BG6" s="5">
         <f t="shared" si="5"/>
@@ -2123,11 +2139,11 @@
       </c>
       <c r="BH6" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI6" s="20">
         <f t="shared" si="7"/>
-        <v>0.5495495495</v>
+        <v>0.5213675214</v>
       </c>
       <c r="BJ6" s="20"/>
     </row>
@@ -2415,8 +2431,12 @@
       <c r="AT8" s="16">
         <v>-1.0</v>
       </c>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
+      <c r="AU8" s="16">
+        <v>-1.0</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>-4.0</v>
+      </c>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="19"/>
@@ -2427,7 +2447,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="2"/>
@@ -2439,7 +2459,7 @@
       </c>
       <c r="BF8" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG8" s="5">
         <f t="shared" si="5"/>
@@ -2447,11 +2467,11 @@
       </c>
       <c r="BH8" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI8" s="20">
         <f t="shared" si="7"/>
-        <v>0.5392156863</v>
+        <v>0.5092592593</v>
       </c>
       <c r="BJ8" s="20"/>
     </row>
@@ -2568,8 +2588,12 @@
       <c r="AT9" s="34">
         <v>1.0</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
+      <c r="AU9" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" s="32">
+        <v>4.0</v>
+      </c>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="19"/>
@@ -2580,15 +2604,15 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF9" s="5">
         <f t="shared" si="4"/>
@@ -2596,15 +2620,15 @@
       </c>
       <c r="BG9" s="5">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BH9" s="5">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BI9" s="20">
         <f t="shared" si="7"/>
-        <v>0.4895833333</v>
+        <v>0.5</v>
       </c>
       <c r="BJ9" s="20"/>
     </row>
@@ -2612,55 +2636,57 @@
       <c r="A10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="32">
-        <v>1.0</v>
-      </c>
+      <c r="B10" s="32"/>
       <c r="C10" s="32">
         <v>1.0</v>
       </c>
       <c r="D10" s="32">
         <v>9.0</v>
       </c>
-      <c r="E10" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>1.0</v>
-      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="32">
         <v>0.0</v>
       </c>
       <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="J10" s="34">
+        <v>8.0</v>
+      </c>
       <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="L10" s="32">
+        <v>-2.0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>-1.0</v>
+      </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="P10" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="33"/>
-      <c r="S10" s="32">
+      <c r="S10" s="34">
         <v>-2.0</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="32">
         <v>1.0</v>
       </c>
-      <c r="U10" s="32"/>
-      <c r="V10" s="34">
-        <v>8.0</v>
-      </c>
+      <c r="U10" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="V10" s="32"/>
       <c r="W10" s="32">
         <v>0.0</v>
       </c>
-      <c r="X10" s="32">
-        <v>-5.0</v>
-      </c>
+      <c r="X10" s="32"/>
       <c r="Y10" s="32">
         <v>0.0</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="34">
         <v>2.0</v>
       </c>
       <c r="AA10" s="33"/>
@@ -2672,30 +2698,22 @@
         <v>0.0</v>
       </c>
       <c r="AE10" s="32">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF10" s="32">
         <v>-2.0</v>
       </c>
       <c r="AG10" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="AH10" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="AI10" s="32">
-        <v>1.0</v>
-      </c>
+        <v>-5.0</v>
+      </c>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
       <c r="AJ10" s="32">
         <v>-1.0</v>
       </c>
-      <c r="AK10" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="AL10" s="32">
-        <v>-1.0</v>
-      </c>
-      <c r="AM10" s="34">
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32">
         <v>0.0</v>
       </c>
       <c r="AN10" s="32">
@@ -2704,23 +2722,23 @@
       <c r="AO10" s="32">
         <v>4.0</v>
       </c>
-      <c r="AP10" s="32">
-        <v>-1.0</v>
-      </c>
+      <c r="AP10" s="32"/>
       <c r="AQ10" s="32">
         <v>-4.0</v>
       </c>
       <c r="AR10" s="32">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS10" s="32">
-        <v>-2.0</v>
-      </c>
-      <c r="AT10" s="32">
-        <v>-1.0</v>
-      </c>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
+        <v>2.0</v>
+      </c>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="AV10" s="32">
+        <v>4.0</v>
+      </c>
       <c r="AW10" s="32"/>
       <c r="AX10" s="32"/>
       <c r="AY10" s="19"/>
@@ -2731,11 +2749,11 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="3"/>
@@ -2743,19 +2761,19 @@
       </c>
       <c r="BF10" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BG10" s="5">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BH10" s="5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="BI10" s="20">
         <f t="shared" si="7"/>
-        <v>0.4838709677</v>
+        <v>0.5714285714</v>
       </c>
       <c r="BJ10" s="20"/>
     </row>
@@ -2764,116 +2782,118 @@
         <v>65</v>
       </c>
       <c r="B11" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="27">
         <v>1.0</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F11" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="G11" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="27">
         <v>0.0</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="27">
-        <v>-7.0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M11" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="N11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="P11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
       <c r="R11" s="29"/>
       <c r="S11" s="27">
         <v>-2.0</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="28">
         <v>1.0</v>
       </c>
       <c r="U11" s="27"/>
-      <c r="V11" s="27">
+      <c r="V11" s="28">
         <v>8.0</v>
       </c>
-      <c r="W11" s="27"/>
+      <c r="W11" s="27">
+        <v>0.0</v>
+      </c>
       <c r="X11" s="27">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="Y11" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z11" s="28">
-        <v>-2.0</v>
+      <c r="Z11" s="27">
+        <v>2.0</v>
       </c>
       <c r="AA11" s="29"/>
       <c r="AB11" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AC11" s="30"/>
       <c r="AD11" s="27">
         <v>0.0</v>
       </c>
       <c r="AE11" s="27">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AF11" s="27">
         <v>-2.0</v>
       </c>
       <c r="AG11" s="27">
-        <v>-5.0</v>
-      </c>
-      <c r="AH11" s="28">
-        <v>-2.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AH11" s="27">
+        <v>2.0</v>
       </c>
       <c r="AI11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AJ11" s="27">
         <v>-1.0</v>
-      </c>
-      <c r="AJ11" s="27">
-        <v>1.0</v>
       </c>
       <c r="AK11" s="27">
         <v>1.0</v>
       </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
+      <c r="AL11" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AM11" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AN11" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
+      <c r="AO11" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AP11" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AQ11" s="27">
         <v>-4.0</v>
       </c>
       <c r="AR11" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AS11" s="27">
         <v>-2.0</v>
       </c>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
+      <c r="AT11" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AU11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AV11" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="19"/>
@@ -2884,11 +2904,11 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="3"/>
@@ -2900,7 +2920,7 @@
       </c>
       <c r="BG11" s="5">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BH11" s="5">
         <f t="shared" si="6"/>
@@ -2908,7 +2928,7 @@
       </c>
       <c r="BI11" s="20">
         <f t="shared" si="7"/>
-        <v>0.46875</v>
+        <v>0.4848484848</v>
       </c>
       <c r="BJ11" s="20"/>
     </row>
@@ -2916,62 +2936,72 @@
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="C12" s="27">
         <v>1.0</v>
       </c>
-      <c r="D12" s="27">
-        <v>9.0</v>
-      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
+      <c r="F12" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="G12" s="28">
         <v>0.0</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="J12" s="28">
+        <v>-7.0</v>
+      </c>
+      <c r="J12" s="27">
         <v>8.0</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="27">
+        <v>0.0</v>
+      </c>
       <c r="L12" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="M12" s="27">
         <v>-1.0</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="N12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="P12" s="27">
         <v>2.0</v>
       </c>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R12" s="29"/>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <v>-2.0</v>
       </c>
       <c r="T12" s="27">
         <v>1.0</v>
       </c>
-      <c r="U12" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27">
+        <v>5.0</v>
+      </c>
       <c r="Y12" s="27">
         <v>0.0</v>
       </c>
       <c r="Z12" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AA12" s="29"/>
       <c r="AB12" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC12" s="30"/>
       <c r="AD12" s="27">
@@ -2986,22 +3016,24 @@
       <c r="AG12" s="27">
         <v>-5.0</v>
       </c>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
+      <c r="AH12" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="AI12" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AJ12" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AK12" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="AK12" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AM12" s="27"/>
       <c r="AN12" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO12" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AO12" s="27"/>
       <c r="AP12" s="27"/>
       <c r="AQ12" s="27">
         <v>-4.0</v>
@@ -3010,11 +3042,15 @@
         <v>2.0</v>
       </c>
       <c r="AS12" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
+      <c r="AU12" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AV12" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AW12" s="27"/>
       <c r="AX12" s="27"/>
       <c r="AY12" s="19"/>
@@ -3025,11 +3061,11 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="3"/>
@@ -3037,19 +3073,19 @@
       </c>
       <c r="BF12" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BG12" s="5">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="BH12" s="5">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BI12" s="20">
         <f t="shared" si="7"/>
-        <v>0.5384615385</v>
+        <v>0.4705882353</v>
       </c>
       <c r="BJ12" s="20"/>
     </row>
@@ -3057,31 +3093,47 @@
       <c r="A13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="C13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
         <v>-1.0</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="D13" s="27">
+        <v>-9.0</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="G13" s="27">
         <v>0.0</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>-8.0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="27">
+        <v>2.0</v>
+      </c>
       <c r="M13" s="27">
         <v>1.0</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="P13" s="27"/>
+      <c r="N13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="Q13" s="27">
         <v>-3.0</v>
       </c>
@@ -3090,7 +3142,7 @@
         <v>2.0</v>
       </c>
       <c r="T13" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="U13" s="27">
         <v>-4.0</v>
@@ -3101,55 +3153,65 @@
       <c r="W13" s="27">
         <v>0.0</v>
       </c>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="Z13" s="27"/>
+      <c r="X13" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AA13" s="29"/>
-      <c r="AB13" s="27">
+      <c r="AB13" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27">
+        <v>-4.0</v>
+      </c>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="AH13" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AI13" s="27">
         <v>1.0</v>
       </c>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
+      <c r="AJ13" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AK13" s="27">
         <v>-1.0</v>
       </c>
       <c r="AL13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AM13" s="27">
-        <v>0.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="AM13" s="27"/>
       <c r="AN13" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO13" s="28">
+      <c r="AO13" s="27">
         <v>4.0</v>
       </c>
       <c r="AP13" s="27">
         <v>1.0</v>
       </c>
-      <c r="AQ13" s="27">
+      <c r="AQ13" s="28">
         <v>4.0</v>
       </c>
-      <c r="AR13" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AS13" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AU13" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AV13" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="19"/>
@@ -3160,31 +3222,31 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF13" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BG13" s="5">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="BH13" s="5">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="BI13" s="20">
         <f t="shared" si="7"/>
-        <v>0.6086956522</v>
+        <v>0.4351851852</v>
       </c>
       <c r="BJ13" s="20"/>
     </row>
@@ -3192,47 +3254,31 @@
       <c r="A14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
         <v>-1.0</v>
       </c>
-      <c r="C14" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="D14" s="27">
-        <v>-9.0</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="27">
         <v>0.0</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>-8.0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="27">
         <v>1.0</v>
       </c>
-      <c r="N14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O14" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="P14" s="27"/>
       <c r="Q14" s="27">
         <v>-3.0</v>
       </c>
@@ -3241,7 +3287,7 @@
         <v>2.0</v>
       </c>
       <c r="T14" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" s="27">
         <v>-4.0</v>
@@ -3252,60 +3298,56 @@
       <c r="W14" s="27">
         <v>0.0</v>
       </c>
-      <c r="X14" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" s="27"/>
       <c r="AA14" s="29"/>
-      <c r="AB14" s="28">
-        <v>-1.0</v>
+      <c r="AB14" s="27">
+        <v>1.0</v>
       </c>
       <c r="AC14" s="30"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27">
-        <v>-4.0</v>
-      </c>
+      <c r="AD14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
-      <c r="AG14" s="27">
-        <v>-5.0</v>
-      </c>
-      <c r="AH14" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AI14" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AJ14" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
       <c r="AK14" s="27">
         <v>-1.0</v>
       </c>
       <c r="AL14" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AM14" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="AM14" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AN14" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO14" s="27">
+      <c r="AO14" s="28">
         <v>4.0</v>
       </c>
       <c r="AP14" s="27">
         <v>1.0</v>
       </c>
-      <c r="AQ14" s="28">
+      <c r="AQ14" s="27">
         <v>4.0</v>
       </c>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27">
+      <c r="AR14" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AS14" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AU14" s="27"/>
       <c r="AV14" s="27"/>
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
@@ -3317,7 +3359,7 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="2"/>
@@ -3325,23 +3367,23 @@
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF14" s="5">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BG14" s="5">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BH14" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="BI14" s="20">
         <f t="shared" si="7"/>
-        <v>0.4019607843</v>
+        <v>0.5833333333</v>
       </c>
       <c r="BJ14" s="20"/>
     </row>
@@ -3349,12 +3391,18 @@
       <c r="A15" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="C15" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="27">
+        <v>-9.0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F15" s="27">
         <v>-1.0</v>
       </c>
@@ -3363,38 +3411,40 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="M15" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28">
         <v>1.0</v>
       </c>
-      <c r="N15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P15" s="27"/>
+      <c r="P15" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="Q15" s="27">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="R15" s="29"/>
       <c r="S15" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="T15" s="27">
         <v>1.0</v>
       </c>
       <c r="U15" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="V15" s="27">
-        <v>-8.0</v>
-      </c>
-      <c r="W15" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="W15" s="27">
         <v>0.0</v>
       </c>
       <c r="X15" s="27">
@@ -3405,50 +3455,48 @@
       </c>
       <c r="Z15" s="27"/>
       <c r="AA15" s="29"/>
-      <c r="AB15" s="27">
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="AL15" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AE15" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AF15" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AG15" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AH15" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="AI15" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AJ15" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AK15" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AL15" s="27"/>
       <c r="AM15" s="27">
         <v>0.0</v>
       </c>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
+      <c r="AN15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AP15" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="AQ15" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AR15" s="27">
         <v>-2.0</v>
       </c>
       <c r="AS15" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
+        <v>-2.0</v>
+      </c>
+      <c r="AT15" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AU15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV15" s="27"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
@@ -3460,11 +3508,11 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="3"/>
@@ -3472,19 +3520,19 @@
       </c>
       <c r="BF15" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BG15" s="5">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BH15" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BI15" s="20">
         <f t="shared" si="7"/>
-        <v>0.4814814815</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BJ15" s="20"/>
     </row>
@@ -3492,43 +3540,37 @@
       <c r="A16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>-1.0</v>
       </c>
       <c r="C16" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="27">
         <v>-9.0</v>
       </c>
-      <c r="E16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="27">
         <v>0.0</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27">
+      <c r="J16" s="28">
+        <v>-8.0</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="27">
         <v>0.0</v>
       </c>
-      <c r="L16" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M16" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <v>1.0</v>
       </c>
-      <c r="P16" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="P16" s="27"/>
       <c r="Q16" s="27">
         <v>3.0</v>
       </c>
@@ -3536,10 +3578,8 @@
       <c r="S16" s="27">
         <v>-2.0</v>
       </c>
-      <c r="T16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="U16" s="27">
+      <c r="T16" s="27"/>
+      <c r="U16" s="28">
         <v>4.0</v>
       </c>
       <c r="V16" s="27">
@@ -3551,43 +3591,47 @@
       <c r="X16" s="27">
         <v>-5.0</v>
       </c>
-      <c r="Y16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AA16" s="29"/>
       <c r="AB16" s="27"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
+      <c r="AD16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>-4.0</v>
+      </c>
       <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
+      <c r="AG16" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="AH16" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AI16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ16" s="27"/>
-      <c r="AK16" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="AK16" s="27"/>
       <c r="AL16" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AM16" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AM16" s="27"/>
       <c r="AN16" s="27">
         <v>0.0</v>
       </c>
       <c r="AO16" s="27">
         <v>4.0</v>
       </c>
-      <c r="AP16" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="AP16" s="27"/>
       <c r="AQ16" s="27">
         <v>-4.0</v>
       </c>
       <c r="AR16" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS16" s="27">
         <v>-2.0</v>
@@ -3596,7 +3640,9 @@
         <v>1.0</v>
       </c>
       <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
+      <c r="AV16" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
       <c r="AY16" s="19"/>
@@ -3607,31 +3653,31 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF16" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG16" s="5">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BH16" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="BI16" s="20">
         <f t="shared" si="7"/>
-        <v>0.4482758621</v>
+        <v>0.4880952381</v>
       </c>
       <c r="BJ16" s="20"/>
     </row>
@@ -3640,29 +3686,35 @@
         <v>71</v>
       </c>
       <c r="B17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="27">
         <v>-1.0</v>
       </c>
-      <c r="C17" s="27">
-        <v>1.0</v>
-      </c>
       <c r="D17" s="27">
-        <v>-9.0</v>
+        <v>9.0</v>
       </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="G17" s="27">
         <v>0.0</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28">
+      <c r="I17" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="J17" s="27">
         <v>-8.0</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="K17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="M17" s="27"/>
       <c r="N17" s="27">
         <v>0.0</v>
       </c>
@@ -3674,72 +3726,66 @@
         <v>3.0</v>
       </c>
       <c r="R17" s="29"/>
-      <c r="S17" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="V17" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="W17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X17" s="27">
-        <v>-5.0</v>
-      </c>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
-      <c r="Z17" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="Z17" s="27"/>
       <c r="AA17" s="29"/>
-      <c r="AB17" s="27"/>
+      <c r="AB17" s="28">
+        <v>1.0</v>
+      </c>
       <c r="AC17" s="30"/>
       <c r="AD17" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE17" s="28">
-        <v>-4.0</v>
-      </c>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27">
-        <v>5.0</v>
-      </c>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AG17" s="27"/>
       <c r="AH17" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AI17" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="28">
         <v>1.0</v>
       </c>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AM17" s="27"/>
+      <c r="AM17" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AN17" s="27">
         <v>0.0</v>
       </c>
       <c r="AO17" s="27">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AR17" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AS17" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AT17" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AU17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AV17" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AR17" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AS17" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AT17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
       <c r="AY17" s="19"/>
@@ -3758,23 +3804,23 @@
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF17" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG17" s="5">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BH17" s="5">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="BI17" s="20">
         <f t="shared" si="7"/>
-        <v>0.4691358025</v>
+        <v>0.4814814815</v>
       </c>
       <c r="BJ17" s="20"/>
     </row>
@@ -3782,16 +3828,12 @@
       <c r="A18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="27">
         <v>-1.0</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="E18" s="27"/>
       <c r="F18" s="27">
         <v>-1.0</v>
       </c>
@@ -3799,101 +3841,95 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="27">
-        <v>-7.0</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="M18" s="27">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28">
         <v>1.0</v>
       </c>
       <c r="N18" s="27">
         <v>0.0</v>
       </c>
       <c r="O18" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="P18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="27">
         <v>2.0</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28">
+      <c r="T18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="U18" s="27">
         <v>-4.0</v>
       </c>
       <c r="V18" s="27">
         <v>-8.0</v>
       </c>
-      <c r="W18" s="27">
+      <c r="W18" s="28">
         <v>0.0</v>
       </c>
       <c r="X18" s="27">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="Y18" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z18" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="29"/>
-      <c r="AB18" s="27"/>
+      <c r="AB18" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AC18" s="30"/>
       <c r="AD18" s="27">
         <v>0.0</v>
       </c>
       <c r="AE18" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF18" s="27">
         <v>2.0</v>
       </c>
-      <c r="AG18" s="28">
-        <v>-5.0</v>
-      </c>
-      <c r="AH18" s="27">
-        <v>-2.0</v>
+      <c r="AG18" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="AH18" s="28">
+        <v>2.0</v>
       </c>
       <c r="AI18" s="27">
         <v>-1.0</v>
       </c>
       <c r="AJ18" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AK18" s="27">
         <v>1.0</v>
       </c>
-      <c r="AK18" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AL18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AL18" s="27"/>
       <c r="AM18" s="27">
         <v>0.0</v>
       </c>
-      <c r="AN18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AO18" s="27">
-        <v>-4.0</v>
-      </c>
-      <c r="AP18" s="27">
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="AS18" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="AT18" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AU18" s="27"/>
       <c r="AV18" s="27"/>
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
@@ -3905,31 +3941,31 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF18" s="5">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BG18" s="5">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BH18" s="5">
         <f t="shared" si="6"/>
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="BI18" s="20">
         <f t="shared" si="7"/>
-        <v>0.3838383838</v>
+        <v>0.4642857143</v>
       </c>
       <c r="BJ18" s="20"/>
     </row>
@@ -3938,15 +3974,15 @@
         <v>73</v>
       </c>
       <c r="B19" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C19" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D19" s="27">
-        <v>9.0</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F19" s="27">
         <v>-1.0</v>
       </c>
@@ -3954,60 +3990,78 @@
         <v>0.0</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="J19" s="27">
-        <v>-8.0</v>
-      </c>
+      <c r="I19" s="27">
+        <v>-7.0</v>
+      </c>
+      <c r="J19" s="27"/>
       <c r="K19" s="27">
         <v>0.0</v>
       </c>
-      <c r="L19" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="M19" s="27"/>
+      <c r="L19" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="M19" s="27">
+        <v>1.0</v>
+      </c>
       <c r="N19" s="27">
         <v>0.0</v>
       </c>
       <c r="O19" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27">
-        <v>3.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="P19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="Q19" s="27"/>
       <c r="R19" s="29"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
+      <c r="U19" s="28">
+        <v>-4.0</v>
+      </c>
+      <c r="V19" s="27">
+        <v>-8.0</v>
+      </c>
+      <c r="W19" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="X19" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AA19" s="29"/>
-      <c r="AB19" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="AB19" s="27"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE19" s="27"/>
+      <c r="AE19" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AF19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AG19" s="28">
+        <v>-5.0</v>
+      </c>
+      <c r="AH19" s="27">
         <v>-2.0</v>
       </c>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="28">
+      <c r="AI19" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="28">
+      <c r="AJ19" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AK19" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AL19" s="27">
         <v>1.0</v>
       </c>
       <c r="AM19" s="27">
@@ -4019,14 +4073,12 @@
       <c r="AO19" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AR19" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AS19" s="27">
+      <c r="AP19" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="28">
         <v>2.0</v>
       </c>
       <c r="AT19" s="27">
@@ -4044,7 +4096,7 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="2"/>
@@ -4052,23 +4104,23 @@
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF19" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG19" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BH19" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>-23</v>
       </c>
       <c r="BI19" s="20">
         <f t="shared" si="7"/>
-        <v>0.48</v>
+        <v>0.3838383838</v>
       </c>
       <c r="BJ19" s="20"/>
     </row>
@@ -4076,35 +4128,43 @@
       <c r="A20" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="B20" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>-9.0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27">
-        <v>-8.0</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="I20" s="27">
+        <v>-7.0</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
-      <c r="P20" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="29"/>
-      <c r="S20" s="27">
+      <c r="S20" s="28">
         <v>2.0</v>
       </c>
-      <c r="T20" s="27"/>
+      <c r="T20" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="U20" s="27">
         <v>4.0</v>
       </c>
@@ -4113,13 +4173,13 @@
         <v>0.0</v>
       </c>
       <c r="X20" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="Y20" s="28">
+        <v>-5.0</v>
+      </c>
+      <c r="Y20" s="27">
         <v>0.0</v>
       </c>
       <c r="Z20" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="27">
@@ -4132,28 +4192,26 @@
       <c r="AE20" s="27">
         <v>4.0</v>
       </c>
-      <c r="AF20" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="AG20" s="27">
-        <v>-5.0</v>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="28">
+        <v>5.0</v>
       </c>
       <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
       <c r="AJ20" s="27"/>
       <c r="AK20" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AL20" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AM20" s="27">
         <v>0.0</v>
       </c>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27">
-        <v>-4.0</v>
-      </c>
+      <c r="AN20" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" s="27"/>
       <c r="AP20" s="27">
         <v>-1.0</v>
       </c>
@@ -4162,11 +4220,17 @@
         <v>2.0</v>
       </c>
       <c r="AS20" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
+        <v>2.0</v>
+      </c>
+      <c r="AT20" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="AU20" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AV20" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="19"/>
@@ -4177,7 +4241,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="2"/>
@@ -4185,23 +4249,23 @@
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF20" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BG20" s="5">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BH20" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="BI20" s="20">
         <f t="shared" si="7"/>
-        <v>0.4848484848</v>
+        <v>0.3928571429</v>
       </c>
       <c r="BJ20" s="20"/>
     </row>
@@ -4212,102 +4276,96 @@
       <c r="B21" s="27">
         <v>1.0</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="28">
         <v>-1.0</v>
       </c>
       <c r="D21" s="27">
         <v>-9.0</v>
       </c>
       <c r="E21" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" s="27">
         <v>1.0</v>
       </c>
-      <c r="G21" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="27">
-        <v>-7.0</v>
-      </c>
-      <c r="J21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27">
+        <v>-8.0</v>
+      </c>
       <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>2.0</v>
+      </c>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="R21" s="29"/>
-      <c r="S21" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="T21" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="U21" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27">
         <v>0.0</v>
       </c>
-      <c r="X21" s="27">
-        <v>-5.0</v>
-      </c>
-      <c r="Y21" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="27">
         <v>-2.0</v>
       </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC21" s="30"/>
       <c r="AD21" s="27">
         <v>0.0</v>
       </c>
       <c r="AE21" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28">
-        <v>5.0</v>
-      </c>
+        <v>-4.0</v>
+      </c>
+      <c r="AF21" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
+      <c r="AI21" s="28">
+        <v>1.0</v>
+      </c>
       <c r="AJ21" s="27"/>
-      <c r="AK21" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AL21" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AM21" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
       <c r="AN21" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO21" s="27"/>
+      <c r="AO21" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AP21" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AQ21" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="AQ21" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AR21" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AS21" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT21" s="28">
-        <v>-1.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="AT21" s="27"/>
       <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
+      <c r="AV21" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="19"/>
@@ -4318,31 +4376,31 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BF21" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BG21" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BH21" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="BI21" s="20">
         <f t="shared" si="7"/>
-        <v>0.3846153846</v>
+        <v>0.4782608696</v>
       </c>
       <c r="BJ21" s="20"/>
     </row>
@@ -4350,96 +4408,98 @@
       <c r="A22" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>-9.0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="29"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27">
         <v>-8.0</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M22" s="27"/>
+      <c r="K22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>-3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="Q22" s="27"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="27"/>
+      <c r="S22" s="27">
+        <v>2.0</v>
+      </c>
       <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
+      <c r="U22" s="27">
+        <v>4.0</v>
+      </c>
       <c r="V22" s="27"/>
       <c r="W22" s="27">
         <v>0.0</v>
       </c>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
+      <c r="X22" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>0.0</v>
+      </c>
       <c r="Z22" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AC22" s="30"/>
       <c r="AD22" s="27">
         <v>0.0</v>
       </c>
       <c r="AE22" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AF22" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="AG22" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AL22" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AM22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AP22" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27">
         <v>2.0</v>
-      </c>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AO22" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AP22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AQ22" s="27">
-        <v>-4.0</v>
-      </c>
-      <c r="AR22" s="27">
-        <v>-2.0</v>
       </c>
       <c r="AS22" s="27">
         <v>-2.0</v>
       </c>
       <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
+      <c r="AU22" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AV22" s="27"/>
       <c r="AW22" s="27"/>
       <c r="AX22" s="27"/>
@@ -4451,7 +4511,7 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD22" s="5">
         <f t="shared" si="2"/>
@@ -4459,23 +4519,23 @@
       </c>
       <c r="BE22" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF22" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG22" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH22" s="5">
         <f t="shared" si="6"/>
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="BI22" s="20">
         <f t="shared" si="7"/>
-        <v>0.4545454545</v>
+        <v>0.4637681159</v>
       </c>
       <c r="BJ22" s="20"/>
     </row>
@@ -4570,8 +4630,12 @@
         <v>-2.0</v>
       </c>
       <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
+      <c r="AU23" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AV23" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
       <c r="AY23" s="19"/>
@@ -4582,11 +4646,11 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="3"/>
@@ -4594,19 +4658,19 @@
       </c>
       <c r="BF23" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG23" s="5">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BH23" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BI23" s="20">
         <f t="shared" si="7"/>
-        <v>0.4444444444</v>
+        <v>0.4492753623</v>
       </c>
       <c r="BJ23" s="20"/>
     </row>
@@ -4796,8 +4860,12 @@
         <v>2.0</v>
       </c>
       <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
+      <c r="AU25" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AV25" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
       <c r="AY25" s="19"/>
@@ -4808,7 +4876,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD25" s="5">
         <f t="shared" si="2"/>
@@ -4820,7 +4888,7 @@
       </c>
       <c r="BF25" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG25" s="5">
         <f t="shared" si="5"/>
@@ -4828,11 +4896,11 @@
       </c>
       <c r="BH25" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI25" s="20">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BJ25" s="20"/>
     </row>
@@ -5741,7 +5809,9 @@
       <c r="AT34" s="27">
         <v>1.0</v>
       </c>
-      <c r="AU34" s="27"/>
+      <c r="AU34" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
@@ -5753,7 +5823,7 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="2"/>
@@ -5765,7 +5835,7 @@
       </c>
       <c r="BF34" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG34" s="5">
         <f t="shared" si="5"/>
@@ -5773,11 +5843,11 @@
       </c>
       <c r="BH34" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="BI34" s="20">
         <f t="shared" si="7"/>
-        <v>0.2916666667</v>
+        <v>0.2592592593</v>
       </c>
       <c r="BJ34" s="20"/>
     </row>
@@ -6438,11 +6508,11 @@
       </c>
       <c r="AU40" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV40" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW40" s="32">
         <f t="shared" si="8"/>
@@ -6593,8 +6663,12 @@
       <c r="AT41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
+      <c r="AU41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV41" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="BB41" s="5"/>
@@ -26992,64 +27066,64 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B3" s="45">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C3" s="45">
         <v>3.0</v>
       </c>
       <c r="D3" s="45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="45">
         <v>1.0</v>
       </c>
       <c r="F3" s="45">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="45">
         <f t="shared" ref="G3:G32" si="1">SUM(C3*3)+D3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="44">
         <v>18.0</v>
       </c>
       <c r="L3" s="46">
         <f t="shared" ref="L3:L7" si="2">K3/B3</f>
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="44">
         <v>4.0</v>
@@ -27064,7 +27138,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="44">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" s="44">
         <f t="shared" si="1"/>
@@ -27080,26 +27154,26 @@
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B5" s="44">
         <v>4.0</v>
       </c>
       <c r="C5" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="44">
         <v>2.0</v>
-      </c>
-      <c r="D5" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3.0</v>
       </c>
       <c r="G5" s="44">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="44">
         <v>27.0</v>
@@ -27111,41 +27185,41 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="45">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="45">
         <v>2.0</v>
       </c>
       <c r="D6" s="45">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="45">
         <v>0.0</v>
       </c>
       <c r="F6" s="45">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" s="45">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="44">
         <v>19.0</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" si="2"/>
-        <v>6.333333333</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B7" s="44">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C7" s="44">
         <v>2.0</v>
@@ -27154,10 +27228,10 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="44">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" s="44">
         <f t="shared" si="1"/>
@@ -27168,12 +27242,12 @@
       </c>
       <c r="L7" s="46">
         <f t="shared" si="2"/>
-        <v>4.75</v>
+        <v>6.333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B8" s="44">
         <v>4.0</v>
@@ -27188,7 +27262,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="44">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G8" s="44">
         <f t="shared" si="1"/>
@@ -27198,10 +27272,10 @@
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B9" s="44">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="44">
         <v>2.0</v>
@@ -27210,10 +27284,10 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="44">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G9" s="44">
         <f t="shared" si="1"/>
@@ -27223,10 +27297,10 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B10" s="44">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C10" s="44">
         <v>2.0</v>
@@ -27235,10 +27309,10 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="44">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" s="44">
         <f t="shared" si="1"/>
@@ -27249,7 +27323,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="44">
         <v>3.0</v>
@@ -27305,7 +27379,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="44">
         <v>4.0</v>
@@ -27368,7 +27442,7 @@
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="44">
         <v>3.0</v>
@@ -27402,7 +27476,7 @@
         <v>60</v>
       </c>
       <c r="B16" s="44">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="44">
         <v>1.0</v>
@@ -27411,10 +27485,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="44">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" s="44">
-        <v>-8.0</v>
+        <v>-9.0</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" si="1"/>
@@ -27425,7 +27499,7 @@
       </c>
       <c r="L16" s="46">
         <f t="shared" si="3"/>
-        <v>5.75</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="17">
@@ -27492,7 +27566,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="44">
         <v>4.0</v>
@@ -27554,7 +27628,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="44">
         <v>3.0</v>
@@ -27585,7 +27659,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="44">
         <v>3.0</v>
@@ -27616,7 +27690,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="44">
         <v>3.0</v>
@@ -27647,7 +27721,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" s="44">
         <v>1.0</v>
@@ -27709,7 +27783,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="44">
         <v>3.0</v>
@@ -28873,7 +28947,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$G$32"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29056,17 +29129,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -29103,7 +29176,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -29178,7 +29251,9 @@
         <v>2.0</v>
       </c>
       <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
+      <c r="AU3" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV3" s="27"/>
       <c r="AW3" s="27"/>
       <c r="AX3" s="27"/>
@@ -29186,7 +29261,7 @@
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6">
         <f t="shared" ref="BA3:BA35" si="1">SUM(B3:AY3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB3" s="5">
         <v>3.0</v>
@@ -29197,7 +29272,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -29265,8 +29340,12 @@
       </c>
       <c r="AR4" s="27"/>
       <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
+      <c r="AT4" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AU4" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV4" s="27"/>
       <c r="AW4" s="27"/>
       <c r="AX4" s="27"/>
@@ -29274,7 +29353,7 @@
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB4" s="5">
         <v>4.0</v>
@@ -29283,84 +29362,70 @@
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="27"/>
-      <c r="M5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Q5" s="27"/>
+        <v>5.0</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R5" s="29"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27">
         <v>1.0</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="29"/>
-      <c r="AB5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AB5" s="27"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="27"/>
       <c r="AE5" s="27"/>
       <c r="AF5" s="27"/>
-      <c r="AG5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AG5" s="27"/>
       <c r="AH5" s="27"/>
-      <c r="AI5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
       <c r="AK5" s="27"/>
       <c r="AL5" s="27"/>
       <c r="AM5" s="27"/>
-      <c r="AN5" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="AO5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AP5" s="27"/>
-      <c r="AQ5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AQ5" s="27"/>
       <c r="AR5" s="27"/>
       <c r="AS5" s="27"/>
       <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
+      <c r="AU5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV5" s="27"/>
       <c r="AW5" s="27"/>
       <c r="AX5" s="27"/>
@@ -29370,48 +29435,52 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BB5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="BC5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="27">
-        <v>2.0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
         <v>1.0</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="27">
+        <v>2.0</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="27">
+        <v>2.0</v>
+      </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27">
-        <v>5.0</v>
-      </c>
+      <c r="N6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="27"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="Q6" s="27"/>
       <c r="R6" s="29"/>
       <c r="S6" s="27"/>
-      <c r="T6" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27">
+        <v>2.0</v>
+      </c>
       <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="W6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="X6" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y6" s="27">
         <v>1.0</v>
       </c>
@@ -29420,9 +29489,13 @@
       <c r="AB6" s="27"/>
       <c r="AC6" s="50"/>
       <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
+      <c r="AE6" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
+      <c r="AG6" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
@@ -29430,15 +29503,17 @@
       <c r="AL6" s="27"/>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
-      <c r="AO6" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AO6" s="27"/>
       <c r="AP6" s="27"/>
       <c r="AQ6" s="27"/>
       <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
+      <c r="AS6" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
+      <c r="AU6" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AV6" s="27"/>
       <c r="AW6" s="27"/>
       <c r="AX6" s="27"/>
@@ -29446,77 +29521,91 @@
       <c r="AZ6" s="6"/>
       <c r="BA6" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB6" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="BC6" s="5"/>
+        <v>1.0</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27">
-        <v>2.0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="G7" s="27"/>
       <c r="H7" s="29"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K7" s="27">
         <v>1.0</v>
       </c>
-      <c r="L7" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27">
         <v>1.0</v>
       </c>
       <c r="N7" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Q7" s="27"/>
       <c r="R7" s="29"/>
       <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="T7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="U7" s="27"/>
       <c r="V7" s="27">
         <v>1.0</v>
       </c>
       <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="X7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="29"/>
-      <c r="AB7" s="27"/>
+      <c r="AB7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AC7" s="50"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="27">
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27">
         <v>1.0</v>
       </c>
-      <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
+      <c r="AI7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ7" s="27"/>
       <c r="AK7" s="27"/>
       <c r="AL7" s="27"/>
-      <c r="AM7" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AN7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AO7" s="27"/>
       <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
+      <c r="AQ7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AR7" s="27"/>
       <c r="AS7" s="27"/>
       <c r="AT7" s="27"/>
@@ -29528,18 +29617,16 @@
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="BB7" s="5">
-        <v>2.0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="BB7" s="5"/>
       <c r="BC7" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -29548,15 +29635,13 @@
       <c r="F8" s="27">
         <v>1.0</v>
       </c>
-      <c r="G8" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="G8" s="27"/>
       <c r="H8" s="29"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="J8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27">
@@ -29566,15 +29651,13 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="27"/>
+      <c r="S8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T8" s="27"/>
-      <c r="U8" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="U8" s="27"/>
       <c r="V8" s="27"/>
-      <c r="W8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W8" s="27"/>
       <c r="X8" s="27">
         <v>1.0</v>
       </c>
@@ -29587,27 +29670,35 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="27"/>
       <c r="AE8" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF8" s="27"/>
-      <c r="AG8" s="27">
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27">
         <v>1.0</v>
       </c>
-      <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
+      <c r="AK8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AL8" s="27"/>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
       <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
+      <c r="AP8" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
+      <c r="AR8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AS8" s="27">
         <v>1.0</v>
       </c>
-      <c r="AT8" s="27"/>
+      <c r="AT8" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU8" s="27"/>
       <c r="AV8" s="27"/>
       <c r="AW8" s="27"/>
@@ -29616,87 +29707,79 @@
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB8" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC8" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="BC8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="27">
+        <v>2.0</v>
+      </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27">
+        <v>2.0</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27">
         <v>1.0</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="N9" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
+      <c r="V9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="W9" s="27"/>
-      <c r="X9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="29"/>
       <c r="AB9" s="27"/>
       <c r="AC9" s="50"/>
       <c r="AD9" s="27"/>
-      <c r="AE9" s="27">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27">
         <v>1.0</v>
       </c>
-      <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
-      <c r="AK9" s="27">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27">
         <v>1.0</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AP9" s="27"/>
       <c r="AQ9" s="27"/>
-      <c r="AR9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AS9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
       <c r="AT9" s="27"/>
       <c r="AU9" s="27"/>
       <c r="AV9" s="27"/>
@@ -29709,13 +29792,15 @@
         <v>15</v>
       </c>
       <c r="BB9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC9" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="27">
         <v>1.0</v>
@@ -29773,7 +29858,9 @@
       <c r="AQ10" s="27"/>
       <c r="AR10" s="27"/>
       <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
+      <c r="AT10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
       <c r="AW10" s="27"/>
@@ -29782,7 +29869,7 @@
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB10" s="5">
         <v>2.0</v>
@@ -29793,26 +29880,30 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="27">
+        <v>71</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
         <v>1.0</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="27">
+        <v>2.0</v>
+      </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="O11" s="27">
+        <v>2.0</v>
+      </c>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="29"/>
@@ -29823,9 +29914,7 @@
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
-      <c r="Z11" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z11" s="27"/>
       <c r="AA11" s="29"/>
       <c r="AB11" s="27">
         <v>1.0</v>
@@ -29833,31 +29922,31 @@
       <c r="AC11" s="50"/>
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
-      <c r="AF11" s="27">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27">
         <v>1.0</v>
       </c>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
       <c r="AK11" s="27"/>
       <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27">
+      <c r="AM11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27">
         <v>3.0</v>
       </c>
-      <c r="AO11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AP11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AQ11" s="27"/>
       <c r="AR11" s="27"/>
       <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
+      <c r="AT11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU11" s="27"/>
       <c r="AV11" s="27"/>
       <c r="AW11" s="27"/>
@@ -29868,45 +29957,39 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="BB11" s="5"/>
+      <c r="BB11" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BC11" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1.0</v>
+      </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="29"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="L12" s="27">
+        <v>3.0</v>
+      </c>
       <c r="M12" s="27"/>
-      <c r="N12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N12" s="27"/>
       <c r="O12" s="27"/>
-      <c r="P12" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="29"/>
-      <c r="S12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
@@ -29914,7 +29997,7 @@
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA12" s="29"/>
       <c r="AB12" s="27">
@@ -29924,18 +30007,26 @@
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
+      <c r="AI12" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ12" s="27"/>
       <c r="AK12" s="27"/>
       <c r="AL12" s="27"/>
       <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
+      <c r="AN12" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="AO12" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AP12" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27"/>
       <c r="AS12" s="27"/>
@@ -29948,11 +30039,9 @@
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="BB12" s="5">
-        <v>1.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB12" s="5"/>
       <c r="BC12" s="5">
         <v>1.0</v>
       </c>
@@ -29960,54 +30049,54 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="27">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
         <v>1.0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="F13" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="27"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
-      <c r="O13" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="P13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="29"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="W13" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="X13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="29"/>
-      <c r="AB13" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AB13" s="27"/>
       <c r="AC13" s="50"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
-      <c r="AH13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AI13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AJ13" s="27"/>
       <c r="AK13" s="27"/>
       <c r="AL13" s="27"/>
@@ -30015,17 +30104,17 @@
         <v>1.0</v>
       </c>
       <c r="AN13" s="27"/>
-      <c r="AO13" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
       <c r="AQ13" s="27">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AR13" s="27"/>
       <c r="AS13" s="27"/>
       <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
+      <c r="AU13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV13" s="27"/>
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
@@ -30033,27 +30122,23 @@
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="BB13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="BC13" s="5">
-        <v>1.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27">
+      <c r="D14" s="27">
         <v>1.0</v>
       </c>
+      <c r="E14" s="27"/>
       <c r="F14" s="27">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="29"/>
@@ -30062,48 +30147,50 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27">
         <v>1.0</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R14" s="29"/>
-      <c r="S14" s="27"/>
+      <c r="S14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
-      <c r="W14" s="27">
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="27">
         <v>1.0</v>
       </c>
-      <c r="X14" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="27"/>
       <c r="AC14" s="50"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
+      <c r="AF14" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
-      <c r="AI14" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="AI14" s="27"/>
       <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
       <c r="AL14" s="27"/>
-      <c r="AM14" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
       <c r="AO14" s="27"/>
       <c r="AP14" s="27"/>
-      <c r="AQ14" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AQ14" s="27"/>
       <c r="AR14" s="27"/>
       <c r="AS14" s="27"/>
       <c r="AT14" s="27"/>
@@ -30117,12 +30204,16 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
+      <c r="BB14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -30198,7 +30289,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="27">
         <v>1.0</v>
@@ -30354,7 +30445,7 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -30419,7 +30510,9 @@
       </c>
       <c r="AS18" s="27"/>
       <c r="AT18" s="27"/>
-      <c r="AU18" s="27"/>
+      <c r="AU18" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV18" s="27"/>
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
@@ -30427,7 +30520,7 @@
       <c r="AZ18" s="6"/>
       <c r="BA18" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB18" s="5"/>
       <c r="BC18" s="5">
@@ -30437,17 +30530,13 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="29"/>
       <c r="I19" s="27"/>
@@ -30475,22 +30564,34 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="27"/>
-      <c r="AH19" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AH19" s="27"/>
       <c r="AI19" s="27"/>
       <c r="AJ19" s="27"/>
       <c r="AK19" s="27"/>
       <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
+      <c r="AM19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AN19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AO19" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AP19" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27"/>
+      <c r="AR19" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AS19" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
+      <c r="AU19" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AV19" s="27"/>
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
@@ -30498,44 +30599,52 @@
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="BB19" s="5">
-        <v>1.0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="BB19" s="5"/>
       <c r="BC19" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="29"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="O20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="29"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
+      <c r="V20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
+      <c r="Z20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="27"/>
       <c r="AC20" s="50"/>
@@ -30548,26 +30657,18 @@
       <c r="AJ20" s="27"/>
       <c r="AK20" s="27"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="27">
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27">
         <v>2.0</v>
       </c>
-      <c r="AN20" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AO20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AP20" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AS20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AT20" s="27"/>
+      <c r="AT20" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AU20" s="27"/>
       <c r="AV20" s="27"/>
       <c r="AW20" s="27"/>
@@ -30576,11 +30677,11 @@
       <c r="AZ20" s="6"/>
       <c r="BA20" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB20" s="5"/>
       <c r="BC20" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -30643,8 +30744,12 @@
         <v>1.0</v>
       </c>
       <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
+      <c r="AT21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AU21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV21" s="27"/>
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
@@ -30652,7 +30757,7 @@
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB21" s="5"/>
       <c r="BC21" s="5">
@@ -30661,13 +30766,17 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27">
+        <v>4.0</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="29"/>
       <c r="I22" s="27"/>
@@ -30682,37 +30791,27 @@
       <c r="R22" s="29"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="51"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="27"/>
-      <c r="W22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="X22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
-      <c r="Z22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="27"/>
       <c r="AC22" s="50"/>
-      <c r="AD22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
+      <c r="AH22" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AI22" s="27"/>
-      <c r="AJ22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AJ22" s="27"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="27"/>
-      <c r="AM22" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AM22" s="27"/>
       <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
       <c r="AP22" s="27"/>
@@ -30728,48 +30827,46 @@
       <c r="AZ22" s="6"/>
       <c r="BA22" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BB22" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BC22" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="29"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="29"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27">
+      <c r="U23" s="51"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27">
         <v>1.0</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
+      <c r="X23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y23" s="27"/>
       <c r="Z23" s="27">
         <v>1.0</v>
@@ -30777,24 +30874,28 @@
       <c r="AA23" s="29"/>
       <c r="AB23" s="27"/>
       <c r="AC23" s="50"/>
-      <c r="AD23" s="27"/>
+      <c r="AD23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
+      <c r="AJ23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AK23" s="27"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
+      <c r="AM23" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="27"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="27"/>
-      <c r="AS23" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AS23" s="27"/>
       <c r="AT23" s="27"/>
       <c r="AU23" s="27"/>
       <c r="AV23" s="27"/>
@@ -30808,12 +30909,12 @@
       </c>
       <c r="BB23" s="5"/>
       <c r="BC23" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -30824,24 +30925,26 @@
       <c r="H24" s="29"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="N24" s="27">
         <v>1.0</v>
       </c>
+      <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R24" s="29"/>
-      <c r="S24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
+      <c r="V24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="W24" s="27"/>
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
@@ -30850,9 +30953,7 @@
       <c r="AB24" s="27"/>
       <c r="AC24" s="50"/>
       <c r="AD24" s="27"/>
-      <c r="AE24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE24" s="27"/>
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
@@ -30867,7 +30968,9 @@
       <c r="AQ24" s="27"/>
       <c r="AR24" s="27"/>
       <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
+      <c r="AT24" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
@@ -30876,43 +30979,43 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BB24" s="5">
+        <v>7</v>
+      </c>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="29"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="M25" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="N25" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="27"/>
+      <c r="S25" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T25" s="27"/>
-      <c r="U25" s="51"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
@@ -30922,7 +31025,9 @@
       <c r="AB25" s="27"/>
       <c r="AC25" s="50"/>
       <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
+      <c r="AE25" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AF25" s="27"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="27"/>
@@ -30946,18 +31051,20 @@
       <c r="AZ25" s="6"/>
       <c r="BA25" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5">
+        <v>6</v>
+      </c>
+      <c r="BB25" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="27"/>
+        <v>80</v>
+      </c>
+      <c r="B26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -30974,20 +31081,22 @@
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="S26" s="27"/>
       <c r="T26" s="27">
         <v>1.0</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="W26" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="W26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
+      <c r="Z26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AA26" s="29"/>
       <c r="AB26" s="27"/>
       <c r="AC26" s="50"/>
@@ -31007,7 +31116,9 @@
       <c r="AQ26" s="27"/>
       <c r="AR26" s="27"/>
       <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
+      <c r="AT26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU26" s="27"/>
       <c r="AV26" s="27"/>
       <c r="AW26" s="27"/>
@@ -31016,23 +31127,27 @@
       <c r="AZ26" s="6"/>
       <c r="BA26" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="27">
+        <v>87</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27">
         <v>1.0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="27">
+        <v>1.0</v>
+      </c>
       <c r="H27" s="29"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -31045,21 +31160,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="29"/>
       <c r="S27" s="27"/>
-      <c r="T27" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="W27" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="T27" s="27"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
-      <c r="Z27" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z27" s="27"/>
       <c r="AA27" s="29"/>
       <c r="AB27" s="27"/>
       <c r="AC27" s="50"/>
@@ -31091,11 +31198,13 @@
         <v>5</v>
       </c>
       <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
+      <c r="BC27" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -31114,30 +31223,28 @@
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="29"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
+      <c r="S28" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="T28" s="27">
+        <v>1.0</v>
+      </c>
       <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="X28" s="27">
+      <c r="V28" s="27">
         <v>2.0</v>
       </c>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
       <c r="AA28" s="29"/>
-      <c r="AB28" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AB28" s="27"/>
       <c r="AC28" s="50"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
       <c r="AG28" s="27"/>
-      <c r="AH28" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AH28" s="27"/>
       <c r="AI28" s="27"/>
       <c r="AJ28" s="27"/>
       <c r="AK28" s="27"/>
@@ -31165,7 +31272,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -31174,9 +31281,7 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
@@ -31184,26 +31289,32 @@
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Q29" s="27"/>
       <c r="R29" s="29"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
+      <c r="W29" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="X29" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
       <c r="AA29" s="29"/>
-      <c r="AB29" s="27"/>
+      <c r="AB29" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AC29" s="50"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
+      <c r="AH29" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AI29" s="27"/>
       <c r="AJ29" s="27"/>
       <c r="AK29" s="27"/>
@@ -31212,9 +31323,7 @@
       <c r="AN29" s="27"/>
       <c r="AO29" s="27"/>
       <c r="AP29" s="27"/>
-      <c r="AQ29" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AQ29" s="27"/>
       <c r="AR29" s="27"/>
       <c r="AS29" s="27"/>
       <c r="AT29" s="27"/>
@@ -31226,16 +31335,14 @@
       <c r="AZ29" s="6"/>
       <c r="BA29" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" s="5"/>
-      <c r="BC29" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BC29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -31244,15 +31351,13 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="27">
+        <v>2.0</v>
+      </c>
       <c r="J30" s="27"/>
-      <c r="K30" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="K30" s="27"/>
       <c r="L30" s="27"/>
-      <c r="M30" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
@@ -31263,9 +31368,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
-      <c r="V30" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="V30" s="27"/>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
@@ -31286,7 +31389,9 @@
       <c r="AN30" s="27"/>
       <c r="AO30" s="27"/>
       <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
+      <c r="AQ30" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AR30" s="27"/>
       <c r="AS30" s="27"/>
       <c r="AT30" s="27"/>
@@ -31301,11 +31406,13 @@
         <v>4</v>
       </c>
       <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
+      <c r="BC30" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -31433,7 +31540,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -31479,7 +31586,9 @@
       <c r="AQ33" s="27"/>
       <c r="AR33" s="27"/>
       <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
+      <c r="AT33" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
       <c r="AW33" s="27"/>
@@ -31488,7 +31597,7 @@
       <c r="AZ33" s="6"/>
       <c r="BA33" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
@@ -32120,11 +32229,11 @@
       </c>
       <c r="AT40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV40" s="6">
         <f t="shared" si="2"/>
@@ -63054,7 +63163,7 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BA3" s="54" t="s">
         <v>133</v>
@@ -63199,19 +63308,23 @@
       <c r="AT5" s="16">
         <v>1.0</v>
       </c>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
+      <c r="AU5" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>3.0</v>
+      </c>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
       <c r="BA5" s="44">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="55">
         <v>2.0</v>
@@ -63290,14 +63403,16 @@
       <c r="AT6" s="32">
         <v>1.0</v>
       </c>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="32">
+        <v>2.0</v>
+      </c>
       <c r="AV6" s="32"/>
       <c r="AW6" s="32"/>
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -63384,18 +63499,20 @@
       <c r="AS7" s="27"/>
       <c r="AT7" s="27"/>
       <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
+      <c r="AV7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="BA7" s="44">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -63470,19 +63587,21 @@
         <v>1.0</v>
       </c>
       <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
+      <c r="AU8" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AV8" s="16"/>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="16"/>
       <c r="BA8" s="44">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -63561,7 +63680,7 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="27">
         <v>2.0</v>
@@ -63638,7 +63757,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -63700,18 +63819,20 @@
       <c r="AS11" s="27"/>
       <c r="AT11" s="27"/>
       <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
+      <c r="AV11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
       <c r="BA11" s="44">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -64200,7 +64321,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="27">
         <v>1.0</v>
@@ -64269,7 +64390,7 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -64283,9 +64404,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
-      <c r="N20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
@@ -64302,39 +64421,43 @@
       <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
-      <c r="AE20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE20" s="27"/>
       <c r="AF20" s="27"/>
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
-      <c r="AI20" s="27">
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27">
         <v>1.0</v>
       </c>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
+      <c r="AM20" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="27"/>
       <c r="AS20" s="27"/>
       <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
+      <c r="AU20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV20" s="27"/>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
       <c r="BA20" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -64348,7 +64471,9 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
@@ -64358,22 +64483,22 @@
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
-      <c r="X21" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
+      <c r="AE21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
-      <c r="AH21" s="27">
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27">
         <v>1.0</v>
       </c>
-      <c r="AI21" s="27"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="27"/>
@@ -64397,29 +64522,23 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="29"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
@@ -64427,7 +64546,9 @@
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="X22" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
@@ -64437,7 +64558,9 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
+      <c r="AH22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AI22" s="27"/>
       <c r="AJ22" s="27"/>
       <c r="AK22" s="27"/>
@@ -64462,23 +64585,29 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="29"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="P23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
@@ -64499,16 +64628,10 @@
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
-      <c r="AK23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AK23" s="27"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AN23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="27"/>
       <c r="AQ23" s="27"/>
@@ -64655,7 +64778,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -64665,13 +64788,13 @@
       <c r="G26" s="27"/>
       <c r="H26" s="29"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
-      <c r="N26" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N26" s="27"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
@@ -64705,18 +64828,20 @@
       <c r="AS26" s="27"/>
       <c r="AT26" s="27"/>
       <c r="AU26" s="27"/>
-      <c r="AV26" s="27"/>
+      <c r="AV26" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
       <c r="BA26" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -64730,7 +64855,9 @@
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="N27" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
@@ -64750,9 +64877,7 @@
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
-      <c r="AH27" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
@@ -64777,7 +64902,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -64791,9 +64916,7 @@
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -64813,7 +64936,9 @@
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
       <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
+      <c r="AH28" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AI28" s="27"/>
       <c r="AJ28" s="27"/>
       <c r="AK28" s="27"/>
@@ -64838,7 +64963,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -64852,12 +64977,12 @@
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
@@ -64899,7 +65024,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -64909,16 +65034,16 @@
       <c r="G30" s="27"/>
       <c r="H30" s="29"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
@@ -64960,7 +65085,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -64970,7 +65095,9 @@
       <c r="G31" s="27"/>
       <c r="H31" s="29"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -64996,9 +65123,7 @@
       <c r="AG31" s="27"/>
       <c r="AH31" s="27"/>
       <c r="AI31" s="27"/>
-      <c r="AJ31" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AJ31" s="27"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="27"/>
       <c r="AM31" s="27"/>
@@ -65021,7 +65146,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -65031,9 +65156,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="29"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -65059,7 +65182,9 @@
       <c r="AG32" s="27"/>
       <c r="AH32" s="27"/>
       <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
+      <c r="AJ32" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AK32" s="27"/>
       <c r="AL32" s="27"/>
       <c r="AM32" s="27"/>
@@ -65722,11 +65847,11 @@
       </c>
       <c r="AU41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW41" s="5">
         <f t="shared" si="2"/>
@@ -65742,7 +65867,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -66943,7 +67068,7 @@
         <v>168</v>
       </c>
       <c r="L10" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>152</v>
@@ -66963,7 +67088,7 @@
         <v>170</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>164</v>
@@ -67012,7 +67137,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="L12" s="5">
         <v>2.0</v>
@@ -67029,10 +67154,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>156</v>
@@ -67049,7 +67174,7 @@
         <v>4.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="L13" s="5">
         <v>2.0</v>
@@ -67085,7 +67210,7 @@
         <v>3.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" s="5">
         <v>2.0</v>
@@ -67102,10 +67227,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>164</v>
@@ -67121,13 +67246,13 @@
         <v>3.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L15" s="5">
         <v>2.0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N15" s="5">
         <v>5.0</v>
@@ -67193,9 +67318,11 @@
         <v>3.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2.0</v>
+      </c>
       <c r="M17" s="5" t="s">
         <v>190</v>
       </c>
@@ -67227,14 +67354,14 @@
         <v>3.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N18" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
@@ -67249,17 +67376,17 @@
       <c r="E19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I19" s="5">
         <v>3.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N19" s="5">
         <v>4.0</v>
@@ -67270,10 +67397,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>153</v>
@@ -67283,17 +67410,17 @@
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I20" s="5">
         <v>3.0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N20" s="5">
         <v>3.0</v>
@@ -67317,17 +67444,17 @@
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I21" s="5">
         <v>2.0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N21" s="5">
         <v>3.0</v>
@@ -67338,13 +67465,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>203</v>
-      </c>
       <c r="D22" s="49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E22" s="49"/>
       <c r="G22" s="49"/>
@@ -67353,7 +67480,7 @@
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
@@ -67385,14 +67512,14 @@
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N23" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -67417,7 +67544,7 @@
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
@@ -67449,11 +67576,11 @@
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N25" s="5">
         <v>2.0</v>
@@ -67464,7 +67591,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>207</v>
@@ -67481,8 +67608,9 @@
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
         <v>148</v>
       </c>
@@ -67498,10 +67626,10 @@
         <v>212</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>156</v>
@@ -67512,10 +67640,10 @@
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N27" s="5">
         <v>2.0</v>
@@ -67533,14 +67661,14 @@
       <c r="E28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N28" s="5">
         <v>2.0</v>
@@ -67563,14 +67691,14 @@
         <v>174</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N29" s="5">
         <v>2.0</v>
@@ -67591,7 +67719,7 @@
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>214</v>
@@ -67608,7 +67736,7 @@
         <v>216</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>164</v>
@@ -67617,7 +67745,7 @@
         <v>164</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" s="5" t="s">
@@ -67636,18 +67764,19 @@
         <v>217</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>156</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="M32" s="5" t="s">
         <v>159</v>
       </c>
@@ -67661,15 +67790,17 @@
         <v>219</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E33" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="M33" s="5" t="s">
         <v>199</v>
@@ -67681,10 +67812,10 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>157</v>
@@ -67704,13 +67835,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E35" s="49" t="s">
         <v>146</v>
@@ -67727,7 +67858,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>144</v>
@@ -67750,19 +67881,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>157</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
+      <c r="M37" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="N37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -67770,7 +67904,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>179</v>
@@ -67790,10 +67924,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>174</v>
@@ -67830,7 +67964,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>163</v>
@@ -67850,13 +67984,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>156</v>
@@ -67870,7 +68004,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C43" s="49" t="s">
         <v>198</v>
@@ -67890,13 +68024,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>231</v>
-      </c>
       <c r="D44" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>152</v>
@@ -67910,10 +68044,10 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D45" s="49" t="s">
         <v>174</v>
@@ -67930,16 +68064,16 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -67950,7 +68084,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C47" s="49" t="s">
         <v>144</v>
@@ -67966,13 +68100,29 @@
       <c r="N47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
+      <c r="A48" s="49">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>220</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="N48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
+      <c r="A49" s="49">
+        <v>47.0</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="N49" s="5"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="YBb/v89E9RD7p/e82SSZhRrUZN6W6DhdfVypsnUF/TA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="KCSWMUleTP2KA5AUJ8UtnNfMBPncuC/m+G++KNWuD2A="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="241">
   <si>
     <t>MARLOW DUKES 2024</t>
   </si>
@@ -216,10 +216,10 @@
     <t>KERMIT</t>
   </si>
   <si>
-    <t>FATHER TED</t>
+    <t>ZIGZAG</t>
   </si>
   <si>
-    <t>ZIGZAG</t>
+    <t>FATHER TED</t>
   </si>
   <si>
     <t>VINCE</t>
@@ -249,13 +249,13 @@
     <t>POSH CHRIS</t>
   </si>
   <si>
-    <t>DWARF</t>
-  </si>
-  <si>
     <t>FLO</t>
   </si>
   <si>
     <t>MATT B</t>
+  </si>
+  <si>
+    <t>DWARF</t>
   </si>
   <si>
     <t>PHANTOM</t>
@@ -273,6 +273,9 @@
     <t>DOGGER</t>
   </si>
   <si>
+    <t>CARZOLA</t>
+  </si>
+  <si>
     <t>MICK</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
   </si>
   <si>
     <t>GAZZA</t>
-  </si>
-  <si>
-    <t>CARZOLA</t>
   </si>
   <si>
     <t>PANDA</t>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 5-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7-3</t>
   </si>
   <si>
     <t>P</t>
@@ -522,13 +525,16 @@
     <t>No game</t>
   </si>
   <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t>Bruce - Carlos</t>
   </si>
   <si>
     <t>Lost 1-8</t>
   </si>
   <si>
-    <t>Bruce</t>
+    <t>ZigZag</t>
   </si>
   <si>
     <t>Captain Kirk - Father Ted</t>
@@ -540,16 +546,13 @@
     <t>Dwarf</t>
   </si>
   <si>
+    <t>Captain Kirk</t>
+  </si>
+  <si>
     <t>Flo - Kermit</t>
   </si>
   <si>
     <t>Drew 5-5</t>
-  </si>
-  <si>
-    <t>ZigZag</t>
-  </si>
-  <si>
-    <t>Captain Kirk</t>
   </si>
   <si>
     <t>Casale - Banksy</t>
@@ -576,6 +579,9 @@
     <t>Drew 3-3</t>
   </si>
   <si>
+    <t>Matt B</t>
+  </si>
+  <si>
     <t>Dom - Duncan</t>
   </si>
   <si>
@@ -594,19 +600,16 @@
     <t>Lost 4-6</t>
   </si>
   <si>
-    <t>Dom</t>
-  </si>
-  <si>
     <t>Dwarf - Gadget</t>
   </si>
   <si>
     <t>Lost 3-6</t>
   </si>
   <si>
-    <t>Woody</t>
+    <t>Dom</t>
   </si>
   <si>
-    <t>Matt B</t>
+    <t>Woody</t>
   </si>
   <si>
     <t>Father Ted - Posh</t>
@@ -739,6 +742,9 @@
   </si>
   <si>
     <t>Lost 4-5</t>
+  </si>
+  <si>
+    <t>Capt Kirk - Flo</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1392,8 @@
     <col customWidth="1" min="42" max="42" width="6.43" outlineLevel="1"/>
     <col customWidth="1" min="43" max="49" width="6.71" outlineLevel="1"/>
     <col customWidth="1" min="50" max="50" width="8.29" outlineLevel="1"/>
-    <col customWidth="1" min="51" max="53" width="9.14"/>
-    <col customWidth="1" min="54" max="56" width="8.86"/>
+    <col customWidth="1" min="51" max="54" width="9.14"/>
+    <col customWidth="1" min="55" max="56" width="8.86"/>
     <col customWidth="1" min="57" max="57" width="10.29"/>
     <col customWidth="1" min="58" max="62" width="8.86"/>
   </cols>
@@ -1942,17 +1948,19 @@
       <c r="AV5" s="15">
         <v>4.0</v>
       </c>
-      <c r="AW5" s="16"/>
+      <c r="AW5" s="16">
+        <v>-4.0</v>
+      </c>
       <c r="AX5" s="16"/>
       <c r="AY5" s="19"/>
       <c r="AZ5" s="19"/>
       <c r="BA5" s="19">
         <v>1.0</v>
       </c>
-      <c r="BB5" s="5"/>
+      <c r="BB5" s="19"/>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC39" si="1">COUNT(B5:AX5)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD39" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="BF5" s="5">
         <f t="shared" ref="BF5:BF39" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG5" s="5">
         <f t="shared" ref="BG5:BG39" si="5">SUM(BD5*3)+BE5</f>
@@ -1972,11 +1980,11 @@
       </c>
       <c r="BH5" s="5">
         <f t="shared" ref="BH5:BH39" si="6">SUM(B5:AX5)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BI5" s="20">
         <f t="shared" ref="BI5:BI39" si="7">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.5982905983</v>
+        <v>0.5833333333</v>
       </c>
       <c r="BJ5" s="20"/>
     </row>
@@ -2109,17 +2117,19 @@
       <c r="AV6" s="24">
         <v>-4.0</v>
       </c>
-      <c r="AW6" s="22"/>
+      <c r="AW6" s="22">
+        <v>-4.0</v>
+      </c>
       <c r="AX6" s="22"/>
       <c r="AY6" s="19"/>
       <c r="AZ6" s="19"/>
       <c r="BA6" s="19">
         <v>2.0</v>
       </c>
-      <c r="BB6" s="5"/>
+      <c r="BB6" s="19"/>
       <c r="BC6" s="5">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="2"/>
@@ -2131,7 +2141,7 @@
       </c>
       <c r="BF6" s="5">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BG6" s="5">
         <f t="shared" si="5"/>
@@ -2139,11 +2149,11 @@
       </c>
       <c r="BH6" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI6" s="20">
         <f t="shared" si="7"/>
-        <v>0.5213675214</v>
+        <v>0.5083333333</v>
       </c>
       <c r="BJ6" s="20"/>
     </row>
@@ -2283,7 +2293,7 @@
       <c r="BA7" s="19">
         <v>3.0</v>
       </c>
-      <c r="BB7" s="5"/>
+      <c r="BB7" s="19"/>
       <c r="BC7" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2437,21 +2447,23 @@
       <c r="AV8" s="16">
         <v>-4.0</v>
       </c>
-      <c r="AW8" s="16"/>
+      <c r="AW8" s="16">
+        <v>4.0</v>
+      </c>
       <c r="AX8" s="16"/>
       <c r="AY8" s="19"/>
       <c r="AZ8" s="19"/>
       <c r="BA8" s="19">
         <v>4.0</v>
       </c>
-      <c r="BB8" s="5"/>
+      <c r="BB8" s="19"/>
       <c r="BC8" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="3"/>
@@ -2463,15 +2475,15 @@
       </c>
       <c r="BG8" s="5">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BH8" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI8" s="20">
         <f t="shared" si="7"/>
-        <v>0.5092592593</v>
+        <v>0.5225225225</v>
       </c>
       <c r="BJ8" s="20"/>
     </row>
@@ -2601,7 +2613,7 @@
       <c r="BA9" s="19">
         <v>5.0</v>
       </c>
-      <c r="BB9" s="5"/>
+      <c r="BB9" s="19"/>
       <c r="BC9" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2636,57 +2648,55 @@
       <c r="A10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32">
+        <v>1.0</v>
+      </c>
       <c r="C10" s="32">
         <v>1.0</v>
       </c>
       <c r="D10" s="32">
         <v>9.0</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="32">
         <v>0.0</v>
       </c>
       <c r="H10" s="33"/>
-      <c r="I10" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="J10" s="34">
-        <v>8.0</v>
-      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="32">
-        <v>-2.0</v>
-      </c>
-      <c r="M10" s="32">
-        <v>-1.0</v>
-      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
-      <c r="P10" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="33"/>
-      <c r="S10" s="34">
+      <c r="S10" s="32">
         <v>-2.0</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="34">
         <v>1.0</v>
       </c>
-      <c r="U10" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="V10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="34">
+        <v>8.0</v>
+      </c>
       <c r="W10" s="32">
         <v>0.0</v>
       </c>
-      <c r="X10" s="32"/>
+      <c r="X10" s="32">
+        <v>-5.0</v>
+      </c>
       <c r="Y10" s="32">
         <v>0.0</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10" s="32">
         <v>2.0</v>
       </c>
       <c r="AA10" s="33"/>
@@ -2698,22 +2708,30 @@
         <v>0.0</v>
       </c>
       <c r="AE10" s="32">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AF10" s="32">
         <v>-2.0</v>
       </c>
       <c r="AG10" s="32">
-        <v>-5.0</v>
-      </c>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
+        <v>5.0</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>1.0</v>
+      </c>
       <c r="AJ10" s="32">
         <v>-1.0</v>
       </c>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32">
+      <c r="AK10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="AL10" s="32">
+        <v>-1.0</v>
+      </c>
+      <c r="AM10" s="34">
         <v>0.0</v>
       </c>
       <c r="AN10" s="32">
@@ -2722,38 +2740,44 @@
       <c r="AO10" s="32">
         <v>4.0</v>
       </c>
-      <c r="AP10" s="32"/>
+      <c r="AP10" s="32">
+        <v>-1.0</v>
+      </c>
       <c r="AQ10" s="32">
         <v>-4.0</v>
       </c>
       <c r="AR10" s="32">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AS10" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="AT10" s="32"/>
+        <v>-2.0</v>
+      </c>
+      <c r="AT10" s="32">
+        <v>-1.0</v>
+      </c>
       <c r="AU10" s="32">
         <v>1.0</v>
       </c>
       <c r="AV10" s="32">
+        <v>-4.0</v>
+      </c>
+      <c r="AW10" s="32">
         <v>4.0</v>
       </c>
-      <c r="AW10" s="32"/>
       <c r="AX10" s="32"/>
       <c r="AY10" s="19"/>
       <c r="AZ10" s="19"/>
       <c r="BA10" s="19">
         <v>6.0</v>
       </c>
-      <c r="BB10" s="5"/>
+      <c r="BB10" s="19"/>
       <c r="BC10" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="3"/>
@@ -2761,19 +2785,19 @@
       </c>
       <c r="BF10" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BG10" s="5">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BH10" s="5">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="BI10" s="20">
         <f t="shared" si="7"/>
-        <v>0.5714285714</v>
+        <v>0.5</v>
       </c>
       <c r="BJ10" s="20"/>
     </row>
@@ -2781,55 +2805,57 @@
       <c r="A11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="B11" s="27"/>
       <c r="C11" s="27">
         <v>1.0</v>
       </c>
       <c r="D11" s="27">
         <v>9.0</v>
       </c>
-      <c r="E11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="27">
         <v>0.0</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>8.0</v>
+      </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="M11" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="P11" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Q11" s="27"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="27">
+      <c r="S11" s="28">
         <v>-2.0</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="27">
         <v>1.0</v>
       </c>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28">
-        <v>8.0</v>
-      </c>
+      <c r="U11" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="V11" s="27"/>
       <c r="W11" s="27">
         <v>0.0</v>
       </c>
-      <c r="X11" s="27">
-        <v>-5.0</v>
-      </c>
+      <c r="X11" s="27"/>
       <c r="Y11" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z11" s="28">
         <v>2.0</v>
       </c>
       <c r="AA11" s="29"/>
@@ -2841,30 +2867,22 @@
         <v>0.0</v>
       </c>
       <c r="AE11" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF11" s="27">
         <v>-2.0</v>
       </c>
       <c r="AG11" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AH11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AI11" s="27">
-        <v>1.0</v>
-      </c>
+        <v>-5.0</v>
+      </c>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
       <c r="AJ11" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AK11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AL11" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AM11" s="28">
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27">
         <v>0.0</v>
       </c>
       <c r="AN11" s="27">
@@ -2873,38 +2891,36 @@
       <c r="AO11" s="27">
         <v>4.0</v>
       </c>
-      <c r="AP11" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="AP11" s="27"/>
       <c r="AQ11" s="27">
         <v>-4.0</v>
       </c>
       <c r="AR11" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS11" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AT11" s="27">
-        <v>-1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="AT11" s="27"/>
       <c r="AU11" s="27">
         <v>1.0</v>
       </c>
       <c r="AV11" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AW11" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="19"/>
       <c r="AZ11" s="19"/>
       <c r="BA11" s="19">
         <v>7.0</v>
       </c>
-      <c r="BB11" s="5"/>
+      <c r="BB11" s="19"/>
       <c r="BC11" s="5">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="2"/>
@@ -2916,7 +2932,7 @@
       </c>
       <c r="BF11" s="5">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BG11" s="5">
         <f t="shared" si="5"/>
@@ -2924,11 +2940,11 @@
       </c>
       <c r="BH11" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="BI11" s="20">
         <f t="shared" si="7"/>
-        <v>0.4848484848</v>
+        <v>0.5517241379</v>
       </c>
       <c r="BJ11" s="20"/>
     </row>
@@ -3058,7 +3074,7 @@
       <c r="BA12" s="19">
         <v>8.0</v>
       </c>
-      <c r="BB12" s="5"/>
+      <c r="BB12" s="19"/>
       <c r="BC12" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3212,17 +3228,19 @@
       <c r="AV13" s="27">
         <v>4.0</v>
       </c>
-      <c r="AW13" s="27"/>
+      <c r="AW13" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AX13" s="27"/>
       <c r="AY13" s="19"/>
       <c r="AZ13" s="19"/>
       <c r="BA13" s="19">
         <v>9.0</v>
       </c>
-      <c r="BB13" s="5"/>
+      <c r="BB13" s="19"/>
       <c r="BC13" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="2"/>
@@ -3234,7 +3252,7 @@
       </c>
       <c r="BF13" s="5">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG13" s="5">
         <f t="shared" si="5"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="BH13" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="BI13" s="20">
         <f t="shared" si="7"/>
-        <v>0.4351851852</v>
+        <v>0.4234234234</v>
       </c>
       <c r="BJ13" s="20"/>
     </row>
@@ -3356,7 +3374,7 @@
       <c r="BA14" s="19">
         <v>10.0</v>
       </c>
-      <c r="BB14" s="5"/>
+      <c r="BB14" s="19"/>
       <c r="BC14" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3498,17 +3516,19 @@
         <v>1.0</v>
       </c>
       <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
+      <c r="AW15" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AX15" s="27"/>
       <c r="AY15" s="19"/>
       <c r="AZ15" s="19"/>
       <c r="BA15" s="19">
         <v>11.0</v>
       </c>
-      <c r="BB15" s="5"/>
+      <c r="BB15" s="19"/>
       <c r="BC15" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="2"/>
@@ -3520,7 +3540,7 @@
       </c>
       <c r="BF15" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG15" s="5">
         <f t="shared" si="5"/>
@@ -3528,11 +3548,11 @@
       </c>
       <c r="BH15" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="BI15" s="20">
         <f t="shared" si="7"/>
-        <v>0.4666666667</v>
+        <v>0.4516129032</v>
       </c>
       <c r="BJ15" s="20"/>
     </row>
@@ -3643,17 +3663,19 @@
       <c r="AV16" s="27">
         <v>4.0</v>
       </c>
-      <c r="AW16" s="27"/>
+      <c r="AW16" s="28">
+        <v>-4.0</v>
+      </c>
       <c r="AX16" s="27"/>
       <c r="AY16" s="19"/>
       <c r="AZ16" s="19"/>
       <c r="BA16" s="19">
         <v>12.0</v>
       </c>
-      <c r="BB16" s="5"/>
+      <c r="BB16" s="19"/>
       <c r="BC16" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="2"/>
@@ -3665,7 +3687,7 @@
       </c>
       <c r="BF16" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG16" s="5">
         <f t="shared" si="5"/>
@@ -3673,11 +3695,11 @@
       </c>
       <c r="BH16" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="BI16" s="20">
         <f t="shared" si="7"/>
-        <v>0.4880952381</v>
+        <v>0.4712643678</v>
       </c>
       <c r="BJ16" s="20"/>
     </row>
@@ -3786,17 +3808,19 @@
       <c r="AV17" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AW17" s="27"/>
+      <c r="AW17" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="AX17" s="27"/>
       <c r="AY17" s="19"/>
       <c r="AZ17" s="19"/>
       <c r="BA17" s="19">
         <v>13.0</v>
       </c>
-      <c r="BB17" s="5"/>
+      <c r="BB17" s="19"/>
       <c r="BC17" s="5">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="2"/>
@@ -3808,7 +3832,7 @@
       </c>
       <c r="BF17" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG17" s="5">
         <f t="shared" si="5"/>
@@ -3816,11 +3840,11 @@
       </c>
       <c r="BH17" s="5">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI17" s="20">
         <f t="shared" si="7"/>
-        <v>0.4814814815</v>
+        <v>0.4642857143</v>
       </c>
       <c r="BJ17" s="20"/>
     </row>
@@ -3938,7 +3962,7 @@
       <c r="BA18" s="19">
         <v>14.0</v>
       </c>
-      <c r="BB18" s="5"/>
+      <c r="BB18" s="19"/>
       <c r="BC18" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -4093,7 +4117,7 @@
       <c r="BA19" s="19">
         <v>15.0</v>
       </c>
-      <c r="BB19" s="5"/>
+      <c r="BB19" s="19"/>
       <c r="BC19" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -4231,21 +4255,23 @@
       <c r="AV20" s="27">
         <v>4.0</v>
       </c>
-      <c r="AW20" s="27"/>
+      <c r="AW20" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AX20" s="27"/>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
       <c r="BA20" s="19">
         <v>16.0</v>
       </c>
-      <c r="BB20" s="5"/>
+      <c r="BB20" s="19"/>
       <c r="BC20" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="3"/>
@@ -4257,15 +4283,15 @@
       </c>
       <c r="BG20" s="5">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BH20" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="BI20" s="20">
         <f t="shared" si="7"/>
-        <v>0.3928571429</v>
+        <v>0.4137931034</v>
       </c>
       <c r="BJ20" s="20"/>
     </row>
@@ -4273,110 +4299,112 @@
       <c r="A21" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>-9.0</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="29"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27">
         <v>-8.0</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M21" s="27"/>
+      <c r="K21" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>-3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="Q21" s="27"/>
       <c r="R21" s="29"/>
-      <c r="S21" s="27"/>
+      <c r="S21" s="27">
+        <v>2.0</v>
+      </c>
       <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
+      <c r="U21" s="27">
+        <v>4.0</v>
+      </c>
       <c r="V21" s="27"/>
       <c r="W21" s="27">
         <v>0.0</v>
       </c>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
+      <c r="X21" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>0.0</v>
+      </c>
       <c r="Z21" s="27">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="27">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AC21" s="30"/>
       <c r="AD21" s="27">
         <v>0.0</v>
       </c>
       <c r="AE21" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AF21" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="AG21" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AL21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AM21" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AP21" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27">
         <v>2.0</v>
-      </c>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AO21" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AP21" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AQ21" s="27">
-        <v>-4.0</v>
-      </c>
-      <c r="AR21" s="27">
-        <v>-2.0</v>
       </c>
       <c r="AS21" s="27">
         <v>-2.0</v>
       </c>
       <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27">
+      <c r="AU21" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="28">
         <v>4.0</v>
       </c>
-      <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="19"/>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19">
         <v>17.0</v>
       </c>
-      <c r="BB21" s="5"/>
+      <c r="BB21" s="19"/>
       <c r="BC21" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="2"/>
@@ -4384,23 +4412,23 @@
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF21" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG21" s="5">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BH21" s="5">
         <f t="shared" si="6"/>
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="BI21" s="20">
         <f t="shared" si="7"/>
-        <v>0.4782608696</v>
+        <v>0.4861111111</v>
       </c>
       <c r="BJ21" s="20"/>
     </row>
@@ -4409,133 +4437,135 @@
         <v>76</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27">
-        <v>-8.0</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="I22" s="27">
+        <v>-7.0</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="27"/>
-      <c r="M22" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="27">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="29"/>
       <c r="S22" s="27">
         <v>2.0</v>
       </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="T22" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27">
         <v>0.0</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="28">
         <v>5.0</v>
       </c>
-      <c r="Y22" s="28">
+      <c r="Y22" s="27">
         <v>0.0</v>
       </c>
-      <c r="Z22" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="27">
         <v>-1.0</v>
       </c>
       <c r="AC22" s="30"/>
-      <c r="AD22" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AD22" s="27"/>
       <c r="AE22" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AF22" s="28">
+        <v>-4.0</v>
+      </c>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27">
         <v>-2.0</v>
       </c>
-      <c r="AG22" s="27">
-        <v>-5.0</v>
-      </c>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
+      <c r="AI22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ22" s="27"/>
       <c r="AK22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AL22" s="27">
-        <v>1.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="AL22" s="27"/>
       <c r="AM22" s="27">
         <v>0.0</v>
       </c>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27">
+      <c r="AN22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" s="28">
         <v>-4.0</v>
       </c>
       <c r="AP22" s="27">
         <v>-1.0</v>
       </c>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AQ22" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AR22" s="27"/>
       <c r="AS22" s="27">
         <v>-2.0</v>
       </c>
       <c r="AT22" s="27"/>
       <c r="AU22" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="AV22" s="27">
+        <v>-4.0</v>
+      </c>
+      <c r="AW22" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AX22" s="27"/>
       <c r="AY22" s="19"/>
       <c r="AZ22" s="19"/>
       <c r="BA22" s="19">
         <v>18.0</v>
       </c>
-      <c r="BB22" s="5"/>
+      <c r="BB22" s="19"/>
       <c r="BC22" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD22" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE22" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF22" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG22" s="5">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BH22" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="BI22" s="20">
         <f t="shared" si="7"/>
-        <v>0.4637681159</v>
+        <v>0.4722222222</v>
       </c>
       <c r="BJ22" s="20"/>
     </row>
@@ -4543,12 +4573,16 @@
       <c r="A23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27">
+      <c r="B23" s="27">
         <v>1.0</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28">
+      <c r="C23" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="D23" s="27">
+        <v>-9.0</v>
+      </c>
+      <c r="E23" s="27">
         <v>1.0</v>
       </c>
       <c r="F23" s="27">
@@ -4556,85 +4590,81 @@
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="27">
-        <v>-7.0</v>
-      </c>
-      <c r="J23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27">
+        <v>-8.0</v>
+      </c>
       <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="27">
+        <v>2.0</v>
+      </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27">
         <v>-2.0</v>
       </c>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="R23" s="29"/>
-      <c r="S23" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="T23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27">
         <v>0.0</v>
       </c>
-      <c r="X23" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="Y23" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="Z23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="27">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC23" s="30"/>
-      <c r="AD23" s="27"/>
+      <c r="AD23" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AE23" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AF23" s="27"/>
+      <c r="AF23" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AG23" s="27"/>
-      <c r="AH23" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="AI23" s="27">
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="28">
         <v>1.0</v>
       </c>
       <c r="AJ23" s="27"/>
-      <c r="AK23" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="AK23" s="27"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AM23" s="27"/>
       <c r="AN23" s="27">
         <v>0.0</v>
       </c>
-      <c r="AO23" s="28">
+      <c r="AO23" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AP23" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AQ23" s="27">
         <v>-4.0</v>
       </c>
-      <c r="AP23" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AQ23" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="AR23" s="27"/>
+      <c r="AR23" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AS23" s="27">
         <v>-2.0</v>
       </c>
       <c r="AT23" s="27"/>
-      <c r="AU23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AU23" s="27"/>
       <c r="AV23" s="27">
-        <v>-4.0</v>
+        <v>4.0</v>
       </c>
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
@@ -4643,18 +4673,18 @@
       <c r="BA23" s="19">
         <v>19.0</v>
       </c>
-      <c r="BB23" s="5"/>
+      <c r="BB23" s="19"/>
       <c r="BC23" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF23" s="5">
         <f t="shared" si="4"/>
@@ -4662,15 +4692,15 @@
       </c>
       <c r="BG23" s="5">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BH23" s="5">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="BI23" s="20">
         <f t="shared" si="7"/>
-        <v>0.4492753623</v>
+        <v>0.4782608696</v>
       </c>
       <c r="BJ23" s="20"/>
     </row>
@@ -4760,7 +4790,7 @@
       <c r="BA24" s="19">
         <v>20.0</v>
       </c>
-      <c r="BB24" s="5"/>
+      <c r="BB24" s="19"/>
       <c r="BC24" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4873,7 +4903,7 @@
       <c r="BA25" s="19">
         <v>21.0</v>
       </c>
-      <c r="BB25" s="5"/>
+      <c r="BB25" s="19"/>
       <c r="BC25" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4980,7 +5010,7 @@
       <c r="BA26" s="19">
         <v>22.0</v>
       </c>
-      <c r="BB26" s="5"/>
+      <c r="BB26" s="19"/>
       <c r="BC26" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5093,7 +5123,7 @@
       <c r="BA27" s="19">
         <v>23.0</v>
       </c>
-      <c r="BB27" s="5"/>
+      <c r="BB27" s="19"/>
       <c r="BC27" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5198,7 +5228,7 @@
       <c r="BA28" s="19">
         <v>24.0</v>
       </c>
-      <c r="BB28" s="5"/>
+      <c r="BB28" s="19"/>
       <c r="BC28" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5242,21 +5272,25 @@
       <c r="H29" s="29"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="K29" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="M29" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="R29" s="29"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
-      <c r="U29" s="27">
-        <v>-4.0</v>
-      </c>
+      <c r="U29" s="27"/>
       <c r="V29" s="27">
         <v>-8.0</v>
       </c>
@@ -5267,62 +5301,58 @@
       <c r="AA29" s="29"/>
       <c r="AB29" s="27"/>
       <c r="AC29" s="30"/>
-      <c r="AD29" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
       <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI29" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="AJ29" s="27"/>
       <c r="AK29" s="27"/>
-      <c r="AL29" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="AL29" s="27"/>
       <c r="AM29" s="27"/>
-      <c r="AN29" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="AN29" s="27"/>
       <c r="AO29" s="27"/>
-      <c r="AP29" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AQ29" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
       <c r="AR29" s="27">
         <v>-2.0</v>
       </c>
       <c r="AS29" s="27"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="27"/>
+      <c r="AT29" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AU29" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AV29" s="27"/>
-      <c r="AW29" s="27"/>
+      <c r="AW29" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AX29" s="27"/>
       <c r="AY29" s="19"/>
       <c r="AZ29" s="19"/>
       <c r="BA29" s="19">
         <v>25.0</v>
       </c>
-      <c r="BB29" s="5"/>
+      <c r="BB29" s="19"/>
       <c r="BC29" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG29" s="5">
         <f t="shared" si="5"/>
@@ -5330,7 +5360,7 @@
       </c>
       <c r="BH29" s="5">
         <f t="shared" si="6"/>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="BI29" s="20">
         <f t="shared" si="7"/>
@@ -5344,13 +5374,9 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="27">
-        <v>9.0</v>
-      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="29"/>
       <c r="I30" s="27"/>
@@ -5361,12 +5387,18 @@
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="R30" s="29"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
+      <c r="U30" s="27">
+        <v>-4.0</v>
+      </c>
+      <c r="V30" s="27">
+        <v>-8.0</v>
+      </c>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
@@ -5374,25 +5406,35 @@
       <c r="AA30" s="29"/>
       <c r="AB30" s="27"/>
       <c r="AC30" s="30"/>
-      <c r="AD30" s="27"/>
+      <c r="AD30" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AE30" s="27"/>
       <c r="AF30" s="27"/>
       <c r="AG30" s="27"/>
-      <c r="AH30" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AI30" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AJ30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
+      <c r="AL30" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
+      <c r="AN30" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
+      <c r="AP30" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AQ30" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="AR30" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="AS30" s="27"/>
       <c r="AT30" s="27"/>
       <c r="AU30" s="27"/>
@@ -5404,34 +5446,34 @@
       <c r="BA30" s="19">
         <v>26.0</v>
       </c>
-      <c r="BB30" s="5"/>
+      <c r="BB30" s="19"/>
       <c r="BC30" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD30" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF30" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BG30" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH30" s="5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>-12</v>
       </c>
       <c r="BI30" s="20">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.3333333333</v>
       </c>
       <c r="BJ30" s="20"/>
     </row>
@@ -5441,52 +5483,32 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="D31" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="E31" s="27"/>
       <c r="F31" s="27">
         <v>1.0</v>
       </c>
-      <c r="G31" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="G31" s="27"/>
       <c r="H31" s="29"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
-      <c r="M31" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="M31" s="27"/>
       <c r="N31" s="27"/>
-      <c r="O31" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="P31" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="Q31" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
       <c r="R31" s="29"/>
-      <c r="S31" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="S31" s="27"/>
       <c r="T31" s="27"/>
-      <c r="U31" s="27">
-        <v>-4.0</v>
-      </c>
-      <c r="V31" s="27">
-        <v>-8.0</v>
-      </c>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
       <c r="W31" s="27"/>
-      <c r="X31" s="27">
-        <v>-5.0</v>
-      </c>
-      <c r="Y31" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
       <c r="AA31" s="29"/>
       <c r="AB31" s="27"/>
@@ -5495,8 +5517,12 @@
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
+      <c r="AH31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AI31" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AJ31" s="27"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="27"/>
@@ -5517,34 +5543,34 @@
       <c r="BA31" s="19">
         <v>27.0</v>
       </c>
-      <c r="BB31" s="5"/>
+      <c r="BB31" s="19"/>
       <c r="BC31" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BG31" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH31" s="5">
         <f t="shared" si="6"/>
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="BI31" s="20">
         <f t="shared" si="7"/>
-        <v>0.2222222222</v>
+        <v>0.75</v>
       </c>
       <c r="BJ31" s="20"/>
     </row>
@@ -5555,35 +5581,51 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="E32" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="F32" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="29"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
+      <c r="M32" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="O32" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="P32" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="T32" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="U32" s="27"/>
+        <v>-2.0</v>
+      </c>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27">
+        <v>-4.0</v>
+      </c>
       <c r="V32" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="W32" s="27">
+        <v>-8.0</v>
+      </c>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="Y32" s="27">
         <v>0.0</v>
       </c>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
       <c r="Z32" s="27"/>
       <c r="AA32" s="29"/>
       <c r="AB32" s="27"/>
@@ -5614,10 +5656,10 @@
       <c r="BA32" s="19">
         <v>28.0</v>
       </c>
-      <c r="BB32" s="5"/>
+      <c r="BB32" s="19"/>
       <c r="BC32" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="2"/>
@@ -5625,23 +5667,23 @@
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF32" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BG32" s="5">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH32" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>-20</v>
       </c>
       <c r="BI32" s="20">
         <f t="shared" si="7"/>
-        <v>0.5833333333</v>
+        <v>0.2222222222</v>
       </c>
       <c r="BJ32" s="20"/>
     </row>
@@ -5649,22 +5691,12 @@
       <c r="A33" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="D33" s="28">
-        <v>9.0</v>
-      </c>
-      <c r="E33" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="G33" s="27"/>
       <c r="H33" s="29"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
@@ -5676,11 +5708,19 @@
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
+      <c r="S33" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="T33" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
+      <c r="V33" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="W33" s="27">
+        <v>0.0</v>
+      </c>
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
@@ -5713,10 +5753,10 @@
       <c r="BA33" s="19">
         <v>29.0</v>
       </c>
-      <c r="BB33" s="5"/>
+      <c r="BB33" s="19"/>
       <c r="BC33" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="2"/>
@@ -5728,7 +5768,7 @@
       </c>
       <c r="BF33" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG33" s="5">
         <f t="shared" si="5"/>
@@ -5736,11 +5776,11 @@
       </c>
       <c r="BH33" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI33" s="20">
         <f t="shared" si="7"/>
-        <v>0.4666666667</v>
+        <v>0.5833333333</v>
       </c>
       <c r="BJ33" s="20"/>
     </row>
@@ -5748,37 +5788,37 @@
       <c r="A34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="B34" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D34" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="E34" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="G34" s="27">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="29"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="M34" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="Q34" s="27"/>
       <c r="R34" s="29"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
-      <c r="V34" s="27">
-        <v>-8.0</v>
-      </c>
+      <c r="V34" s="27"/>
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
@@ -5791,9 +5831,7 @@
       <c r="AF34" s="27"/>
       <c r="AG34" s="27"/>
       <c r="AH34" s="27"/>
-      <c r="AI34" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="AI34" s="27"/>
       <c r="AJ34" s="27"/>
       <c r="AK34" s="27"/>
       <c r="AL34" s="27"/>
@@ -5802,16 +5840,10 @@
       <c r="AO34" s="27"/>
       <c r="AP34" s="27"/>
       <c r="AQ34" s="27"/>
-      <c r="AR34" s="27">
-        <v>-2.0</v>
-      </c>
+      <c r="AR34" s="27"/>
       <c r="AS34" s="27"/>
-      <c r="AT34" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AU34" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
@@ -5820,10 +5852,10 @@
       <c r="BA34" s="19">
         <v>30.0</v>
       </c>
-      <c r="BB34" s="5"/>
+      <c r="BB34" s="19"/>
       <c r="BC34" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="2"/>
@@ -5835,7 +5867,7 @@
       </c>
       <c r="BF34" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG34" s="5">
         <f t="shared" si="5"/>
@@ -5843,11 +5875,11 @@
       </c>
       <c r="BH34" s="5">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="BI34" s="20">
         <f t="shared" si="7"/>
-        <v>0.2592592593</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BJ34" s="20"/>
     </row>
@@ -5915,7 +5947,7 @@
       <c r="BA35" s="19">
         <v>31.0</v>
       </c>
-      <c r="BB35" s="5"/>
+      <c r="BB35" s="19"/>
       <c r="BC35" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6016,7 +6048,7 @@
       <c r="BA36" s="19">
         <v>32.0</v>
       </c>
-      <c r="BB36" s="5"/>
+      <c r="BB36" s="19"/>
       <c r="BC36" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6109,7 +6141,7 @@
       <c r="BA37" s="19">
         <v>33.0</v>
       </c>
-      <c r="BB37" s="5"/>
+      <c r="BB37" s="19"/>
       <c r="BC37" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6200,7 +6232,7 @@
       <c r="BA38" s="19">
         <v>34.0</v>
       </c>
-      <c r="BB38" s="5"/>
+      <c r="BB38" s="19"/>
       <c r="BC38" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6291,7 +6323,7 @@
       <c r="BA39" s="19">
         <v>35.0</v>
       </c>
-      <c r="BB39" s="5"/>
+      <c r="BB39" s="19"/>
       <c r="BC39" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6327,7 +6359,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="32">
-        <f t="shared" ref="B40:AX40" si="8">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AW40" si="8">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="32">
@@ -6516,13 +6548,9 @@
       </c>
       <c r="AW40" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AX40" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BB40" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="AX40" s="32"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="5"/>
       <c r="BE40" s="5"/>
@@ -6669,9 +6697,10 @@
       <c r="AV41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AW41" s="5"/>
+      <c r="AW41" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="AX41" s="5"/>
-      <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
@@ -6732,7 +6761,6 @@
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
-      <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="5"/>
       <c r="BE42" s="5"/>
@@ -6777,7 +6805,6 @@
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
-      <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="5"/>
       <c r="BE43" s="5"/>
@@ -6815,7 +6842,6 @@
       <c r="AV44" s="6"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
-      <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="5"/>
       <c r="BE44" s="5"/>
@@ -27056,9 +27082,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="10" width="8.86"/>
-    <col customWidth="1" hidden="1" min="11" max="12" width="8.86"/>
-    <col customWidth="1" min="13" max="26" width="8.86"/>
+    <col customWidth="1" min="2" max="8" width="8.86"/>
+    <col customWidth="1" hidden="1" min="9" max="10" width="8.86"/>
+    <col customWidth="1" min="11" max="26" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27066,28 +27092,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>124</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -27113,11 +27139,11 @@
         <f t="shared" ref="G3:G32" si="1">SUM(C3*3)+D3</f>
         <v>10</v>
       </c>
-      <c r="K3" s="44">
+      <c r="I3" s="44">
         <v>18.0</v>
       </c>
-      <c r="L3" s="46">
-        <f t="shared" ref="L3:L7" si="2">K3/B3</f>
+      <c r="J3" s="46">
+        <f t="shared" ref="J3:J7" si="2">I3/B3</f>
         <v>3.6</v>
       </c>
     </row>
@@ -27144,10 +27170,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K4" s="44">
+      <c r="I4" s="44">
         <v>24.0</v>
       </c>
-      <c r="L4" s="46">
+      <c r="J4" s="46">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -27175,10 +27201,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K5" s="44">
+      <c r="I5" s="44">
         <v>27.0</v>
       </c>
-      <c r="L5" s="46">
+      <c r="J5" s="46">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
@@ -27206,17 +27232,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K6" s="44">
+      <c r="I6" s="44">
         <v>19.0</v>
       </c>
-      <c r="L6" s="46">
+      <c r="J6" s="46">
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="44">
         <v>3.0</v>
@@ -27237,10 +27263,10 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K7" s="44">
+      <c r="I7" s="44">
         <v>19.0</v>
       </c>
-      <c r="L7" s="46">
+      <c r="J7" s="46">
         <f t="shared" si="2"/>
         <v>6.333333333</v>
       </c>
@@ -27268,7 +27294,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
@@ -27293,7 +27319,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
@@ -27319,11 +27345,11 @@
         <v>7</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="L10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="44">
         <v>3.0</v>
@@ -27344,11 +27370,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="44">
         <v>3.0</v>
@@ -27369,11 +27395,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K12" s="44">
+      <c r="I12" s="44">
         <v>25.0</v>
       </c>
-      <c r="L12" s="46">
-        <f t="shared" ref="L12:L27" si="3">K12/B12</f>
+      <c r="J12" s="46">
+        <f t="shared" ref="J12:J27" si="3">I12/B12</f>
         <v>8.333333333</v>
       </c>
     </row>
@@ -27401,17 +27427,17 @@
         <v>6</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="K13" s="44">
+      <c r="I13" s="44">
         <v>5.0</v>
       </c>
-      <c r="L13" s="46">
+      <c r="J13" s="46">
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B14" s="44">
         <v>4.0</v>
@@ -27426,57 +27452,57 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K14" s="44">
+      <c r="I14" s="44">
         <v>19.0</v>
       </c>
-      <c r="L14" s="46">
+      <c r="J14" s="46">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" s="44">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="44">
         <v>1.0</v>
       </c>
       <c r="D15" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="44">
         <v>1.0</v>
       </c>
       <c r="F15" s="44">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K15" s="44">
+        <v>5</v>
+      </c>
+      <c r="I15" s="44">
         <v>12.0</v>
       </c>
-      <c r="L15" s="46">
+      <c r="J15" s="46">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B16" s="44">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="44">
         <v>1.0</v>
@@ -27485,57 +27511,57 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="44">
         <v>3.0</v>
-      </c>
-      <c r="F16" s="44">
-        <v>-9.0</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="44">
+      <c r="I16" s="44">
         <v>23.0</v>
       </c>
-      <c r="L16" s="46">
+      <c r="J16" s="46">
         <f t="shared" si="3"/>
-        <v>4.6</v>
+        <v>7.666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B17" s="44">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" s="44">
         <v>1.0</v>
       </c>
       <c r="D17" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="44">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" s="44">
-        <v>9.0</v>
+        <v>-9.0</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="47">
+        <v>4</v>
+      </c>
+      <c r="I17" s="47">
         <v>19.0</v>
       </c>
-      <c r="L17" s="46">
+      <c r="J17" s="46">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B18" s="44">
         <v>1.0</v>
@@ -27550,26 +27576,26 @@
         <v>0.0</v>
       </c>
       <c r="F18" s="44">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K18" s="47">
+      <c r="I18" s="47">
         <v>15.0</v>
       </c>
-      <c r="L18" s="46">
+      <c r="J18" s="46">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B19" s="44">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="44">
         <v>1.0</v>
@@ -27578,29 +27604,29 @@
         <v>0.0</v>
       </c>
       <c r="E19" s="44">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K19" s="47">
+      <c r="I19" s="47">
         <v>22.0</v>
       </c>
-      <c r="L19" s="46">
+      <c r="J19" s="46">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B20" s="44">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" s="44">
         <v>1.0</v>
@@ -27609,29 +27635,29 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="44">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" s="44">
-        <v>-3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K20" s="48">
+      <c r="I20" s="48">
         <v>14.0</v>
       </c>
-      <c r="L20" s="46">
+      <c r="J20" s="46">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="44">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C21" s="44">
         <v>1.0</v>
@@ -27640,7 +27666,7 @@
         <v>0.0</v>
       </c>
       <c r="E21" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" s="44">
         <v>-3.0</v>
@@ -27649,17 +27675,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K21" s="47">
+      <c r="I21" s="47">
         <v>25.0</v>
       </c>
-      <c r="L21" s="46">
+      <c r="J21" s="46">
         <f t="shared" si="3"/>
-        <v>8.333333333</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B22" s="44">
         <v>3.0</v>
@@ -27674,54 +27700,54 @@
         <v>2.0</v>
       </c>
       <c r="F22" s="44">
-        <v>-8.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G22" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K22" s="47">
+      <c r="I22" s="47">
         <v>5.0</v>
       </c>
-      <c r="L22" s="46">
+      <c r="J22" s="46">
         <f t="shared" si="3"/>
         <v>1.666666667</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B23" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="44">
         <v>3.0</v>
       </c>
-      <c r="C23" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="44">
-        <v>1.0</v>
-      </c>
       <c r="F23" s="44">
-        <v>-2.0</v>
+        <v>-11.0</v>
       </c>
       <c r="G23" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="47">
+        <v>3</v>
+      </c>
+      <c r="I23" s="47">
         <v>12.0</v>
       </c>
-      <c r="L23" s="46">
+      <c r="J23" s="46">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="44">
         <v>1.0</v>
@@ -27742,10 +27768,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K24" s="47">
+      <c r="I24" s="47">
         <v>15.0</v>
       </c>
-      <c r="L24" s="46">
+      <c r="J24" s="46">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -27773,10 +27799,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K25" s="47">
+      <c r="I25" s="47">
         <v>25.0</v>
       </c>
-      <c r="L25" s="46">
+      <c r="J25" s="46">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -27804,17 +27830,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K26" s="47">
+      <c r="I26" s="47">
         <v>8.0</v>
       </c>
-      <c r="L26" s="46">
+      <c r="J26" s="46">
         <f t="shared" si="3"/>
         <v>2.666666667</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="44">
         <v>1.0</v>
@@ -27835,10 +27861,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="47">
+      <c r="I27" s="47">
         <v>1.0</v>
       </c>
-      <c r="L27" s="46">
+      <c r="J27" s="46">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -27866,13 +27892,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="47">
+      <c r="I28" s="47">
         <v>4.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="44">
         <v>2.0</v>
@@ -27893,13 +27919,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="47">
+      <c r="I29" s="47">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B30" s="44">
         <v>2.0</v>
@@ -27920,7 +27946,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="47">
+      <c r="I30" s="47">
         <v>0.0</v>
       </c>
     </row>
@@ -27947,7 +27973,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K31" s="44">
+      <c r="I31" s="44">
         <v>0.0</v>
       </c>
     </row>
@@ -27974,7 +28000,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="44">
+      <c r="I32" s="44">
         <v>0.0</v>
       </c>
     </row>
@@ -28971,7 +28997,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.14"/>
     <col customWidth="1" min="2" max="11" width="7.29"/>
-    <col customWidth="1" min="12" max="51" width="7.29" outlineLevel="1"/>
+    <col customWidth="1" min="12" max="50" width="7.29" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="51" max="51" width="7.29" outlineLevel="1"/>
     <col customWidth="1" min="52" max="52" width="7.29"/>
     <col customWidth="1" min="53" max="53" width="9.14"/>
     <col customWidth="1" min="54" max="58" width="8.86"/>
@@ -29129,17 +29156,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -29176,173 +29203,175 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="27">
-        <v>6.0</v>
-      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="29"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27">
+      <c r="L3" s="27">
         <v>1.0</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>3.0</v>
+      </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="29"/>
       <c r="S3" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27">
         <v>1.0</v>
       </c>
-      <c r="T3" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="U3" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="27">
+      <c r="W3" s="27">
         <v>3.0</v>
       </c>
-      <c r="W3" s="27"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
       <c r="AA3" s="29"/>
-      <c r="AB3" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AB3" s="27"/>
       <c r="AC3" s="50"/>
-      <c r="AD3" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
       <c r="AF3" s="27"/>
       <c r="AG3" s="27"/>
       <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
+      <c r="AI3" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ3" s="27"/>
       <c r="AK3" s="27"/>
       <c r="AL3" s="27"/>
       <c r="AM3" s="27"/>
-      <c r="AN3" s="27">
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="AP3" s="27">
         <v>1.0</v>
       </c>
-      <c r="AO3" s="27">
+      <c r="AQ3" s="27">
         <v>1.0</v>
       </c>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AR3" s="27">
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27">
         <v>1.0</v>
       </c>
-      <c r="AS3" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AT3" s="27"/>
       <c r="AU3" s="27">
         <v>1.0</v>
       </c>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
+      <c r="AV3" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="AW3" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX3" s="27"/>
       <c r="AY3" s="27"/>
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6">
         <f t="shared" ref="BA3:BA35" si="1">SUM(B3:AY3)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB3" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="BC3" s="5">
-        <v>2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="BC3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="27">
+        <v>6.0</v>
+      </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="29"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="27">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27">
         <v>1.0</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P4" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="29"/>
       <c r="S4" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="T4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="V4" s="27">
         <v>3.0</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="27">
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27">
         <v>3.0</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="29"/>
-      <c r="AB4" s="27"/>
+      <c r="AB4" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AC4" s="50"/>
-      <c r="AD4" s="27"/>
+      <c r="AD4" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
-      <c r="AI4" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI4" s="27"/>
       <c r="AJ4" s="27"/>
       <c r="AK4" s="27"/>
       <c r="AL4" s="27"/>
       <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
+      <c r="AN4" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AO4" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="AP4" s="27">
         <v>1.0</v>
       </c>
+      <c r="AP4" s="27"/>
       <c r="AQ4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AR4" s="27">
         <v>1.0</v>
       </c>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AS4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AT4" s="27"/>
       <c r="AU4" s="27">
         <v>1.0</v>
       </c>
@@ -29353,50 +29382,56 @@
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB4" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="BC4" s="5"/>
+        <v>3.0</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="27">
-        <v>2.0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27">
         <v>1.0</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27">
+        <v>2.0</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="K5" s="27">
+        <v>2.0</v>
+      </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27">
-        <v>5.0</v>
-      </c>
+      <c r="N5" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="27"/>
       <c r="P5" s="27"/>
-      <c r="Q5" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="Q5" s="27"/>
       <c r="R5" s="29"/>
       <c r="S5" s="27"/>
-      <c r="T5" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27">
+        <v>2.0</v>
+      </c>
       <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="W5" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="X5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y5" s="27">
         <v>1.0</v>
       </c>
@@ -29405,9 +29440,13 @@
       <c r="AB5" s="27"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
+      <c r="AE5" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
+      <c r="AG5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
@@ -29415,119 +29454,115 @@
       <c r="AL5" s="27"/>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
-      <c r="AO5" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AO5" s="27"/>
       <c r="AP5" s="27"/>
       <c r="AQ5" s="27"/>
       <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
+      <c r="AS5" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AT5" s="27"/>
       <c r="AU5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AV5" s="27"/>
+        <v>2.0</v>
+      </c>
+      <c r="AV5" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AW5" s="27"/>
       <c r="AX5" s="27"/>
       <c r="AY5" s="27"/>
       <c r="AZ5" s="6"/>
       <c r="BA5" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BB5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="BC5" s="5"/>
+        <v>2.0</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="29"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N6" s="27"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="29"/>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="U6" s="27"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="X6" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="27"/>
       <c r="AC6" s="50"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AD6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AE6" s="27"/>
       <c r="AF6" s="27"/>
-      <c r="AG6" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AG6" s="27"/>
       <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
+      <c r="AI6" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AJ6" s="27"/>
       <c r="AK6" s="27"/>
       <c r="AL6" s="27"/>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
+      <c r="AO6" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AP6" s="27"/>
       <c r="AQ6" s="27"/>
       <c r="AR6" s="27"/>
-      <c r="AS6" s="27">
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27">
         <v>1.0</v>
       </c>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AU6" s="27"/>
       <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
+      <c r="AW6" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AX6" s="27"/>
       <c r="AY6" s="27"/>
       <c r="AZ6" s="6"/>
       <c r="BA6" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC6" s="5">
         <v>1.0</v>
-      </c>
-      <c r="BC6" s="5">
-        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -29610,14 +29645,16 @@
       <c r="AS7" s="27"/>
       <c r="AT7" s="27"/>
       <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
+      <c r="AV7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5">
@@ -29626,41 +29663,41 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2.0</v>
+      </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27">
+      <c r="E8" s="27">
         <v>1.0</v>
       </c>
+      <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="29"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27">
+        <v>5.0</v>
+      </c>
       <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="27">
+        <v>3.0</v>
+      </c>
       <c r="R8" s="29"/>
-      <c r="S8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="T8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27">
+        <v>3.0</v>
+      </c>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
-      <c r="X8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="X8" s="27"/>
       <c r="Y8" s="27">
         <v>1.0</v>
       </c>
@@ -29669,37 +29706,27 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="50"/>
       <c r="AD8" s="27"/>
-      <c r="AE8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
       <c r="AG8" s="27"/>
-      <c r="AH8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
-      <c r="AK8" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AK8" s="27"/>
       <c r="AL8" s="27"/>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AO8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AP8" s="27"/>
       <c r="AQ8" s="27"/>
-      <c r="AR8" s="27">
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27">
         <v>1.0</v>
       </c>
-      <c r="AS8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AT8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AU8" s="27"/>
       <c r="AV8" s="27"/>
       <c r="AW8" s="27"/>
       <c r="AX8" s="27"/>
@@ -29707,80 +29734,88 @@
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB8" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="F9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="27"/>
       <c r="H9" s="29"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27">
+      <c r="J9" s="27">
         <v>1.0</v>
       </c>
-      <c r="L9" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="M9" s="27">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
         <v>1.0</v>
-      </c>
-      <c r="N9" s="27">
-        <v>2.0</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="27"/>
+      <c r="S9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27">
         <v>1.0</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Z9" s="27"/>
       <c r="AA9" s="29"/>
       <c r="AB9" s="27"/>
       <c r="AC9" s="50"/>
       <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27">
+      <c r="AE9" s="27">
         <v>1.0</v>
       </c>
+      <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
+      <c r="AH9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
+      <c r="AK9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AL9" s="27"/>
-      <c r="AM9" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
+      <c r="AP9" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
+      <c r="AR9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AS9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AT9" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AU9" s="27"/>
       <c r="AV9" s="27"/>
       <c r="AW9" s="27"/>
@@ -29789,38 +29824,42 @@
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="BC9" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="27">
-        <v>1.0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27">
+        <v>2.0</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="K10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2.0</v>
+      </c>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
@@ -29828,7 +29867,9 @@
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
+      <c r="V10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
@@ -29836,31 +29877,27 @@
       <c r="AA10" s="29"/>
       <c r="AB10" s="27"/>
       <c r="AC10" s="50"/>
-      <c r="AD10" s="27">
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27">
         <v>1.0</v>
       </c>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="27"/>
-      <c r="AI10" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AI10" s="27"/>
       <c r="AJ10" s="27"/>
       <c r="AK10" s="27"/>
       <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
+      <c r="AM10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AN10" s="27"/>
-      <c r="AO10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AO10" s="27"/>
       <c r="AP10" s="27"/>
       <c r="AQ10" s="27"/>
       <c r="AR10" s="27"/>
       <c r="AS10" s="27"/>
-      <c r="AT10" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AT10" s="27"/>
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
       <c r="AW10" s="27"/>
@@ -29949,13 +29986,15 @@
       </c>
       <c r="AU11" s="27"/>
       <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
+      <c r="AW11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
       <c r="AZ11" s="6"/>
       <c r="BA11" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" s="5">
         <v>1.0</v>
@@ -29968,9 +30007,7 @@
       <c r="A12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -29980,60 +30017,58 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="P12" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Q12" s="27"/>
       <c r="R12" s="29"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
+      <c r="W12" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="X12" s="27">
+        <v>3.0</v>
+      </c>
       <c r="Y12" s="27"/>
-      <c r="Z12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z12" s="27"/>
       <c r="AA12" s="29"/>
-      <c r="AB12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AB12" s="27"/>
       <c r="AC12" s="50"/>
       <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27">
+      <c r="AE12" s="27">
         <v>1.0</v>
       </c>
+      <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
-      <c r="AI12" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
+      <c r="AK12" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AL12" s="27"/>
       <c r="AM12" s="27"/>
-      <c r="AN12" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="AO12" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AP12" s="27">
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27">
         <v>1.0</v>
       </c>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
       <c r="AS12" s="27"/>
       <c r="AT12" s="27"/>
       <c r="AU12" s="27"/>
       <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
+      <c r="AW12" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AX12" s="27"/>
       <c r="AY12" s="27"/>
       <c r="AZ12" s="6"/>
@@ -30041,24 +30076,24 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BB12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC12" s="5"/>
       <c r="BF12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
+      <c r="D13" s="27">
         <v>1.0</v>
       </c>
+      <c r="E13" s="27"/>
       <c r="F13" s="27">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="29"/>
@@ -30067,55 +30102,57 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="N13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O13" s="27"/>
       <c r="P13" s="27">
         <v>1.0</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R13" s="29"/>
-      <c r="S13" s="27"/>
+      <c r="S13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
-      <c r="W13" s="27">
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="27">
         <v>1.0</v>
       </c>
-      <c r="X13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="27"/>
       <c r="AC13" s="50"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
+      <c r="AF13" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AG13" s="27"/>
       <c r="AH13" s="27"/>
-      <c r="AI13" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
       <c r="AK13" s="27"/>
       <c r="AL13" s="27"/>
-      <c r="AM13" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AM13" s="27"/>
       <c r="AN13" s="27"/>
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
-      <c r="AQ13" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AQ13" s="27"/>
       <c r="AR13" s="27"/>
       <c r="AS13" s="27"/>
       <c r="AT13" s="27"/>
-      <c r="AU13" s="27">
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27">
         <v>1.0</v>
       </c>
-      <c r="AV13" s="27"/>
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
@@ -30124,43 +30161,39 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
+      <c r="BB13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="29"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="27">
+        <v>3.0</v>
+      </c>
       <c r="M14" s="27"/>
-      <c r="N14" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="29"/>
-      <c r="S14" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
@@ -30168,7 +30201,7 @@
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA14" s="29"/>
       <c r="AB14" s="27">
@@ -30178,18 +30211,26 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
+      <c r="AI14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
+      <c r="AN14" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="AO14" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AP14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="27"/>
       <c r="AS14" s="27"/>
@@ -30202,11 +30243,9 @@
       <c r="AZ14" s="6"/>
       <c r="BA14" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="BB14" s="5">
-        <v>1.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB14" s="5"/>
       <c r="BC14" s="5">
         <v>1.0</v>
       </c>
@@ -30218,8 +30257,12 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>3.0</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="29"/>
       <c r="I15" s="27"/>
@@ -30230,7 +30273,7 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="29"/>
@@ -30239,10 +30282,10 @@
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X15" s="27">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
@@ -30250,29 +30293,31 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="50"/>
       <c r="AD15" s="27"/>
-      <c r="AE15" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
+      <c r="AI15" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AJ15" s="27"/>
-      <c r="AK15" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="AK15" s="27"/>
       <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
+      <c r="AM15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AN15" s="27"/>
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AQ15" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AR15" s="27"/>
       <c r="AS15" s="27"/>
       <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
+      <c r="AU15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV15" s="27"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
@@ -30280,63 +30325,63 @@
       <c r="AZ15" s="6"/>
       <c r="BA15" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="BB15" s="5">
-        <v>2.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="27">
-        <v>1.0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="27">
+      <c r="G16" s="27"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27">
         <v>1.0</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="29"/>
       <c r="S16" s="27"/>
-      <c r="T16" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="T16" s="27"/>
       <c r="U16" s="27">
         <v>1.0</v>
       </c>
       <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="W16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="X16" s="27"/>
-      <c r="Y16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Z16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AA16" s="29"/>
       <c r="AB16" s="27"/>
       <c r="AC16" s="50"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF16" s="27"/>
-      <c r="AG16" s="27">
-        <v>4.0</v>
-      </c>
+      <c r="AG16" s="27"/>
       <c r="AH16" s="27"/>
       <c r="AI16" s="27"/>
       <c r="AJ16" s="27"/>
@@ -30348,35 +30393,43 @@
       <c r="AP16" s="27"/>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS16" s="27"/>
       <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
+      <c r="AU16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
+      <c r="AW16" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
       <c r="AZ16" s="6"/>
       <c r="BA16" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="BB16" s="5">
+        <v>13</v>
+      </c>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5">
         <v>2.0</v>
       </c>
-      <c r="BC16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
@@ -30386,44 +30439,46 @@
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Q17" s="27"/>
       <c r="R17" s="29"/>
       <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
+      <c r="T17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
+      <c r="Y17" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Z17" s="27"/>
       <c r="AA17" s="29"/>
       <c r="AB17" s="27"/>
       <c r="AC17" s="50"/>
-      <c r="AD17" s="27">
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27">
         <v>1.0</v>
       </c>
-      <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
+      <c r="AG17" s="27">
+        <v>4.0</v>
+      </c>
       <c r="AH17" s="27"/>
       <c r="AI17" s="27"/>
-      <c r="AJ17" s="27">
-        <v>7.0</v>
-      </c>
+      <c r="AJ17" s="27"/>
       <c r="AK17" s="27"/>
       <c r="AL17" s="27"/>
       <c r="AM17" s="27"/>
-      <c r="AN17" s="27">
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27">
         <v>2.0</v>
       </c>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
       <c r="AS17" s="27"/>
       <c r="AT17" s="27"/>
       <c r="AU17" s="27"/>
@@ -30437,15 +30492,13 @@
         <v>12</v>
       </c>
       <c r="BB17" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="BC17" s="5">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="BC17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -30454,65 +30507,55 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R18" s="29"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
-      <c r="U18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="U18" s="27"/>
       <c r="V18" s="27"/>
-      <c r="W18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W18" s="27"/>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
-      <c r="Z18" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="29"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="50"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AD18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AE18" s="27"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="27"/>
       <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
+      <c r="AJ18" s="27">
+        <v>7.0</v>
+      </c>
       <c r="AK18" s="27"/>
       <c r="AL18" s="27"/>
       <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
+      <c r="AN18" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
+      <c r="AP18" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AQ18" s="27"/>
-      <c r="AR18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AR18" s="27"/>
       <c r="AS18" s="27"/>
       <c r="AT18" s="27"/>
-      <c r="AU18" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AU18" s="27"/>
       <c r="AV18" s="27"/>
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
@@ -30522,9 +30565,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="BB18" s="5"/>
+      <c r="BB18" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BC18" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF18" s="6"/>
     </row>
@@ -30670,14 +30715,16 @@
         <v>3.0</v>
       </c>
       <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
+      <c r="AV20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
       <c r="AZ20" s="6"/>
       <c r="BA20" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB20" s="5"/>
       <c r="BC20" s="5">
@@ -30766,7 +30813,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -30838,7 +30885,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -30849,72 +30896,72 @@
       <c r="H23" s="29"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="R23" s="29"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27">
+      <c r="U23" s="27"/>
+      <c r="V23" s="27">
         <v>1.0</v>
       </c>
-      <c r="X23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
-      <c r="Z23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="29"/>
       <c r="AB23" s="27"/>
       <c r="AC23" s="50"/>
-      <c r="AD23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
-      <c r="AJ23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AJ23" s="27"/>
       <c r="AK23" s="27"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="AM23" s="27"/>
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="27"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="27"/>
       <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
+      <c r="AT23" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AU23" s="27"/>
       <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
+      <c r="AW23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
       <c r="AZ23" s="6"/>
       <c r="BA23" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB23" s="5"/>
       <c r="BC23" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -30925,52 +30972,54 @@
       <c r="H24" s="29"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="K24" s="27"/>
       <c r="L24" s="27"/>
-      <c r="M24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="Q24" s="27"/>
       <c r="R24" s="29"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27">
+      <c r="U24" s="51"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27">
         <v>1.0</v>
       </c>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
+      <c r="X24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
+      <c r="Z24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AA24" s="29"/>
       <c r="AB24" s="27"/>
       <c r="AC24" s="50"/>
-      <c r="AD24" s="27"/>
+      <c r="AD24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AE24" s="27"/>
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
       <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
+      <c r="AJ24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AK24" s="27"/>
       <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
+      <c r="AM24" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AN24" s="27"/>
       <c r="AO24" s="27"/>
       <c r="AP24" s="27"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="27"/>
       <c r="AS24" s="27"/>
-      <c r="AT24" s="27">
-        <v>3.0</v>
-      </c>
+      <c r="AT24" s="27"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
@@ -30983,7 +31032,7 @@
       </c>
       <c r="BB24" s="5"/>
       <c r="BC24" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -31134,7 +31183,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27">
@@ -31204,7 +31253,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -31412,7 +31461,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -31666,7 +31715,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -31999,13 +32048,13 @@
         <f>'League Table'!AT40</f>
         <v>15</v>
       </c>
-      <c r="AU38" s="5" t="str">
-        <f>'League Table'!BC40</f>
-        <v/>
-      </c>
-      <c r="AV38" s="5" t="str">
-        <f>'League Table'!BD40</f>
-        <v/>
+      <c r="AU38" s="5">
+        <f>'League Table'!AU40</f>
+        <v>17</v>
+      </c>
+      <c r="AV38" s="5">
+        <f>'League Table'!AV40</f>
+        <v>14</v>
       </c>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
@@ -32049,7 +32098,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" s="44">
         <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
@@ -32237,7 +32286,7 @@
       </c>
       <c r="AV40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
@@ -62992,13 +63041,14 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="22.29"/>
     <col customWidth="1" min="2" max="11" width="8.86"/>
-    <col customWidth="1" min="12" max="51" width="9.14" outlineLevel="1"/>
+    <col customWidth="1" min="12" max="50" width="9.14" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="51" max="51" width="9.14" outlineLevel="1"/>
     <col customWidth="1" min="52" max="53" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -63163,10 +63213,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA3" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -63407,12 +63457,14 @@
         <v>2.0</v>
       </c>
       <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
+      <c r="AW6" s="32">
+        <v>2.0</v>
+      </c>
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -63502,12 +63554,14 @@
       <c r="AV7" s="27">
         <v>1.0</v>
       </c>
-      <c r="AW7" s="27"/>
+      <c r="AW7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="BA7" s="44">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -63601,7 +63655,7 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -63670,17 +63724,19 @@
       <c r="AT9" s="32"/>
       <c r="AU9" s="32"/>
       <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
+      <c r="AW9" s="32">
+        <v>3.0</v>
+      </c>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
       <c r="BA9" s="44">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="27">
         <v>2.0</v>
@@ -63747,12 +63803,14 @@
       </c>
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
+      <c r="AW10" s="27">
+        <v>2.0</v>
+      </c>
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
       <c r="BA10" s="44">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -63972,7 +64030,7 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27">
@@ -64110,7 +64168,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -64179,7 +64237,7 @@
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -64390,13 +64448,15 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="29"/>
       <c r="I20" s="27"/>
@@ -64425,29 +64485,27 @@
       <c r="AF20" s="27"/>
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
+      <c r="AI20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AJ20" s="27"/>
-      <c r="AK20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AK20" s="27"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AN20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="27"/>
       <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27">
+      <c r="AT20" s="27">
         <v>1.0</v>
       </c>
+      <c r="AU20" s="27"/>
       <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
+      <c r="AW20" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
       <c r="BA20" s="44">
@@ -64457,7 +64515,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -64471,9 +64529,7 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="N21" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
@@ -64490,39 +64546,43 @@
       <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AE21" s="27"/>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
-      <c r="AI21" s="27">
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27">
         <v>1.0</v>
       </c>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
+      <c r="AM21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AN21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AO21" s="27"/>
       <c r="AP21" s="27"/>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="27"/>
       <c r="AS21" s="27"/>
       <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
+      <c r="AU21" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AV21" s="27"/>
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
       <c r="BA21" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -64536,7 +64596,9 @@
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -64546,22 +64608,22 @@
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
-      <c r="X22" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
+      <c r="AE22" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
-      <c r="AH22" s="27">
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27">
         <v>1.0</v>
       </c>
-      <c r="AI22" s="27"/>
       <c r="AJ22" s="27"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="27"/>
@@ -64585,29 +64647,23 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="29"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
-      <c r="P23" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
@@ -64615,7 +64671,9 @@
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
+      <c r="X23" s="27">
+        <v>2.0</v>
+      </c>
       <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
@@ -64625,7 +64683,9 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
+      <c r="AH23" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
       <c r="AK23" s="27"/>
@@ -64650,25 +64710,29 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
+      <c r="E24" s="27">
         <v>1.0</v>
       </c>
+      <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="29"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="P24" s="27">
+        <v>1.0</v>
+      </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
@@ -64687,9 +64751,7 @@
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
-      <c r="AI24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AI24" s="27"/>
       <c r="AJ24" s="27"/>
       <c r="AK24" s="27"/>
       <c r="AL24" s="27"/>
@@ -64700,9 +64762,7 @@
       <c r="AQ24" s="27"/>
       <c r="AR24" s="27"/>
       <c r="AS24" s="27"/>
-      <c r="AT24" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AT24" s="27"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
@@ -64715,7 +64775,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -64768,12 +64828,14 @@
       <c r="AT25" s="27"/>
       <c r="AU25" s="27"/>
       <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
+      <c r="AW25" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
       <c r="BA25" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -65024,7 +65086,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -65085,7 +65147,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -65207,7 +65269,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -65327,7 +65389,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -65663,7 +65725,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -65855,7 +65917,7 @@
       </c>
       <c r="AW41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX41" s="5">
         <f t="shared" si="2"/>
@@ -65867,7 +65929,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -66854,19 +66916,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -66882,16 +66944,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -66903,16 +66965,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="5"/>
@@ -66924,16 +66986,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
@@ -66945,16 +67007,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="5"/>
@@ -66966,27 +67028,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -66995,16 +67057,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="5"/>
@@ -67016,29 +67078,29 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I9" s="5">
         <v>7.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L9" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N9" s="5">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
@@ -67046,32 +67108,32 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I10" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L10" s="5">
         <v>3.0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N10" s="5">
         <v>8.0</v>
@@ -67082,35 +67144,35 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="N11" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -67118,35 +67180,35 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I12" s="5">
         <v>6.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L12" s="5">
         <v>2.0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -67154,33 +67216,33 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I13" s="5">
         <v>4.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L13" s="5">
         <v>2.0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N13" s="5">
         <v>6.0</v>
@@ -67191,32 +67253,32 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I14" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" s="5">
         <v>2.0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" s="5">
         <v>6.0</v>
@@ -67227,32 +67289,32 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="5" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="I15" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" s="5">
         <v>2.0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" s="5">
         <v>5.0</v>
@@ -67263,35 +67325,35 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="I16" s="5">
         <v>3.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L16" s="5">
         <v>2.0</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N16" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -67299,35 +67361,35 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="5" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="I17" s="5">
         <v>3.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" s="5">
         <v>2.0</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N17" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -67335,30 +67397,30 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I18" s="5">
         <v>3.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="N18" s="5">
         <v>5.0</v>
@@ -67369,24 +67431,24 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="I19" s="5">
         <v>3.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="N19" s="5">
         <v>4.0</v>
@@ -67397,33 +67459,33 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I20" s="5">
         <v>3.0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N20" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -67431,30 +67493,30 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I21" s="5">
         <v>2.0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="N21" s="5">
         <v>3.0</v>
@@ -67465,26 +67527,26 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N22" s="5">
         <v>3.0</v>
@@ -67495,31 +67557,31 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="N23" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -67527,31 +67589,31 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N24" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -67559,28 +67621,28 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="N25" s="5">
         <v>2.0</v>
@@ -67591,28 +67653,28 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N26" s="5">
         <v>2.0</v>
@@ -67623,27 +67685,27 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N27" s="5">
         <v>2.0</v>
@@ -67654,21 +67716,21 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N28" s="5">
         <v>2.0</v>
@@ -67679,26 +67741,26 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N29" s="5">
         <v>2.0</v>
@@ -67709,20 +67771,20 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="H30" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" s="5">
         <v>2.0</v>
@@ -67733,26 +67795,26 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N31" s="5"/>
     </row>
@@ -67761,24 +67823,24 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N32" s="5"/>
     </row>
@@ -67787,23 +67849,23 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N33" s="5"/>
     </row>
@@ -67812,21 +67874,21 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N34" s="5"/>
     </row>
@@ -67835,21 +67897,21 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N35" s="5"/>
     </row>
@@ -67858,21 +67920,21 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N36" s="5"/>
     </row>
@@ -67881,21 +67943,21 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N37" s="5"/>
     </row>
@@ -67904,16 +67966,16 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -67924,16 +67986,16 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -67944,16 +68006,16 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -67964,16 +68026,16 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -67984,16 +68046,16 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -68004,16 +68066,16 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -68024,16 +68086,16 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>232</v>
-      </c>
       <c r="D44" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -68044,16 +68106,16 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -68064,16 +68126,16 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -68084,16 +68146,16 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -68104,16 +68166,16 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -68123,12 +68185,38 @@
       <c r="A49" s="49">
         <v>47.0</v>
       </c>
+      <c r="B49" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>170</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="N49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
+      <c r="A50" s="49">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="N50" s="5"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="SC68T9IKUzDYONib5rVBiPv0BlL0OrAJ4Jr5d+fvrwA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="WpUqqkYR2qu4fe9FNHKw2vYmNm2A2FQHW84q3zZpkp0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="135">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -204,22 +204,40 @@
     <t>CAPTAIN KIRK</t>
   </si>
   <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>FLO</t>
+    <t>CARLOS</t>
   </si>
   <si>
     <t>KERMIT</t>
   </si>
   <si>
+    <t>PRESTON</t>
+  </si>
+  <si>
+    <t>TUNDE</t>
+  </si>
+  <si>
+    <t>MATT B</t>
+  </si>
+  <si>
+    <t>STEPTOE</t>
+  </si>
+  <si>
+    <t>DUNCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMAS </t>
+  </si>
+  <si>
+    <t>ZIGZAG</t>
+  </si>
+  <si>
     <t>POSH CHRIS</t>
   </si>
   <si>
-    <t>PRESTON</t>
+    <t>DOM</t>
   </si>
   <si>
-    <t>CARLOS</t>
+    <t>FLO</t>
   </si>
   <si>
     <t>VINCE</t>
@@ -246,43 +264,40 @@
     <t>ELBOW</t>
   </si>
   <si>
-    <t>FATHER TED</t>
-  </si>
-  <si>
     <t>FRED</t>
   </si>
   <si>
     <t>GAZZA</t>
   </si>
   <si>
-    <t>MATT B</t>
+    <t>MICK</t>
   </si>
   <si>
-    <t>MICK</t>
+    <t>PHANTOM</t>
+  </si>
+  <si>
+    <t>RICHARD GATER</t>
+  </si>
+  <si>
+    <t>SONES</t>
+  </si>
+  <si>
+    <t>WOGER</t>
+  </si>
+  <si>
+    <t>STEVE P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAIGHT ROB </t>
+  </si>
+  <si>
+    <t>FATHER TED</t>
   </si>
   <si>
     <t>MOO</t>
   </si>
   <si>
-    <t>TUNDE</t>
-  </si>
-  <si>
-    <t>PHANTOM</t>
-  </si>
-  <si>
-    <t>SONES</t>
-  </si>
-  <si>
-    <t>STEPTOE</t>
-  </si>
-  <si>
-    <t>WOGER</t>
-  </si>
-  <si>
     <t>BRUCE</t>
-  </si>
-  <si>
-    <t>DUNCAN</t>
   </si>
   <si>
     <t>DWARF</t>
@@ -294,22 +309,16 @@
     <t>INSPECTOR GADGET</t>
   </si>
   <si>
-    <t xml:space="preserve">MAMAS </t>
-  </si>
-  <si>
-    <t>STEVE P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAIGHT ROB </t>
-  </si>
-  <si>
-    <t>ZIGZAG</t>
-  </si>
-  <si>
     <t># PLAYERS</t>
   </si>
   <si>
     <t>SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-0</t>
   </si>
   <si>
     <t>P</t>
@@ -334,9 +343,6 @@
   </si>
   <si>
     <t>MAMAS</t>
-  </si>
-  <si>
-    <t>SMUDGE</t>
   </si>
   <si>
     <t>WK 50</t>
@@ -399,6 +405,18 @@
     <t>Lost 2-3</t>
   </si>
   <si>
+    <t>Bruce - Preston</t>
+  </si>
+  <si>
+    <t>Lost 0-3</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t>Chosen</t>
   </si>
   <si>
@@ -406,6 +424,9 @@
   </si>
   <si>
     <t>Mamas</t>
+  </si>
+  <si>
+    <t>Bruce</t>
   </si>
 </sst>
 </file>
@@ -628,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -700,18 +721,21 @@
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,7 +747,6 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -757,6 +780,9 @@
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,7 +1483,9 @@
       <c r="C5" s="16">
         <v>1.0</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1508,31 +1536,31 @@
         <v>1.0</v>
       </c>
       <c r="AZ5" s="5">
-        <f t="shared" ref="AZ5:AZ39" si="1">COUNT(B5:AX5)</f>
-        <v>1</v>
+        <f t="shared" ref="AZ5:AZ29" si="1">COUNT(B5:AX5)</f>
+        <v>2</v>
       </c>
       <c r="BA5" s="5">
-        <f t="shared" ref="BA5:BA39" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>1</v>
+        <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
+        <v>2</v>
       </c>
       <c r="BB5" s="5">
-        <f t="shared" ref="BB5:BB39" si="3">COUNTIF($B5:$AX5, "0")</f>
+        <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
         <v>0</v>
       </c>
       <c r="BC5" s="5">
-        <f t="shared" ref="BC5:BC39" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
+        <f t="shared" ref="BC5:BC40" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BD5" s="5">
-        <f t="shared" ref="BD5:BD39" si="5">SUM(BA5*3)+BB5</f>
-        <v>3</v>
+        <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
+        <v>6</v>
       </c>
       <c r="BE5" s="5">
-        <f t="shared" ref="BE5:BE39" si="6">SUM(B5:AX5)</f>
-        <v>1</v>
+        <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
+        <v>4</v>
       </c>
       <c r="BF5" s="20">
-        <f t="shared" ref="BF5:BF39" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
+        <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
         <v>1</v>
       </c>
       <c r="BG5" s="20"/>
@@ -1545,7 +1573,9 @@
       <c r="C6" s="23">
         <v>1.0</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23">
+        <v>3.0</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -1593,15 +1623,15 @@
       <c r="AW6" s="23"/>
       <c r="AX6" s="23"/>
       <c r="AY6" s="19">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB6" s="5">
         <f t="shared" si="3"/>
@@ -1613,11 +1643,11 @@
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF6" s="20">
         <f t="shared" si="7"/>
@@ -1633,7 +1663,9 @@
       <c r="C7" s="27">
         <v>1.0</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -1681,15 +1713,15 @@
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB7" s="5">
         <f t="shared" si="3"/>
@@ -1701,11 +1733,11 @@
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="20">
         <f t="shared" si="7"/>
@@ -1721,7 +1753,9 @@
       <c r="C8" s="17">
         <v>1.0</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16">
+        <v>3.0</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1769,15 +1803,15 @@
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
@@ -1789,11 +1823,11 @@
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF8" s="20">
         <f t="shared" si="7"/>
@@ -1809,7 +1843,9 @@
       <c r="C9" s="31">
         <v>1.0</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="31">
+        <v>3.0</v>
+      </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
@@ -1861,11 +1897,11 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB9" s="5">
         <f t="shared" si="3"/>
@@ -1877,11 +1913,11 @@
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF9" s="20">
         <f t="shared" si="7"/>
@@ -1894,10 +1930,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="30"/>
-      <c r="C10" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31">
+        <v>3.0</v>
+      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -1969,7 +2005,7 @@
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF10" s="20">
         <f t="shared" si="7"/>
@@ -1982,10 +2018,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -2057,7 +2093,7 @@
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF11" s="20">
         <f t="shared" si="7"/>
@@ -2066,14 +2102,16 @@
       <c r="BG11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="27"/>
+        <v>-1.0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -2125,7 +2163,7 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
@@ -2137,7 +2175,7 @@
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
@@ -2145,23 +2183,25 @@
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BG12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="C13" s="34">
+        <v>-1.0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -2213,7 +2253,7 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2225,7 +2265,7 @@
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
@@ -2233,21 +2273,25 @@
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BG13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -2294,16 +2338,16 @@
       <c r="AV14" s="27"/>
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
-      <c r="AY14" s="35">
+      <c r="AY14" s="19">
         <v>10.0</v>
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
@@ -2311,28 +2355,30 @@
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF14" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF14" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="BG14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -2380,16 +2426,16 @@
       <c r="AV15" s="27"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
-      <c r="AY15" s="35">
+      <c r="AY15" s="19">
         <v>11.0</v>
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
@@ -2401,25 +2447,29 @@
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF15" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2466,16 +2516,16 @@
       <c r="AV16" s="27"/>
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
-      <c r="AY16" s="35">
+      <c r="AY16" s="19">
         <v>12.0</v>
       </c>
       <c r="AZ16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="5">
         <f t="shared" si="3"/>
@@ -2483,29 +2533,33 @@
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF16" s="20" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF16" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="BG16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2552,16 +2606,16 @@
       <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
-      <c r="AY17" s="35">
+      <c r="AY17" s="19">
         <v>13.0</v>
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="5">
         <f t="shared" si="3"/>
@@ -2569,29 +2623,33 @@
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF17" s="20" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF17" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="BG17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -2638,16 +2696,16 @@
       <c r="AV18" s="27"/>
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
-      <c r="AY18" s="35">
+      <c r="AY18" s="19">
         <v>14.0</v>
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="5">
         <f t="shared" si="3"/>
@@ -2655,29 +2713,33 @@
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF18" s="20" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF18" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="BG18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -2724,16 +2786,16 @@
       <c r="AV19" s="27"/>
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
-      <c r="AY19" s="35">
+      <c r="AY19" s="19">
         <v>15.0</v>
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
@@ -2741,24 +2803,24 @@
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF19" s="20" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF19" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="BG19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="26"/>
@@ -2810,7 +2872,7 @@
       <c r="AV20" s="27"/>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
-      <c r="AY20" s="35">
+      <c r="AY20" s="19">
         <v>16.0</v>
       </c>
       <c r="AZ20" s="5">
@@ -2844,7 +2906,7 @@
       <c r="BG20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="26"/>
@@ -2896,7 +2958,7 @@
       <c r="AV21" s="27"/>
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
-      <c r="AY21" s="35">
+      <c r="AY21" s="19">
         <v>17.0</v>
       </c>
       <c r="AZ21" s="5">
@@ -2930,7 +2992,7 @@
       <c r="BG21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="26"/>
@@ -2982,7 +3044,7 @@
       <c r="AV22" s="27"/>
       <c r="AW22" s="27"/>
       <c r="AX22" s="27"/>
-      <c r="AY22" s="35">
+      <c r="AY22" s="19">
         <v>18.0</v>
       </c>
       <c r="AZ22" s="5">
@@ -3016,7 +3078,7 @@
       <c r="BG22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="26"/>
@@ -3068,7 +3130,7 @@
       <c r="AV23" s="27"/>
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
-      <c r="AY23" s="35">
+      <c r="AY23" s="19">
         <v>19.0</v>
       </c>
       <c r="AZ23" s="5">
@@ -3102,7 +3164,7 @@
       <c r="BG23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="26"/>
@@ -3154,7 +3216,7 @@
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
       <c r="AX24" s="27"/>
-      <c r="AY24" s="35">
+      <c r="AY24" s="19">
         <v>20.0</v>
       </c>
       <c r="AZ24" s="5">
@@ -3188,7 +3250,7 @@
       <c r="BG24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="26"/>
@@ -3240,7 +3302,7 @@
       <c r="AV25" s="27"/>
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
-      <c r="AY25" s="35">
+      <c r="AY25" s="19">
         <v>21.0</v>
       </c>
       <c r="AZ25" s="5">
@@ -3326,7 +3388,7 @@
       <c r="AV26" s="27"/>
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
-      <c r="AY26" s="35">
+      <c r="AY26" s="19">
         <v>22.0</v>
       </c>
       <c r="AZ26" s="5">
@@ -3360,7 +3422,7 @@
       <c r="BG26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="26"/>
@@ -3412,7 +3474,7 @@
       <c r="AV27" s="27"/>
       <c r="AW27" s="27"/>
       <c r="AX27" s="27"/>
-      <c r="AY27" s="35">
+      <c r="AY27" s="19">
         <v>23.0</v>
       </c>
       <c r="AZ27" s="5">
@@ -3446,7 +3508,7 @@
       <c r="BG27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="26"/>
@@ -3498,7 +3560,7 @@
       <c r="AV28" s="27"/>
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
-      <c r="AY28" s="35">
+      <c r="AY28" s="19">
         <v>24.0</v>
       </c>
       <c r="AZ28" s="5">
@@ -3532,7 +3594,7 @@
       <c r="BG28" s="20"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="26"/>
@@ -3584,7 +3646,7 @@
       <c r="AV29" s="27"/>
       <c r="AW29" s="27"/>
       <c r="AX29" s="27"/>
-      <c r="AY29" s="35">
+      <c r="AY29" s="19">
         <v>25.0</v>
       </c>
       <c r="AZ29" s="5">
@@ -3618,7 +3680,7 @@
       <c r="BG29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="26"/>
@@ -3670,12 +3732,12 @@
       <c r="AV30" s="27"/>
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
-      <c r="AY30" s="35">
+      <c r="AY30" s="36">
         <v>26.0</v>
       </c>
       <c r="AZ30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNT(B30:AY30)</f>
+        <v>1</v>
       </c>
       <c r="BA30" s="5">
         <f t="shared" si="2"/>
@@ -3697,20 +3759,18 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BF30" s="20" t="str">
+      <c r="BF30" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="26"/>
-      <c r="C31" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -3758,12 +3818,12 @@
       <c r="AV31" s="27"/>
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
-      <c r="AY31" s="35">
+      <c r="AY31" s="36">
         <v>27.0</v>
       </c>
       <c r="AZ31" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="AZ31:AZ40" si="8">COUNT(B31:AX31)</f>
+        <v>0</v>
       </c>
       <c r="BA31" s="5">
         <f t="shared" si="2"/>
@@ -3775,7 +3835,7 @@
       </c>
       <c r="BC31" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="5"/>
@@ -3783,22 +3843,20 @@
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="BF31" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -3846,12 +3904,12 @@
       <c r="AV32" s="27"/>
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
-      <c r="AY32" s="35">
+      <c r="AY32" s="19">
         <v>28.0</v>
       </c>
       <c r="AZ32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="BA32" s="5">
         <f t="shared" si="2"/>
@@ -3863,7 +3921,7 @@
       </c>
       <c r="BC32" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="5"/>
@@ -3871,16 +3929,16 @@
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="BF32" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="26"/>
@@ -3934,11 +3992,11 @@
       <c r="AV33" s="27"/>
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
-      <c r="AY33" s="35">
+      <c r="AY33" s="36">
         <v>29.0</v>
       </c>
       <c r="AZ33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BA33" s="5">
@@ -3967,8 +4025,8 @@
       </c>
       <c r="BG33" s="20"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="34" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="26"/>
@@ -4022,11 +4080,11 @@
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
-      <c r="AY34" s="35">
+      <c r="AY34" s="36">
         <v>30.0</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BA34" s="5">
@@ -4056,14 +4114,14 @@
       <c r="BG34" s="20"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="26"/>
-      <c r="C35" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="D35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -4110,11 +4168,11 @@
       <c r="AV35" s="27"/>
       <c r="AW35" s="27"/>
       <c r="AX35" s="27"/>
-      <c r="AY35" s="35">
+      <c r="AY35" s="19">
         <v>31.0</v>
       </c>
       <c r="AZ35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BA35" s="5">
@@ -4135,7 +4193,7 @@
       </c>
       <c r="BE35" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BF35" s="20">
         <f t="shared" si="7"/>
@@ -4144,14 +4202,14 @@
       <c r="BG35" s="20"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="26"/>
-      <c r="C36" s="36">
-        <v>-1.0</v>
-      </c>
-      <c r="D36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -4198,11 +4256,11 @@
       <c r="AV36" s="27"/>
       <c r="AW36" s="27"/>
       <c r="AX36" s="27"/>
-      <c r="AY36" s="35">
+      <c r="AY36" s="36">
         <v>32.0</v>
       </c>
       <c r="AZ36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BA36" s="5">
@@ -4223,7 +4281,7 @@
       </c>
       <c r="BE36" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BF36" s="20">
         <f t="shared" si="7"/>
@@ -4232,14 +4290,16 @@
       <c r="BG36" s="20"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="34">
+        <v>-3.0</v>
+      </c>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -4286,12 +4346,12 @@
       <c r="AV37" s="27"/>
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
-      <c r="AY37" s="35">
+      <c r="AY37" s="36">
         <v>33.0</v>
       </c>
       <c r="AZ37" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="BA37" s="5">
         <f t="shared" si="2"/>
@@ -4303,7 +4363,7 @@
       </c>
       <c r="BC37" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD37" s="5">
         <f t="shared" si="5"/>
@@ -4311,7 +4371,7 @@
       </c>
       <c r="BE37" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="BF37" s="20">
         <f t="shared" si="7"/>
@@ -4320,14 +4380,16 @@
       <c r="BG37" s="20"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -4374,12 +4436,12 @@
       <c r="AV38" s="27"/>
       <c r="AW38" s="27"/>
       <c r="AX38" s="27"/>
-      <c r="AY38" s="35">
+      <c r="AY38" s="19">
         <v>34.0</v>
       </c>
       <c r="AZ38" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="BA38" s="5">
         <f t="shared" si="2"/>
@@ -4391,7 +4453,7 @@
       </c>
       <c r="BC38" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD38" s="5">
         <f t="shared" si="5"/>
@@ -4399,7 +4461,7 @@
       </c>
       <c r="BE38" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="BF38" s="20">
         <f t="shared" si="7"/>
@@ -4408,14 +4470,16 @@
       <c r="BG38" s="20"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="27">
+        <v>-3.0</v>
+      </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -4462,12 +4526,12 @@
       <c r="AV39" s="27"/>
       <c r="AW39" s="27"/>
       <c r="AX39" s="27"/>
-      <c r="AY39" s="35">
+      <c r="AY39" s="36">
         <v>35.0</v>
       </c>
       <c r="AZ39" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="BA39" s="5">
         <f t="shared" si="2"/>
@@ -4479,7 +4543,7 @@
       </c>
       <c r="BC39" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD39" s="5">
         <f t="shared" si="5"/>
@@ -4487,7 +4551,7 @@
       </c>
       <c r="BE39" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="BF39" s="20">
         <f t="shared" si="7"/>
@@ -4495,265 +4559,293 @@
       </c>
       <c r="BG39" s="20"/>
     </row>
-    <row r="40" ht="17.25" customHeight="1">
-      <c r="A40" s="37" t="s">
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="31">
-        <f t="shared" ref="B40:AW40" si="8">COUNT(B5:B39)</f>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D40" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="27"/>
+      <c r="AR40" s="27"/>
+      <c r="AS40" s="27"/>
+      <c r="AT40" s="27"/>
+      <c r="AU40" s="27"/>
+      <c r="AV40" s="27"/>
+      <c r="AW40" s="27"/>
+      <c r="AX40" s="27"/>
+      <c r="AY40" s="36">
+        <v>36.0</v>
+      </c>
+      <c r="AZ40" s="5">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BA40" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C40" s="31">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="D40" s="31">
-        <f t="shared" si="8"/>
+      <c r="BB40" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E40" s="31">
-        <f t="shared" si="8"/>
+      <c r="BC40" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BD40" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F40" s="31">
-        <f t="shared" si="8"/>
+      <c r="BE40" s="5">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="BF40" s="20">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G40" s="31">
-        <f t="shared" si="8"/>
+      <c r="BG40" s="20"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="A41" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="31">
+        <f t="shared" ref="B41:AW41" si="9">COUNT(B5:B40)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="31">
-        <f t="shared" si="8"/>
+      <c r="C41" s="31">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="D41" s="31">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I40" s="31">
-        <f t="shared" si="8"/>
+      <c r="F41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J40" s="31">
-        <f t="shared" si="8"/>
+      <c r="G41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K40" s="31">
-        <f t="shared" si="8"/>
+      <c r="H41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L40" s="31">
-        <f t="shared" si="8"/>
+      <c r="I41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M40" s="31">
-        <f t="shared" si="8"/>
+      <c r="J41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N40" s="31">
-        <f t="shared" si="8"/>
+      <c r="K41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O40" s="31">
-        <f t="shared" si="8"/>
+      <c r="L41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P40" s="31">
-        <f t="shared" si="8"/>
+      <c r="M41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="31">
-        <f t="shared" si="8"/>
+      <c r="N41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R40" s="31">
-        <f t="shared" si="8"/>
+      <c r="O41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S40" s="31">
-        <f t="shared" si="8"/>
+      <c r="P41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T40" s="31">
-        <f t="shared" si="8"/>
+      <c r="Q41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U40" s="31">
-        <f t="shared" si="8"/>
+      <c r="R41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V40" s="31">
-        <f t="shared" si="8"/>
+      <c r="S41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W40" s="31">
-        <f t="shared" si="8"/>
+      <c r="T41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X40" s="31">
-        <f t="shared" si="8"/>
+      <c r="U41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="31">
-        <f t="shared" si="8"/>
+      <c r="V41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="31">
-        <f t="shared" si="8"/>
+      <c r="W41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="31">
-        <f t="shared" si="8"/>
+      <c r="X41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="31">
-        <f t="shared" si="8"/>
+      <c r="Y41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="31">
-        <f t="shared" si="8"/>
+      <c r="Z41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AA41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AB41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AC41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AD41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AE41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AF41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AG41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AH41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AI41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AJ41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AK41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AL41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AM41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AN41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AR40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AO41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AP41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AT40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AQ41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AR41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AS41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AW40" s="31">
-        <f t="shared" si="8"/>
+      <c r="AT41" s="31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AX40" s="31"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="20"/>
-      <c r="BG40" s="20"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
+      <c r="AU41" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AV41" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW41" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="31"/>
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
@@ -4764,40 +4856,46 @@
       <c r="BG41" s="20"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2"/>
+      <c r="A42" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
+      <c r="AH42" s="40"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
@@ -4824,22 +4922,38 @@
       <c r="BG42" s="20"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="38"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
       <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
@@ -4869,32 +4983,39 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="38"/>
-      <c r="B44" s="41"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
       <c r="Q44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="6"/>
-      <c r="AO44" s="6"/>
-      <c r="AP44" s="6"/>
-      <c r="AQ44" s="6"/>
-      <c r="AR44" s="6"/>
-      <c r="AS44" s="6"/>
-      <c r="AT44" s="6"/>
-      <c r="AU44" s="6"/>
-      <c r="AV44" s="6"/>
-      <c r="AW44" s="6"/>
-      <c r="AX44" s="6"/>
+      <c r="AC44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
       <c r="AZ44" s="5"/>
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
@@ -4906,6 +5027,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="Q45" s="5"/>
       <c r="W45" s="5"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -4925,8 +5053,17 @@
       <c r="AV45" s="6"/>
       <c r="AW45" s="6"/>
       <c r="AX45" s="6"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="20"/>
+      <c r="BG45" s="20"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="38"/>
       <c r="W46" s="5"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
@@ -4969,8 +5106,6 @@
       <c r="AX47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="J48" s="42"/>
-      <c r="L48" s="42"/>
       <c r="W48" s="5"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
@@ -4992,7 +5127,8 @@
       <c r="AX48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="L49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="L49" s="43"/>
       <c r="W49" s="5"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
@@ -5014,7 +5150,7 @@
       <c r="AX49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="J50" s="42"/>
+      <c r="L50" s="43"/>
       <c r="W50" s="5"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
@@ -5036,7 +5172,7 @@
       <c r="AX50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="L51" s="42"/>
+      <c r="J51" s="43"/>
       <c r="W51" s="5"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
@@ -5058,6 +5194,7 @@
       <c r="AX51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
+      <c r="L52" s="43"/>
       <c r="W52" s="5"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
@@ -5121,14 +5258,6 @@
       <c r="AX54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
       <c r="W55" s="5"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
@@ -5242,7 +5371,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="40"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="W59" s="5"/>
@@ -5271,7 +5400,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="W60" s="5"/>
@@ -5326,9 +5455,12 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="40"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="G62" s="40"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="W62" s="5"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
@@ -5352,8 +5484,9 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="5"/>
+      <c r="G63" s="41"/>
       <c r="W63" s="5"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
@@ -5404,9 +5537,6 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
       <c r="W65" s="5"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
@@ -5514,7 +5644,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="40"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5542,7 +5672,7 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5600,7 +5730,9 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
       <c r="W72" s="5"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
@@ -5622,6 +5754,11 @@
       <c r="AX72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="W73" s="5"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
@@ -5643,10 +5780,6 @@
       <c r="AX73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
       <c r="W74" s="5"/>
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
@@ -5668,6 +5801,10 @@
       <c r="AX74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
       <c r="W75" s="5"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
@@ -25112,6 +25249,27 @@
       <c r="AV1000" s="6"/>
       <c r="AW1000" s="6"/>
       <c r="AX1000" s="6"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="W1001" s="5"/>
+      <c r="AG1001" s="6"/>
+      <c r="AH1001" s="6"/>
+      <c r="AI1001" s="6"/>
+      <c r="AJ1001" s="6"/>
+      <c r="AK1001" s="6"/>
+      <c r="AL1001" s="6"/>
+      <c r="AM1001" s="6"/>
+      <c r="AN1001" s="6"/>
+      <c r="AO1001" s="6"/>
+      <c r="AP1001" s="6"/>
+      <c r="AQ1001" s="6"/>
+      <c r="AR1001" s="6"/>
+      <c r="AS1001" s="6"/>
+      <c r="AT1001" s="6"/>
+      <c r="AU1001" s="6"/>
+      <c r="AV1001" s="6"/>
+      <c r="AW1001" s="6"/>
+      <c r="AX1001" s="6"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -25141,549 +25299,564 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>102</v>
+      <c r="I1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <v>1.0</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>1.0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>0.0</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="45">
         <v>0.0</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="45">
         <v>1.0</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="45">
         <f t="shared" ref="G3:G36" si="1">SUM(C3*3)+D3</f>
         <v>3</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="44">
         <v>18.0</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="46">
         <f t="shared" ref="J3:J7" si="2">I3/B3</f>
         <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="43">
+        <v>62</v>
+      </c>
+      <c r="B4" s="44">
         <v>1.0</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="44">
         <v>0.0</v>
       </c>
-      <c r="D4" s="43">
+      <c r="E4" s="44">
         <v>0.0</v>
       </c>
-      <c r="E4" s="43">
+      <c r="F4" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="44">
+        <v>24.0</v>
+      </c>
+      <c r="J4" s="46">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="44">
         <v>1.0</v>
       </c>
-      <c r="F4" s="43">
+      <c r="C5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="44">
         <v>-1.0</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="43">
-        <v>24.0</v>
-      </c>
-      <c r="J4" s="45">
+      <c r="I5" s="44">
+        <v>27.0</v>
+      </c>
+      <c r="J5" s="46">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>-3.0</v>
+      </c>
+      <c r="G6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="43">
-        <v>27.0</v>
-      </c>
-      <c r="J5" s="45" t="str">
+      <c r="I6" s="44">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="46">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
+        <v>19.0</v>
+      </c>
+      <c r="J7" s="46" t="str">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44">
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="43">
-        <v>19.0</v>
-      </c>
-      <c r="J6" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="43">
-        <v>19.0</v>
-      </c>
-      <c r="J7" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="H10" s="6"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="46">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="46">
+      <c r="I12" s="44">
+        <v>25.0</v>
+      </c>
+      <c r="J12" s="46" t="str">
+        <f t="shared" ref="J12:J27" si="3">I12/B12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="46">
+      <c r="H13" s="6"/>
+      <c r="I13" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="J13" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="43">
-        <v>25.0</v>
-      </c>
-      <c r="J12" s="45" t="str">
-        <f t="shared" ref="J12:J27" si="3">I12/B12</f>
+      <c r="I14" s="44">
+        <v>19.0</v>
+      </c>
+      <c r="J14" s="46" t="str">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="46">
+    <row r="15">
+      <c r="A15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="J13" s="45" t="str">
+      <c r="I15" s="44">
+        <v>12.0</v>
+      </c>
+      <c r="J15" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="34" t="s">
+    <row r="16">
+      <c r="A16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="43">
-        <v>19.0</v>
-      </c>
-      <c r="J14" s="45" t="str">
+      <c r="I16" s="44">
+        <v>23.0</v>
+      </c>
+      <c r="J16" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="46">
+    <row r="17">
+      <c r="A17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="43">
-        <v>12.0</v>
-      </c>
-      <c r="J15" s="45" t="str">
+      <c r="I17" s="47">
+        <v>19.0</v>
+      </c>
+      <c r="J17" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="46">
+    <row r="18">
+      <c r="A18" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="43">
-        <v>23.0</v>
-      </c>
-      <c r="J16" s="45" t="str">
+      <c r="I18" s="47">
+        <v>15.0</v>
+      </c>
+      <c r="J18" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="46">
+    <row r="19">
+      <c r="A19" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="47">
-        <v>19.0</v>
-      </c>
-      <c r="J17" s="45" t="str">
+      <c r="I19" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="J19" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="46">
+    <row r="20">
+      <c r="A20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="47">
-        <v>15.0</v>
-      </c>
-      <c r="J18" s="45" t="str">
+      <c r="I20" s="48">
+        <v>14.0</v>
+      </c>
+      <c r="J20" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="46">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="J19" s="45" t="str">
+      <c r="I21" s="47">
+        <v>25.0</v>
+      </c>
+      <c r="J21" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="46">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="48">
-        <v>14.0</v>
-      </c>
-      <c r="J20" s="45" t="str">
+      <c r="I22" s="47">
+        <v>5.0</v>
+      </c>
+      <c r="J22" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="46">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="47">
-        <v>25.0</v>
-      </c>
-      <c r="J21" s="45" t="str">
+      <c r="I23" s="47">
+        <v>12.0</v>
+      </c>
+      <c r="J23" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="46">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
-        <v>5.0</v>
-      </c>
-      <c r="J22" s="45" t="str">
+      <c r="I24" s="47">
+        <v>15.0</v>
+      </c>
+      <c r="J24" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="46">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="47">
-        <v>12.0</v>
-      </c>
-      <c r="J23" s="45" t="str">
+      <c r="I25" s="47">
+        <v>25.0</v>
+      </c>
+      <c r="J25" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="46">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="47">
-        <v>15.0</v>
-      </c>
-      <c r="J24" s="45" t="str">
+      <c r="I26" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="J26" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="46">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="47">
-        <v>25.0</v>
-      </c>
-      <c r="J25" s="45" t="str">
+      <c r="I27" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="46" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="46">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="47">
-        <v>8.0</v>
-      </c>
-      <c r="J26" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="46">
+      <c r="I28" s="47">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="46">
+      <c r="I29" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="47">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="46">
+      <c r="I30" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I31" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="46">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I32" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="46">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="46">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="46">
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="46">
+      <c r="A36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26685,82 +26858,82 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="44" t="s">
         <v>26</v>
       </c>
       <c r="AA1" s="6" t="s">
@@ -26836,17 +27009,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -26889,7 +27062,9 @@
       <c r="C3" s="27">
         <v>2.0</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -26940,22 +27115,22 @@
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6">
         <f t="shared" ref="BA3:BA35" si="1">SUM(B3:AY3)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB3" s="5"/>
       <c r="BC3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -26972,7 +27147,7 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
+      <c r="U4" s="50"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -27006,7 +27181,7 @@
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5">
@@ -27015,13 +27190,13 @@
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -27038,7 +27213,7 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
+      <c r="U5" s="50"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
@@ -27072,18 +27247,20 @@
       <c r="AZ5" s="6"/>
       <c r="BA5" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
+      <c r="BC5" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -27136,20 +27313,24 @@
       <c r="AZ6" s="6"/>
       <c r="BA6" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
+      <c r="BC6" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27">
         <v>1.0</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -27200,14 +27381,14 @@
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
@@ -27270,8 +27451,8 @@
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>87</v>
+      <c r="A9" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
@@ -27334,11 +27515,13 @@
       <c r="BC9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>64</v>
+      <c r="A10" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -27390,17 +27573,19 @@
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>62</v>
+      <c r="A11" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -27452,18 +27637,20 @@
       <c r="AZ11" s="6"/>
       <c r="BA11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>93</v>
+      <c r="A12" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -27514,19 +27701,21 @@
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BF12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>66</v>
+      <c r="A13" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -27577,18 +27766,20 @@
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>69</v>
+      <c r="A14" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27">
+        <v>1.0</v>
+      </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -27639,13 +27830,13 @@
       <c r="AZ14" s="6"/>
       <c r="BA14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="27"/>
@@ -27707,8 +27898,8 @@
       <c r="BC15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>88</v>
+      <c r="A16" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -27769,8 +27960,8 @@
       <c r="BC16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>77</v>
+      <c r="A17" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -27831,8 +28022,8 @@
       <c r="BC17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>74</v>
+      <c r="A18" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -27894,8 +28085,8 @@
       <c r="BF18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>63</v>
+      <c r="A19" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -27956,8 +28147,8 @@
       <c r="BC19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>78</v>
+      <c r="A20" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -28018,8 +28209,8 @@
       <c r="BC20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>92</v>
+      <c r="A21" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -28080,8 +28271,8 @@
       <c r="BC21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>85</v>
+      <c r="A22" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -28142,8 +28333,8 @@
       <c r="BC22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>70</v>
+      <c r="A23" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -28204,8 +28395,8 @@
       <c r="BC23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>71</v>
+      <c r="A24" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -28266,8 +28457,8 @@
       <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>79</v>
+      <c r="A25" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -28288,7 +28479,7 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="50"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
@@ -28328,8 +28519,8 @@
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>68</v>
+      <c r="A26" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -28390,8 +28581,8 @@
       <c r="BC26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>82</v>
+      <c r="A27" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -28452,8 +28643,8 @@
       <c r="BC27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>76</v>
+      <c r="A28" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -28474,7 +28665,7 @@
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
-      <c r="U28" s="50"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="27"/>
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
@@ -28514,8 +28705,8 @@
       <c r="BC28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>83</v>
+      <c r="A29" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -28576,8 +28767,8 @@
       <c r="BC29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>72</v>
+      <c r="A30" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -28638,8 +28829,8 @@
       <c r="BC30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>89</v>
+      <c r="A31" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -28700,8 +28891,8 @@
       <c r="BC31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>81</v>
+      <c r="A32" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -28762,8 +28953,8 @@
       <c r="BC32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>84</v>
+      <c r="A33" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -28824,8 +29015,8 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>73</v>
+      <c r="A34" s="33" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -28886,8 +29077,8 @@
       <c r="BC34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>75</v>
+      <c r="A35" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -29037,195 +29228,195 @@
       <c r="BC37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="43">
-        <f>'League Table'!B40</f>
+      <c r="A38" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="44">
+        <f>'League Table'!B41</f>
         <v>0</v>
       </c>
-      <c r="C38" s="43">
-        <f>'League Table'!C40</f>
-        <v>18</v>
-      </c>
-      <c r="D38" s="43">
-        <f>'League Table'!D40</f>
+      <c r="C38" s="44">
+        <f>'League Table'!C41</f>
+        <v>19</v>
+      </c>
+      <c r="D38" s="44">
+        <f>'League Table'!D41</f>
+        <v>20</v>
+      </c>
+      <c r="E38" s="44">
+        <f>'League Table'!E41</f>
         <v>0</v>
       </c>
-      <c r="E38" s="43">
-        <f>'League Table'!E40</f>
+      <c r="F38" s="44">
+        <f>'League Table'!F41</f>
         <v>0</v>
       </c>
-      <c r="F38" s="43">
-        <f>'League Table'!F40</f>
+      <c r="G38" s="44">
+        <f>'League Table'!G41</f>
         <v>0</v>
       </c>
-      <c r="G38" s="43">
-        <f>'League Table'!G40</f>
+      <c r="H38" s="44">
+        <f>'League Table'!H41</f>
         <v>0</v>
       </c>
-      <c r="H38" s="43">
-        <f>'League Table'!H40</f>
+      <c r="I38" s="44">
+        <f>'League Table'!I41</f>
         <v>0</v>
       </c>
-      <c r="I38" s="43">
-        <f>'League Table'!I40</f>
+      <c r="J38" s="44">
+        <f>'League Table'!J41</f>
         <v>0</v>
       </c>
-      <c r="J38" s="43">
-        <f>'League Table'!J40</f>
+      <c r="K38" s="44">
+        <f>'League Table'!K41</f>
         <v>0</v>
       </c>
-      <c r="K38" s="43">
-        <f>'League Table'!K40</f>
+      <c r="L38" s="44">
+        <f>'League Table'!L41</f>
         <v>0</v>
       </c>
-      <c r="L38" s="43">
-        <f>'League Table'!L40</f>
+      <c r="M38" s="44">
+        <f>'League Table'!M41</f>
         <v>0</v>
       </c>
-      <c r="M38" s="43">
-        <f>'League Table'!M40</f>
+      <c r="N38" s="44">
+        <f>'League Table'!N41</f>
         <v>0</v>
       </c>
-      <c r="N38" s="43">
-        <f>'League Table'!N40</f>
+      <c r="O38" s="44">
+        <f>'League Table'!O41</f>
         <v>0</v>
       </c>
-      <c r="O38" s="43">
-        <f>'League Table'!O40</f>
+      <c r="P38" s="44">
+        <f>'League Table'!P41</f>
         <v>0</v>
       </c>
-      <c r="P38" s="43">
-        <f>'League Table'!P40</f>
+      <c r="Q38" s="44">
+        <f>'League Table'!Q41</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="43">
-        <f>'League Table'!Q40</f>
+      <c r="R38" s="44">
+        <f>'League Table'!R41</f>
         <v>0</v>
       </c>
-      <c r="R38" s="43">
-        <f>'League Table'!R40</f>
+      <c r="S38" s="44">
+        <f>'League Table'!S41</f>
         <v>0</v>
       </c>
-      <c r="S38" s="43">
-        <f>'League Table'!S40</f>
+      <c r="T38" s="44">
+        <f>'League Table'!T41</f>
         <v>0</v>
       </c>
-      <c r="T38" s="43">
-        <f>'League Table'!T40</f>
+      <c r="U38" s="49">
+        <f>'League Table'!U41</f>
         <v>0</v>
       </c>
-      <c r="U38" s="49">
-        <f>'League Table'!U40</f>
+      <c r="V38" s="44">
+        <f>'League Table'!V41</f>
         <v>0</v>
       </c>
-      <c r="V38" s="43">
-        <f>'League Table'!V40</f>
+      <c r="W38" s="44">
+        <f>'League Table'!W41</f>
         <v>0</v>
       </c>
-      <c r="W38" s="43">
-        <f>'League Table'!W40</f>
+      <c r="X38" s="44">
+        <f>'League Table'!X41</f>
         <v>0</v>
       </c>
-      <c r="X38" s="43">
-        <f>'League Table'!X40</f>
+      <c r="Y38" s="44">
+        <f>'League Table'!Y41</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="43">
-        <f>'League Table'!Y40</f>
+      <c r="Z38" s="44">
+        <f>'League Table'!Z41</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="43">
-        <f>'League Table'!Z40</f>
+      <c r="AA38" s="44">
+        <f>'League Table'!AA41</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="43">
-        <f>'League Table'!AA40</f>
+      <c r="AB38" s="44">
+        <f>'League Table'!AB41</f>
         <v>0</v>
       </c>
-      <c r="AB38" s="43">
-        <f>'League Table'!AB40</f>
+      <c r="AC38" s="44">
+        <f>'League Table'!AC41</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="43">
-        <f>'League Table'!AC40</f>
+      <c r="AD38" s="44">
+        <f>'League Table'!AD41</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="43">
-        <f>'League Table'!AD40</f>
+      <c r="AE38" s="44">
+        <f>'League Table'!AE41</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="43">
-        <f>'League Table'!AE40</f>
+      <c r="AF38" s="44">
+        <f>'League Table'!AF41</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="43">
-        <f>'League Table'!AF40</f>
+      <c r="AG38" s="5">
+        <f>'League Table'!AG41</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="5">
-        <f>'League Table'!AG40</f>
+      <c r="AH38" s="5">
+        <f>'League Table'!AH41</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="5">
-        <f>'League Table'!AH40</f>
+      <c r="AI38" s="5">
+        <f>'League Table'!AI41</f>
         <v>0</v>
       </c>
-      <c r="AI38" s="5">
-        <f>'League Table'!AI40</f>
+      <c r="AJ38" s="5">
+        <f>'League Table'!AJ41</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="5">
-        <f>'League Table'!AJ40</f>
+      <c r="AK38" s="5">
+        <f>'League Table'!AK41</f>
         <v>0</v>
       </c>
-      <c r="AK38" s="5">
-        <f>'League Table'!AK40</f>
+      <c r="AL38" s="5">
+        <f>'League Table'!AL41</f>
         <v>0</v>
       </c>
-      <c r="AL38" s="5">
-        <f>'League Table'!AL40</f>
+      <c r="AM38" s="5">
+        <f>'League Table'!AM41</f>
         <v>0</v>
       </c>
-      <c r="AM38" s="5">
-        <f>'League Table'!AM40</f>
+      <c r="AN38" s="5">
+        <f>'League Table'!AN41</f>
         <v>0</v>
       </c>
-      <c r="AN38" s="5">
-        <f>'League Table'!AN40</f>
+      <c r="AO38" s="5">
+        <f>'League Table'!AO41</f>
         <v>0</v>
       </c>
-      <c r="AO38" s="5">
-        <f>'League Table'!AO40</f>
+      <c r="AP38" s="5">
+        <f>'League Table'!AP41</f>
         <v>0</v>
       </c>
-      <c r="AP38" s="5">
-        <f>'League Table'!AP40</f>
+      <c r="AQ38" s="5">
+        <f>'League Table'!AQ41</f>
         <v>0</v>
       </c>
-      <c r="AQ38" s="5">
-        <f>'League Table'!AQ40</f>
+      <c r="AR38" s="5">
+        <f>'League Table'!AR41</f>
         <v>0</v>
       </c>
-      <c r="AR38" s="5">
-        <f>'League Table'!AR40</f>
+      <c r="AS38" s="5">
+        <f>'League Table'!AS41</f>
         <v>0</v>
       </c>
-      <c r="AS38" s="5">
-        <f>'League Table'!AS40</f>
+      <c r="AT38" s="5">
+        <f>'League Table'!AT41</f>
         <v>0</v>
       </c>
-      <c r="AT38" s="5">
-        <f>'League Table'!AT40</f>
+      <c r="AU38" s="5">
+        <f>'League Table'!AU41</f>
         <v>0</v>
       </c>
-      <c r="AU38" s="5">
-        <f>'League Table'!AU40</f>
-        <v>0</v>
-      </c>
       <c r="AV38" s="5">
-        <f>'League Table'!AV40</f>
+        <f>'League Table'!AV41</f>
         <v>0</v>
       </c>
       <c r="AW38" s="5"/>
@@ -29269,82 +29460,82 @@
       <c r="BC39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="43">
+      <c r="A40" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="44">
         <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="44">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="43">
+      <c r="F40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="43">
+      <c r="G40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="43">
+      <c r="H40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="43">
+      <c r="I40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="43">
+      <c r="J40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="43">
+      <c r="K40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="43">
+      <c r="L40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="43">
+      <c r="M40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="43">
+      <c r="N40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="43">
+      <c r="O40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="43">
+      <c r="P40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="43">
+      <c r="Q40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="R40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R40" s="43">
+      <c r="S40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S40" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="43">
+      <c r="T40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29352,23 +29543,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W40" s="43">
+      <c r="W40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X40" s="43">
+      <c r="X40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="43">
+      <c r="Y40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="43">
+      <c r="Z40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -60220,7 +60411,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -60385,10 +60576,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -60447,13 +60638,15 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="17">
         <v>2.0</v>
       </c>
-      <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -60501,18 +60694,18 @@
       <c r="AW5" s="17"/>
       <c r="AX5" s="17"/>
       <c r="AY5" s="17"/>
-      <c r="BA5" s="43">
+      <c r="BA5" s="44">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -60562,14 +60755,14 @@
       <c r="AW6" s="31"/>
       <c r="AX6" s="31"/>
       <c r="AY6" s="31"/>
-      <c r="BA6" s="43">
+      <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27">
@@ -60623,20 +60816,20 @@
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
-      <c r="BA7" s="43">
+      <c r="BA7" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17">
         <v>1.0</v>
       </c>
-      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -60684,17 +60877,19 @@
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
-      <c r="BA8" s="43">
+      <c r="BA8" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="C9" s="31">
+        <v>1.0</v>
+      </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -60743,14 +60938,14 @@
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
       <c r="AY9" s="31"/>
-      <c r="BA9" s="43">
+      <c r="BA9" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -60802,14 +60997,14 @@
       <c r="AW10" s="27"/>
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
-      <c r="BA10" s="43">
+      <c r="BA10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>85</v>
+      <c r="A11" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -60861,14 +61056,14 @@
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
-      <c r="BA11" s="43">
+      <c r="BA11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>59</v>
+      <c r="A12" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -60920,14 +61115,14 @@
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
       <c r="AY12" s="31"/>
-      <c r="BA12" s="43">
+      <c r="BA12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>71</v>
+      <c r="A13" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -60979,14 +61174,14 @@
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
-      <c r="BA13" s="43">
+      <c r="BA13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>72</v>
+      <c r="A14" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -61038,14 +61233,14 @@
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
       <c r="AY14" s="27"/>
-      <c r="BA14" s="43">
+      <c r="BA14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>87</v>
+      <c r="A15" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -61097,14 +61292,14 @@
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
-      <c r="BA15" s="43">
+      <c r="BA15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>74</v>
+      <c r="A16" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -61156,14 +61351,14 @@
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
-      <c r="BA16" s="43">
+      <c r="BA16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>76</v>
+      <c r="A17" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -61215,14 +61410,14 @@
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
-      <c r="BA17" s="43">
+      <c r="BA17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>112</v>
+      <c r="A18" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -61274,14 +61469,14 @@
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
-      <c r="BA18" s="43">
+      <c r="BA18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>88</v>
+      <c r="A19" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -61333,14 +61528,14 @@
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
       <c r="AY19" s="27"/>
-      <c r="BA19" s="43">
+      <c r="BA19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>89</v>
+      <c r="A20" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -61392,14 +61587,14 @@
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
-      <c r="BA20" s="43">
+      <c r="BA20" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>62</v>
+      <c r="A21" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -61451,14 +61646,14 @@
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
-      <c r="BA21" s="43">
+      <c r="BA21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>77</v>
+      <c r="A22" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -61510,14 +61705,14 @@
       <c r="AW22" s="27"/>
       <c r="AX22" s="27"/>
       <c r="AY22" s="27"/>
-      <c r="BA22" s="43">
+      <c r="BA22" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>78</v>
+      <c r="A23" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -61569,14 +61764,14 @@
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
-      <c r="BA23" s="43">
+      <c r="BA23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>79</v>
+      <c r="A24" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -61628,14 +61823,14 @@
       <c r="AW24" s="27"/>
       <c r="AX24" s="27"/>
       <c r="AY24" s="27"/>
-      <c r="BA24" s="43">
+      <c r="BA24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>113</v>
+      <c r="A25" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -61687,14 +61882,14 @@
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
-      <c r="BA25" s="43">
+      <c r="BA25" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>114</v>
+      <c r="A26" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -61746,14 +61941,14 @@
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
-      <c r="BA26" s="43">
+      <c r="BA26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>81</v>
+      <c r="A27" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -61805,14 +62000,14 @@
       <c r="AW27" s="27"/>
       <c r="AX27" s="27"/>
       <c r="AY27" s="27"/>
-      <c r="BA27" s="43">
+      <c r="BA27" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>63</v>
+      <c r="A28" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -61864,14 +62059,14 @@
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
       <c r="AY28" s="27"/>
-      <c r="BA28" s="43">
+      <c r="BA28" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>64</v>
+      <c r="A29" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -61923,14 +62118,14 @@
       <c r="AW29" s="27"/>
       <c r="AX29" s="27"/>
       <c r="AY29" s="27"/>
-      <c r="BA29" s="43">
+      <c r="BA29" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>104</v>
+      <c r="A30" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -61982,14 +62177,14 @@
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
-      <c r="BA30" s="43">
+      <c r="BA30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>115</v>
+      <c r="A31" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -62041,14 +62236,14 @@
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
-      <c r="BA31" s="43">
+      <c r="BA31" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>83</v>
+      <c r="A32" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -62100,14 +62295,14 @@
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
-      <c r="BA32" s="43">
+      <c r="BA32" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>92</v>
+      <c r="A33" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -62159,14 +62354,14 @@
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
-      <c r="BA33" s="43">
+      <c r="BA33" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>66</v>
+      <c r="A34" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -62218,14 +62413,14 @@
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
-      <c r="BA34" s="43">
+      <c r="BA34" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>67</v>
+      <c r="A35" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -62277,14 +62472,14 @@
       <c r="AW35" s="27"/>
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
-      <c r="BA35" s="43">
+      <c r="BA35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>84</v>
+      <c r="A36" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -62336,14 +62531,14 @@
       <c r="AW36" s="27"/>
       <c r="AX36" s="27"/>
       <c r="AY36" s="27"/>
-      <c r="BA36" s="43">
+      <c r="BA36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34" t="s">
-        <v>93</v>
+      <c r="A37" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -62395,13 +62590,13 @@
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
-      <c r="BA37" s="43">
+      <c r="BA37" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -62561,7 +62756,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -62573,7 +62768,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
@@ -62763,9 +62958,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA41" s="43">
+      <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -63751,20 +63946,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>121</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -63780,16 +63975,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -63801,10 +63996,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -63817,10 +64012,18 @@
       <c r="A5" s="49">
         <v>3.0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -63849,14 +64052,14 @@
       <c r="E7" s="49"/>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>116</v>
+      <c r="K7" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -63882,16 +64085,20 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="N9" s="59">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="49">
@@ -63902,12 +64109,20 @@
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="I10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="59">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="49">
@@ -63922,8 +64137,12 @@
       <c r="I11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="59">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="49">
@@ -63938,8 +64157,12 @@
       <c r="I12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="59">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="49">
@@ -63996,8 +64219,8 @@
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="G16" s="49"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -64079,7 +64302,7 @@
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="60"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -64127,7 +64350,7 @@
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="60"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="WpUqqkYR2qu4fe9FNHKw2vYmNm2A2FQHW84q3zZpkp0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="fpz6TN1Pxl6QeiYmwzJ956ubj9CJ661Skm0BJ+J1qHs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="138">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -219,9 +219,6 @@
     <t>MATT B</t>
   </si>
   <si>
-    <t>STEPTOE</t>
-  </si>
-  <si>
     <t>DUNCAN</t>
   </si>
   <si>
@@ -234,22 +231,37 @@
     <t>POSH CHRIS</t>
   </si>
   <si>
-    <t>DOM</t>
+    <t>FLO</t>
   </si>
   <si>
-    <t>FLO</t>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>STEPTOE</t>
+  </si>
+  <si>
+    <t>DOM</t>
   </si>
   <si>
     <t>VINCE</t>
   </si>
   <si>
-    <t>WILSON</t>
+    <t>BANKSY</t>
+  </si>
+  <si>
+    <t>RICHARD GATER</t>
+  </si>
+  <si>
+    <t>FATHER TED</t>
+  </si>
+  <si>
+    <t>BRUCE</t>
+  </si>
+  <si>
+    <t>IAN</t>
   </si>
   <si>
     <t>ARTIST</t>
-  </si>
-  <si>
-    <t>BANKSY</t>
   </si>
   <si>
     <t>BAZ</t>
@@ -276,9 +288,6 @@
     <t>PHANTOM</t>
   </si>
   <si>
-    <t>RICHARD GATER</t>
-  </si>
-  <si>
     <t>SONES</t>
   </si>
   <si>
@@ -291,19 +300,10 @@
     <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
-    <t>FATHER TED</t>
-  </si>
-  <si>
     <t>MOO</t>
   </si>
   <si>
-    <t>BRUCE</t>
-  </si>
-  <si>
     <t>DWARF</t>
-  </si>
-  <si>
-    <t>IAN</t>
   </si>
   <si>
     <t>INSPECTOR GADGET</t>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 3-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-1 </t>
   </si>
   <si>
     <t>P</t>
@@ -415,6 +418,12 @@
   </si>
   <si>
     <t>Wilson</t>
+  </si>
+  <si>
+    <t>Kermit - ZigZag</t>
+  </si>
+  <si>
+    <t>Drew 1-1</t>
   </si>
   <si>
     <t>Chosen</t>
@@ -708,6 +717,9 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,12 +734,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -747,6 +753,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -1039,21 +1046,21 @@
     <col customWidth="1" min="13" max="13" width="6.71"/>
     <col customWidth="1" min="14" max="14" width="7.29"/>
     <col customWidth="1" min="15" max="16" width="6.0"/>
-    <col customWidth="1" min="17" max="18" width="6.0" outlineLevel="1"/>
-    <col customWidth="1" min="19" max="20" width="6.86" outlineLevel="1"/>
-    <col customWidth="1" min="21" max="21" width="7.14" outlineLevel="1"/>
-    <col customWidth="1" min="22" max="23" width="6.86" outlineLevel="1"/>
-    <col customWidth="1" min="24" max="24" width="6.71" outlineLevel="1"/>
-    <col customWidth="1" min="25" max="27" width="6.43" outlineLevel="1"/>
-    <col customWidth="1" min="28" max="28" width="6.71" outlineLevel="1"/>
-    <col customWidth="1" min="29" max="31" width="6.0" outlineLevel="1"/>
-    <col customWidth="1" min="32" max="36" width="6.43" outlineLevel="1"/>
-    <col customWidth="1" min="37" max="37" width="6.29" outlineLevel="1"/>
-    <col customWidth="1" min="38" max="39" width="6.86" outlineLevel="1"/>
-    <col customWidth="1" min="40" max="41" width="6.71" outlineLevel="1"/>
-    <col customWidth="1" min="42" max="42" width="6.43" outlineLevel="1"/>
-    <col customWidth="1" min="43" max="49" width="6.71" outlineLevel="1"/>
-    <col customWidth="1" min="50" max="50" width="8.29" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="17" max="18" width="6.0" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="19" max="20" width="6.86" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="21" max="21" width="7.14" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="22" max="23" width="6.86" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="24" max="24" width="6.71" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="25" max="27" width="6.43" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="28" max="28" width="6.71" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="29" max="31" width="6.0" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="32" max="36" width="6.43" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="37" max="37" width="6.29" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="38" max="39" width="6.86" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="40" max="41" width="6.71" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="42" max="42" width="6.43" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="43" max="49" width="6.71" outlineLevel="1"/>
+    <col customWidth="1" hidden="1" min="50" max="50" width="8.29" outlineLevel="1"/>
     <col customWidth="1" min="51" max="51" width="9.14"/>
     <col customWidth="1" min="52" max="53" width="8.86"/>
     <col customWidth="1" min="54" max="54" width="10.29"/>
@@ -1486,7 +1493,9 @@
       <c r="D5" s="17">
         <v>3.0</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17">
+        <v>0.0</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1536,8 +1545,8 @@
         <v>1.0</v>
       </c>
       <c r="AZ5" s="5">
-        <f t="shared" ref="AZ5:AZ29" si="1">COUNT(B5:AX5)</f>
-        <v>2</v>
+        <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
+        <v>3</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
@@ -1545,7 +1554,7 @@
       </c>
       <c r="BB5" s="5">
         <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC40" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
@@ -1553,7 +1562,7 @@
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
@@ -1561,7 +1570,7 @@
       </c>
       <c r="BF5" s="20">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>1</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG5" s="20"/>
     </row>
@@ -1576,7 +1585,9 @@
       <c r="D6" s="23">
         <v>3.0</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23">
+        <v>0.0</v>
+      </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1623,11 +1634,11 @@
       <c r="AW6" s="23"/>
       <c r="AX6" s="23"/>
       <c r="AY6" s="19">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
@@ -1635,7 +1646,7 @@
       </c>
       <c r="BB6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="5">
         <f t="shared" si="4"/>
@@ -1643,7 +1654,7 @@
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
@@ -1651,7 +1662,7 @@
       </c>
       <c r="BF6" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG6" s="20"/>
     </row>
@@ -1666,7 +1677,9 @@
       <c r="D7" s="27">
         <v>3.0</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28">
+        <v>0.0</v>
+      </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -1690,7 +1703,7 @@
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
@@ -1713,11 +1726,11 @@
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
@@ -1725,7 +1738,7 @@
       </c>
       <c r="BB7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="4"/>
@@ -1733,7 +1746,7 @@
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
@@ -1741,7 +1754,7 @@
       </c>
       <c r="BF7" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG7" s="20"/>
     </row>
@@ -1756,7 +1769,9 @@
       <c r="D8" s="16">
         <v>3.0</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>0.0</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -1803,11 +1818,11 @@
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
@@ -1815,7 +1830,7 @@
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="5">
         <f t="shared" si="4"/>
@@ -1823,7 +1838,7 @@
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
@@ -1831,67 +1846,67 @@
       </c>
       <c r="BF8" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32">
         <v>1.0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="32">
         <v>3.0</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
       <c r="AY9" s="19">
         <v>5.0</v>
       </c>
@@ -1926,66 +1941,68 @@
       <c r="BG9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32">
         <v>3.0</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="E10" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
       <c r="AY10" s="19">
         <v>6.0</v>
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
@@ -1993,7 +2010,7 @@
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="4"/>
@@ -2001,7 +2018,7 @@
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
@@ -2009,20 +2026,24 @@
       </c>
       <c r="BF10" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.6666666667</v>
       </c>
       <c r="BG10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="D11" s="27">
         <v>3.0</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -2046,7 +2067,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
-      <c r="AC11" s="28"/>
+      <c r="AC11" s="29"/>
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
@@ -2068,12 +2089,12 @@
       <c r="AV11" s="27"/>
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
-      <c r="AY11" s="19">
+      <c r="AY11" s="35">
         <v>7.0</v>
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
@@ -2081,38 +2102,40 @@
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF11" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="27">
+      <c r="C12" s="28">
         <v>-1.0</v>
       </c>
       <c r="D12" s="27">
         <v>3.0</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -2136,7 +2159,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
-      <c r="AC12" s="28"/>
+      <c r="AC12" s="29"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
@@ -2158,12 +2181,12 @@
       <c r="AV12" s="27"/>
       <c r="AW12" s="27"/>
       <c r="AX12" s="27"/>
-      <c r="AY12" s="19">
+      <c r="AY12" s="35">
         <v>8.0</v>
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
@@ -2171,7 +2194,7 @@
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
@@ -2179,7 +2202,7 @@
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
@@ -2187,22 +2210,24 @@
       </c>
       <c r="BF12" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="34">
+      <c r="C13" s="27">
         <v>-1.0</v>
       </c>
       <c r="D13" s="27">
         <v>3.0</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="28">
+        <v>0.0</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -2226,7 +2251,7 @@
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
-      <c r="AC13" s="28"/>
+      <c r="AC13" s="29"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
@@ -2248,12 +2273,12 @@
       <c r="AV13" s="27"/>
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
-      <c r="AY13" s="19">
+      <c r="AY13" s="35">
         <v>9.0</v>
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2261,7 +2286,7 @@
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
@@ -2269,7 +2294,7 @@
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
@@ -2277,22 +2302,22 @@
       </c>
       <c r="BF13" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="D14" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="27"/>
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -2316,7 +2341,7 @@
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
-      <c r="AC14" s="28"/>
+      <c r="AC14" s="29"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
@@ -2351,36 +2376,40 @@
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.6666666667</v>
       </c>
       <c r="BG14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="27">
         <v>1.0</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -2404,7 +2433,7 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
-      <c r="AC15" s="28"/>
+      <c r="AC15" s="29"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
@@ -2426,12 +2455,12 @@
       <c r="AV15" s="27"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
-      <c r="AY15" s="19">
+      <c r="AY15" s="35">
         <v>11.0</v>
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
@@ -2439,28 +2468,28 @@
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="BF15" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="26"/>
@@ -2470,7 +2499,9 @@
       <c r="D16" s="27">
         <v>-3.0</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -2494,7 +2525,7 @@
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="27"/>
-      <c r="AC16" s="28"/>
+      <c r="AC16" s="29"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
@@ -2516,12 +2547,12 @@
       <c r="AV16" s="27"/>
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
-      <c r="AY16" s="19">
+      <c r="AY16" s="35">
         <v>12.0</v>
       </c>
       <c r="AZ16" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA16" s="5">
         <f t="shared" si="2"/>
@@ -2529,7 +2560,7 @@
       </c>
       <c r="BB16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
@@ -2537,7 +2568,7 @@
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
@@ -2545,20 +2576,18 @@
       </c>
       <c r="BF16" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="C17" s="27"/>
       <c r="D17" s="27">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -2584,7 +2613,7 @@
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="27"/>
-      <c r="AC17" s="28"/>
+      <c r="AC17" s="29"/>
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
@@ -2606,12 +2635,12 @@
       <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
-      <c r="AY17" s="19">
+      <c r="AY17" s="35">
         <v>13.0</v>
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
@@ -2623,7 +2652,7 @@
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
@@ -2631,16 +2660,16 @@
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="BF17" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="26"/>
@@ -2674,7 +2703,7 @@
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
-      <c r="AC18" s="28"/>
+      <c r="AC18" s="29"/>
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
       <c r="AF18" s="27"/>
@@ -2730,7 +2759,7 @@
       <c r="BG18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="26"/>
@@ -2764,7 +2793,7 @@
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
       <c r="AB19" s="27"/>
-      <c r="AC19" s="28"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
       <c r="AF19" s="27"/>
@@ -2786,7 +2815,7 @@
       <c r="AV19" s="27"/>
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
-      <c r="AY19" s="19">
+      <c r="AY19" s="35">
         <v>15.0</v>
       </c>
       <c r="AZ19" s="5">
@@ -2820,13 +2849,15 @@
       <c r="BG19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -2850,7 +2881,7 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
-      <c r="AC20" s="28"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
       <c r="AF20" s="27"/>
@@ -2872,12 +2903,12 @@
       <c r="AV20" s="27"/>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
-      <c r="AY20" s="19">
+      <c r="AY20" s="35">
         <v>16.0</v>
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
@@ -2885,7 +2916,7 @@
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
@@ -2893,26 +2924,28 @@
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BF20" s="20" t="str">
+      <c r="BF20" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.3333333333</v>
       </c>
       <c r="BG20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2936,7 +2969,7 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
-      <c r="AC21" s="28"/>
+      <c r="AC21" s="29"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
       <c r="AF21" s="27"/>
@@ -2958,12 +2991,12 @@
       <c r="AV21" s="27"/>
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
-      <c r="AY21" s="19">
+      <c r="AY21" s="35">
         <v>17.0</v>
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
@@ -2971,7 +3004,7 @@
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
@@ -2979,26 +3012,30 @@
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BF21" s="20" t="str">
+      <c r="BF21" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.3333333333</v>
       </c>
       <c r="BG21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -3022,7 +3059,7 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
-      <c r="AC22" s="28"/>
+      <c r="AC22" s="29"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
@@ -3049,7 +3086,7 @@
       </c>
       <c r="AZ22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA22" s="5">
         <f t="shared" si="2"/>
@@ -3057,34 +3094,40 @@
       </c>
       <c r="BB22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF22" s="20" t="str">
+        <v>-3</v>
+      </c>
+      <c r="BF22" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.1666666667</v>
       </c>
       <c r="BG22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -3108,7 +3151,7 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
-      <c r="AC23" s="28"/>
+      <c r="AC23" s="29"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
@@ -3130,12 +3173,12 @@
       <c r="AV23" s="27"/>
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
-      <c r="AY23" s="19">
+      <c r="AY23" s="35">
         <v>19.0</v>
       </c>
       <c r="AZ23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA23" s="5">
         <f t="shared" si="2"/>
@@ -3143,34 +3186,40 @@
       </c>
       <c r="BB23" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="20" t="str">
+        <v>-4</v>
+      </c>
+      <c r="BF23" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.1111111111</v>
       </c>
       <c r="BG23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D24" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0.0</v>
+      </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -3194,7 +3243,7 @@
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
       <c r="AB24" s="27"/>
-      <c r="AC24" s="28"/>
+      <c r="AC24" s="29"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
       <c r="AF24" s="27"/>
@@ -3216,12 +3265,12 @@
       <c r="AV24" s="27"/>
       <c r="AW24" s="27"/>
       <c r="AX24" s="27"/>
-      <c r="AY24" s="19">
+      <c r="AY24" s="35">
         <v>20.0</v>
       </c>
       <c r="AZ24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA24" s="5">
         <f t="shared" si="2"/>
@@ -3229,28 +3278,28 @@
       </c>
       <c r="BB24" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF24" s="20" t="str">
+        <v>-4</v>
+      </c>
+      <c r="BF24" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.1111111111</v>
       </c>
       <c r="BG24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="26"/>
@@ -3280,7 +3329,7 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
+      <c r="AC25" s="29"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
       <c r="AF25" s="27"/>
@@ -3302,7 +3351,7 @@
       <c r="AV25" s="27"/>
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
-      <c r="AY25" s="19">
+      <c r="AY25" s="35">
         <v>21.0</v>
       </c>
       <c r="AZ25" s="5">
@@ -3336,7 +3385,7 @@
       <c r="BG25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="26"/>
@@ -3366,7 +3415,7 @@
       <c r="Z26" s="27"/>
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
-      <c r="AC26" s="28"/>
+      <c r="AC26" s="29"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="27"/>
@@ -3422,7 +3471,7 @@
       <c r="BG26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="26"/>
@@ -3452,7 +3501,7 @@
       <c r="Z27" s="27"/>
       <c r="AA27" s="27"/>
       <c r="AB27" s="27"/>
-      <c r="AC27" s="28"/>
+      <c r="AC27" s="29"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
@@ -3474,7 +3523,7 @@
       <c r="AV27" s="27"/>
       <c r="AW27" s="27"/>
       <c r="AX27" s="27"/>
-      <c r="AY27" s="19">
+      <c r="AY27" s="35">
         <v>23.0</v>
       </c>
       <c r="AZ27" s="5">
@@ -3508,7 +3557,7 @@
       <c r="BG27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="26"/>
@@ -3538,7 +3587,7 @@
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
-      <c r="AC28" s="28"/>
+      <c r="AC28" s="29"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
@@ -3560,7 +3609,7 @@
       <c r="AV28" s="27"/>
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
-      <c r="AY28" s="19">
+      <c r="AY28" s="35">
         <v>24.0</v>
       </c>
       <c r="AZ28" s="5">
@@ -3594,7 +3643,7 @@
       <c r="BG28" s="20"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="26"/>
@@ -3624,7 +3673,7 @@
       <c r="Z29" s="27"/>
       <c r="AA29" s="27"/>
       <c r="AB29" s="27"/>
-      <c r="AC29" s="28"/>
+      <c r="AC29" s="29"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
@@ -3646,7 +3695,7 @@
       <c r="AV29" s="27"/>
       <c r="AW29" s="27"/>
       <c r="AX29" s="27"/>
-      <c r="AY29" s="19">
+      <c r="AY29" s="35">
         <v>25.0</v>
       </c>
       <c r="AZ29" s="5">
@@ -3680,7 +3729,7 @@
       <c r="BG29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="26"/>
@@ -3710,7 +3759,7 @@
       <c r="Z30" s="27"/>
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
-      <c r="AC30" s="28"/>
+      <c r="AC30" s="29"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
       <c r="AF30" s="27"/>
@@ -3732,12 +3781,12 @@
       <c r="AV30" s="27"/>
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
-      <c r="AY30" s="36">
+      <c r="AY30" s="19">
         <v>26.0</v>
       </c>
       <c r="AZ30" s="5">
-        <f>COUNT(B30:AY30)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="BA30" s="5">
         <f t="shared" si="2"/>
@@ -3759,14 +3808,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BF30" s="20">
+      <c r="BF30" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="26"/>
@@ -3796,7 +3845,7 @@
       <c r="Z31" s="27"/>
       <c r="AA31" s="27"/>
       <c r="AB31" s="27"/>
-      <c r="AC31" s="28"/>
+      <c r="AC31" s="29"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
@@ -3818,11 +3867,11 @@
       <c r="AV31" s="27"/>
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
-      <c r="AY31" s="36">
+      <c r="AY31" s="35">
         <v>27.0</v>
       </c>
       <c r="AZ31" s="5">
-        <f t="shared" ref="AZ31:AZ40" si="8">COUNT(B31:AX31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA31" s="5">
@@ -3852,7 +3901,7 @@
       <c r="BG31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="26"/>
@@ -3882,7 +3931,7 @@
       <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
-      <c r="AC32" s="28"/>
+      <c r="AC32" s="29"/>
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
       <c r="AF32" s="27"/>
@@ -3904,11 +3953,11 @@
       <c r="AV32" s="27"/>
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
-      <c r="AY32" s="19">
+      <c r="AY32" s="35">
         <v>28.0</v>
       </c>
       <c r="AZ32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA32" s="5">
@@ -3938,13 +3987,11 @@
       <c r="BG32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -3970,7 +4017,7 @@
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
       <c r="AB33" s="27"/>
-      <c r="AC33" s="28"/>
+      <c r="AC33" s="29"/>
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
@@ -3992,12 +4039,12 @@
       <c r="AV33" s="27"/>
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
-      <c r="AY33" s="36">
+      <c r="AY33" s="35">
         <v>29.0</v>
       </c>
       <c r="AZ33" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="BA33" s="5">
         <f t="shared" si="2"/>
@@ -4009,7 +4056,7 @@
       </c>
       <c r="BC33" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="5"/>
@@ -4017,22 +4064,20 @@
       </c>
       <c r="BE33" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="BF33" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG33" s="20"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="26"/>
-      <c r="C34" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -4058,7 +4103,7 @@
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
-      <c r="AC34" s="28"/>
+      <c r="AC34" s="29"/>
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
       <c r="AF34" s="27"/>
@@ -4080,12 +4125,12 @@
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
-      <c r="AY34" s="36">
+      <c r="AY34" s="19">
         <v>30.0</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="BA34" s="5">
         <f t="shared" si="2"/>
@@ -4097,7 +4142,7 @@
       </c>
       <c r="BC34" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="5"/>
@@ -4105,23 +4150,21 @@
       </c>
       <c r="BE34" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="BF34" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG34" s="20"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="27">
-        <v>-3.0</v>
-      </c>
+      <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -4146,7 +4189,7 @@
       <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
-      <c r="AC35" s="28"/>
+      <c r="AC35" s="29"/>
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
       <c r="AF35" s="27"/>
@@ -4168,12 +4211,12 @@
       <c r="AV35" s="27"/>
       <c r="AW35" s="27"/>
       <c r="AX35" s="27"/>
-      <c r="AY35" s="19">
+      <c r="AY35" s="35">
         <v>31.0</v>
       </c>
       <c r="AZ35" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="BA35" s="5">
         <f t="shared" si="2"/>
@@ -4185,7 +4228,7 @@
       </c>
       <c r="BC35" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="5">
         <f t="shared" si="5"/>
@@ -4193,23 +4236,23 @@
       </c>
       <c r="BE35" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="BF35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG35" s="20"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27">
-        <v>-3.0</v>
-      </c>
+      <c r="C36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -4234,7 +4277,7 @@
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="28"/>
+      <c r="AC36" s="29"/>
       <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
       <c r="AF36" s="27"/>
@@ -4256,11 +4299,11 @@
       <c r="AV36" s="27"/>
       <c r="AW36" s="27"/>
       <c r="AX36" s="27"/>
-      <c r="AY36" s="36">
+      <c r="AY36" s="35">
         <v>32.0</v>
       </c>
       <c r="AZ36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BA36" s="5">
@@ -4281,7 +4324,7 @@
       </c>
       <c r="BE36" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="BF36" s="20">
         <f t="shared" si="7"/>
@@ -4290,16 +4333,14 @@
       <c r="BG36" s="20"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="27">
         <v>-1.0</v>
       </c>
-      <c r="D37" s="34">
-        <v>-3.0</v>
-      </c>
+      <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -4324,7 +4365,7 @@
       <c r="Z37" s="27"/>
       <c r="AA37" s="27"/>
       <c r="AB37" s="27"/>
-      <c r="AC37" s="28"/>
+      <c r="AC37" s="29"/>
       <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
       <c r="AF37" s="27"/>
@@ -4346,12 +4387,12 @@
       <c r="AV37" s="27"/>
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
-      <c r="AY37" s="36">
+      <c r="AY37" s="35">
         <v>33.0</v>
       </c>
       <c r="AZ37" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BA37" s="5">
         <f t="shared" si="2"/>
@@ -4363,7 +4404,7 @@
       </c>
       <c r="BC37" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD37" s="5">
         <f t="shared" si="5"/>
@@ -4371,7 +4412,7 @@
       </c>
       <c r="BE37" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="BF37" s="20">
         <f t="shared" si="7"/>
@@ -4380,13 +4421,11 @@
       <c r="BG37" s="20"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="26"/>
-      <c r="C38" s="27">
-        <v>-1.0</v>
-      </c>
+      <c r="C38" s="27"/>
       <c r="D38" s="27">
         <v>-3.0</v>
       </c>
@@ -4414,7 +4453,7 @@
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
       <c r="AB38" s="27"/>
-      <c r="AC38" s="28"/>
+      <c r="AC38" s="29"/>
       <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
       <c r="AF38" s="27"/>
@@ -4440,8 +4479,8 @@
         <v>34.0</v>
       </c>
       <c r="AZ38" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BA38" s="5">
         <f t="shared" si="2"/>
@@ -4453,7 +4492,7 @@
       </c>
       <c r="BC38" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD38" s="5">
         <f t="shared" si="5"/>
@@ -4461,7 +4500,7 @@
       </c>
       <c r="BE38" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="BF38" s="20">
         <f t="shared" si="7"/>
@@ -4470,7 +4509,7 @@
       <c r="BG38" s="20"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="26"/>
@@ -4504,7 +4543,7 @@
       <c r="Z39" s="27"/>
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
-      <c r="AC39" s="28"/>
+      <c r="AC39" s="29"/>
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
       <c r="AF39" s="27"/>
@@ -4526,11 +4565,11 @@
       <c r="AV39" s="27"/>
       <c r="AW39" s="27"/>
       <c r="AX39" s="27"/>
-      <c r="AY39" s="36">
+      <c r="AY39" s="35">
         <v>35.0</v>
       </c>
       <c r="AZ39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BA39" s="5">
@@ -4560,7 +4599,7 @@
       <c r="BG39" s="20"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="26"/>
@@ -4594,7 +4633,7 @@
       <c r="Z40" s="27"/>
       <c r="AA40" s="27"/>
       <c r="AB40" s="27"/>
-      <c r="AC40" s="28"/>
+      <c r="AC40" s="29"/>
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
       <c r="AF40" s="27"/>
@@ -4616,11 +4655,11 @@
       <c r="AV40" s="27"/>
       <c r="AW40" s="27"/>
       <c r="AX40" s="27"/>
-      <c r="AY40" s="36">
+      <c r="AY40" s="35">
         <v>36.0</v>
       </c>
       <c r="AZ40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BA40" s="5">
@@ -4650,202 +4689,202 @@
       <c r="BG40" s="20"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="31">
-        <f t="shared" ref="B41:AW41" si="9">COUNT(B5:B40)</f>
+      <c r="B41" s="32">
+        <f t="shared" ref="B41:AW41" si="8">COUNT(B5:B40)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="31">
-        <f t="shared" si="9"/>
+      <c r="C41" s="32">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="D41" s="31">
-        <f t="shared" si="9"/>
+      <c r="D41" s="32">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="E41" s="31">
-        <f t="shared" si="9"/>
+      <c r="E41" s="32">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F41" s="31">
-        <f t="shared" si="9"/>
+      <c r="G41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G41" s="31">
-        <f t="shared" si="9"/>
+      <c r="H41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H41" s="31">
-        <f t="shared" si="9"/>
+      <c r="I41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I41" s="31">
-        <f t="shared" si="9"/>
+      <c r="J41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J41" s="31">
-        <f t="shared" si="9"/>
+      <c r="K41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K41" s="31">
-        <f t="shared" si="9"/>
+      <c r="L41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L41" s="31">
-        <f t="shared" si="9"/>
+      <c r="M41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M41" s="31">
-        <f t="shared" si="9"/>
+      <c r="N41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N41" s="31">
-        <f t="shared" si="9"/>
+      <c r="O41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O41" s="31">
-        <f t="shared" si="9"/>
+      <c r="P41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P41" s="31">
-        <f t="shared" si="9"/>
+      <c r="Q41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="31">
-        <f t="shared" si="9"/>
+      <c r="R41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R41" s="31">
-        <f t="shared" si="9"/>
+      <c r="S41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S41" s="31">
-        <f t="shared" si="9"/>
+      <c r="T41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T41" s="31">
-        <f t="shared" si="9"/>
+      <c r="U41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U41" s="31">
-        <f t="shared" si="9"/>
+      <c r="V41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V41" s="31">
-        <f t="shared" si="9"/>
+      <c r="W41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W41" s="31">
-        <f t="shared" si="9"/>
+      <c r="X41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X41" s="31">
-        <f t="shared" si="9"/>
+      <c r="Y41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="31">
-        <f t="shared" si="9"/>
+      <c r="Z41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AA41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AB41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AC41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AD41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AE41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AF41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AG41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AH41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AI41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AJ41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AK41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AL41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AM41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AN41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AO41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AP41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AP41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AQ41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AQ41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AR41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AR41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AS41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AS41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AT41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AT41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AU41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AV41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV41" s="31">
-        <f t="shared" si="9"/>
+      <c r="AW41" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AW41" s="31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="31"/>
+      <c r="AX41" s="32"/>
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
@@ -4856,46 +4895,48 @@
       <c r="BG41" s="20"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="40"/>
+      <c r="AH42" s="39"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
@@ -4924,12 +4965,12 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="41"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -4982,19 +5023,19 @@
       <c r="BG43" s="20"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="41"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
       <c r="Q44" s="5"/>
       <c r="W44" s="5"/>
       <c r="AC44" s="5"/>
@@ -5026,8 +5067,8 @@
       <c r="BG44" s="20"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5063,7 +5104,7 @@
       <c r="BG45" s="20"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="W46" s="5"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
@@ -5127,8 +5168,8 @@
       <c r="AX48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="J49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="J49" s="42"/>
+      <c r="L49" s="42"/>
       <c r="W49" s="5"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
@@ -5150,7 +5191,7 @@
       <c r="AX49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="L50" s="43"/>
+      <c r="L50" s="42"/>
       <c r="W50" s="5"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
@@ -5172,7 +5213,7 @@
       <c r="AX50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="J51" s="43"/>
+      <c r="J51" s="42"/>
       <c r="W51" s="5"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
@@ -5194,7 +5235,7 @@
       <c r="AX51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="L52" s="43"/>
+      <c r="L52" s="42"/>
       <c r="W52" s="5"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
@@ -5400,7 +5441,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="41"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="W60" s="5"/>
@@ -5484,9 +5525,9 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="5"/>
-      <c r="G63" s="41"/>
+      <c r="G63" s="40"/>
       <c r="W63" s="5"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
@@ -5672,7 +5713,7 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -25249,27 +25290,6 @@
       <c r="AV1000" s="6"/>
       <c r="AW1000" s="6"/>
       <c r="AX1000" s="6"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="W1001" s="5"/>
-      <c r="AG1001" s="6"/>
-      <c r="AH1001" s="6"/>
-      <c r="AI1001" s="6"/>
-      <c r="AJ1001" s="6"/>
-      <c r="AK1001" s="6"/>
-      <c r="AL1001" s="6"/>
-      <c r="AM1001" s="6"/>
-      <c r="AN1001" s="6"/>
-      <c r="AO1001" s="6"/>
-      <c r="AP1001" s="6"/>
-      <c r="AQ1001" s="6"/>
-      <c r="AR1001" s="6"/>
-      <c r="AS1001" s="6"/>
-      <c r="AT1001" s="6"/>
-      <c r="AU1001" s="6"/>
-      <c r="AV1001" s="6"/>
-      <c r="AW1001" s="6"/>
-      <c r="AX1001" s="6"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -25299,61 +25319,61 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>105</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>1.0</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>1.0</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.0</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.0</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>1.0</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <f t="shared" ref="G3:G36" si="1">SUM(C3*3)+D3</f>
         <v>3</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="43">
         <v>18.0</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="45">
         <f t="shared" ref="J3:J7" si="2">I3/B3</f>
         <v>18</v>
       </c>
@@ -25362,501 +25382,531 @@
       <c r="A4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <v>1.0</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>1.0</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>0.0</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>0.0</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="43">
         <v>3.0</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="43">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="43">
         <v>24.0</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="44">
+        <v>61</v>
+      </c>
+      <c r="B5" s="43">
         <v>1.0</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>0.0</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="43">
         <v>0.0</v>
       </c>
-      <c r="E5" s="44">
+      <c r="F5" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="43">
+        <v>27.0</v>
+      </c>
+      <c r="J5" s="45">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="44">
         <v>1.0</v>
       </c>
-      <c r="F5" s="44">
+      <c r="C6" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="43">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="45">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="43">
         <v>-1.0</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="44">
-        <v>27.0</v>
-      </c>
-      <c r="J5" s="46">
+      <c r="I7" s="43">
+        <v>19.0</v>
+      </c>
+      <c r="J7" s="45">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="46">
         <v>1.0</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C8" s="46">
         <v>0.0</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D8" s="46">
         <v>0.0</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E8" s="46">
         <v>1.0</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F8" s="46">
         <v>-3.0</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G8" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="44">
-        <v>19.0</v>
-      </c>
-      <c r="J6" s="46">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="44">
-        <v>19.0</v>
-      </c>
-      <c r="J7" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="44">
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="46"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="33" t="s">
+      <c r="H10" s="6"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="44">
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="44">
+      <c r="I12" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="J12" s="45" t="str">
+        <f t="shared" ref="J12:J27" si="3">I12/B12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="44">
+      <c r="H13" s="6"/>
+      <c r="I13" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J13" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="44">
-        <v>25.0</v>
-      </c>
-      <c r="J12" s="46" t="str">
-        <f t="shared" ref="J12:J27" si="3">I12/B12</f>
+      <c r="I14" s="43">
+        <v>19.0</v>
+      </c>
+      <c r="J14" s="45" t="str">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="44">
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="J13" s="46" t="str">
+      <c r="I15" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="J15" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="44">
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="44">
-        <v>19.0</v>
-      </c>
-      <c r="J14" s="46" t="str">
+      <c r="I16" s="43">
+        <v>23.0</v>
+      </c>
+      <c r="J16" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="44">
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="J15" s="46" t="str">
+      <c r="I17" s="47">
+        <v>19.0</v>
+      </c>
+      <c r="J17" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="44">
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="44">
-        <v>23.0</v>
-      </c>
-      <c r="J16" s="46" t="str">
+      <c r="I18" s="47">
+        <v>15.0</v>
+      </c>
+      <c r="J18" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="44">
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="47">
-        <v>19.0</v>
-      </c>
-      <c r="J17" s="46" t="str">
+      <c r="I19" s="47">
+        <v>22.0</v>
+      </c>
+      <c r="J19" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="44">
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="47">
-        <v>15.0</v>
-      </c>
-      <c r="J18" s="46" t="str">
+      <c r="I20" s="48">
+        <v>14.0</v>
+      </c>
+      <c r="J20" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="44">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="J19" s="46" t="str">
+      <c r="I21" s="47">
+        <v>25.0</v>
+      </c>
+      <c r="J21" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="44">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="48">
-        <v>14.0</v>
-      </c>
-      <c r="J20" s="46" t="str">
+      <c r="I22" s="47">
+        <v>5.0</v>
+      </c>
+      <c r="J22" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="44">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="47">
-        <v>25.0</v>
-      </c>
-      <c r="J21" s="46" t="str">
+      <c r="I23" s="47">
+        <v>12.0</v>
+      </c>
+      <c r="J23" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="44">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
-        <v>5.0</v>
-      </c>
-      <c r="J22" s="46" t="str">
+      <c r="I24" s="47">
+        <v>15.0</v>
+      </c>
+      <c r="J24" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="44">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="47">
-        <v>12.0</v>
-      </c>
-      <c r="J23" s="46" t="str">
+      <c r="I25" s="47">
+        <v>25.0</v>
+      </c>
+      <c r="J25" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="44">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="47">
-        <v>15.0</v>
-      </c>
-      <c r="J24" s="46" t="str">
+      <c r="I26" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="J26" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="44">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="47">
-        <v>25.0</v>
-      </c>
-      <c r="J25" s="46" t="str">
+      <c r="I27" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="45" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="44">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="47">
-        <v>8.0</v>
-      </c>
-      <c r="J26" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="44">
+      <c r="I28" s="47">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="44">
+      <c r="I29" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="47">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="44">
+      <c r="I30" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I31" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="44">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I32" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="44">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="44">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="44">
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="44">
+      <c r="A36" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26858,82 +26908,82 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="43" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AA1" s="6" t="s">
@@ -27009,17 +27059,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
@@ -27124,7 +27174,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -27256,7 +27306,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27">
@@ -27321,8 +27371,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>66</v>
+      <c r="A7" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27">
@@ -27387,8 +27437,8 @@
       <c r="BC7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>70</v>
+      <c r="A8" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
@@ -27451,8 +27501,8 @@
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="33" t="s">
-        <v>73</v>
+      <c r="A9" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
@@ -27515,7 +27565,7 @@
       <c r="BC9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="27"/>
@@ -27579,8 +27629,8 @@
       <c r="BC10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="s">
-        <v>92</v>
+      <c r="A11" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27">
@@ -27643,7 +27693,7 @@
       <c r="BC11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="27"/>
@@ -27708,8 +27758,8 @@
       <c r="BF12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
-        <v>68</v>
+      <c r="A13" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -27772,8 +27822,8 @@
       <c r="BC13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>72</v>
+      <c r="A14" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -27836,7 +27886,7 @@
       <c r="BC14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="27"/>
@@ -27898,8 +27948,8 @@
       <c r="BC15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
-        <v>75</v>
+      <c r="A16" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -27960,8 +28010,8 @@
       <c r="BC16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="s">
-        <v>71</v>
+      <c r="A17" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -28022,8 +28072,8 @@
       <c r="BC17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
-        <v>93</v>
+      <c r="A18" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -28085,7 +28135,7 @@
       <c r="BF18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="27"/>
@@ -28147,8 +28197,8 @@
       <c r="BC19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
-        <v>89</v>
+      <c r="A20" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -28209,8 +28259,8 @@
       <c r="BC20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>69</v>
+      <c r="A21" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -28271,8 +28321,8 @@
       <c r="BC21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>82</v>
+      <c r="A22" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -28333,8 +28383,8 @@
       <c r="BC22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>88</v>
+      <c r="A23" s="34" t="s">
+        <v>91</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -28395,8 +28445,8 @@
       <c r="BC23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>91</v>
+      <c r="A24" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -28457,8 +28507,8 @@
       <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>76</v>
+      <c r="A25" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -28519,8 +28569,8 @@
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>77</v>
+      <c r="A26" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -28581,8 +28631,8 @@
       <c r="BC26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>74</v>
+      <c r="A27" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -28643,8 +28693,8 @@
       <c r="BC27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>85</v>
+      <c r="A28" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -28705,8 +28755,8 @@
       <c r="BC28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>65</v>
+      <c r="A29" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -28767,8 +28817,8 @@
       <c r="BC29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="33" t="s">
-        <v>78</v>
+      <c r="A30" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -28829,7 +28879,7 @@
       <c r="BC30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="27"/>
@@ -28891,8 +28941,8 @@
       <c r="BC31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="33" t="s">
-        <v>83</v>
+      <c r="A32" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -28953,8 +29003,8 @@
       <c r="BC32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="33" t="s">
-        <v>86</v>
+      <c r="A33" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -29015,8 +29065,8 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="33" t="s">
-        <v>79</v>
+      <c r="A34" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -29077,8 +29127,8 @@
       <c r="BC34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>80</v>
+      <c r="A35" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -29228,82 +29278,82 @@
       <c r="BC37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="43">
         <f>'League Table'!B41</f>
         <v>0</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="43">
         <f>'League Table'!C41</f>
         <v>19</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="43">
         <f>'League Table'!D41</f>
         <v>20</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="43">
         <f>'League Table'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="44">
+        <v>16</v>
+      </c>
+      <c r="F38" s="43">
         <f>'League Table'!F41</f>
         <v>0</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="43">
         <f>'League Table'!G41</f>
         <v>0</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="43">
         <f>'League Table'!H41</f>
         <v>0</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="43">
         <f>'League Table'!I41</f>
         <v>0</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="43">
         <f>'League Table'!J41</f>
         <v>0</v>
       </c>
-      <c r="K38" s="44">
+      <c r="K38" s="43">
         <f>'League Table'!K41</f>
         <v>0</v>
       </c>
-      <c r="L38" s="44">
+      <c r="L38" s="43">
         <f>'League Table'!L41</f>
         <v>0</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="43">
         <f>'League Table'!M41</f>
         <v>0</v>
       </c>
-      <c r="N38" s="44">
+      <c r="N38" s="43">
         <f>'League Table'!N41</f>
         <v>0</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="43">
         <f>'League Table'!O41</f>
         <v>0</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="43">
         <f>'League Table'!P41</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="44">
+      <c r="Q38" s="43">
         <f>'League Table'!Q41</f>
         <v>0</v>
       </c>
-      <c r="R38" s="44">
+      <c r="R38" s="43">
         <f>'League Table'!R41</f>
         <v>0</v>
       </c>
-      <c r="S38" s="44">
+      <c r="S38" s="43">
         <f>'League Table'!S41</f>
         <v>0</v>
       </c>
-      <c r="T38" s="44">
+      <c r="T38" s="43">
         <f>'League Table'!T41</f>
         <v>0</v>
       </c>
@@ -29311,47 +29361,47 @@
         <f>'League Table'!U41</f>
         <v>0</v>
       </c>
-      <c r="V38" s="44">
+      <c r="V38" s="43">
         <f>'League Table'!V41</f>
         <v>0</v>
       </c>
-      <c r="W38" s="44">
+      <c r="W38" s="43">
         <f>'League Table'!W41</f>
         <v>0</v>
       </c>
-      <c r="X38" s="44">
+      <c r="X38" s="43">
         <f>'League Table'!X41</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="44">
+      <c r="Y38" s="43">
         <f>'League Table'!Y41</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="44">
+      <c r="Z38" s="43">
         <f>'League Table'!Z41</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="44">
+      <c r="AA38" s="43">
         <f>'League Table'!AA41</f>
         <v>0</v>
       </c>
-      <c r="AB38" s="44">
+      <c r="AB38" s="43">
         <f>'League Table'!AB41</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="44">
+      <c r="AC38" s="43">
         <f>'League Table'!AC41</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="44">
+      <c r="AD38" s="43">
         <f>'League Table'!AD41</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="44">
+      <c r="AE38" s="43">
         <f>'League Table'!AE41</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="44">
+      <c r="AF38" s="43">
         <f>'League Table'!AF41</f>
         <v>0</v>
       </c>
@@ -29460,82 +29510,82 @@
       <c r="BC39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="44">
+      <c r="A40" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="43">
         <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="43">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="43">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="44">
+      <c r="L40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="44">
+      <c r="N40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R40" s="44">
+      <c r="R40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S40" s="44">
+      <c r="S40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T40" s="44">
+      <c r="T40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29543,23 +29593,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V40" s="44">
+      <c r="V40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W40" s="44">
+      <c r="W40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X40" s="44">
+      <c r="X40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="44">
+      <c r="Y40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="44">
+      <c r="Z40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -60411,7 +60461,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -60576,10 +60626,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -60638,7 +60688,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17">
@@ -60694,14 +60744,14 @@
       <c r="AW5" s="17"/>
       <c r="AX5" s="17"/>
       <c r="AY5" s="17"/>
-      <c r="BA5" s="44">
+      <c r="BA5" s="43">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
-        <v>71</v>
+      <c r="A6" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54">
@@ -60715,60 +60765,60 @@
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
       <c r="K6" s="55"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="31"/>
-      <c r="AV6" s="31"/>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="31"/>
-      <c r="AY6" s="31"/>
-      <c r="BA6" s="44">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="BA6" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B7" s="27"/>
-      <c r="C7" s="27">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
         <v>1.0</v>
       </c>
-      <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -60816,20 +60866,20 @@
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
-      <c r="BA7" s="44">
+      <c r="BA7" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17">
+      <c r="C8" s="17">
         <v>1.0</v>
       </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -60877,80 +60927,82 @@
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
-      <c r="BA8" s="44">
+      <c r="BA8" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31">
+      <c r="A9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32">
         <v>1.0</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="BA9" s="44">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="BA9" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>74</v>
+      <c r="A10" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="27">
+        <v>1.0</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -60997,17 +61049,19 @@
       <c r="AW10" s="27"/>
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
-      <c r="BA10" s="44">
+      <c r="BA10" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="s">
-        <v>75</v>
+      <c r="A11" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -61056,73 +61110,73 @@
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
-      <c r="BA11" s="44">
+      <c r="BA11" s="43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="BA12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="BA12" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
-        <v>59</v>
+      <c r="A13" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -61174,13 +61228,13 @@
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
-      <c r="BA13" s="44">
+      <c r="BA13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="27"/>
@@ -61233,14 +61287,14 @@
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
       <c r="AY14" s="27"/>
-      <c r="BA14" s="44">
+      <c r="BA14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="33" t="s">
-        <v>78</v>
+      <c r="A15" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -61292,14 +61346,14 @@
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
-      <c r="BA15" s="44">
+      <c r="BA15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
-        <v>92</v>
+      <c r="A16" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -61351,14 +61405,14 @@
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
-      <c r="BA16" s="44">
+      <c r="BA16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="s">
-        <v>89</v>
+      <c r="A17" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -61410,14 +61464,14 @@
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
-      <c r="BA17" s="44">
+      <c r="BA17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
-        <v>81</v>
+      <c r="A18" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -61469,14 +61523,14 @@
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
-      <c r="BA18" s="44">
+      <c r="BA18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>114</v>
+      <c r="A19" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -61528,14 +61582,14 @@
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
       <c r="AY19" s="27"/>
-      <c r="BA19" s="44">
+      <c r="BA19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
-        <v>93</v>
+      <c r="A20" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -61587,14 +61641,14 @@
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
-      <c r="BA20" s="44">
+      <c r="BA20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>94</v>
+      <c r="A21" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -61646,14 +61700,14 @@
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
-      <c r="BA21" s="44">
+      <c r="BA21" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>61</v>
+      <c r="A22" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -61705,13 +61759,13 @@
       <c r="AW22" s="27"/>
       <c r="AX22" s="27"/>
       <c r="AY22" s="27"/>
-      <c r="BA22" s="44">
+      <c r="BA22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="27"/>
@@ -61764,14 +61818,14 @@
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
-      <c r="BA23" s="44">
+      <c r="BA23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>82</v>
+      <c r="A24" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -61823,14 +61877,14 @@
       <c r="AW24" s="27"/>
       <c r="AX24" s="27"/>
       <c r="AY24" s="27"/>
-      <c r="BA24" s="44">
+      <c r="BA24" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>90</v>
+      <c r="A25" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -61882,14 +61936,14 @@
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
-      <c r="BA25" s="44">
+      <c r="BA25" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>115</v>
+      <c r="A26" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -61941,14 +61995,14 @@
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
-      <c r="BA26" s="44">
+      <c r="BA26" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>116</v>
+      <c r="A27" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -62000,14 +62054,14 @@
       <c r="AW27" s="27"/>
       <c r="AX27" s="27"/>
       <c r="AY27" s="27"/>
-      <c r="BA27" s="44">
+      <c r="BA27" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>83</v>
+      <c r="A28" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -62059,14 +62113,14 @@
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
       <c r="AY28" s="27"/>
-      <c r="BA28" s="44">
+      <c r="BA28" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>69</v>
+      <c r="A29" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -62118,13 +62172,13 @@
       <c r="AW29" s="27"/>
       <c r="AX29" s="27"/>
       <c r="AY29" s="27"/>
-      <c r="BA29" s="44">
+      <c r="BA29" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="27"/>
@@ -62177,14 +62231,14 @@
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
-      <c r="BA30" s="44">
+      <c r="BA30" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="33" t="s">
-        <v>117</v>
+      <c r="A31" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -62236,14 +62290,14 @@
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
-      <c r="BA31" s="44">
+      <c r="BA31" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="33" t="s">
-        <v>65</v>
+      <c r="A32" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -62295,14 +62349,14 @@
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
-      <c r="BA32" s="44">
+      <c r="BA32" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="33" t="s">
-        <v>88</v>
+      <c r="A33" s="34" t="s">
+        <v>91</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -62354,14 +62408,14 @@
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
-      <c r="BA33" s="44">
+      <c r="BA33" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="33" t="s">
-        <v>72</v>
+      <c r="A34" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -62413,14 +62467,14 @@
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
-      <c r="BA34" s="44">
+      <c r="BA34" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>73</v>
+      <c r="A35" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -62472,14 +62526,14 @@
       <c r="AW35" s="27"/>
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
-      <c r="BA35" s="44">
+      <c r="BA35" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="33" t="s">
-        <v>86</v>
+      <c r="A36" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -62531,14 +62585,14 @@
       <c r="AW36" s="27"/>
       <c r="AX36" s="27"/>
       <c r="AY36" s="27"/>
-      <c r="BA36" s="44">
+      <c r="BA36" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="33" t="s">
-        <v>68</v>
+      <c r="A37" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -62590,13 +62644,13 @@
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
-      <c r="BA37" s="44">
+      <c r="BA37" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -62756,7 +62810,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -62772,7 +62826,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="2"/>
@@ -62958,9 +63012,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA41" s="44">
+      <c r="BA41" s="43">
         <f>SUM(B41:AZ41)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -63946,20 +64000,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>123</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -63975,16 +64029,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -63996,10 +64050,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -64013,16 +64067,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
@@ -64033,10 +64087,18 @@
       <c r="A6" s="49">
         <v>4.0</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>125</v>
+      </c>
       <c r="G6" s="49"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -64052,14 +64114,14 @@
       <c r="E7" s="49"/>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>118</v>
+      <c r="K7" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -64086,15 +64148,15 @@
       <c r="E9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N9" s="59">
         <v>1.0</v>
@@ -64110,15 +64172,15 @@
       <c r="E10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N10" s="59">
         <v>1.0</v>
@@ -64138,7 +64200,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N11" s="59">
         <v>1.0</v>
@@ -64158,7 +64220,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" s="59">
         <v>1.0</v>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="4YHRzoWSJn+87aclEoF1z+gUwQ4ribwIq3Hh1cnJmFM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="g4vivuFF5Fza6ehFYcyM5HyF+YEY4mv8i2zsL4Yb3FY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="159">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -219,7 +219,7 @@
     <t>TUNDE</t>
   </si>
   <si>
-    <t>STEVE P</t>
+    <t>TOY BOY</t>
   </si>
   <si>
     <t>DOM</t>
@@ -228,7 +228,7 @@
     <t>BANKSY</t>
   </si>
   <si>
-    <t>MATT B</t>
+    <t>KRYTON</t>
   </si>
   <si>
     <t>CAPTAIN KIRK</t>
@@ -357,7 +357,13 @@
     <t>MAMAS</t>
   </si>
   <si>
+    <t>MATT B</t>
+  </si>
+  <si>
     <t>BAZ</t>
+  </si>
+  <si>
+    <t>STEVE P</t>
   </si>
   <si>
     <t>WK 50</t>
@@ -792,10 +798,10 @@
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2211,7 +2217,7 @@
       <c r="BG11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="26"/>
@@ -2307,7 +2313,7 @@
       <c r="BG12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="26"/>
@@ -2493,7 +2499,7 @@
       <c r="BG14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="26"/>
@@ -2589,7 +2595,7 @@
       <c r="BG15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="26"/>
@@ -2685,7 +2691,7 @@
       <c r="BG16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="26"/>
@@ -2783,7 +2789,7 @@
       <c r="BG17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="26"/>
@@ -2881,7 +2887,7 @@
       <c r="BG18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="26"/>
@@ -2979,7 +2985,7 @@
       <c r="BG19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="26"/>
@@ -3069,7 +3075,7 @@
       <c r="BG20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="26"/>
@@ -3165,7 +3171,7 @@
       <c r="BG21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="26"/>
@@ -3263,7 +3269,7 @@
       <c r="BG22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="26"/>
@@ -3361,7 +3367,7 @@
       <c r="BG23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="26"/>
@@ -3449,7 +3455,7 @@
       <c r="BG24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="26"/>
@@ -3541,7 +3547,7 @@
       <c r="BG25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="26"/>
@@ -3631,7 +3637,7 @@
       <c r="BG26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="26"/>
@@ -3725,7 +3731,7 @@
       <c r="BG27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="26"/>
@@ -3899,7 +3905,7 @@
       <c r="BG29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="26"/>
@@ -3985,7 +3991,7 @@
       <c r="BG30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="26"/>
@@ -4071,7 +4077,7 @@
       <c r="BG31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="26"/>
@@ -4157,7 +4163,7 @@
       <c r="BG32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="26"/>
@@ -4243,7 +4249,7 @@
       <c r="BG33" s="20"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="26"/>
@@ -4329,7 +4335,7 @@
       <c r="BG34" s="20"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="26"/>
@@ -4415,7 +4421,7 @@
       <c r="BG35" s="20"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="26"/>
@@ -4501,7 +4507,7 @@
       <c r="BG36" s="20"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="26"/>
@@ -4587,7 +4593,7 @@
       <c r="BG37" s="20"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="26"/>
@@ -4673,7 +4679,7 @@
       <c r="BG38" s="20"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="26"/>
@@ -4763,7 +4769,7 @@
       <c r="BG39" s="20"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="26"/>
@@ -25722,7 +25728,7 @@
       <c r="J8" s="46"/>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="44">
@@ -25747,7 +25753,7 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="44">
@@ -25773,7 +25779,7 @@
       <c r="J10" s="46"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="44">
@@ -25798,7 +25804,7 @@
       <c r="J11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="44">
@@ -25829,7 +25835,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="44">
@@ -25861,7 +25867,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="44">
@@ -25877,7 +25883,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G15" s="44">
@@ -25893,7 +25899,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="44">
@@ -25909,7 +25915,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="44">
@@ -25925,7 +25931,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="44">
@@ -25941,7 +25947,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="44">
@@ -25957,7 +25963,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="44">
@@ -25973,8 +25979,8 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35" t="s">
-        <v>68</v>
+      <c r="A21" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="44">
         <f t="shared" si="1"/>
@@ -25989,7 +25995,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="44">
@@ -26005,7 +26011,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="44">
@@ -26021,7 +26027,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="44">
@@ -26037,7 +26043,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="44">
@@ -26053,7 +26059,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="44">
@@ -26069,7 +26075,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="44">
@@ -26081,7 +26087,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="44">
@@ -26093,8 +26099,8 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35" t="s">
-        <v>111</v>
+      <c r="A29" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="G29" s="44">
         <f t="shared" si="1"/>
@@ -26105,7 +26111,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="44">
@@ -26117,7 +26123,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G31" s="44">
@@ -26129,7 +26135,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>86</v>
       </c>
       <c r="G32" s="44">
@@ -26138,7 +26144,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="44">
@@ -26147,7 +26153,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="44">
@@ -26156,8 +26162,8 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35" t="s">
-        <v>65</v>
+      <c r="A35" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="G35" s="44">
         <f t="shared" si="1"/>
@@ -27313,17 +27319,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -27702,7 +27708,7 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -27767,8 +27773,8 @@
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
-        <v>65</v>
+      <c r="A9" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28">
@@ -27833,7 +27839,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="28"/>
@@ -27899,7 +27905,7 @@
       <c r="BC10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="28"/>
@@ -27965,7 +27971,7 @@
       <c r="BC11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="28"/>
@@ -28032,7 +28038,7 @@
       <c r="BF12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="28"/>
@@ -28096,7 +28102,7 @@
       <c r="BC13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="28"/>
@@ -28160,7 +28166,7 @@
       <c r="BC14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="28"/>
@@ -28224,7 +28230,7 @@
       <c r="BC15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="28"/>
@@ -28288,7 +28294,7 @@
       <c r="BC16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="28"/>
@@ -28352,7 +28358,7 @@
       <c r="BC17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="28"/>
@@ -28417,7 +28423,7 @@
       <c r="BF18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="28"/>
@@ -28481,7 +28487,7 @@
       <c r="BC19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="28"/>
@@ -28545,7 +28551,7 @@
       <c r="BC20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="28"/>
@@ -28609,7 +28615,7 @@
       <c r="BC21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="28"/>
@@ -28671,7 +28677,7 @@
       <c r="BC22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="28"/>
@@ -28733,7 +28739,7 @@
       <c r="BC23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="28"/>
@@ -28795,7 +28801,7 @@
       <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="28"/>
@@ -28857,7 +28863,7 @@
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="28"/>
@@ -28919,8 +28925,8 @@
       <c r="BC26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>111</v>
+      <c r="A27" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -28981,7 +28987,7 @@
       <c r="BC27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="28"/>
@@ -29043,7 +29049,7 @@
       <c r="BC28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="28"/>
@@ -29105,7 +29111,7 @@
       <c r="BC29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="28"/>
@@ -29167,7 +29173,7 @@
       <c r="BC30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="28"/>
@@ -29229,7 +29235,7 @@
       <c r="BC31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="28"/>
@@ -29291,7 +29297,7 @@
       <c r="BC32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="28"/>
@@ -29353,7 +29359,7 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="28"/>
@@ -29415,7 +29421,7 @@
       <c r="BC34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="28"/>
@@ -29477,7 +29483,7 @@
       <c r="BC35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="28"/>
@@ -29861,7 +29867,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B41" s="44">
         <f t="shared" ref="B41:AV41" si="2">SUM(B3:B37)</f>
@@ -60779,7 +60785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -60944,10 +60950,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BA3" s="54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -61073,7 +61079,7 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
@@ -61329,7 +61335,7 @@
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28">
@@ -61391,7 +61397,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="28"/>
@@ -61452,7 +61458,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="32"/>
@@ -61513,7 +61519,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="28"/>
@@ -61574,8 +61580,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>120</v>
+      <c r="A14" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -61635,7 +61641,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="28"/>
@@ -61696,7 +61702,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="28"/>
@@ -61757,7 +61763,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="28"/>
@@ -61816,7 +61822,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="28"/>
@@ -61875,7 +61881,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="28"/>
@@ -61934,7 +61940,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="28"/>
@@ -61993,7 +61999,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="28"/>
@@ -62052,7 +62058,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="28"/>
@@ -62111,7 +62117,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="28"/>
@@ -62170,7 +62176,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="28"/>
@@ -62229,7 +62235,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="28"/>
@@ -62288,8 +62294,8 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35" t="s">
-        <v>121</v>
+      <c r="A26" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -62347,8 +62353,8 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>68</v>
+      <c r="A27" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -62406,7 +62412,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="28"/>
@@ -62465,7 +62471,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="28"/>
@@ -62524,8 +62530,8 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
-        <v>122</v>
+      <c r="A30" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -62583,7 +62589,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="28"/>
@@ -62642,7 +62648,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="28"/>
@@ -62701,7 +62707,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="28"/>
@@ -62760,7 +62766,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="28"/>
@@ -62819,7 +62825,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="28"/>
@@ -62878,7 +62884,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="28"/>
@@ -62937,7 +62943,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="28"/>
@@ -62996,7 +63002,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -63156,7 +63162,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -64347,19 +64353,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -64375,16 +64381,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="5"/>
@@ -64396,10 +64402,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -64413,16 +64419,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="5"/>
@@ -64434,16 +64440,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="5"/>
@@ -64455,27 +64461,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -64484,16 +64490,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="5"/>
@@ -64505,30 +64511,30 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I9" s="5">
         <v>2.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N9" s="5">
         <v>2.0</v>
@@ -64544,15 +64550,15 @@
       <c r="E10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N10" s="5">
         <v>2.0</v>
@@ -64568,15 +64574,15 @@
       <c r="E11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N11" s="5">
         <v>2.0</v>
@@ -64592,15 +64598,15 @@
       <c r="E12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N12" s="5">
         <v>2.0</v>
@@ -64617,15 +64623,15 @@
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N13" s="5">
         <v>1.0</v>
@@ -64641,13 +64647,13 @@
       <c r="E14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N14" s="5">
         <v>1.0</v>
@@ -64663,13 +64669,13 @@
       <c r="E15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="5">
         <v>1.0</v>
@@ -64685,13 +64691,13 @@
       <c r="E16" s="60"/>
       <c r="G16" s="50"/>
       <c r="H16" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N16" s="5">
         <v>1.0</v>
@@ -64707,13 +64713,13 @@
       <c r="E17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N17" s="5">
         <v>1.0</v>
@@ -64733,7 +64739,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N18" s="5">
         <v>1.0</v>
@@ -64753,7 +64759,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N19" s="5">
         <v>1.0</v>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6gNUf0hGLVgnOgh7+iO1a49nYPtIhHgVVQWqCdorvyA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="FqOX//pNsjCv6g2IFLN0FKhbvWJmRAzSKTWgJfdfp+o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -210,10 +210,10 @@
     <t>KERMIT</t>
   </si>
   <si>
-    <t xml:space="preserve">MAMAS </t>
+    <t>CAPTAIN KIRK</t>
   </si>
   <si>
-    <t>CAPTAIN KIRK</t>
+    <t xml:space="preserve">MAMAS </t>
   </si>
   <si>
     <t>BRUCE</t>
@@ -225,28 +225,28 @@
     <t>CARLOS</t>
   </si>
   <si>
+    <t>INSPECTOR GADGET</t>
+  </si>
+  <si>
+    <t>DWARF</t>
+  </si>
+  <si>
     <t>PRESTON</t>
   </si>
   <si>
-    <t>INSPECTOR GADGET</t>
+    <t>ARTIST</t>
+  </si>
+  <si>
+    <t>FLO</t>
   </si>
   <si>
     <t>DUNCAN</t>
-  </si>
-  <si>
-    <t>DWARF</t>
   </si>
   <si>
     <t>KRYTON</t>
   </si>
   <si>
     <t>ZIGZAG</t>
-  </si>
-  <si>
-    <t>ARTIST</t>
-  </si>
-  <si>
-    <t>FLO</t>
   </si>
   <si>
     <t>TUNDE</t>
@@ -584,6 +584,9 @@
   <si>
     <t>Captain Kirk</t>
   </si>
+  <si>
+    <t>ZigZag - Wilson</t>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -931,6 +934,9 @@
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1667,7 +1673,9 @@
       <c r="R5" s="16">
         <v>0.0</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>2.0</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -1704,11 +1712,11 @@
       </c>
       <c r="AZ5" s="5">
         <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" s="5">
         <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
@@ -1720,15 +1728,15 @@
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BF5" s="20">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>0.7435897436</v>
+        <v>0.7619047619</v>
       </c>
       <c r="BG5" s="20"/>
     </row>
@@ -1893,7 +1901,9 @@
       <c r="R7" s="28">
         <v>0.0</v>
       </c>
-      <c r="S7" s="28"/>
+      <c r="S7" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
       <c r="V7" s="28"/>
@@ -1930,7 +1940,7 @@
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
@@ -1942,7 +1952,7 @@
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
@@ -1950,11 +1960,11 @@
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BF7" s="20">
         <f t="shared" si="7"/>
-        <v>0.6666666667</v>
+        <v>0.619047619</v>
       </c>
       <c r="BG7" s="20"/>
     </row>
@@ -1964,7 +1974,7 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="16">
         <v>3.0</v>
@@ -1973,11 +1983,9 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="16">
         <v>-3.0</v>
       </c>
@@ -1985,29 +1993,31 @@
         <v>2.0</v>
       </c>
       <c r="J8" s="16">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16">
         <v>3.0</v>
       </c>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16">
+        <v>1.0</v>
+      </c>
       <c r="N8" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17">
+        <v>-1.0</v>
+      </c>
+      <c r="Q8" s="16">
         <v>-2.0</v>
       </c>
-      <c r="O8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="R8" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="16">
         <v>2.0</v>
       </c>
-      <c r="R8" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -2064,7 +2074,7 @@
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF8" s="20">
         <f t="shared" si="7"/>
@@ -2078,7 +2088,7 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D9" s="34">
         <v>3.0</v>
@@ -2087,9 +2097,11 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="34">
-        <v>-2.0</v>
-      </c>
-      <c r="G9" s="34"/>
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>3.0</v>
+      </c>
       <c r="H9" s="34">
         <v>-3.0</v>
       </c>
@@ -2097,29 +2109,31 @@
         <v>2.0</v>
       </c>
       <c r="J9" s="34">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="34">
         <v>3.0</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
+        <v>-2.0</v>
+      </c>
+      <c r="O9" s="34">
         <v>1.0</v>
       </c>
-      <c r="N9" s="34">
+      <c r="P9" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q9" s="34">
         <v>2.0</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="33">
-        <v>-1.0</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>-2.0</v>
       </c>
       <c r="R9" s="34">
         <v>0.0</v>
       </c>
-      <c r="S9" s="34"/>
+      <c r="S9" s="34">
+        <v>-2.0</v>
+      </c>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="34"/>
@@ -2156,11 +2170,11 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB9" s="5">
         <f t="shared" si="3"/>
@@ -2168,19 +2182,19 @@
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF9" s="20">
         <f t="shared" si="7"/>
-        <v>0.5897435897</v>
+        <v>0.5777777778</v>
       </c>
       <c r="BG9" s="20"/>
     </row>
@@ -2233,7 +2247,9 @@
         <v>-2.0</v>
       </c>
       <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="S10" s="34">
+        <v>-2.0</v>
+      </c>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -2270,7 +2286,7 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
@@ -2282,7 +2298,7 @@
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
@@ -2290,11 +2306,11 @@
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="20">
         <f t="shared" si="7"/>
-        <v>0.5238095238</v>
+        <v>0.4888888889</v>
       </c>
       <c r="BG10" s="20"/>
     </row>
@@ -2343,7 +2359,9 @@
       <c r="R11" s="28">
         <v>0.0</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29">
+        <v>2.0</v>
+      </c>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
@@ -2380,11 +2398,11 @@
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
@@ -2396,15 +2414,15 @@
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF11" s="20">
         <f t="shared" si="7"/>
-        <v>0.4722222222</v>
+        <v>0.5128205128</v>
       </c>
       <c r="BG11" s="20"/>
     </row>
@@ -2455,7 +2473,9 @@
       <c r="R12" s="28">
         <v>0.0</v>
       </c>
-      <c r="S12" s="28"/>
+      <c r="S12" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
@@ -2492,11 +2512,11 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
@@ -2508,15 +2528,15 @@
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="BF12" s="20">
         <f t="shared" si="7"/>
-        <v>0.4358974359</v>
+        <v>0.4761904762</v>
       </c>
       <c r="BG12" s="20"/>
     </row>
@@ -2526,52 +2546,48 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="E13" s="28"/>
       <c r="F13" s="28">
         <v>-2.0</v>
       </c>
       <c r="G13" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="H13" s="28">
-        <v>-3.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="28"/>
       <c r="I13" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="J13" s="28">
         <v>2.0</v>
       </c>
       <c r="K13" s="27"/>
-      <c r="L13" s="28">
-        <v>-3.0</v>
-      </c>
+      <c r="L13" s="28"/>
       <c r="M13" s="29">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="N13" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="O13" s="28">
         <v>-1.0</v>
       </c>
       <c r="P13" s="28">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="R13" s="28">
         <v>0.0</v>
       </c>
-      <c r="S13" s="28"/>
+      <c r="S13" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
@@ -2608,31 +2624,31 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="20">
         <f t="shared" si="7"/>
-        <v>0.3777777778</v>
+        <v>0.4871794872</v>
       </c>
       <c r="BG13" s="20"/>
     </row>
@@ -2648,13 +2664,11 @@
         <v>-3.0</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29">
         <v>3.0</v>
       </c>
-      <c r="H14" s="28"/>
       <c r="I14" s="28">
         <v>-2.0</v>
       </c>
@@ -2662,26 +2676,28 @@
         <v>2.0</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29">
+      <c r="L14" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="M14" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="N14" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="O14" s="28">
         <v>1.0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="P14" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="Q14" s="28">
         <v>2.0</v>
       </c>
-      <c r="O14" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="R14" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="S14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
@@ -2722,11 +2738,11 @@
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
@@ -2734,15 +2750,15 @@
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="20">
         <f t="shared" si="7"/>
-        <v>0.4444444444</v>
+        <v>0.5</v>
       </c>
       <c r="BG14" s="20"/>
     </row>
@@ -2752,38 +2768,38 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="D15" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="29">
         <v>3.0</v>
       </c>
       <c r="E15" s="28">
         <v>0.0</v>
       </c>
       <c r="F15" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G15" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="H15" s="28">
         <v>-3.0</v>
       </c>
       <c r="I15" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="J15" s="29">
-        <v>-2.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>2.0</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="28">
         <v>-3.0</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="29">
         <v>-1.0</v>
       </c>
       <c r="N15" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="O15" s="28">
         <v>-1.0</v>
@@ -2794,7 +2810,9 @@
       <c r="Q15" s="28">
         <v>2.0</v>
       </c>
-      <c r="R15" s="28"/>
+      <c r="R15" s="28">
+        <v>0.0</v>
+      </c>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
@@ -2832,7 +2850,7 @@
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
@@ -2840,7 +2858,7 @@
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
@@ -2848,15 +2866,15 @@
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="BF15" s="20">
         <f t="shared" si="7"/>
-        <v>0.380952381</v>
+        <v>0.3777777778</v>
       </c>
       <c r="BG15" s="20"/>
     </row>
@@ -2865,45 +2883,45 @@
         <v>70</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>-3.0</v>
-      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>2.0</v>
+      </c>
       <c r="G16" s="28"/>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>3.0</v>
       </c>
       <c r="I16" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="28">
         <v>-2.0</v>
-      </c>
-      <c r="J16" s="28">
-        <v>2.0</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="M16" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="O16" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N16" s="28">
+      <c r="P16" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" s="28">
         <v>-2.0</v>
       </c>
-      <c r="O16" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="Q16" s="28">
+      <c r="R16" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="28">
         <v>2.0</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
@@ -2948,23 +2966,23 @@
       </c>
       <c r="BB16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="20">
         <f t="shared" si="7"/>
-        <v>0.4545454545</v>
+        <v>0.4848484848</v>
       </c>
       <c r="BG16" s="20"/>
     </row>
@@ -2973,9 +2991,11 @@
         <v>71</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="C17" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D17" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E17" s="28">
         <v>0.0</v>
@@ -2987,12 +3007,14 @@
       <c r="H17" s="28">
         <v>-3.0</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="28">
         <v>-2.0</v>
       </c>
-      <c r="J17" s="28"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="29">
+      <c r="L17" s="28">
         <v>-3.0</v>
       </c>
       <c r="M17" s="28">
@@ -3000,16 +3022,14 @@
       </c>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" s="28">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29">
         <v>2.0</v>
       </c>
-      <c r="R17" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
@@ -3046,31 +3066,31 @@
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BF17" s="20">
         <f t="shared" si="7"/>
-        <v>0.4666666667</v>
+        <v>0.4848484848</v>
       </c>
       <c r="BG17" s="20"/>
     </row>
@@ -3085,14 +3105,14 @@
       <c r="D18" s="28">
         <v>3.0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>0.0</v>
       </c>
       <c r="F18" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" s="28">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="H18" s="28">
         <v>-3.0</v>
@@ -3100,17 +3120,21 @@
       <c r="I18" s="28">
         <v>-2.0</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="K18" s="27"/>
       <c r="L18" s="28">
         <v>-3.0</v>
       </c>
       <c r="M18" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="28"/>
+        <v>-1.0</v>
+      </c>
+      <c r="N18" s="28">
+        <v>2.0</v>
+      </c>
       <c r="O18" s="28">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="P18" s="28">
         <v>-1.0</v>
@@ -3118,9 +3142,7 @@
       <c r="Q18" s="28">
         <v>2.0</v>
       </c>
-      <c r="R18" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="R18" s="28"/>
       <c r="S18" s="28"/>
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
@@ -3158,31 +3180,31 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB18" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="BF18" s="20">
         <f t="shared" si="7"/>
-        <v>0.358974359</v>
+        <v>0.380952381</v>
       </c>
       <c r="BG18" s="20"/>
     </row>
@@ -3192,37 +3214,37 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="28"/>
+      <c r="D19" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
+        <v>3.0</v>
+      </c>
       <c r="H19" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I19" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="J19" s="28">
         <v>-2.0</v>
       </c>
+      <c r="J19" s="28"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="28">
+      <c r="L19" s="29">
         <v>-3.0</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="O19" s="28">
+      <c r="M19" s="28">
         <v>-1.0</v>
       </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="28">
         <v>1.0</v>
       </c>
       <c r="Q19" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="R19" s="28">
         <v>0.0</v>
@@ -3272,23 +3294,23 @@
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="20">
         <f t="shared" si="7"/>
-        <v>0.4333333333</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BG19" s="20"/>
     </row>
@@ -3298,42 +3320,50 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D20" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="G20" s="28">
         <v>-3.0</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28">
-        <v>3.0</v>
       </c>
       <c r="H20" s="28">
         <v>-3.0</v>
       </c>
-      <c r="I20" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J20" s="28">
+      <c r="I20" s="28">
         <v>-2.0</v>
       </c>
+      <c r="J20" s="28"/>
       <c r="K20" s="27"/>
       <c r="L20" s="28">
         <v>-3.0</v>
       </c>
       <c r="M20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="P20" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29">
+      <c r="Q20" s="28">
         <v>2.0</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
+      <c r="R20" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
@@ -3370,7 +3400,7 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
@@ -3378,23 +3408,23 @@
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="BF20" s="20">
         <f t="shared" si="7"/>
-        <v>0.4333333333</v>
+        <v>0.3333333333</v>
       </c>
       <c r="BG20" s="20"/>
     </row>
@@ -3635,7 +3665,9 @@
       <c r="R23" s="28">
         <v>0.0</v>
       </c>
-      <c r="S23" s="28"/>
+      <c r="S23" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
@@ -3672,7 +3704,7 @@
       </c>
       <c r="AZ23" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" s="5">
         <f t="shared" si="2"/>
@@ -3684,7 +3716,7 @@
       </c>
       <c r="BC23" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="5"/>
@@ -3692,11 +3724,11 @@
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="BF23" s="20">
         <f t="shared" si="7"/>
-        <v>0.2820512821</v>
+        <v>0.2619047619</v>
       </c>
       <c r="BG23" s="20"/>
     </row>
@@ -3747,7 +3779,9 @@
       <c r="R24" s="29">
         <v>0.0</v>
       </c>
-      <c r="S24" s="28"/>
+      <c r="S24" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="28"/>
@@ -3784,7 +3818,7 @@
       </c>
       <c r="AZ24" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA24" s="5">
         <f t="shared" si="2"/>
@@ -3796,7 +3830,7 @@
       </c>
       <c r="BC24" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD24" s="5">
         <f t="shared" si="5"/>
@@ -3804,11 +3838,11 @@
       </c>
       <c r="BE24" s="5">
         <f t="shared" si="6"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="BF24" s="20">
         <f t="shared" si="7"/>
-        <v>0.2820512821</v>
+        <v>0.2619047619</v>
       </c>
       <c r="BG24" s="20"/>
     </row>
@@ -3844,10 +3878,12 @@
       </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="28">
+      <c r="R25" s="29">
         <v>0.0</v>
       </c>
-      <c r="S25" s="28"/>
+      <c r="S25" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="T25" s="28"/>
       <c r="U25" s="28"/>
       <c r="V25" s="28"/>
@@ -3884,7 +3920,7 @@
       </c>
       <c r="AZ25" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" s="5">
         <f t="shared" si="2"/>
@@ -3896,7 +3932,7 @@
       </c>
       <c r="BC25" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD25" s="5">
         <f t="shared" si="5"/>
@@ -3904,11 +3940,11 @@
       </c>
       <c r="BE25" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BF25" s="20">
         <f t="shared" si="7"/>
-        <v>0.380952381</v>
+        <v>0.3333333333</v>
       </c>
       <c r="BG25" s="20"/>
     </row>
@@ -3939,7 +3975,9 @@
         <v>-2.0</v>
       </c>
       <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+      <c r="S26" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
       <c r="V26" s="28"/>
@@ -3976,7 +4014,7 @@
       </c>
       <c r="AZ26" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA26" s="5">
         <f t="shared" si="2"/>
@@ -3988,7 +4026,7 @@
       </c>
       <c r="BC26" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD26" s="5">
         <f t="shared" si="5"/>
@@ -3996,11 +4034,11 @@
       </c>
       <c r="BE26" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BF26" s="20">
         <f t="shared" si="7"/>
-        <v>0.6666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BG26" s="20"/>
     </row>
@@ -5328,7 +5366,7 @@
       </c>
       <c r="S41" s="34">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T41" s="34">
         <f t="shared" si="8"/>
@@ -25963,7 +26001,7 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="44">
         <v>2.0</v>
@@ -26056,7 +26094,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="45">
         <v>1.0</v>
@@ -26143,7 +26181,7 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="44">
         <v>2.0</v>
@@ -26168,7 +26206,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="44">
         <v>1.0</v>
@@ -26194,7 +26232,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="44">
         <v>2.0</v>
@@ -26219,7 +26257,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="44">
         <v>2.0</v>
@@ -26234,7 +26272,7 @@
         <v>1.0</v>
       </c>
       <c r="F13" s="44">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="1"/>
@@ -26250,26 +26288,26 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B14" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="44">
         <v>1.0</v>
       </c>
-      <c r="C14" s="44">
+      <c r="D14" s="44">
         <v>0.0</v>
       </c>
-      <c r="D14" s="44">
+      <c r="E14" s="44">
         <v>1.0</v>
       </c>
-      <c r="E14" s="44">
-        <v>0.0</v>
-      </c>
       <c r="F14" s="44">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="44">
@@ -26277,12 +26315,12 @@
       </c>
       <c r="J14" s="46">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B15" s="44">
         <v>1.0</v>
@@ -26313,7 +26351,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="44">
         <v>2.0</v>
@@ -26328,7 +26366,7 @@
         <v>1.0</v>
       </c>
       <c r="F16" s="44">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" si="1"/>
@@ -26344,38 +26382,38 @@
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B17" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C17" s="44">
         <v>0.0</v>
       </c>
       <c r="D17" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="44">
         <v>1.0</v>
       </c>
       <c r="F17" s="44">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="44">
         <v>23.0</v>
       </c>
       <c r="J17" s="46">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B18" s="44">
         <v>1.0</v>
@@ -26390,7 +26428,7 @@
         <v>1.0</v>
       </c>
       <c r="F18" s="44">
-        <v>-2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G18" s="44">
         <f t="shared" si="1"/>
@@ -26406,7 +26444,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B19" s="44">
         <v>1.0</v>
@@ -26437,7 +26475,7 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="44">
         <v>1.0</v>
@@ -26468,7 +26506,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="44">
         <v>1.0</v>
@@ -27932,14 +27970,51 @@
       <c r="R2" s="7">
         <v>45776.0</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="S2" s="7">
+        <v>45783.0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>45790.0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>45797.0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>45804.0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>45811.0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>45818.0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>45825.0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>45832.0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>45839.0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>45846.0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>45853.0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>45860.0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>45867.0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>45874.0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>45881.0</v>
+      </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -28043,31 +28118,37 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <v>2.0</v>
+      </c>
       <c r="D4" s="28">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="28">
-        <v>7.0</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="M4" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="N4" s="28">
+        <v>1.0</v>
+      </c>
       <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28">
+        <v>1.0</v>
+      </c>
       <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="R4" s="28">
+        <v>1.0</v>
+      </c>
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
@@ -28104,41 +28185,35 @@
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="BB4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="BC4" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28">
         <v>1.0</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="F5" s="28">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28">
         <v>1.0</v>
       </c>
-      <c r="G5" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <v>7.0</v>
+      </c>
       <c r="J5" s="28"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -28189,33 +28264,35 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="28">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1.0</v>
+      </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="27"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="N6" s="28">
         <v>1.0</v>
       </c>
+      <c r="N6" s="28"/>
       <c r="O6" s="28"/>
-      <c r="P6" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -28256,10 +28333,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5">
-        <v>3.0</v>
-      </c>
+      <c r="BB6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
@@ -28333,31 +28410,31 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="28">
+        <v>2.0</v>
+      </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="28">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28">
         <v>2.0</v>
       </c>
-      <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="27"/>
-      <c r="L8" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
-      <c r="O8" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="R8" s="28">
+        <v>2.0</v>
+      </c>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
@@ -28397,35 +28474,35 @@
         <v>6</v>
       </c>
       <c r="BB8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC8" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28">
-        <v>1.0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28">
+        <v>2.0</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="J9" s="28"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="28">
+        <v>3.0</v>
+      </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>1.0</v>
-      </c>
-      <c r="O9" s="28">
-        <v>2.0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
@@ -28475,7 +28552,7 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="28">
@@ -28485,22 +28562,22 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="N10" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="28">
+        <v>2.0</v>
+      </c>
       <c r="P10" s="28"/>
-      <c r="Q10" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
@@ -28547,14 +28624,14 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28">
@@ -28566,15 +28643,13 @@
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="M11" s="28"/>
       <c r="N11" s="28"/>
-      <c r="O11" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O11" s="28"/>
       <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="28">
+        <v>3.0</v>
+      </c>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -28614,41 +28689,45 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5">
+      <c r="BB11" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
         <v>1.0</v>
       </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28">
+        <v>1.0</v>
+      </c>
       <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="28">
+        <v>1.0</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28">
+      <c r="M12" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
         <v>1.0</v>
       </c>
-      <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
-      <c r="U12" s="50"/>
+      <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
       <c r="X12" s="28"/>
@@ -28682,7 +28761,7 @@
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB12" s="5"/>
       <c r="BC12" s="5">
@@ -28692,7 +28771,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -28700,23 +28779,23 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="28">
+        <v>2.0</v>
+      </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="28">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
         <v>2.0</v>
       </c>
-      <c r="M13" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="N13" s="28">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28">
         <v>1.0</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
@@ -28757,37 +28836,39 @@
       </c>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="28"/>
+      <c r="D14" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>1.0</v>
+      </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="27"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="N14" s="28">
+        <v>1.0</v>
+      </c>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="U14" s="50"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
       <c r="X14" s="28"/>
@@ -28821,18 +28902,16 @@
       <c r="AZ14" s="6"/>
       <c r="BA14" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="BB14" s="5">
-        <v>1.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BB14" s="5"/>
       <c r="BC14" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
@@ -28840,19 +28919,21 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="L15" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="M15" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="N15" s="28">
+        <v>1.0</v>
+      </c>
       <c r="O15" s="28"/>
-      <c r="P15" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -28891,11 +28972,11 @@
       <c r="AZ15" s="6"/>
       <c r="BA15" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB15" s="5"/>
       <c r="BC15" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -28922,7 +29003,9 @@
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+      <c r="R16" s="28">
+        <v>1.0</v>
+      </c>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="50"/>
@@ -28959,7 +29042,7 @@
       <c r="AZ16" s="6"/>
       <c r="BA16" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB16" s="5"/>
       <c r="BC16" s="5">
@@ -28994,7 +29077,9 @@
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
+      <c r="R17" s="28">
+        <v>1.0</v>
+      </c>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
@@ -29031,7 +29116,7 @@
       <c r="AZ17" s="6"/>
       <c r="BA17" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
@@ -29107,7 +29192,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -29307,7 +29392,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -29439,7 +29524,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -29454,12 +29539,14 @@
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="28">
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28">
         <v>1.0</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
+      <c r="R24" s="28">
+        <v>1.0</v>
+      </c>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
@@ -29496,22 +29583,18 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BB24" s="5">
-        <v>1.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -29522,7 +29605,9 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="O25" s="28">
+        <v>1.0</v>
+      </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
@@ -29564,19 +29649,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BB25" s="5"/>
+      <c r="BB25" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28">
+      <c r="D26" s="28">
         <v>1.0</v>
       </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -29633,15 +29720,15 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28">
+      <c r="E27" s="28">
         <v>1.0</v>
       </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -29697,13 +29784,15 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>1.0</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -29712,9 +29801,7 @@
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
@@ -29761,7 +29848,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
@@ -29776,11 +29863,11 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="O29" s="28">
+        <v>1.0</v>
+      </c>
       <c r="P29" s="28"/>
-      <c r="Q29" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
@@ -30073,7 +30160,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
@@ -30420,7 +30507,7 @@
       </c>
       <c r="S39" s="44">
         <f>'League Table'!S41</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T39" s="44">
         <f>'League Table'!T41</f>
@@ -30648,7 +30735,7 @@
       </c>
       <c r="R41" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S41" s="44">
         <f t="shared" si="2"/>
@@ -61725,7 +61812,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16">
@@ -62021,7 +62108,7 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34">
@@ -62047,8 +62134,12 @@
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="R9" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="S9" s="59">
+        <v>2.0</v>
+      </c>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="34"/>
@@ -62083,7 +62174,7 @@
       <c r="AY9" s="34"/>
       <c r="BA9" s="44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -62222,7 +62313,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -62474,7 +62565,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -62779,7 +62870,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -62840,7 +62931,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -62958,7 +63049,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -63253,7 +63344,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -63489,7 +63580,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -64011,11 +64102,11 @@
       </c>
       <c r="R41" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="2"/>
@@ -64147,7 +64238,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -65319,8 +65410,8 @@
       <c r="M9" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N9" s="5">
-        <v>3.0</v>
+      <c r="N9" s="60">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -65356,7 +65447,7 @@
         <v>159</v>
       </c>
       <c r="N10" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -65664,8 +65755,12 @@
       <c r="A20" s="49">
         <v>18.0</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="G20" s="49"/>
@@ -65673,13 +65768,15 @@
         <v>157</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N20" s="59">
-        <v>1.0</v>
+        <v>172</v>
+      </c>
+      <c r="N20" s="60">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -65698,9 +65795,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N21" s="59">
+        <v>185</v>
+      </c>
+      <c r="N21" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65722,7 +65819,7 @@
       <c r="M22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65744,7 +65841,7 @@
       <c r="M23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65766,7 +65863,7 @@
       <c r="M24" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65786,7 +65883,7 @@
       <c r="M25" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65806,7 +65903,7 @@
       <c r="M26" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65825,7 +65922,7 @@
       <c r="M27" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65844,7 +65941,7 @@
       <c r="M28" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="60">
         <v>1.0</v>
       </c>
     </row>
@@ -65859,8 +65956,6 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="49">
@@ -65979,6 +66074,7 @@
       <c r="E38" s="49"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -70883,6 +70979,11 @@
       <c r="H1000" s="5"/>
       <c r="I1000" s="5"/>
       <c r="N1000" s="5"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="H1001" s="5"/>
+      <c r="I1001" s="5"/>
+      <c r="N1001" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$47"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="FqOX//pNsjCv6g2IFLN0FKhbvWJmRAzSKTWgJfdfp+o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="49TYZYgp4OwHmBKdPB6NW/sbAj85yr3xHB2LCi2YQ0Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="189">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -204,10 +204,10 @@
     <t>POSH CHRIS</t>
   </si>
   <si>
-    <t>DOM</t>
+    <t>KERMIT</t>
   </si>
   <si>
-    <t>KERMIT</t>
+    <t>DOM</t>
   </si>
   <si>
     <t>CAPTAIN KIRK</t>
@@ -219,22 +219,25 @@
     <t>BRUCE</t>
   </si>
   <si>
+    <t>INSPECTOR GADGET</t>
+  </si>
+  <si>
     <t>WILSON</t>
   </si>
   <si>
     <t>CARLOS</t>
   </si>
   <si>
-    <t>INSPECTOR GADGET</t>
+    <t>ARTIST</t>
   </si>
   <si>
     <t>DWARF</t>
   </si>
   <si>
-    <t>PRESTON</t>
+    <t>ZIGZAG</t>
   </si>
   <si>
-    <t>ARTIST</t>
+    <t>PRESTON</t>
   </si>
   <si>
     <t>FLO</t>
@@ -243,22 +246,19 @@
     <t>DUNCAN</t>
   </si>
   <si>
-    <t>KRYTON</t>
+    <t>TOY BOY</t>
   </si>
   <si>
-    <t>ZIGZAG</t>
-  </si>
-  <si>
-    <t>TUNDE</t>
-  </si>
-  <si>
-    <t>TOY BOY</t>
+    <t>KRYTON</t>
   </si>
   <si>
     <t>IAN</t>
   </si>
   <si>
     <t>FATHER TED</t>
+  </si>
+  <si>
+    <t>TUNDE</t>
   </si>
   <si>
     <t>BANKSY</t>
@@ -270,10 +270,10 @@
     <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
-    <t>RYAN</t>
+    <t>MOO</t>
   </si>
   <si>
-    <t>STEPTOE</t>
+    <t>RYAN</t>
   </si>
   <si>
     <t>ELBOW</t>
@@ -282,22 +282,22 @@
     <t>FRED</t>
   </si>
   <si>
-    <t>DOGGER</t>
-  </si>
-  <si>
     <t>MICK</t>
   </si>
   <si>
     <t>PHANTOM</t>
   </si>
   <si>
-    <t>VINCE</t>
+    <t>DOGGER</t>
+  </si>
+  <si>
+    <t>STEPTOE</t>
   </si>
   <si>
     <t>WOGER</t>
   </si>
   <si>
-    <t>MOO</t>
+    <t>VINCE</t>
   </si>
   <si>
     <t>RICHARD GATER</t>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>GAZZA</t>
-  </si>
-  <si>
-    <t>STEVE P</t>
   </si>
   <si>
     <t>WK 50</t>
@@ -579,13 +576,19 @@
     <t>Drew 2-2</t>
   </si>
   <si>
-    <t>S Rob</t>
-  </si>
-  <si>
     <t>Captain Kirk</t>
   </si>
   <si>
     <t>ZigZag - Wilson</t>
+  </si>
+  <si>
+    <t>S Rob</t>
+  </si>
+  <si>
+    <t>Carzola - Toy Boy</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -928,6 +931,9 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1676,7 +1682,9 @@
       <c r="S5" s="16">
         <v>2.0</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>3.0</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -1712,11 +1720,11 @@
       </c>
       <c r="AZ5" s="5">
         <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB5" s="5">
         <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
@@ -1728,15 +1736,15 @@
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BF5" s="20">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>0.7619047619</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG5" s="20"/>
     </row>
@@ -1749,22 +1757,22 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="23">
-        <v>-3.0</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.0</v>
+      </c>
       <c r="F6" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="23">
-        <v>-3.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="G6" s="23"/>
       <c r="H6" s="23">
         <v>3.0</v>
       </c>
       <c r="I6" s="23">
         <v>2.0</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>2.0</v>
       </c>
       <c r="K6" s="22"/>
@@ -1772,25 +1780,27 @@
         <v>3.0</v>
       </c>
       <c r="M6" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="N6" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="O6" s="23">
         <v>1.0</v>
       </c>
-      <c r="N6" s="23">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23">
         <v>2.0</v>
-      </c>
-      <c r="O6" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="P6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>-2.0</v>
       </c>
       <c r="R6" s="23">
         <v>0.0</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="T6" s="23">
+        <v>3.0</v>
+      </c>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
@@ -1826,7 +1836,7 @@
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
@@ -1834,7 +1844,7 @@
       </c>
       <c r="BB6" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="5">
         <f t="shared" si="4"/>
@@ -1842,15 +1852,15 @@
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BF6" s="20">
         <f t="shared" si="7"/>
-        <v>0.6666666667</v>
+        <v>0.6444444444</v>
       </c>
       <c r="BG6" s="20"/>
     </row>
@@ -1863,22 +1873,22 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.0</v>
-      </c>
+        <v>-3.0</v>
+      </c>
+      <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="G7" s="28"/>
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="H7" s="28">
         <v>3.0</v>
       </c>
       <c r="I7" s="28">
         <v>2.0</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="29">
         <v>2.0</v>
       </c>
       <c r="K7" s="27"/>
@@ -1886,24 +1896,24 @@
         <v>3.0</v>
       </c>
       <c r="M7" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="O7" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="P7" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q7" s="28">
         <v>-2.0</v>
-      </c>
-      <c r="O7" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
-        <v>2.0</v>
       </c>
       <c r="R7" s="28">
         <v>0.0</v>
       </c>
-      <c r="S7" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
       <c r="V7" s="28"/>
@@ -1944,11 +1954,11 @@
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="4"/>
@@ -1956,15 +1966,15 @@
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF7" s="20">
         <f t="shared" si="7"/>
-        <v>0.619047619</v>
+        <v>0.6666666667</v>
       </c>
       <c r="BG7" s="20"/>
     </row>
@@ -2134,7 +2144,9 @@
       <c r="S9" s="34">
         <v>-2.0</v>
       </c>
-      <c r="T9" s="34"/>
+      <c r="T9" s="34">
+        <v>-3.0</v>
+      </c>
       <c r="U9" s="34"/>
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
@@ -2170,7 +2182,7 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
@@ -2182,7 +2194,7 @@
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
@@ -2190,11 +2202,11 @@
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF9" s="20">
         <f t="shared" si="7"/>
-        <v>0.5777777778</v>
+        <v>0.5416666667</v>
       </c>
       <c r="BG9" s="20"/>
     </row>
@@ -2250,7 +2262,9 @@
       <c r="S10" s="34">
         <v>-2.0</v>
       </c>
-      <c r="T10" s="34"/>
+      <c r="T10" s="34">
+        <v>3.0</v>
+      </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
@@ -2286,11 +2300,11 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
@@ -2302,15 +2316,15 @@
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF10" s="20">
         <f t="shared" si="7"/>
-        <v>0.4888888889</v>
+        <v>0.5208333333</v>
       </c>
       <c r="BG10" s="20"/>
     </row>
@@ -2320,49 +2334,51 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="28">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D11" s="28">
         <v>-3.0</v>
       </c>
-      <c r="E11" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G11" s="28">
         <v>3.0</v>
       </c>
-      <c r="H11" s="29">
-        <v>-3.0</v>
-      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="28">
         <v>-2.0</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="28">
+        <v>2.0</v>
+      </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="M11" s="28">
+      <c r="L11" s="28"/>
+      <c r="M11" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="O11" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="P11" s="28">
         <v>1.0</v>
       </c>
-      <c r="P11" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="R11" s="28">
         <v>0.0</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="28">
         <v>2.0</v>
       </c>
-      <c r="T11" s="28"/>
+      <c r="T11" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
@@ -2398,31 +2414,31 @@
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF11" s="20">
         <f t="shared" si="7"/>
-        <v>0.5128205128</v>
+        <v>0.5238095238</v>
       </c>
       <c r="BG11" s="20"/>
     </row>
@@ -2435,35 +2451,33 @@
         <v>1.0</v>
       </c>
       <c r="D12" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E12" s="28">
         <v>0.0</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>-3.0</v>
+      </c>
+      <c r="I12" s="28">
         <v>-2.0</v>
       </c>
-      <c r="G12" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="H12" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="I12" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="J12" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="J12" s="28"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="28">
+        <v>3.0</v>
+      </c>
       <c r="M12" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N12" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="O12" s="29">
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
         <v>1.0</v>
       </c>
       <c r="P12" s="28">
@@ -2473,10 +2487,12 @@
       <c r="R12" s="28">
         <v>0.0</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="29">
         <v>2.0</v>
       </c>
-      <c r="T12" s="28"/>
+      <c r="T12" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
@@ -2546,49 +2562,53 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="G13" s="28">
         <v>-3.0</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28">
+      <c r="H13" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="J13" s="28">
         <v>-2.0</v>
-      </c>
-      <c r="G13" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="J13" s="28">
-        <v>2.0</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="29">
-        <v>1.0</v>
+      <c r="M13" s="28">
+        <v>-1.0</v>
       </c>
       <c r="N13" s="28">
         <v>2.0</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="28">
         <v>-1.0</v>
       </c>
-      <c r="P13" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="Q13" s="28"/>
       <c r="R13" s="28">
         <v>0.0</v>
       </c>
       <c r="S13" s="28">
         <v>2.0</v>
       </c>
-      <c r="T13" s="28"/>
+      <c r="T13" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -2624,7 +2644,7 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2632,23 +2652,23 @@
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="BF13" s="20">
         <f t="shared" si="7"/>
-        <v>0.4871794872</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG13" s="20"/>
     </row>
@@ -2657,48 +2677,48 @@
         <v>68</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="D14" s="28">
-        <v>-3.0</v>
-      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>2.0</v>
+      </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>3.0</v>
       </c>
       <c r="I14" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="28">
         <v>-2.0</v>
-      </c>
-      <c r="J14" s="28">
-        <v>2.0</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="M14" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="O14" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="P14" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" s="28">
         <v>-2.0</v>
       </c>
-      <c r="O14" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="R14" s="28"/>
+      <c r="R14" s="28">
+        <v>0.0</v>
+      </c>
       <c r="S14" s="28">
         <v>2.0</v>
       </c>
-      <c r="T14" s="28"/>
+      <c r="T14" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
@@ -2742,15 +2762,15 @@
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
@@ -2758,7 +2778,7 @@
       </c>
       <c r="BF14" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.5277777778</v>
       </c>
       <c r="BG14" s="20"/>
     </row>
@@ -2768,41 +2788,35 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="D15" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29">
         <v>3.0</v>
       </c>
-      <c r="E15" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="I15" s="28">
         <v>-2.0</v>
-      </c>
-      <c r="G15" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="H15" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="I15" s="28">
-        <v>2.0</v>
       </c>
       <c r="J15" s="28">
         <v>2.0</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="M15" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="M15" s="28">
         <v>-1.0</v>
       </c>
       <c r="N15" s="28">
         <v>-2.0</v>
       </c>
       <c r="O15" s="28">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" s="28">
         <v>-1.0</v>
@@ -2810,11 +2824,13 @@
       <c r="Q15" s="28">
         <v>2.0</v>
       </c>
-      <c r="R15" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="T15" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
@@ -2850,31 +2866,31 @@
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="20">
         <f t="shared" si="7"/>
-        <v>0.3777777778</v>
+        <v>0.4615384615</v>
       </c>
       <c r="BG15" s="20"/>
     </row>
@@ -2883,46 +2899,54 @@
         <v>70</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.0</v>
+      </c>
       <c r="F16" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="28"/>
+        <v>-2.0</v>
+      </c>
+      <c r="G16" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="H16" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I16" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="J16" s="28">
         <v>-2.0</v>
       </c>
+      <c r="J16" s="28"/>
       <c r="K16" s="27"/>
       <c r="L16" s="28">
         <v>-3.0</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29">
-        <v>-2.0</v>
-      </c>
+      <c r="M16" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="28"/>
       <c r="O16" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="P16" s="28">
         <v>-1.0</v>
       </c>
-      <c r="P16" s="28">
-        <v>1.0</v>
-      </c>
       <c r="Q16" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="R16" s="28">
         <v>0.0</v>
       </c>
-      <c r="S16" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="T16" s="28"/>
+      <c r="S16" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="T16" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
@@ -2958,7 +2982,7 @@
       </c>
       <c r="AZ16" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA16" s="5">
         <f t="shared" si="2"/>
@@ -2966,23 +2990,23 @@
       </c>
       <c r="BB16" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="BF16" s="20">
         <f t="shared" si="7"/>
-        <v>0.4848484848</v>
+        <v>0.3777777778</v>
       </c>
       <c r="BG16" s="20"/>
     </row>
@@ -2994,43 +3018,53 @@
       <c r="C17" s="28">
         <v>1.0</v>
       </c>
-      <c r="D17" s="28">
-        <v>-3.0</v>
+      <c r="D17" s="29">
+        <v>3.0</v>
       </c>
       <c r="E17" s="28">
         <v>0.0</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="G17" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="H17" s="28">
         <v>-3.0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>2.0</v>
       </c>
       <c r="J17" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="28">
         <v>-3.0</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="29">
         <v>-1.0</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29">
+      <c r="N17" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="O17" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="Q17" s="28">
         <v>2.0</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="T17" s="28"/>
+      <c r="R17" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
@@ -3066,7 +3100,7 @@
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
@@ -3074,23 +3108,23 @@
       </c>
       <c r="BB17" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="BF17" s="20">
         <f t="shared" si="7"/>
-        <v>0.4848484848</v>
+        <v>0.3541666667</v>
       </c>
       <c r="BG17" s="20"/>
     </row>
@@ -3100,27 +3134,25 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E18" s="28">
         <v>0.0</v>
       </c>
-      <c r="F18" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="F18" s="28"/>
       <c r="G18" s="28">
         <v>3.0</v>
       </c>
       <c r="H18" s="28">
         <v>-3.0</v>
       </c>
-      <c r="I18" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="I18" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="J18" s="28">
         <v>-2.0</v>
       </c>
       <c r="K18" s="27"/>
@@ -3130,21 +3162,19 @@
       <c r="M18" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29">
         <v>2.0</v>
       </c>
-      <c r="O18" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="P18" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="Q18" s="28">
+      <c r="R18" s="28"/>
+      <c r="S18" s="28">
         <v>2.0</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="T18" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
@@ -3180,7 +3210,7 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
@@ -3192,7 +3222,7 @@
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
@@ -3200,11 +3230,11 @@
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="BF18" s="20">
         <f t="shared" si="7"/>
-        <v>0.380952381</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG18" s="20"/>
     </row>
@@ -3213,14 +3243,18 @@
         <v>73</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="D19" s="28">
         <v>3.0</v>
       </c>
       <c r="E19" s="28">
         <v>0.0</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>2.0</v>
+      </c>
       <c r="G19" s="28">
         <v>3.0</v>
       </c>
@@ -3230,27 +3264,33 @@
       <c r="I19" s="28">
         <v>-2.0</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="K19" s="27"/>
-      <c r="L19" s="29">
+      <c r="L19" s="28">
         <v>-3.0</v>
       </c>
       <c r="M19" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="N19" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="O19" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="P19" s="28">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="Q19" s="28">
         <v>2.0</v>
       </c>
-      <c r="R19" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="R19" s="28"/>
       <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="T19" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
@@ -3286,31 +3326,31 @@
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BF19" s="20">
         <f t="shared" si="7"/>
-        <v>0.4666666667</v>
+        <v>0.3555555556</v>
       </c>
       <c r="BG19" s="20"/>
     </row>
@@ -3322,49 +3362,33 @@
       <c r="C20" s="28">
         <v>-1.0</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="28">
         <v>3.0</v>
       </c>
-      <c r="E20" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="G20" s="28">
-        <v>-3.0</v>
-      </c>
       <c r="H20" s="28">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="I20" s="28">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="M20" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="P20" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="T20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29">
+        <v>3.0</v>
+      </c>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
@@ -3400,31 +3424,31 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="BF20" s="20">
         <f t="shared" si="7"/>
-        <v>0.3333333333</v>
+        <v>0.8333333333</v>
       </c>
       <c r="BG20" s="20"/>
     </row>
@@ -3433,30 +3457,42 @@
         <v>75</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="28">
         <v>3.0</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="28">
+        <v>0.0</v>
+      </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28">
+        <v>3.0</v>
+      </c>
       <c r="H21" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I21" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="L21" s="29">
+        <v>-3.0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
+      <c r="P21" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0.0</v>
+      </c>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
@@ -3494,7 +3530,7 @@
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
@@ -3502,23 +3538,23 @@
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BG21" s="20"/>
     </row>
@@ -3530,31 +3566,51 @@
       <c r="C22" s="28">
         <v>-1.0</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.0</v>
+      </c>
       <c r="F22" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G22" s="28">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="H22" s="28">
         <v>3.0</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="J22" s="28">
         <v>2.0</v>
       </c>
-      <c r="J22" s="28"/>
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="M22" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="O22" s="28">
+        <v>-1.0</v>
+      </c>
       <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="Q22" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="R22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="T22" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
       <c r="W22" s="28"/>
@@ -3590,7 +3646,7 @@
       </c>
       <c r="AZ22" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA22" s="5">
         <f t="shared" si="2"/>
@@ -3598,23 +3654,23 @@
       </c>
       <c r="BB22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BD22" s="5">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BE22" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="BF22" s="20">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>0.3111111111</v>
       </c>
       <c r="BG22" s="20"/>
     </row>
@@ -3623,9 +3679,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="28">
         <v>-3.0</v>
       </c>
@@ -3635,20 +3689,22 @@
       <c r="F23" s="28">
         <v>-2.0</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>-3.0</v>
       </c>
       <c r="H23" s="28">
         <v>3.0</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>-2.0</v>
       </c>
       <c r="J23" s="28">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="M23" s="28">
         <v>1.0</v>
       </c>
@@ -3656,19 +3712,21 @@
         <v>-2.0</v>
       </c>
       <c r="O23" s="28">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" s="28"/>
-      <c r="Q23" s="29">
+      <c r="Q23" s="28">
         <v>-2.0</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="29">
         <v>0.0</v>
       </c>
       <c r="S23" s="28">
         <v>-2.0</v>
       </c>
-      <c r="T23" s="28"/>
+      <c r="T23" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
@@ -3704,11 +3762,11 @@
       </c>
       <c r="AZ23" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" s="5">
         <f t="shared" si="3"/>
@@ -3720,15 +3778,15 @@
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="6"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="BF23" s="20">
         <f t="shared" si="7"/>
-        <v>0.2619047619</v>
+        <v>0.3111111111</v>
       </c>
       <c r="BG23" s="20"/>
     </row>
@@ -3737,51 +3795,31 @@
         <v>78</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D24" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="G24" s="29">
-        <v>-3.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="28">
         <v>3.0</v>
       </c>
       <c r="I24" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="J24" s="28">
-        <v>-2.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="28"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="28">
-        <v>-3.0</v>
-      </c>
-      <c r="M24" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="N24" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="O24" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="28"/>
-      <c r="Q24" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="R24" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="28"/>
@@ -3818,31 +3856,31 @@
       </c>
       <c r="AZ24" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BA24" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB24" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE24" s="5">
         <f t="shared" si="6"/>
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="BF24" s="20">
         <f t="shared" si="7"/>
-        <v>0.2619047619</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="20"/>
     </row>
@@ -3884,7 +3922,9 @@
       <c r="S25" s="28">
         <v>-2.0</v>
       </c>
-      <c r="T25" s="28"/>
+      <c r="T25" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U25" s="28"/>
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
@@ -3920,7 +3960,7 @@
       </c>
       <c r="AZ25" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" s="5">
         <f t="shared" si="2"/>
@@ -3932,7 +3972,7 @@
       </c>
       <c r="BC25" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD25" s="5">
         <f t="shared" si="5"/>
@@ -3940,11 +3980,11 @@
       </c>
       <c r="BE25" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="BF25" s="20">
         <f t="shared" si="7"/>
-        <v>0.3333333333</v>
+        <v>0.2962962963</v>
       </c>
       <c r="BG25" s="20"/>
     </row>
@@ -4144,29 +4184,37 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>-2.0</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
+      <c r="L28" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="N28" s="29">
+        <v>2.0</v>
+      </c>
       <c r="O28" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="R28" s="28">
-        <v>0.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="P28" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
+      <c r="T28" s="28">
+        <v>3.0</v>
+      </c>
       <c r="U28" s="28"/>
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
@@ -4202,31 +4250,31 @@
       </c>
       <c r="AZ28" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA28" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB28" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD28" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BE28" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="BF28" s="20">
         <f t="shared" si="7"/>
-        <v>0.4444444444</v>
+        <v>0.2857142857</v>
       </c>
       <c r="BG28" s="20"/>
     </row>
@@ -4236,9 +4284,7 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -4249,10 +4295,16 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="O29" s="28">
+        <v>1.0</v>
+      </c>
       <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
+      <c r="Q29" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="R29" s="28">
+        <v>0.0</v>
+      </c>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
       <c r="U29" s="28"/>
@@ -4290,7 +4342,7 @@
       </c>
       <c r="AZ29" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA29" s="5">
         <f t="shared" si="2"/>
@@ -4298,23 +4350,23 @@
       </c>
       <c r="BB29" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BF29" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG29" s="20"/>
     </row>
@@ -4501,9 +4553,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="27"/>
       <c r="L32" s="28"/>
@@ -4546,15 +4596,15 @@
       <c r="AW32" s="28"/>
       <c r="AX32" s="28"/>
       <c r="AY32" s="19">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="AZ32" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="5">
         <f t="shared" si="3"/>
@@ -4566,15 +4616,15 @@
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="BF32" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG32" s="20"/>
     </row>
@@ -4632,7 +4682,7 @@
       <c r="AW33" s="28"/>
       <c r="AX33" s="28"/>
       <c r="AY33" s="19">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AZ33" s="5">
         <f t="shared" si="1"/>
@@ -4664,7 +4714,7 @@
       </c>
       <c r="BG33" s="20"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="36" t="s">
         <v>88</v>
       </c>
@@ -4675,7 +4725,9 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28">
+        <v>2.0</v>
+      </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27"/>
       <c r="L34" s="28"/>
@@ -4718,15 +4770,15 @@
       <c r="AW34" s="28"/>
       <c r="AX34" s="28"/>
       <c r="AY34" s="19">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="AZ34" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="5">
         <f t="shared" si="3"/>
@@ -4738,28 +4790,26 @@
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE34" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF34" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF34" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="20"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35">
       <c r="A35" s="36" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="C35" s="28"/>
       <c r="D35" s="28">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -4776,7 +4826,9 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
+      <c r="T35" s="28">
+        <v>-3.0</v>
+      </c>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
@@ -4832,7 +4884,7 @@
       </c>
       <c r="BE35" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="20">
         <f t="shared" si="7"/>
@@ -4931,32 +4983,24 @@
         <v>91</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D37" s="28">
         <v>-3.0</v>
       </c>
       <c r="E37" s="28"/>
-      <c r="F37" s="28">
-        <v>-2.0</v>
-      </c>
+      <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="28">
-        <v>-3.0</v>
-      </c>
+      <c r="L37" s="28"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="O37" s="28">
-        <v>-1.0</v>
-      </c>
-      <c r="P37" s="28">
-        <v>-1.0</v>
-      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
@@ -4996,7 +5040,7 @@
       </c>
       <c r="AZ37" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA37" s="5">
         <f t="shared" si="2"/>
@@ -5008,7 +5052,7 @@
       </c>
       <c r="BC37" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD37" s="5">
         <f t="shared" si="5"/>
@@ -5016,11 +5060,11 @@
       </c>
       <c r="BE37" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="BF37" s="20">
         <f t="shared" si="7"/>
-        <v>0.1666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BG37" s="20"/>
     </row>
@@ -5228,7 +5272,9 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="28"/>
       <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
+      <c r="T40" s="29">
+        <v>-3.0</v>
+      </c>
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
@@ -5264,7 +5310,7 @@
       </c>
       <c r="AZ40" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA40" s="5">
         <f t="shared" si="2"/>
@@ -5276,7 +5322,7 @@
       </c>
       <c r="BC40" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD40" s="5">
         <f t="shared" si="5"/>
@@ -5284,7 +5330,7 @@
       </c>
       <c r="BE40" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BF40" s="20">
         <f t="shared" si="7"/>
@@ -5370,7 +5416,7 @@
       </c>
       <c r="T41" s="34">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U41" s="34">
         <f t="shared" si="8"/>
@@ -5549,8 +5595,12 @@
       <c r="R42" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
+      <c r="S42" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
       <c r="W42" s="5"/>
@@ -26001,7 +26051,7 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="44">
         <v>2.0</v>
@@ -26094,7 +26144,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B7" s="45">
         <v>1.0</v>
@@ -26109,7 +26159,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="45">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" s="45">
         <f t="shared" si="1"/>
@@ -26125,7 +26175,7 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B8" s="44">
         <v>1.0</v>
@@ -26156,7 +26206,7 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B9" s="44">
         <v>1.0</v>
@@ -26181,10 +26231,10 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B10" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="44">
         <v>1.0</v>
@@ -26193,7 +26243,7 @@
         <v>0.0</v>
       </c>
       <c r="E10" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="44">
         <v>2.0</v>
@@ -26206,10 +26256,10 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="44">
         <v>1.0</v>
@@ -26218,10 +26268,10 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" s="44">
         <f t="shared" si="1"/>
@@ -26232,10 +26282,10 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="44">
         <v>1.0</v>
@@ -26244,10 +26294,10 @@
         <v>0.0</v>
       </c>
       <c r="E12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="44">
         <v>1.0</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0.0</v>
       </c>
       <c r="G12" s="44">
         <f t="shared" si="1"/>
@@ -26257,7 +26307,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="44">
         <v>2.0</v>
@@ -26303,7 +26353,7 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="44">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="1"/>
@@ -26320,41 +26370,41 @@
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B15" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="44">
         <v>1.0</v>
       </c>
-      <c r="C15" s="44">
+      <c r="D15" s="44">
         <v>0.0</v>
       </c>
-      <c r="D15" s="44">
+      <c r="E15" s="44">
         <v>1.0</v>
       </c>
-      <c r="E15" s="44">
-        <v>0.0</v>
-      </c>
       <c r="F15" s="44">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G15" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="44">
         <v>19.0</v>
       </c>
       <c r="J15" s="46">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B16" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="44">
         <v>0.0</v>
@@ -26363,10 +26413,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="44">
-        <v>-2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" s="44">
         <f t="shared" si="1"/>
@@ -26377,12 +26427,12 @@
       </c>
       <c r="J16" s="46">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17" s="44">
         <v>2.0</v>
@@ -26397,7 +26447,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="44">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
@@ -26413,38 +26463,38 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B18" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" s="44">
         <v>0.0</v>
       </c>
       <c r="D18" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="44">
         <v>1.0</v>
       </c>
       <c r="F18" s="44">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G18" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="47">
         <v>19.0</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B19" s="44">
         <v>1.0</v>
@@ -26459,7 +26509,7 @@
         <v>1.0</v>
       </c>
       <c r="F19" s="44">
-        <v>-2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="1"/>
@@ -26475,7 +26525,7 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" s="44">
         <v>1.0</v>
@@ -26506,7 +26556,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B21" s="44">
         <v>1.0</v>
@@ -26521,7 +26571,7 @@
         <v>1.0</v>
       </c>
       <c r="F21" s="44">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G21" s="44">
         <f t="shared" si="1"/>
@@ -26537,10 +26587,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" s="44">
         <v>0.0</v>
@@ -26549,10 +26599,10 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" s="44">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G22" s="44">
         <f t="shared" si="1"/>
@@ -26563,15 +26613,15 @@
       </c>
       <c r="J22" s="46">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B23" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" s="44">
         <v>0.0</v>
@@ -26580,10 +26630,10 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" s="44">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G23" s="44">
         <f t="shared" si="1"/>
@@ -26594,12 +26644,27 @@
       </c>
       <c r="J23" s="46">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="B24" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="44">
+        <v>-4.0</v>
       </c>
       <c r="G24" s="44">
         <f t="shared" si="1"/>
@@ -26608,14 +26673,29 @@
       <c r="I24" s="47">
         <v>15.0</v>
       </c>
-      <c r="J24" s="46" t="str">
+      <c r="J24" s="46">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="B25" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="44">
+        <v>-4.0</v>
       </c>
       <c r="G25" s="44">
         <f t="shared" si="1"/>
@@ -26624,14 +26704,14 @@
       <c r="I25" s="47">
         <v>25.0</v>
       </c>
-      <c r="J25" s="46" t="str">
+      <c r="J25" s="46">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G26" s="44">
         <f t="shared" si="1"/>
@@ -26647,7 +26727,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" s="44">
         <f t="shared" si="1"/>
@@ -26663,7 +26743,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G28" s="44">
         <f t="shared" si="1"/>
@@ -26675,7 +26755,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="44">
         <f t="shared" si="1"/>
@@ -26687,7 +26767,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="G30" s="44">
         <f t="shared" si="1"/>
@@ -26699,7 +26779,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="G31" s="44">
         <f t="shared" si="1"/>
@@ -26711,7 +26791,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G32" s="44">
         <f t="shared" si="1"/>
@@ -26723,7 +26803,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G33" s="44">
         <f t="shared" si="1"/>
@@ -26732,7 +26812,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G34" s="44">
         <f t="shared" si="1"/>
@@ -26741,7 +26821,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G35" s="44">
         <f t="shared" si="1"/>
@@ -26750,7 +26830,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G36" s="44">
         <f t="shared" si="1"/>
@@ -27905,17 +27985,17 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -28040,7 +28120,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28">
@@ -28149,7 +28229,9 @@
       <c r="R4" s="28">
         <v>1.0</v>
       </c>
-      <c r="S4" s="28"/>
+      <c r="S4" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
       <c r="V4" s="28"/>
@@ -28185,16 +28267,16 @@
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -28264,7 +28346,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28">
@@ -28365,7 +28447,9 @@
       </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="S7" s="28">
+        <v>1.0</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
       <c r="V7" s="28"/>
@@ -28401,7 +28485,7 @@
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5">
@@ -28410,14 +28494,12 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28">
@@ -28430,12 +28512,16 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="P8" s="28">
+        <v>2.0</v>
+      </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="S8" s="28">
         <v>2.0</v>
       </c>
-      <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="28"/>
@@ -28471,42 +28557,40 @@
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BB8" s="5">
-        <v>2.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BB8" s="5"/>
       <c r="BC8" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="28">
+        <v>2.0</v>
+      </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="28">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
         <v>2.0</v>
       </c>
-      <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="R9" s="28">
+        <v>2.0</v>
+      </c>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
@@ -28546,35 +28630,35 @@
         <v>6</v>
       </c>
       <c r="BB9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC9" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
-        <v>1.0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28">
+        <v>2.0</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="J10" s="28"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="28">
+        <v>3.0</v>
+      </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="28">
+      <c r="N10" s="28"/>
+      <c r="O10" s="28">
         <v>1.0</v>
-      </c>
-      <c r="O10" s="28">
-        <v>2.0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -28624,7 +28708,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="28">
@@ -28634,22 +28718,22 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="N11" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="28">
+        <v>2.0</v>
+      </c>
       <c r="P11" s="28"/>
-      <c r="Q11" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -28696,14 +28780,14 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28">
@@ -28715,15 +28799,13 @@
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="M12" s="28"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O12" s="28"/>
       <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="28">
+        <v>3.0</v>
+      </c>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -28763,39 +28845,43 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5">
+      <c r="BB12" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC12" s="5"/>
       <c r="BF12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="28">
+        <v>1.0</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="28">
+        <v>1.0</v>
+      </c>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="M13" s="28">
+        <v>2.0</v>
+      </c>
       <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="O13" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
-      <c r="R13" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
@@ -28832,16 +28918,16 @@
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
@@ -28981,7 +29067,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -29123,32 +29209,32 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28">
+        <v>1.0</v>
+      </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="M18" s="28">
+        <v>1.0</v>
+      </c>
       <c r="N18" s="28"/>
-      <c r="O18" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+      <c r="S18" s="28">
+        <v>2.0</v>
+      </c>
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
@@ -29184,26 +29270,30 @@
       <c r="AZ18" s="6"/>
       <c r="BA18" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
+      <c r="BC18" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BF18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="28">
+        <v>1.0</v>
+      </c>
       <c r="J19" s="28"/>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
@@ -29213,9 +29303,7 @@
         <v>1.0</v>
       </c>
       <c r="P19" s="28"/>
-      <c r="Q19" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
@@ -29260,13 +29348,13 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28">
+        <v>1.0</v>
+      </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -29277,9 +29365,13 @@
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="O20" s="28">
+        <v>1.0</v>
+      </c>
       <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="28">
+        <v>1.0</v>
+      </c>
       <c r="R20" s="28"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
@@ -29317,27 +29409,23 @@
       <c r="AZ20" s="6"/>
       <c r="BA20" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="5"/>
-      <c r="BC20" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BC20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -29388,28 +29476,30 @@
         <v>2</v>
       </c>
       <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
+      <c r="BC21" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="28">
+        <v>1.0</v>
+      </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="28">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28">
         <v>1.0</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -29524,7 +29614,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -29590,7 +29680,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
@@ -29656,7 +29746,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -29912,7 +30002,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
@@ -30036,7 +30126,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
@@ -30098,7 +30188,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
@@ -30160,7 +30250,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
@@ -30511,7 +30601,7 @@
       </c>
       <c r="T39" s="44">
         <f>'League Table'!T41</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U39" s="49">
         <f>'League Table'!U41</f>
@@ -30667,7 +30757,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="44">
         <f t="shared" ref="B41:AV41" si="2">SUM(B3:B37)</f>
@@ -30739,7 +30829,7 @@
       </c>
       <c r="S41" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T41" s="44">
         <f t="shared" si="2"/>
@@ -61585,7 +61675,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -61750,10 +61840,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -61812,41 +61902,41 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16">
         <v>1.0</v>
       </c>
-      <c r="D5" s="16">
-        <v>2.0</v>
-      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="G5" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="16">
         <v>1.0</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="J5" s="16">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16">
+      <c r="M5" s="16">
         <v>1.0</v>
       </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16">
         <v>2.0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16">
         <v>1.0</v>
       </c>
-      <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -61887,41 +61977,41 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54">
         <v>1.0</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="54">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="54"/>
-      <c r="F6" s="54">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="54">
         <v>1.0</v>
       </c>
-      <c r="G6" s="54">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54">
         <v>1.0</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="J6" s="54">
-        <v>5.0</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="34">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34">
         <v>1.0</v>
       </c>
-      <c r="N6" s="34"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34">
         <v>2.0</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34">
+      <c r="Q6" s="34">
         <v>1.0</v>
       </c>
+      <c r="R6" s="34"/>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
@@ -61962,7 +62052,7 @@
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -61998,7 +62088,9 @@
         <v>1.0</v>
       </c>
       <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="T7" s="57">
+        <v>2.0</v>
+      </c>
       <c r="U7" s="28"/>
       <c r="V7" s="28"/>
       <c r="W7" s="28"/>
@@ -62032,12 +62124,12 @@
       <c r="AY7" s="28"/>
       <c r="BA7" s="44">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -62054,7 +62146,7 @@
       <c r="J8" s="16">
         <v>1.0</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="16">
         <v>1.0</v>
       </c>
@@ -62108,7 +62200,7 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34">
@@ -62125,7 +62217,7 @@
       <c r="J9" s="34">
         <v>1.0</v>
       </c>
-      <c r="K9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34">
         <v>1.0</v>
@@ -62137,7 +62229,7 @@
       <c r="R9" s="34">
         <v>2.0</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S9" s="60">
         <v>2.0</v>
       </c>
       <c r="T9" s="34"/>
@@ -62179,7 +62271,7 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -62246,7 +62338,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -62313,7 +62405,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -62380,7 +62472,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28">
@@ -62443,21 +62535,21 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>1.0</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="L14" s="28"/>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
@@ -62465,7 +62557,9 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="T14" s="57">
+        <v>1.0</v>
+      </c>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
@@ -62499,12 +62593,12 @@
       <c r="AY14" s="28"/>
       <c r="BA14" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -62565,7 +62659,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -62626,7 +62720,7 @@
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -62638,13 +62732,13 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="28">
+        <v>1.0</v>
+      </c>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
@@ -62687,7 +62781,7 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -62695,9 +62789,7 @@
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
@@ -62705,7 +62797,9 @@
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="P18" s="28">
+        <v>1.0</v>
+      </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
       <c r="S18" s="28"/>
@@ -62748,7 +62842,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -62756,11 +62850,11 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="28">
+        <v>1.0</v>
+      </c>
       <c r="I19" s="28"/>
-      <c r="J19" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -62809,19 +62903,19 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="J20" s="28">
+        <v>1.0</v>
+      </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -62870,16 +62964,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="28">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28">
         <v>1.0</v>
       </c>
-      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -62931,7 +63025,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -63108,7 +63202,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -63167,7 +63261,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -63285,7 +63379,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -63344,7 +63438,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -63403,7 +63497,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -63462,7 +63556,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -63521,7 +63615,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -63580,7 +63674,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -63639,7 +63733,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -63698,7 +63792,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -63757,7 +63851,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -64034,7 +64128,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -64110,7 +64204,7 @@
       </c>
       <c r="T41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U41" s="5">
         <f t="shared" si="2"/>
@@ -64238,7 +64332,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -65225,19 +65319,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -65253,16 +65347,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -65274,10 +65368,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>138</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -65291,16 +65385,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
@@ -65312,16 +65406,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>144</v>
-      </c>
       <c r="D6" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="5"/>
@@ -65333,27 +65427,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>147</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>148</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -65362,16 +65456,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="D8" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="E8" s="49" t="s">
         <v>153</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="5"/>
@@ -65383,34 +65477,34 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="D9" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="E9" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" s="5">
         <v>3.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="5">
         <v>2.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="60">
+        <v>157</v>
+      </c>
+      <c r="N9" s="5">
         <v>4.0</v>
       </c>
     </row>
@@ -65419,32 +65513,32 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D10" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>163</v>
-      </c>
       <c r="E10" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="5">
         <v>3.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="5">
         <v>2.0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N10" s="5">
         <v>4.0</v>
@@ -65455,30 +65549,30 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="D11" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>167</v>
-      </c>
       <c r="E11" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="5">
         <v>2.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="5">
         <v>3.0</v>
@@ -65489,30 +65583,30 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I12" s="5">
         <v>2.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N12" s="5">
         <v>3.0</v>
@@ -65523,31 +65617,31 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="D13" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>171</v>
-      </c>
       <c r="E13" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" s="5">
         <v>2.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N13" s="5">
         <v>3.0</v>
@@ -65558,30 +65652,30 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I14" s="5">
         <v>2.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N14" s="5">
         <v>3.0</v>
@@ -65592,30 +65686,30 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" s="5">
         <v>2.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" s="5">
         <v>3.0</v>
@@ -65626,30 +65720,30 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>177</v>
-      </c>
       <c r="D16" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I16" s="5">
         <v>2.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N16" s="5">
         <v>3.0</v>
@@ -65660,28 +65754,30 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>180</v>
-      </c>
       <c r="D17" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.0</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="5">
         <v>2.0</v>
@@ -65692,28 +65788,28 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>162</v>
-      </c>
       <c r="D18" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N18" s="5">
         <v>2.0</v>
@@ -65724,28 +65820,28 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>184</v>
-      </c>
       <c r="D19" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="I19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N19" s="5">
         <v>2.0</v>
@@ -65756,26 +65852,30 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>157</v>
+      </c>
       <c r="G20" s="49"/>
       <c r="H20" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="I20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N20" s="60">
+        <v>171</v>
+      </c>
+      <c r="N20" s="5">
         <v>2.0</v>
       </c>
     </row>
@@ -65783,22 +65883,32 @@
       <c r="A21" s="49">
         <v>19.0</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>188</v>
+      </c>
       <c r="G21" s="49"/>
       <c r="H21" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N21" s="60">
-        <v>1.0</v>
+        <v>162</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -65811,16 +65921,16 @@
       <c r="E22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N22" s="60">
-        <v>1.0</v>
+        <v>170</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -65833,15 +65943,15 @@
       <c r="E23" s="49"/>
       <c r="G23" s="49"/>
       <c r="H23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" s="60">
+        <v>186</v>
+      </c>
+      <c r="N23" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65855,15 +65965,15 @@
       <c r="E24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N24" s="60">
+        <v>156</v>
+      </c>
+      <c r="N24" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65876,14 +65986,16 @@
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="G25" s="49"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N25" s="60">
+        <v>177</v>
+      </c>
+      <c r="N25" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65901,9 +66013,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N26" s="60">
+        <v>181</v>
+      </c>
+      <c r="N26" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65920,9 +66032,9 @@
       <c r="I27" s="5"/>
       <c r="K27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" s="60">
+        <v>184</v>
+      </c>
+      <c r="N27" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65939,9 +66051,9 @@
       <c r="I28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="60">
+        <v>180</v>
+      </c>
+      <c r="N28" s="61">
         <v>1.0</v>
       </c>
     </row>
@@ -65956,6 +66068,12 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="K29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="61">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="49">
@@ -66074,7 +66192,6 @@
       <c r="E38" s="49"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -70979,11 +71096,6 @@
       <c r="H1000" s="5"/>
       <c r="I1000" s="5"/>
       <c r="N1000" s="5"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="H1001" s="5"/>
-      <c r="I1001" s="5"/>
-      <c r="N1001" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$47"/>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="zbNeZnfTuVhrT1fXNsV7QesTSxi4rqtDn/lR/04tpgw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6p93ohAJ+PXinoAzwzNEgv39A3o0OrLBbQwcA5yoyvk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="202">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -210,19 +210,13 @@
     <t xml:space="preserve">MAMAS </t>
   </si>
   <si>
+    <t>ZIGZAG</t>
+  </si>
+  <si>
     <t>DOM</t>
   </si>
   <si>
     <t>BRUCE</t>
-  </si>
-  <si>
-    <t>ZIGZAG</t>
-  </si>
-  <si>
-    <t>CAPTAIN KIRK</t>
-  </si>
-  <si>
-    <t>INSPECTOR GADGET</t>
   </si>
   <si>
     <t>DUNCAN</t>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>IAN</t>
+  </si>
+  <si>
+    <t>CAPTAIN KIRK</t>
+  </si>
+  <si>
+    <t>INSPECTOR GADGET</t>
   </si>
   <si>
     <t>FATHER TED</t>
@@ -246,10 +246,10 @@
     <t>WILSON</t>
   </si>
   <si>
-    <t>PRESTON</t>
+    <t>FLO</t>
   </si>
   <si>
-    <t>FLO</t>
+    <t>PRESTON</t>
   </si>
   <si>
     <t>TOY BOY</t>
@@ -261,13 +261,16 @@
     <t>TUNDE</t>
   </si>
   <si>
+    <t>SONES</t>
+  </si>
+  <si>
     <t>BANKSY</t>
   </si>
   <si>
-    <t xml:space="preserve">STRAIGHT ROB </t>
+    <t>RYAN</t>
   </si>
   <si>
-    <t>SONES</t>
+    <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
     <t>MOO</t>
@@ -279,19 +282,16 @@
     <t>FRED</t>
   </si>
   <si>
+    <t>MICK</t>
+  </si>
+  <si>
+    <t>PHANTOM</t>
+  </si>
+  <si>
     <t>GUEST</t>
   </si>
   <si>
     <t>WOGER</t>
-  </si>
-  <si>
-    <t>RYAN</t>
-  </si>
-  <si>
-    <t>MICK</t>
-  </si>
-  <si>
-    <t>PHANTOM</t>
   </si>
   <si>
     <t>CARZOLA</t>
@@ -306,7 +306,7 @@
     <t>VINCE</t>
   </si>
   <si>
-    <t>JOHN FREWIN</t>
+    <t>KHEN</t>
   </si>
   <si>
     <t># PLAYERS</t>
@@ -357,6 +357,9 @@
     <t xml:space="preserve"> 6-5</t>
   </si>
   <si>
+    <t xml:space="preserve"> 5-3</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -378,13 +381,10 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>MAMAS</t>
+    <t>SONESY</t>
   </si>
   <si>
-    <t>BAZ</t>
-  </si>
-  <si>
-    <t>GAZZA</t>
+    <t>MAMAS</t>
   </si>
   <si>
     <t>WK 50</t>
@@ -402,6 +402,12 @@
     <t>RICHARD GATER</t>
   </si>
   <si>
+    <t>BAZ</t>
+  </si>
+  <si>
+    <t>CHRIS BRADLEY</t>
+  </si>
+  <si>
     <t># VOTES</t>
   </si>
   <si>
@@ -415,6 +421,9 @@
   </si>
   <si>
     <t>NEW GUY / GUEST</t>
+  </si>
+  <si>
+    <t>GAZZA</t>
   </si>
   <si>
     <t>Total</t>
@@ -504,10 +513,10 @@
     <t>Mamas</t>
   </si>
   <si>
-    <t>Bruce</t>
+    <t>Preston</t>
   </si>
   <si>
-    <t>Preston</t>
+    <t>Bruce</t>
   </si>
   <si>
     <t>Ian - Flo</t>
@@ -552,6 +561,9 @@
     <t>Duncan</t>
   </si>
   <si>
+    <t>Gadget</t>
+  </si>
+  <si>
     <t>Father Ted</t>
   </si>
   <si>
@@ -588,19 +600,16 @@
     <t>ZigZag - Wilson</t>
   </si>
   <si>
-    <t>S Rob</t>
-  </si>
-  <si>
     <t>Carzola - Toy Boy</t>
   </si>
   <si>
     <t>Dwarf</t>
   </si>
   <si>
-    <t>Dom - Kermit</t>
+    <t>S Rob</t>
   </si>
   <si>
-    <t>Gadget</t>
+    <t>Dom - Kermit</t>
   </si>
   <si>
     <t>Gadget - Mamas</t>
@@ -613,6 +622,12 @@
   </si>
   <si>
     <t>Posh - Dwarf</t>
+  </si>
+  <si>
+    <t>Bruce - Sonesy</t>
+  </si>
+  <si>
+    <t>Lost 3-5</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -830,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -912,7 +926,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -966,9 +980,6 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,7 +1850,9 @@
       <c r="Y6" s="23">
         <v>-1.0</v>
       </c>
-      <c r="Z6" s="23"/>
+      <c r="Z6" s="23">
+        <v>-2.0</v>
+      </c>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="25"/>
@@ -1869,7 +1882,7 @@
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
@@ -1881,7 +1894,7 @@
       </c>
       <c r="BC6" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
@@ -1889,11 +1902,11 @@
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BF6" s="20">
         <f t="shared" si="7"/>
-        <v>0.5555555556</v>
+        <v>0.5263157895</v>
       </c>
       <c r="BG6" s="20"/>
     </row>
@@ -2027,63 +2040,69 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D8" s="16">
-        <v>-3.0</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.0</v>
+      </c>
       <c r="F8" s="16">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G8" s="16">
         <v>-3.0</v>
       </c>
       <c r="H8" s="16">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I8" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>2.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="J8" s="16"/>
       <c r="K8" s="15"/>
       <c r="L8" s="16">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="M8" s="16">
         <v>1.0</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>-1.0</v>
+      </c>
+      <c r="Q8" s="16">
         <v>2.0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>-2.0</v>
       </c>
       <c r="R8" s="16">
         <v>0.0</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17">
+      <c r="S8" s="17">
+        <v>-2.0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="U8" s="16">
         <v>0.0</v>
       </c>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>1.0</v>
+      </c>
       <c r="W8" s="15"/>
       <c r="X8" s="16">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y8" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="Z8" s="16"/>
+        <v>1.0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>2.0</v>
+      </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
       <c r="AC8" s="18"/>
@@ -2113,7 +2132,7 @@
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
@@ -2121,23 +2140,23 @@
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BF8" s="20">
         <f t="shared" si="7"/>
-        <v>0.568627451</v>
+        <v>0.5</v>
       </c>
       <c r="BG8" s="20"/>
     </row>
@@ -2147,14 +2166,12 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33">
-        <v>-1.0</v>
-      </c>
-      <c r="D9" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="33">
         <v>-3.0</v>
       </c>
-      <c r="E9" s="33">
-        <v>0.0</v>
-      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="33">
         <v>2.0</v>
       </c>
@@ -2165,9 +2182,9 @@
         <v>3.0</v>
       </c>
       <c r="I9" s="33">
-        <v>-2.0</v>
-      </c>
-      <c r="J9" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="34">
         <v>2.0</v>
       </c>
       <c r="K9" s="32"/>
@@ -2180,7 +2197,7 @@
       <c r="N9" s="33">
         <v>2.0</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <v>-1.0</v>
       </c>
       <c r="P9" s="33">
@@ -2189,20 +2206,18 @@
       <c r="Q9" s="33">
         <v>-2.0</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33">
-        <v>-2.0</v>
-      </c>
-      <c r="T9" s="33">
-        <v>3.0</v>
-      </c>
-      <c r="U9" s="33">
+      <c r="R9" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34">
         <v>0.0</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="32"/>
       <c r="X9" s="33">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="Y9" s="33">
         <v>-1.0</v>
@@ -2237,7 +2252,7 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
@@ -2249,7 +2264,7 @@
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
@@ -2257,11 +2272,11 @@
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="20">
         <f t="shared" si="7"/>
-        <v>0.5087719298</v>
+        <v>0.568627451</v>
       </c>
       <c r="BG9" s="20"/>
     </row>
@@ -2273,46 +2288,48 @@
       <c r="C10" s="33">
         <v>-1.0</v>
       </c>
-      <c r="D10" s="33">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="34">
+        <v>-3.0</v>
+      </c>
+      <c r="E10" s="33">
         <v>0.0</v>
       </c>
       <c r="F10" s="33">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="33">
         <v>-3.0</v>
       </c>
       <c r="H10" s="33">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="33">
         <v>-2.0</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="33">
+        <v>2.0</v>
+      </c>
       <c r="K10" s="32"/>
       <c r="L10" s="33">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="M10" s="33">
         <v>1.0</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29">
+      <c r="N10" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="O10" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="P10" s="29">
         <v>1.0</v>
       </c>
-      <c r="P10" s="29">
-        <v>-1.0</v>
-      </c>
       <c r="Q10" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="R10" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="S10" s="34">
+        <v>-2.0</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33">
         <v>-2.0</v>
       </c>
       <c r="T10" s="33">
@@ -2321,17 +2338,17 @@
       <c r="U10" s="33">
         <v>0.0</v>
       </c>
-      <c r="V10" s="33">
-        <v>1.0</v>
-      </c>
+      <c r="V10" s="33"/>
       <c r="W10" s="32"/>
       <c r="X10" s="33">
         <v>2.0</v>
       </c>
       <c r="Y10" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="Z10" s="33"/>
+        <v>-1.0</v>
+      </c>
+      <c r="Z10" s="34">
+        <v>-2.0</v>
+      </c>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
       <c r="AC10" s="35"/>
@@ -2361,31 +2378,31 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="BF10" s="20">
         <f t="shared" si="7"/>
-        <v>0.4736842105</v>
+        <v>0.4833333333</v>
       </c>
       <c r="BG10" s="20"/>
     </row>
@@ -2394,8 +2411,8 @@
         <v>65</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="28">
-        <v>1.0</v>
+      <c r="C11" s="29">
+        <v>-1.0</v>
       </c>
       <c r="D11" s="29">
         <v>3.0</v>
@@ -2404,48 +2421,60 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>3.0</v>
+      </c>
       <c r="H11" s="29">
         <v>-3.0</v>
       </c>
       <c r="I11" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="J11" s="29">
-        <v>2.0</v>
+        <v>-2.0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>-2.0</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="29">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="M11" s="29">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="N11" s="29">
         <v>2.0</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="28">
+      <c r="O11" s="29">
         <v>-1.0</v>
       </c>
+      <c r="P11" s="29">
+        <v>-1.0</v>
+      </c>
       <c r="Q11" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="R11" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29">
+        <v>-3.0</v>
+      </c>
+      <c r="U11" s="29">
         <v>0.0</v>
       </c>
-      <c r="S11" s="29">
+      <c r="V11" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28">
         <v>2.0</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
+      <c r="Y11" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
       <c r="AC11" s="30"/>
@@ -2475,11 +2504,11 @@
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
@@ -2487,19 +2516,19 @@
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="20">
         <f t="shared" si="7"/>
-        <v>0.619047619</v>
+        <v>0.4833333333</v>
       </c>
       <c r="BG11" s="20"/>
     </row>
@@ -2515,13 +2544,11 @@
         <v>-3.0</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28">
         <v>3.0</v>
       </c>
-      <c r="H12" s="29"/>
       <c r="I12" s="29">
         <v>-2.0</v>
       </c>
@@ -2529,45 +2556,45 @@
         <v>2.0</v>
       </c>
       <c r="K12" s="27"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="28">
+      <c r="L12" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="M12" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="N12" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="O12" s="29">
         <v>1.0</v>
       </c>
-      <c r="N12" s="29">
+      <c r="P12" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="Q12" s="29">
         <v>2.0</v>
       </c>
-      <c r="O12" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="P12" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="R12" s="29">
-        <v>0.0</v>
-      </c>
+      <c r="R12" s="29"/>
       <c r="S12" s="29">
         <v>2.0</v>
       </c>
       <c r="T12" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="U12" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="V12" s="28">
+        <v>-3.0</v>
+      </c>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>-1.0</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="29">
         <v>2.0</v>
       </c>
-      <c r="Y12" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="Z12" s="29"/>
+      <c r="Y12" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
       <c r="AC12" s="30"/>
@@ -2597,15 +2624,15 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
@@ -2613,15 +2640,15 @@
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF12" s="20">
         <f t="shared" si="7"/>
-        <v>0.4814814815</v>
+        <v>0.5294117647</v>
       </c>
       <c r="BG12" s="20"/>
     </row>
@@ -2634,49 +2661,49 @@
         <v>-1.0</v>
       </c>
       <c r="D13" s="29">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E13" s="29">
         <v>0.0</v>
       </c>
       <c r="F13" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>-3.0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="J13" s="29">
         <v>2.0</v>
       </c>
-      <c r="G13" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="K13" s="27"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="29">
         <v>-2.0</v>
-      </c>
-      <c r="J13" s="28">
-        <v>-2.0</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="M13" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="N13" s="29">
-        <v>2.0</v>
       </c>
       <c r="O13" s="29">
         <v>-1.0</v>
       </c>
-      <c r="P13" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="28">
+        <v>-2.0</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="T13" s="29">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="U13" s="29">
         <v>0.0</v>
@@ -2685,13 +2712,15 @@
         <v>1.0</v>
       </c>
       <c r="W13" s="27"/>
-      <c r="X13" s="28">
+      <c r="X13" s="29">
         <v>2.0</v>
       </c>
       <c r="Y13" s="29">
         <v>1.0</v>
       </c>
-      <c r="Z13" s="29"/>
+      <c r="Z13" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
       <c r="AC13" s="30"/>
@@ -2721,7 +2750,7 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2729,7 +2758,7 @@
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
@@ -2737,15 +2766,15 @@
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BF13" s="20">
         <f t="shared" si="7"/>
-        <v>0.4561403509</v>
+        <v>0.45</v>
       </c>
       <c r="BG13" s="20"/>
     </row>
@@ -2754,20 +2783,24 @@
         <v>68</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="29">
-        <v>-1.0</v>
+      <c r="C14" s="28">
+        <v>1.0</v>
       </c>
       <c r="D14" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
         <v>-3.0</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28">
-        <v>3.0</v>
-      </c>
       <c r="I14" s="29">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" s="29">
         <v>2.0</v>
@@ -2777,38 +2810,30 @@
         <v>3.0</v>
       </c>
       <c r="M14" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N14" s="29">
+      <c r="Q14" s="29">
         <v>-2.0</v>
       </c>
-      <c r="O14" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="P14" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="R14" s="29"/>
+      <c r="R14" s="29">
+        <v>0.0</v>
+      </c>
       <c r="S14" s="29">
         <v>2.0</v>
       </c>
-      <c r="T14" s="29">
-        <v>-3.0</v>
-      </c>
+      <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="29">
-        <v>-1.0</v>
-      </c>
+      <c r="V14" s="29"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
       <c r="AB14" s="29"/>
@@ -2839,7 +2864,7 @@
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
@@ -2847,23 +2872,23 @@
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BF14" s="20">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.619047619</v>
       </c>
       <c r="BG14" s="20"/>
     </row>
@@ -2878,19 +2903,15 @@
       <c r="D15" s="29">
         <v>-3.0</v>
       </c>
-      <c r="E15" s="29">
-        <v>0.0</v>
-      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="29">
         <v>-2.0</v>
       </c>
       <c r="G15" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="H15" s="29">
         <v>3.0</v>
       </c>
-      <c r="I15" s="28">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
         <v>-2.0</v>
       </c>
       <c r="J15" s="29">
@@ -2898,24 +2919,26 @@
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>1.0</v>
       </c>
       <c r="N15" s="29">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="O15" s="29">
         <v>-1.0</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="29">
         <v>-2.0</v>
       </c>
       <c r="R15" s="29">
         <v>0.0</v>
       </c>
       <c r="S15" s="29">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="T15" s="29">
         <v>3.0</v>
@@ -2923,17 +2946,19 @@
       <c r="U15" s="29">
         <v>0.0</v>
       </c>
-      <c r="V15" s="29">
-        <v>1.0</v>
+      <c r="V15" s="28">
+        <v>-1.0</v>
       </c>
       <c r="W15" s="27"/>
       <c r="X15" s="29">
         <v>2.0</v>
       </c>
       <c r="Y15" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="Z15" s="29"/>
+        <v>-1.0</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
       <c r="AC15" s="30"/>
@@ -2967,11 +2992,11 @@
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
@@ -2979,15 +3004,15 @@
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="20">
         <f t="shared" si="7"/>
-        <v>0.4210526316</v>
+        <v>0.4561403509</v>
       </c>
       <c r="BG15" s="20"/>
     </row>
@@ -3173,7 +3198,9 @@
         <v>-2.0</v>
       </c>
       <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
+      <c r="Z17" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
       <c r="AC17" s="30"/>
@@ -3203,7 +3230,7 @@
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
@@ -3215,7 +3242,7 @@
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
@@ -3223,11 +3250,11 @@
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="20">
         <f t="shared" si="7"/>
-        <v>0.5111111111</v>
+        <v>0.4791666667</v>
       </c>
       <c r="BG17" s="20"/>
     </row>
@@ -3293,7 +3320,9 @@
       <c r="Y18" s="29">
         <v>1.0</v>
       </c>
-      <c r="Z18" s="29"/>
+      <c r="Z18" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="30"/>
@@ -3323,7 +3352,7 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
@@ -3335,7 +3364,7 @@
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
@@ -3343,11 +3372,11 @@
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="BF18" s="20">
         <f t="shared" si="7"/>
-        <v>0.4509803922</v>
+        <v>0.4259259259</v>
       </c>
       <c r="BG18" s="20"/>
     </row>
@@ -3411,7 +3440,9 @@
       <c r="W19" s="27"/>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
+      <c r="Z19" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="30"/>
@@ -3441,7 +3472,7 @@
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
@@ -3453,7 +3484,7 @@
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
@@ -3461,11 +3492,11 @@
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="BF19" s="20">
         <f t="shared" si="7"/>
-        <v>0.4375</v>
+        <v>0.4117647059</v>
       </c>
       <c r="BG19" s="20"/>
     </row>
@@ -3477,50 +3508,42 @@
       <c r="C20" s="29">
         <v>1.0</v>
       </c>
-      <c r="D20" s="28">
-        <v>3.0</v>
+      <c r="D20" s="29">
+        <v>-3.0</v>
       </c>
       <c r="E20" s="29">
         <v>0.0</v>
       </c>
-      <c r="F20" s="29">
-        <v>-2.0</v>
-      </c>
+      <c r="F20" s="29"/>
       <c r="G20" s="29">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" s="29">
         <v>-3.0</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>2.0</v>
       </c>
       <c r="J20" s="29">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="29">
         <v>-3.0</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="29">
         <v>-1.0</v>
       </c>
-      <c r="N20" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="O20" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="P20" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="Q20" s="29">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="28">
         <v>2.0</v>
       </c>
-      <c r="R20" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29">
+        <v>2.0</v>
+      </c>
       <c r="T20" s="29">
         <v>-3.0</v>
       </c>
@@ -3534,8 +3557,12 @@
       <c r="X20" s="29">
         <v>-2.0</v>
       </c>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
+      <c r="Y20" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="Z20" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="30"/>
@@ -3565,31 +3592,31 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="BF20" s="20">
         <f t="shared" si="7"/>
-        <v>0.3157894737</v>
+        <v>0.3921568627</v>
       </c>
       <c r="BG20" s="20"/>
     </row>
@@ -3601,42 +3628,50 @@
       <c r="C21" s="29">
         <v>1.0</v>
       </c>
-      <c r="D21" s="29">
-        <v>-3.0</v>
+      <c r="D21" s="28">
+        <v>3.0</v>
       </c>
       <c r="E21" s="29">
         <v>0.0</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="G21" s="29">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="H21" s="29">
         <v>-3.0</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="29">
         <v>2.0</v>
       </c>
       <c r="J21" s="29">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="29">
         <v>-3.0</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <v>-1.0</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="28">
+      <c r="N21" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="O21" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="P21" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="Q21" s="29">
         <v>2.0</v>
       </c>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29">
-        <v>2.0</v>
-      </c>
+      <c r="R21" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="29"/>
       <c r="T21" s="29">
         <v>-3.0</v>
       </c>
@@ -3650,10 +3685,10 @@
       <c r="X21" s="29">
         <v>-2.0</v>
       </c>
-      <c r="Y21" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="Z21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
       <c r="AC21" s="30"/>
@@ -3683,7 +3718,7 @@
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
@@ -3691,23 +3726,23 @@
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="BF21" s="20">
         <f t="shared" si="7"/>
-        <v>0.3541666667</v>
+        <v>0.3</v>
       </c>
       <c r="BG21" s="20"/>
     </row>
@@ -4018,52 +4053,40 @@
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="29">
-        <v>3.0</v>
-      </c>
+      <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="27"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="N25" s="29">
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="29">
         <v>-2.0</v>
       </c>
-      <c r="O25" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="28">
-        <v>0.0</v>
-      </c>
+      <c r="R25" s="29"/>
       <c r="S25" s="29">
         <v>-2.0</v>
       </c>
-      <c r="T25" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="U25" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="V25" s="29">
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29">
         <v>-1.0</v>
       </c>
-      <c r="W25" s="27"/>
-      <c r="X25" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
+      <c r="Z25" s="28">
+        <v>2.0</v>
+      </c>
       <c r="AA25" s="29"/>
       <c r="AB25" s="29"/>
       <c r="AC25" s="30"/>
@@ -4093,19 +4116,19 @@
       </c>
       <c r="AZ25" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA25" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB25" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD25" s="5">
         <f t="shared" si="5"/>
@@ -4113,11 +4136,11 @@
       </c>
       <c r="BE25" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="BF25" s="20">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BG25" s="20"/>
     </row>
@@ -4126,38 +4149,52 @@
         <v>80</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="29">
-        <v>-1.0</v>
-      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="H26" s="29"/>
+      <c r="E26" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29">
+        <v>3.0</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="28">
-        <v>3.0</v>
-      </c>
+      <c r="L26" s="29"/>
       <c r="M26" s="29">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="N26" s="29">
         <v>-2.0</v>
       </c>
-      <c r="O26" s="29"/>
+      <c r="O26" s="29">
+        <v>-1.0</v>
+      </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
+      <c r="R26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="T26" s="29">
+        <v>-3.0</v>
+      </c>
+      <c r="U26" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="29">
+        <v>-1.0</v>
+      </c>
       <c r="W26" s="27"/>
-      <c r="X26" s="29"/>
+      <c r="X26" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="Y26" s="29"/>
       <c r="Z26" s="29"/>
       <c r="AA26" s="29"/>
@@ -4189,7 +4226,7 @@
       </c>
       <c r="AZ26" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA26" s="5">
         <f t="shared" si="2"/>
@@ -4197,23 +4234,23 @@
       </c>
       <c r="BB26" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD26" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BE26" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="BF26" s="20">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="BG26" s="20"/>
     </row>
@@ -4237,16 +4274,14 @@
       <c r="O27" s="29">
         <v>1.0</v>
       </c>
-      <c r="P27" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="P27" s="29"/>
       <c r="Q27" s="29">
         <v>-2.0</v>
       </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29">
-        <v>-2.0</v>
-      </c>
+      <c r="R27" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="29"/>
       <c r="T27" s="29"/>
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
@@ -4255,7 +4290,9 @@
       <c r="Y27" s="29">
         <v>-1.0</v>
       </c>
-      <c r="Z27" s="29"/>
+      <c r="Z27" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA27" s="29"/>
       <c r="AB27" s="29"/>
       <c r="AC27" s="30"/>
@@ -4293,23 +4330,23 @@
       </c>
       <c r="BB27" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD27" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE27" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="20">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BG27" s="20"/>
     </row>
@@ -4318,38 +4355,34 @@
         <v>82</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29">
+      <c r="C28" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29">
         <v>-3.0</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="29">
-        <v>-3.0</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="O28" s="29">
-        <v>-1.0</v>
-      </c>
-      <c r="P28" s="29">
-        <v>-1.0</v>
-      </c>
+      <c r="L28" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="M28" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="29">
+        <v>-2.0</v>
+      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-      <c r="T28" s="29">
-        <v>3.0</v>
-      </c>
+      <c r="T28" s="29"/>
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="27"/>
@@ -4385,7 +4418,7 @@
       </c>
       <c r="AZ28" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA28" s="5">
         <f t="shared" si="2"/>
@@ -4397,7 +4430,7 @@
       </c>
       <c r="BC28" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD28" s="5">
         <f t="shared" si="5"/>
@@ -4405,11 +4438,11 @@
       </c>
       <c r="BE28" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="BF28" s="20">
         <f t="shared" si="7"/>
-        <v>0.2857142857</v>
+        <v>0.4</v>
       </c>
       <c r="BG28" s="20"/>
     </row>
@@ -4419,23 +4452,37 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="29">
+        <v>-3.0</v>
+      </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>-2.0</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="27"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="29">
+        <v>-3.0</v>
+      </c>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="N29" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="O29" s="29">
+        <v>-1.0</v>
+      </c>
+      <c r="P29" s="29">
+        <v>-1.0</v>
+      </c>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
+      <c r="T29" s="29">
+        <v>3.0</v>
+      </c>
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="27"/>
@@ -4466,16 +4513,16 @@
       <c r="AV29" s="29"/>
       <c r="AW29" s="29"/>
       <c r="AX29" s="29"/>
-      <c r="AY29" s="37">
+      <c r="AY29" s="19">
         <v>25.0</v>
       </c>
       <c r="AZ29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB29" s="5">
         <f t="shared" si="3"/>
@@ -4483,19 +4530,19 @@
       </c>
       <c r="BC29" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF29" s="20" t="str">
+        <v>-5</v>
+      </c>
+      <c r="BF29" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.2857142857</v>
       </c>
       <c r="BG29" s="20"/>
     </row>
@@ -4552,7 +4599,7 @@
       <c r="AV30" s="29"/>
       <c r="AW30" s="29"/>
       <c r="AX30" s="29"/>
-      <c r="AY30" s="37">
+      <c r="AY30" s="19">
         <v>26.0</v>
       </c>
       <c r="AZ30" s="5">
@@ -4592,9 +4639,7 @@
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="29">
-        <v>0.0</v>
-      </c>
+      <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -4614,9 +4659,7 @@
       <c r="V31" s="29"/>
       <c r="W31" s="27"/>
       <c r="X31" s="29"/>
-      <c r="Y31" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="Y31" s="29"/>
       <c r="Z31" s="29"/>
       <c r="AA31" s="29"/>
       <c r="AB31" s="29"/>
@@ -4642,20 +4685,20 @@
       <c r="AV31" s="29"/>
       <c r="AW31" s="29"/>
       <c r="AX31" s="29"/>
-      <c r="AY31" s="37">
+      <c r="AY31" s="19">
         <v>27.0</v>
       </c>
       <c r="AZ31" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="5">
         <f t="shared" si="4"/>
@@ -4663,19 +4706,19 @@
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="BF31" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0.6666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG31" s="20"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>86</v>
       </c>
@@ -4728,8 +4771,8 @@
       <c r="AV32" s="29"/>
       <c r="AW32" s="29"/>
       <c r="AX32" s="29"/>
-      <c r="AY32" s="37">
-        <v>28.0</v>
+      <c r="AY32" s="19">
+        <v>29.0</v>
       </c>
       <c r="AZ32" s="5">
         <f t="shared" si="1"/>
@@ -4778,25 +4821,17 @@
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="O33" s="29"/>
       <c r="P33" s="29"/>
-      <c r="Q33" s="29">
-        <v>-2.0</v>
-      </c>
-      <c r="R33" s="29">
-        <v>0.0</v>
-      </c>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
       <c r="U33" s="29"/>
       <c r="V33" s="29"/>
       <c r="W33" s="27"/>
       <c r="X33" s="29"/>
-      <c r="Y33" s="29">
-        <v>-1.0</v>
-      </c>
+      <c r="Y33" s="29"/>
       <c r="Z33" s="29"/>
       <c r="AA33" s="29"/>
       <c r="AB33" s="29"/>
@@ -4822,36 +4857,36 @@
       <c r="AV33" s="29"/>
       <c r="AW33" s="29"/>
       <c r="AX33" s="29"/>
-      <c r="AY33" s="37">
-        <v>29.0</v>
+      <c r="AY33" s="19">
+        <v>30.0</v>
       </c>
       <c r="AZ33" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="5">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="BF33" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0.3333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG33" s="20"/>
     </row>
@@ -4862,7 +4897,9 @@
       <c r="B34" s="27"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="29">
+        <v>0.0</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -4882,7 +4919,9 @@
       <c r="V34" s="29"/>
       <c r="W34" s="27"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
+      <c r="Y34" s="29">
+        <v>1.0</v>
+      </c>
       <c r="Z34" s="29"/>
       <c r="AA34" s="29"/>
       <c r="AB34" s="29"/>
@@ -4908,20 +4947,20 @@
       <c r="AV34" s="29"/>
       <c r="AW34" s="29"/>
       <c r="AX34" s="29"/>
-      <c r="AY34" s="37">
-        <v>30.0</v>
+      <c r="AY34" s="19">
+        <v>28.0</v>
       </c>
       <c r="AZ34" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="5">
         <f t="shared" si="4"/>
@@ -4929,19 +4968,19 @@
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE34" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF34" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.6666666667</v>
       </c>
       <c r="BG34" s="20"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>89</v>
       </c>
@@ -4994,8 +5033,8 @@
       <c r="AV35" s="29"/>
       <c r="AW35" s="29"/>
       <c r="AX35" s="29"/>
-      <c r="AY35" s="37">
-        <v>31.0</v>
+      <c r="AY35" s="19">
+        <v>32.0</v>
       </c>
       <c r="AZ35" s="5">
         <f t="shared" si="1"/>
@@ -5090,8 +5129,8 @@
       <c r="AV36" s="29"/>
       <c r="AW36" s="29"/>
       <c r="AX36" s="29"/>
-      <c r="AY36" s="37">
-        <v>32.0</v>
+      <c r="AY36" s="19">
+        <v>31.0</v>
       </c>
       <c r="AZ36" s="5">
         <f t="shared" si="1"/>
@@ -5392,7 +5431,7 @@
       <c r="BG39" s="20"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="37" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="27"/>
@@ -5401,12 +5440,8 @@
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="29">
-        <v>-2.0</v>
-      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
       <c r="L40" s="29"/>
@@ -5453,7 +5488,7 @@
       </c>
       <c r="AZ40" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="5">
         <f t="shared" si="2"/>
@@ -5461,23 +5496,23 @@
       </c>
       <c r="BB40" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="BF40" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0.1666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG40" s="20"/>
     </row>
@@ -5511,11 +5546,11 @@
       </c>
       <c r="H41" s="33">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="33">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="33">
         <f t="shared" si="8"/>
@@ -5583,7 +5618,7 @@
       </c>
       <c r="Z41" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA41" s="33">
         <f t="shared" si="8"/>
@@ -5757,7 +5792,9 @@
       <c r="Y42" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Z42" s="41"/>
+      <c r="Z42" s="41" t="s">
+        <v>111</v>
+      </c>
       <c r="AA42" s="41"/>
       <c r="AB42" s="41"/>
       <c r="AC42" s="5"/>
@@ -5791,7 +5828,7 @@
       <c r="BF42" s="20"/>
       <c r="BG42" s="20"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="42"/>
@@ -26049,28 +26086,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -26093,13 +26130,13 @@
         <v>3.0</v>
       </c>
       <c r="G3" s="45">
-        <f t="shared" ref="G3:G36" si="1">SUM(C3*3)+D3</f>
+        <f t="shared" ref="G3:G26" si="1">SUM(C3*3)+D3</f>
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="44">
         <v>2.0</v>
@@ -26130,7 +26167,7 @@
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="44">
         <v>2.0</v>
@@ -26161,7 +26198,7 @@
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="44">
         <v>2.0</v>
@@ -26192,7 +26229,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="45">
         <v>2.0</v>
@@ -26223,7 +26260,7 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="44">
         <v>1.0</v>
@@ -26279,7 +26316,7 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="44">
         <v>1.0</v>
@@ -26304,10 +26341,10 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B11" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="44">
         <v>1.0</v>
@@ -26316,7 +26353,7 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="44">
         <v>2.0</v>
@@ -26330,7 +26367,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B12" s="44">
         <v>2.0</v>
@@ -26345,7 +26382,7 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="44">
         <f t="shared" si="1"/>
@@ -26355,7 +26392,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="44">
         <v>2.0</v>
@@ -26380,13 +26417,13 @@
         <v>25.0</v>
       </c>
       <c r="J13" s="46">
-        <f t="shared" ref="J13:J27" si="3">I13/B13</f>
+        <f t="shared" ref="J13:J25" si="3">I13/B13</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="44">
         <v>2.0</v>
@@ -26418,7 +26455,7 @@
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B15" s="44">
         <v>2.0</v>
@@ -26449,7 +26486,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B16" s="44">
         <v>2.0</v>
@@ -26480,7 +26517,7 @@
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B17" s="44">
         <v>2.0</v>
@@ -26495,7 +26532,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="44">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
@@ -26511,26 +26548,26 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B18" s="44">
         <v>2.0</v>
       </c>
       <c r="C18" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="44">
         <v>0.0</v>
       </c>
-      <c r="D18" s="44">
-        <v>2.0</v>
-      </c>
       <c r="E18" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="44">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G18" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="47">
         <v>19.0</v>
@@ -26542,7 +26579,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="44">
         <v>2.0</v>
@@ -26551,17 +26588,17 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" s="44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="44">
-        <v>-2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="47">
         <v>15.0</v>
@@ -26573,7 +26610,7 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B20" s="44">
         <v>2.0</v>
@@ -26588,7 +26625,7 @@
         <v>1.0</v>
       </c>
       <c r="F20" s="44">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G20" s="44">
         <f t="shared" si="1"/>
@@ -26604,16 +26641,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B21" s="44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C21" s="44">
         <v>0.0</v>
       </c>
       <c r="D21" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="44">
         <v>1.0</v>
@@ -26623,19 +26660,19 @@
       </c>
       <c r="G21" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="47">
         <v>25.0</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B22" s="44">
         <v>1.0</v>
@@ -26666,10 +26703,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B23" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" s="44">
         <v>0.0</v>
@@ -26678,10 +26715,10 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" s="44">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G23" s="44">
         <f t="shared" si="1"/>
@@ -26692,12 +26729,12 @@
       </c>
       <c r="J23" s="46">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="44">
         <v>2.0</v>
@@ -26728,7 +26765,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="44">
         <v>2.0</v>
@@ -26759,132 +26796,38 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="F26" s="44">
+        <v>-6.0</v>
       </c>
       <c r="G26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="47">
-        <v>8.0</v>
-      </c>
-      <c r="J26" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="47">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
@@ -28168,7 +28111,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="29">
@@ -28244,7 +28187,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29">
@@ -28322,7 +28265,7 @@
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29">
@@ -28400,7 +28343,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29">
@@ -28478,7 +28421,7 @@
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -28548,7 +28491,7 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="29"/>
@@ -28700,7 +28643,7 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="29"/>
@@ -28772,7 +28715,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="29"/>
@@ -28917,7 +28860,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
@@ -28991,7 +28934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="29"/>
@@ -29067,7 +29010,7 @@
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
@@ -29354,7 +29297,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>
@@ -29634,7 +29577,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="29"/>
@@ -29702,7 +29645,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="29"/>
@@ -29770,7 +29713,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
@@ -30098,7 +30041,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
@@ -30160,7 +30103,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
@@ -30346,7 +30289,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="29"/>
@@ -30408,7 +30351,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
@@ -30470,7 +30413,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
@@ -30495,7 +30438,9 @@
       <c r="V36" s="29"/>
       <c r="W36" s="27"/>
       <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
+      <c r="Y36" s="29">
+        <v>1.0</v>
+      </c>
       <c r="Z36" s="29"/>
       <c r="AA36" s="29"/>
       <c r="AB36" s="29"/>
@@ -30525,7 +30470,7 @@
       <c r="AZ36" s="6"/>
       <c r="BA36" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
@@ -30649,11 +30594,11 @@
       </c>
       <c r="H39" s="44">
         <f>'League Table'!H41</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" s="44">
         <f>'League Table'!I41</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="44">
         <f>'League Table'!J41</f>
@@ -30721,7 +30666,7 @@
       </c>
       <c r="Z39" s="44">
         <f>'League Table'!Z41</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA39" s="44">
         <f>'League Table'!AA41</f>
@@ -30853,7 +30798,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41" s="44">
         <f t="shared" ref="B41:AV41" si="2">SUM(B3:B37)</f>
@@ -30949,7 +30894,7 @@
       </c>
       <c r="Y41" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z41" s="44">
         <f t="shared" si="2"/>
@@ -61771,7 +61716,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -61939,7 +61884,7 @@
         <v>121</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -61998,7 +61943,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16">
@@ -62048,7 +61993,9 @@
       <c r="Y5" s="16">
         <v>1.0</v>
       </c>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
@@ -62076,7 +62023,7 @@
       <c r="AY5" s="16"/>
       <c r="BA5" s="44">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -62129,7 +62076,9 @@
       <c r="Y6" s="33">
         <v>2.0</v>
       </c>
-      <c r="Z6" s="33"/>
+      <c r="Z6" s="33">
+        <v>2.0</v>
+      </c>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="33"/>
@@ -62157,12 +62106,12 @@
       <c r="AY6" s="33"/>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29">
@@ -62237,7 +62186,7 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16">
@@ -62312,7 +62261,7 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -62383,7 +62332,7 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -62419,7 +62368,9 @@
       <c r="W10" s="27"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
+      <c r="Z10" s="29">
+        <v>1.0</v>
+      </c>
       <c r="AA10" s="29"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="29"/>
@@ -62447,12 +62398,12 @@
       <c r="AY10" s="29"/>
       <c r="BA10" s="44">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -62488,7 +62439,9 @@
       <c r="Y11" s="29">
         <v>1.0</v>
       </c>
-      <c r="Z11" s="29"/>
+      <c r="Z11" s="29">
+        <v>2.0</v>
+      </c>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
       <c r="AC11" s="29"/>
@@ -62516,36 +62469,36 @@
       <c r="AY11" s="29"/>
       <c r="BA11" s="44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="33">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33">
         <v>1.0</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1.0</v>
+      </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
-      <c r="N12" s="33">
-        <v>1.0</v>
-      </c>
+      <c r="N12" s="33"/>
       <c r="O12" s="33">
         <v>1.0</v>
       </c>
-      <c r="P12" s="33">
-        <v>1.0</v>
-      </c>
+      <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
@@ -62555,7 +62508,9 @@
       <c r="W12" s="32"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Z12" s="33">
+        <v>1.0</v>
+      </c>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
       <c r="AC12" s="33"/>
@@ -62583,36 +62538,36 @@
       <c r="AY12" s="33"/>
       <c r="BA12" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="D13" s="29">
         <v>1.0</v>
       </c>
-      <c r="F13" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="29">
+        <v>1.0</v>
+      </c>
       <c r="O13" s="29">
         <v>1.0</v>
       </c>
-      <c r="P13" s="29"/>
+      <c r="P13" s="29">
+        <v>1.0</v>
+      </c>
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
@@ -62655,7 +62610,7 @@
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -62781,7 +62736,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -62903,7 +62858,7 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -62964,7 +62919,7 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -63086,16 +63041,14 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -63114,7 +63067,9 @@
       <c r="W21" s="27"/>
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
+      <c r="Z21" s="29">
+        <v>1.0</v>
+      </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
@@ -63147,14 +63102,16 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29">
+        <v>1.0</v>
+      </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
@@ -63201,12 +63158,12 @@
       <c r="AY22" s="29"/>
       <c r="BA22" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -63265,7 +63222,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -63324,7 +63281,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -63383,7 +63340,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -63442,7 +63399,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -63501,7 +63458,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -63619,7 +63576,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -63678,7 +63635,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -63737,7 +63694,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -63796,7 +63753,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -64032,7 +63989,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -64250,7 +64207,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -64350,7 +64307,7 @@
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" si="2"/>
@@ -64454,7 +64411,7 @@
       </c>
       <c r="BA41" s="44">
         <f>SUM(B41:AZ41)</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -65441,19 +65398,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -65469,16 +65426,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="5"/>
@@ -65490,10 +65447,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -65507,16 +65464,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="5"/>
@@ -65528,16 +65485,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="5"/>
@@ -65549,27 +65506,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -65578,16 +65535,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="5"/>
@@ -65599,35 +65556,35 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I9" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L9" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N9" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -65635,35 +65592,35 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I10" s="5">
         <v>4.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L10" s="5">
         <v>2.0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N10" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -65671,32 +65628,32 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I11" s="5">
         <v>3.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L11" s="5">
         <v>2.0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N11" s="5">
         <v>4.0</v>
@@ -65707,30 +65664,30 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I12" s="5">
         <v>3.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="N12" s="5">
         <v>4.0</v>
@@ -65741,31 +65698,31 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I13" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N13" s="5">
         <v>4.0</v>
@@ -65776,33 +65733,33 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="I14" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N14" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -65810,30 +65767,30 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I15" s="5">
         <v>2.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="N15" s="5">
         <v>3.0</v>
@@ -65844,30 +65801,30 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>175</v>
-      </c>
       <c r="E16" s="49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I16" s="5">
         <v>2.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N16" s="5">
         <v>3.0</v>
@@ -65878,30 +65835,30 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I17" s="5">
         <v>2.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N17" s="5">
         <v>3.0</v>
@@ -65912,33 +65869,33 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I18" s="5">
         <v>2.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="N18" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -65946,28 +65903,30 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2.0</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N19" s="5">
         <v>2.0</v>
@@ -65978,28 +65937,28 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="5" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="I20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N20" s="5">
         <v>2.0</v>
@@ -66010,28 +65969,28 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="N21" s="5">
         <v>2.0</v>
@@ -66042,28 +66001,28 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="N22" s="5">
         <v>2.0</v>
@@ -66074,28 +66033,28 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N23" s="5">
         <v>2.0</v>
@@ -66106,26 +66065,26 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="N24" s="5">
         <v>2.0</v>
@@ -66136,26 +66095,26 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C25" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="49" t="s">
         <v>163</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>161</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="N25" s="5">
         <v>2.0</v>
@@ -66166,24 +66125,28 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+        <v>185</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>164</v>
+      </c>
       <c r="G26" s="49"/>
       <c r="H26" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N26" s="60">
+        <v>194</v>
+      </c>
+      <c r="N26" s="5">
         <v>1.0</v>
       </c>
     </row>
@@ -66191,18 +66154,26 @@
       <c r="A27" s="49">
         <v>25.0</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="B27" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>163</v>
+      </c>
       <c r="G27" s="49"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="K27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N27" s="60">
+        <v>186</v>
+      </c>
+      <c r="N27" s="5">
         <v>1.0</v>
       </c>
     </row>
@@ -66219,9 +66190,9 @@
       <c r="I28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N28" s="60">
+        <v>190</v>
+      </c>
+      <c r="N28" s="5">
         <v>1.0</v>
       </c>
     </row>
@@ -66237,9 +66208,9 @@
       <c r="I29" s="5"/>
       <c r="K29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N29" s="60">
+        <v>187</v>
+      </c>
+      <c r="N29" s="5">
         <v>1.0</v>
       </c>
     </row>
@@ -66255,9 +66226,9 @@
       <c r="I30" s="5"/>
       <c r="K30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N30" s="60">
+        <v>193</v>
+      </c>
+      <c r="N30" s="5">
         <v>1.0</v>
       </c>
     </row>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="89MucdtM+CyvAG8JvDrpyKa6+Vm66xE5HtxYr5B8kYk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="wfYai8PF2pGsUMlrZvKUSRJlXtAz4kWyuHS/C8SkzUI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="213">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -210,10 +210,10 @@
     <t>DUNCAN</t>
   </si>
   <si>
-    <t>DOM</t>
+    <t>BRUCE</t>
   </si>
   <si>
-    <t>BRUCE</t>
+    <t>DOM</t>
   </si>
   <si>
     <t>KERMIT</t>
@@ -255,10 +255,10 @@
     <t>TOY BOY</t>
   </si>
   <si>
-    <t>KRYTON</t>
+    <t>RYAN</t>
   </si>
   <si>
-    <t>RYAN</t>
+    <t>KRYTON</t>
   </si>
   <si>
     <t>TUNDE</t>
@@ -273,22 +273,25 @@
     <t>PHANTOM</t>
   </si>
   <si>
-    <t xml:space="preserve">STRAIGHT ROB </t>
-  </si>
-  <si>
     <t>ELBOW</t>
   </si>
   <si>
     <t>FRED</t>
   </si>
   <si>
-    <t>MOO</t>
+    <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
     <t>MICK</t>
   </si>
   <si>
+    <t>MOO</t>
+  </si>
+  <si>
     <t>CARZOLA</t>
+  </si>
+  <si>
+    <t>CHRIS B</t>
   </si>
   <si>
     <t>DOGGER</t>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>VINCE</t>
-  </si>
-  <si>
-    <t>CHRIS B</t>
   </si>
   <si>
     <t>GUEST</t>
@@ -366,6 +366,9 @@
     <t xml:space="preserve"> 7-2</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0-0</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -405,10 +408,10 @@
     <t>SHARED</t>
   </si>
   <si>
-    <t>RICHARD GATER</t>
+    <t>CHRIS BRADLEY</t>
   </si>
   <si>
-    <t>CHRIS BRADLEY</t>
+    <t>RICHARD GATER</t>
   </si>
   <si>
     <t>BAZ</t>
@@ -656,6 +659,9 @@
   <si>
     <t>Lost 2-6</t>
   </si>
+  <si>
+    <t>Drew 0-0</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -821,12 +827,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -873,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -968,9 +968,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,20 +976,20 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1767,7 +1764,9 @@
       <c r="AD5" s="16">
         <v>5.0</v>
       </c>
-      <c r="AE5" s="16"/>
+      <c r="AE5" s="17">
+        <v>0.0</v>
+      </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="AZ5" s="5">
         <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
@@ -1800,7 +1799,7 @@
       </c>
       <c r="BB5" s="5">
         <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC40" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
@@ -1808,7 +1807,7 @@
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
@@ -1816,7 +1815,7 @@
       </c>
       <c r="BF5" s="19">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>0.5833333333</v>
+        <v>0.5733333333</v>
       </c>
       <c r="BG5" s="19"/>
     </row>
@@ -1895,7 +1894,9 @@
       <c r="AD6" s="22">
         <v>-5.0</v>
       </c>
-      <c r="AE6" s="22"/>
+      <c r="AE6" s="22">
+        <v>0.0</v>
+      </c>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
@@ -1920,7 +1921,7 @@
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
@@ -1928,7 +1929,7 @@
       </c>
       <c r="BB6" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC6" s="5">
         <f t="shared" si="4"/>
@@ -1936,7 +1937,7 @@
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
@@ -1944,7 +1945,7 @@
       </c>
       <c r="BF6" s="19">
         <f t="shared" si="7"/>
-        <v>0.6031746032</v>
+        <v>0.5909090909</v>
       </c>
       <c r="BG6" s="19"/>
     </row>
@@ -2027,7 +2028,9 @@
       <c r="AD7" s="26">
         <v>5.0</v>
       </c>
-      <c r="AE7" s="26"/>
+      <c r="AE7" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="BB7" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="4"/>
@@ -2068,7 +2071,7 @@
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
@@ -2076,7 +2079,7 @@
       </c>
       <c r="BF7" s="19">
         <f t="shared" si="7"/>
-        <v>0.5072463768</v>
+        <v>0.5</v>
       </c>
       <c r="BG7" s="19"/>
     </row>
@@ -2086,12 +2089,14 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="16">
+        <v>-1.0</v>
+      </c>
+      <c r="D8" s="17">
         <v>-3.0</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16">
+        <v>0.0</v>
+      </c>
       <c r="F8" s="16">
         <v>2.0</v>
       </c>
@@ -2102,9 +2107,9 @@
         <v>3.0</v>
       </c>
       <c r="I8" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="17">
+        <v>-2.0</v>
+      </c>
+      <c r="J8" s="16">
         <v>2.0</v>
       </c>
       <c r="K8" s="15"/>
@@ -2117,7 +2122,7 @@
       <c r="N8" s="16">
         <v>2.0</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="17">
         <v>-1.0</v>
       </c>
       <c r="P8" s="16">
@@ -2126,25 +2131,29 @@
       <c r="Q8" s="16">
         <v>-2.0</v>
       </c>
-      <c r="R8" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17">
+      <c r="R8" s="16"/>
+      <c r="S8" s="16">
+        <v>-2.0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="U8" s="16">
         <v>0.0</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="15"/>
       <c r="X8" s="16">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y8" s="16">
         <v>-1.0</v>
       </c>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="17">
+        <v>-2.0</v>
+      </c>
       <c r="AA8" s="16">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB8" s="16">
         <v>-3.0</v>
@@ -2153,9 +2162,11 @@
         <v>1.0</v>
       </c>
       <c r="AD8" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="AE8" s="16"/>
+        <v>-5.0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0.0</v>
+      </c>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -2180,7 +2191,7 @@
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
@@ -2188,23 +2199,23 @@
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="BF8" s="19">
         <f t="shared" si="7"/>
-        <v>0.5555555556</v>
+        <v>0.48</v>
       </c>
       <c r="BG8" s="19"/>
     </row>
@@ -2214,14 +2225,12 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30">
-        <v>-1.0</v>
-      </c>
-      <c r="D9" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="30">
         <v>-3.0</v>
       </c>
-      <c r="E9" s="30">
-        <v>0.0</v>
-      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="30">
         <v>2.0</v>
       </c>
@@ -2232,9 +2241,9 @@
         <v>3.0</v>
       </c>
       <c r="I9" s="30">
-        <v>-2.0</v>
-      </c>
-      <c r="J9" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="31">
         <v>2.0</v>
       </c>
       <c r="K9" s="29"/>
@@ -2247,7 +2256,7 @@
       <c r="N9" s="30">
         <v>2.0</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="30">
         <v>-1.0</v>
       </c>
       <c r="P9" s="30">
@@ -2256,29 +2265,25 @@
       <c r="Q9" s="30">
         <v>-2.0</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30">
-        <v>-2.0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="U9" s="30">
+      <c r="R9" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31">
         <v>0.0</v>
       </c>
       <c r="V9" s="30"/>
       <c r="W9" s="29"/>
       <c r="X9" s="30">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="Y9" s="30">
         <v>-1.0</v>
       </c>
-      <c r="Z9" s="31">
-        <v>-2.0</v>
-      </c>
+      <c r="Z9" s="30"/>
       <c r="AA9" s="30">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AB9" s="30">
         <v>-3.0</v>
@@ -2287,7 +2292,7 @@
         <v>1.0</v>
       </c>
       <c r="AD9" s="30">
-        <v>-5.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
@@ -2314,7 +2319,7 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
@@ -2326,7 +2331,7 @@
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
@@ -2334,11 +2339,11 @@
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="19">
         <f t="shared" si="7"/>
-        <v>0.4861111111</v>
+        <v>0.5555555556</v>
       </c>
       <c r="BG9" s="19"/>
     </row>
@@ -2421,7 +2426,9 @@
       <c r="AD10" s="30">
         <v>-5.0</v>
       </c>
-      <c r="AE10" s="30"/>
+      <c r="AE10" s="30">
+        <v>0.0</v>
+      </c>
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
@@ -2446,7 +2453,7 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
@@ -2454,7 +2461,7 @@
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="4"/>
@@ -2462,7 +2469,7 @@
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
@@ -2470,7 +2477,7 @@
       </c>
       <c r="BF10" s="19">
         <f t="shared" si="7"/>
-        <v>0.4782608696</v>
+        <v>0.4722222222</v>
       </c>
       <c r="BG10" s="19"/>
     </row>
@@ -2679,7 +2686,9 @@
       <c r="AD12" s="26">
         <v>5.0</v>
       </c>
-      <c r="AE12" s="26"/>
+      <c r="AE12" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
@@ -2704,7 +2713,7 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
@@ -2712,7 +2721,7 @@
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
@@ -2720,7 +2729,7 @@
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
@@ -2728,7 +2737,7 @@
       </c>
       <c r="BF12" s="19">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4920634921</v>
       </c>
       <c r="BG12" s="19"/>
     </row>
@@ -2803,7 +2812,9 @@
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
+      <c r="AE13" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
       <c r="AH13" s="26"/>
@@ -2828,7 +2839,7 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2836,7 +2847,7 @@
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
@@ -2844,7 +2855,7 @@
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
@@ -2852,7 +2863,7 @@
       </c>
       <c r="BF13" s="19">
         <f t="shared" si="7"/>
-        <v>0.5263157895</v>
+        <v>0.5166666667</v>
       </c>
       <c r="BG13" s="19"/>
     </row>
@@ -2937,7 +2948,9 @@
       <c r="AD14" s="26">
         <v>-5.0</v>
       </c>
-      <c r="AE14" s="26"/>
+      <c r="AE14" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
@@ -2962,7 +2975,7 @@
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
@@ -2970,7 +2983,7 @@
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
@@ -2978,7 +2991,7 @@
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
@@ -2986,7 +2999,7 @@
       </c>
       <c r="BF14" s="19">
         <f t="shared" si="7"/>
-        <v>0.4166666667</v>
+        <v>0.4133333333</v>
       </c>
       <c r="BG14" s="19"/>
     </row>
@@ -3435,7 +3448,9 @@
       <c r="AB18" s="26"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
+      <c r="AE18" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
@@ -3460,7 +3475,7 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
@@ -3468,7 +3483,7 @@
       </c>
       <c r="BB18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
@@ -3476,7 +3491,7 @@
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
@@ -3484,7 +3499,7 @@
       </c>
       <c r="BF18" s="19">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4912280702</v>
       </c>
       <c r="BG18" s="19"/>
     </row>
@@ -3559,7 +3574,9 @@
       </c>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
+      <c r="AE19" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
@@ -3584,7 +3601,7 @@
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
@@ -3592,7 +3609,7 @@
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
@@ -3600,7 +3617,7 @@
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
@@ -3608,7 +3625,7 @@
       </c>
       <c r="BF19" s="19">
         <f t="shared" si="7"/>
-        <v>0.4561403509</v>
+        <v>0.45</v>
       </c>
       <c r="BG19" s="19"/>
     </row>
@@ -3685,7 +3702,9 @@
       <c r="AD20" s="26">
         <v>-5.0</v>
       </c>
-      <c r="AE20" s="26"/>
+      <c r="AE20" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
@@ -3710,7 +3729,7 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
@@ -3718,7 +3737,7 @@
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
@@ -3726,7 +3745,7 @@
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
@@ -3734,7 +3753,7 @@
       </c>
       <c r="BF20" s="19">
         <f t="shared" si="7"/>
-        <v>0.4333333333</v>
+        <v>0.4285714286</v>
       </c>
       <c r="BG20" s="19"/>
     </row>
@@ -3815,7 +3834,9 @@
       <c r="AD21" s="26">
         <v>5.0</v>
       </c>
-      <c r="AE21" s="26"/>
+      <c r="AE21" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
@@ -3840,7 +3861,7 @@
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
@@ -3848,7 +3869,7 @@
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
@@ -3856,7 +3877,7 @@
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
@@ -3864,7 +3885,7 @@
       </c>
       <c r="BF21" s="19">
         <f t="shared" si="7"/>
-        <v>0.3636363636</v>
+        <v>0.3623188406</v>
       </c>
       <c r="BG21" s="19"/>
     </row>
@@ -3974,37 +3995,23 @@
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="H23" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="I23" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="27">
-        <v>-3.0</v>
-      </c>
-      <c r="M23" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26">
+      <c r="O23" s="26">
         <v>1.0</v>
       </c>
+      <c r="P23" s="26"/>
       <c r="Q23" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="R23" s="26">
         <v>0.0</v>
@@ -4015,13 +4022,25 @@
       <c r="V23" s="26"/>
       <c r="W23" s="25"/>
       <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
+      <c r="Y23" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AB23" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
+      <c r="AD23" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="AE23" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
@@ -4046,7 +4065,7 @@
       </c>
       <c r="AZ23" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" s="5">
         <f t="shared" si="2"/>
@@ -4058,7 +4077,7 @@
       </c>
       <c r="BC23" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="5"/>
@@ -4066,11 +4085,11 @@
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF23" s="19">
         <f t="shared" si="7"/>
-        <v>0.4666666667</v>
+        <v>0.5185185185</v>
       </c>
       <c r="BG23" s="19"/>
     </row>
@@ -4080,23 +4099,37 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.0</v>
+      </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="G24" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
+      <c r="L24" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="N24" s="26"/>
-      <c r="O24" s="26">
+      <c r="O24" s="26"/>
+      <c r="P24" s="26">
         <v>1.0</v>
       </c>
-      <c r="P24" s="26"/>
       <c r="Q24" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="R24" s="26">
         <v>0.0</v>
@@ -4107,22 +4140,12 @@
       <c r="V24" s="26"/>
       <c r="W24" s="25"/>
       <c r="X24" s="26"/>
-      <c r="Y24" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Z24" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA24" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AB24" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
-      <c r="AD24" s="27">
-        <v>5.0</v>
-      </c>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
       <c r="AG24" s="26"/>
@@ -4148,7 +4171,7 @@
       </c>
       <c r="AZ24" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA24" s="5">
         <f t="shared" si="2"/>
@@ -4156,23 +4179,23 @@
       </c>
       <c r="BB24" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD24" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE24" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="19">
         <f t="shared" si="7"/>
-        <v>0.5416666667</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BG24" s="19"/>
     </row>
@@ -4435,7 +4458,9 @@
         <v>-1.0</v>
       </c>
       <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
+      <c r="AE27" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="26"/>
@@ -4460,7 +4485,7 @@
       </c>
       <c r="AZ27" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA27" s="5">
         <f t="shared" si="2"/>
@@ -4468,7 +4493,7 @@
       </c>
       <c r="BB27" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="5">
         <f t="shared" si="4"/>
@@ -4476,7 +4501,7 @@
       </c>
       <c r="BD27" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE27" s="5">
         <f t="shared" si="6"/>
@@ -4484,7 +4509,7 @@
       </c>
       <c r="BF27" s="19">
         <f t="shared" si="7"/>
-        <v>0.2142857143</v>
+        <v>0.2222222222</v>
       </c>
       <c r="BG27" s="19"/>
     </row>
@@ -4525,7 +4550,9 @@
         <v>1.0</v>
       </c>
       <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
+      <c r="AE28" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
       <c r="AH28" s="26"/>
@@ -4550,7 +4577,7 @@
       </c>
       <c r="AZ28" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA28" s="5">
         <f t="shared" si="2"/>
@@ -4558,7 +4585,7 @@
       </c>
       <c r="BB28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="5">
         <f t="shared" si="4"/>
@@ -4566,7 +4593,7 @@
       </c>
       <c r="BD28" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE28" s="5">
         <f t="shared" si="6"/>
@@ -4574,7 +4601,7 @@
       </c>
       <c r="BF28" s="19">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.7777777778</v>
       </c>
       <c r="BG28" s="19"/>
     </row>
@@ -4583,28 +4610,18 @@
         <v>83</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="M29" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N29" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
@@ -4642,15 +4659,15 @@
       <c r="AW29" s="26"/>
       <c r="AX29" s="26"/>
       <c r="AY29" s="18">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ29" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="5">
         <f t="shared" si="3"/>
@@ -4658,19 +4675,19 @@
       </c>
       <c r="BC29" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="BF29" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG29" s="19"/>
     </row>
@@ -4728,7 +4745,7 @@
       <c r="AW30" s="26"/>
       <c r="AX30" s="26"/>
       <c r="AY30" s="18">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AZ30" s="5">
         <f t="shared" si="1"/>
@@ -4765,18 +4782,28 @@
         <v>85</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="L31" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -4814,15 +4841,15 @@
       <c r="AW31" s="26"/>
       <c r="AX31" s="26"/>
       <c r="AY31" s="18">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="AZ31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB31" s="5">
         <f t="shared" si="3"/>
@@ -4830,19 +4857,19 @@
       </c>
       <c r="BC31" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF31" s="19" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF31" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="BG31" s="19"/>
     </row>
@@ -4852,37 +4879,23 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="L32" s="26"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="O32" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="25"/>
@@ -4914,15 +4927,15 @@
       <c r="AW32" s="26"/>
       <c r="AX32" s="26"/>
       <c r="AY32" s="18">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="AZ32" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="5">
         <f t="shared" si="3"/>
@@ -4930,19 +4943,19 @@
       </c>
       <c r="BC32" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="BF32" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0.2857142857</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG32" s="19"/>
     </row>
@@ -4952,23 +4965,37 @@
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="D33" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="F33" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
+      <c r="L33" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="N33" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="O33" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="P33" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
+      <c r="T33" s="26">
+        <v>3.0</v>
+      </c>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
       <c r="W33" s="25"/>
@@ -5000,15 +5027,15 @@
       <c r="AW33" s="26"/>
       <c r="AX33" s="26"/>
       <c r="AY33" s="18">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA33" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB33" s="5">
         <f t="shared" si="3"/>
@@ -5016,19 +5043,19 @@
       </c>
       <c r="BC33" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE33" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF33" s="19" t="str">
+        <v>-5</v>
+      </c>
+      <c r="BF33" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.2857142857</v>
       </c>
       <c r="BG33" s="19"/>
     </row>
@@ -5139,9 +5166,7 @@
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="25"/>
       <c r="L35" s="26"/>
@@ -5157,13 +5182,23 @@
       <c r="V35" s="26"/>
       <c r="W35" s="25"/>
       <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
+      <c r="Y35" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
+      <c r="AA35" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
+      <c r="AC35" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AD35" s="27">
+        <v>-5.0</v>
+      </c>
+      <c r="AE35" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
       <c r="AH35" s="26"/>
@@ -5188,7 +5223,7 @@
       </c>
       <c r="AZ35" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA35" s="5">
         <f t="shared" si="2"/>
@@ -5196,23 +5231,23 @@
       </c>
       <c r="BB35" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD35" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE35" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="BF35" s="19">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.2666666667</v>
       </c>
       <c r="BG35" s="19"/>
     </row>
@@ -5222,14 +5257,14 @@
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
-      <c r="D36" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="26">
+        <v>2.0</v>
+      </c>
       <c r="J36" s="26"/>
       <c r="K36" s="25"/>
       <c r="L36" s="26"/>
@@ -5240,9 +5275,7 @@
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
-      <c r="T36" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="26"/>
       <c r="W36" s="25"/>
@@ -5278,7 +5311,7 @@
       </c>
       <c r="AZ36" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="5">
         <f t="shared" si="2"/>
@@ -5290,7 +5323,7 @@
       </c>
       <c r="BC36" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="5">
         <f t="shared" si="5"/>
@@ -5298,11 +5331,11 @@
       </c>
       <c r="BE36" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF36" s="19">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="19"/>
     </row>
@@ -5311,11 +5344,9 @@
         <v>91</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="C37" s="26"/>
       <c r="D37" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -5332,7 +5363,9 @@
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
+      <c r="T37" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
       <c r="W37" s="25"/>
@@ -5388,7 +5421,7 @@
       </c>
       <c r="BE37" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="19">
         <f t="shared" si="7"/>
@@ -5401,8 +5434,12 @@
         <v>92</v>
       </c>
       <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5423,20 +5460,12 @@
       <c r="V38" s="26"/>
       <c r="W38" s="25"/>
       <c r="X38" s="26"/>
-      <c r="Y38" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Y38" s="26"/>
       <c r="Z38" s="26"/>
-      <c r="AA38" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="AD38" s="27">
-        <v>-5.0</v>
-      </c>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
       <c r="AE38" s="26"/>
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
@@ -5462,7 +5491,7 @@
       </c>
       <c r="AZ38" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA38" s="5">
         <f t="shared" si="2"/>
@@ -5474,7 +5503,7 @@
       </c>
       <c r="BC38" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD38" s="5">
         <f t="shared" si="5"/>
@@ -5482,11 +5511,11 @@
       </c>
       <c r="BE38" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="BF38" s="19">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BG38" s="19"/>
     </row>
@@ -5790,7 +5819,7 @@
       </c>
       <c r="AE41" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF41" s="30">
         <f t="shared" si="8"/>
@@ -5959,7 +5988,9 @@
       <c r="AD42" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="AE42" s="36"/>
+      <c r="AE42" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AF42" s="36"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="36"/>
@@ -26246,28 +26277,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -26385,7 +26416,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="39">
         <v>2.0</v>
@@ -26478,7 +26509,7 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="39">
         <v>1.0</v>
@@ -26503,7 +26534,7 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="39">
         <v>1.0</v>
@@ -26554,7 +26585,7 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="39">
         <v>1.0</v>
@@ -26579,7 +26610,7 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="39">
         <v>1.0</v>
@@ -26673,7 +26704,7 @@
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="39">
         <v>2.0</v>
@@ -26831,13 +26862,13 @@
         <v>64</v>
       </c>
       <c r="B23" s="39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" s="39">
         <v>0.0</v>
       </c>
       <c r="D23" s="39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" s="39">
         <v>0.0</v>
@@ -26847,14 +26878,14 @@
       </c>
       <c r="G23" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="43">
         <v>25.0</v>
       </c>
       <c r="J23" s="42">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>8.333333333</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -26862,13 +26893,13 @@
         <v>59</v>
       </c>
       <c r="B24" s="39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" s="39">
         <v>0.0</v>
       </c>
       <c r="D24" s="39">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="39">
         <v>1.0</v>
@@ -26878,19 +26909,19 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="43">
         <v>5.0</v>
       </c>
       <c r="J24" s="42">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>1.666666667</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="39">
         <v>1.0</v>
@@ -26983,7 +27014,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="39">
         <v>1.0</v>
@@ -27007,7 +27038,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="39">
         <v>3.0</v>
@@ -28184,177 +28215,131 @@
         <v>50</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
+      <c r="U2" s="45"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BA2" s="6">
-        <f t="shared" ref="BA2:BA35" si="1">SUM(B2:AY2)</f>
-        <v>15</v>
-      </c>
-      <c r="BB2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="BC2" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16">
         <v>1.0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="16">
         <v>1.0</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16">
         <v>1.0</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="16">
         <v>4.0</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="16">
         <v>1.0</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>1.0</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16">
         <v>2.0</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26">
+      <c r="W3" s="15"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16">
         <v>1.0</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16">
         <v>1.0</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="16">
         <v>1.0</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
+      <c r="AD3" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="5"/>
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" ref="BA3:BA36" si="1">SUM(B3:AY3)</f>
+        <v>17</v>
       </c>
       <c r="BB3" s="5">
         <v>1.0</v>
@@ -28362,121 +28347,121 @@
       <c r="BC3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26">
+      <c r="A4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30">
         <v>1.0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30">
         <v>3.0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26">
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="Y4" s="30">
         <v>1.0</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
+      <c r="Z4" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30"/>
       <c r="AY4" s="26"/>
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB4" s="5">
         <v>2.0</v>
       </c>
-      <c r="BC4" s="5"/>
+      <c r="BC4" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>69</v>
+      <c r="A5" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
         <v>3.0</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="26">
+        <v>1.0</v>
+      </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="26">
+        <v>4.0</v>
+      </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="L5" s="26">
+        <v>1.0</v>
+      </c>
       <c r="M5" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N5" s="26">
         <v>1.0</v>
       </c>
       <c r="O5" s="26"/>
-      <c r="P5" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S5" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
@@ -28486,8 +28471,12 @@
       <c r="Z5" s="26"/>
       <c r="AA5" s="26"/>
       <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
+      <c r="AC5" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -28512,41 +28501,49 @@
       <c r="AZ5" s="6"/>
       <c r="BA5" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5">
-        <v>4.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="BC5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
+      <c r="A6" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>2.0</v>
+      </c>
       <c r="D6" s="26">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="26">
-        <v>7.0</v>
-      </c>
+      <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="R6" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>2.0</v>
+      </c>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
@@ -28556,10 +28553,10 @@
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
-      <c r="AC6" s="26">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26">
         <v>1.0</v>
       </c>
-      <c r="AD6" s="26"/>
       <c r="AE6" s="26"/>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>
@@ -28584,39 +28581,37 @@
       <c r="AZ6" s="6"/>
       <c r="BA6" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="BB6" s="5">
+        <v>13</v>
+      </c>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26">
         <v>1.0</v>
       </c>
-      <c r="BC6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="26">
+        <v>1.0</v>
+      </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="I7" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="J7" s="26"/>
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
@@ -28629,10 +28624,10 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AD7" s="26"/>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26"/>
@@ -28658,58 +28653,54 @@
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="26">
+        <v>2.0</v>
+      </c>
       <c r="K8" s="25"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="N8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O8" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R8" s="26"/>
       <c r="S8" s="26"/>
-      <c r="T8" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U8" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="25"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="AB8" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
@@ -28739,13 +28730,13 @@
         <v>9</v>
       </c>
       <c r="BB8" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="s">
-        <v>68</v>
+      <c r="A9" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
@@ -28753,40 +28744,40 @@
       <c r="E9" s="26">
         <v>1.0</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26">
         <v>1.0</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="J9" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="J9" s="26"/>
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26">
         <v>1.0</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26">
         <v>1.0</v>
       </c>
-      <c r="U9" s="26"/>
+      <c r="U9" s="26">
+        <v>3.0</v>
+      </c>
       <c r="V9" s="26"/>
       <c r="W9" s="25"/>
       <c r="X9" s="26"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="AA9" s="26"/>
       <c r="AB9" s="26"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
@@ -28816,18 +28807,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5">
+      <c r="BB9" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="26">
+        <v>1.0</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -28842,24 +28835,30 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="26">
+        <v>1.0</v>
+      </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
-      <c r="T10" s="26">
+      <c r="T10" s="26"/>
+      <c r="U10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V10" s="26">
         <v>3.0</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
       <c r="W10" s="25"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26">
-        <v>4.0</v>
-      </c>
+      <c r="Z10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
+      <c r="AD10" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -28884,57 +28883,57 @@
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="BC10" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="26">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
         <v>1.0</v>
       </c>
-      <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="M11" s="26">
+        <v>2.0</v>
+      </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26">
         <v>1.0</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26">
+      <c r="T11" s="26">
         <v>1.0</v>
       </c>
-      <c r="V11" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="25"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AA11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
@@ -28962,16 +28961,16 @@
       <c r="AZ11" s="6"/>
       <c r="BA11" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BB11" s="5">
+        <v>9</v>
+      </c>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -28979,36 +28978,32 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="O12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
-      <c r="R12" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S12" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="25"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="26">
+        <v>4.0</v>
+      </c>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
@@ -29038,55 +29033,54 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BB12" s="5"/>
+      <c r="BB12" s="5">
+        <v>2.0</v>
+      </c>
       <c r="BC12" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="BF12" s="6"/>
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26">
+        <v>2.0</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="P13" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="R13" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S13" s="26">
         <v>2.0</v>
       </c>
       <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="26">
+        <v>1.0</v>
+      </c>
       <c r="V13" s="26"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Y13" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
-      <c r="AB13" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="26"/>
@@ -29117,48 +29111,53 @@
       </c>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5">
-        <v>2.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="26">
+        <v>1.0</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="25"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26">
-        <v>4.0</v>
-      </c>
+      <c r="M14" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
+      <c r="X14" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="AB14" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
@@ -29189,37 +29188,39 @@
       </c>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J15" s="26"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="L15" s="26"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P15" s="26"/>
+      <c r="N15" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="26">
+        <v>1.0</v>
+      </c>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
@@ -29227,9 +29228,7 @@
       <c r="X15" s="26"/>
       <c r="Y15" s="26"/>
       <c r="Z15" s="26"/>
-      <c r="AA15" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
@@ -29257,49 +29256,51 @@
       <c r="AZ15" s="6"/>
       <c r="BA15" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BB15" s="5">
+        <v>8</v>
+      </c>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26">
-        <v>2.0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="26">
+        <v>2.0</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="26">
+        <v>3.0</v>
+      </c>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="O16" s="26">
+        <v>1.0</v>
+      </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
-      <c r="T16" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U16" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="25"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
+      <c r="AA16" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
@@ -29329,24 +29330,22 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="BB16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="C17" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="26"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -29354,18 +29353,18 @@
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U17" s="26">
         <v>2.0</v>
       </c>
-      <c r="U17" s="47"/>
       <c r="V17" s="26"/>
       <c r="W17" s="25"/>
       <c r="X17" s="26"/>
@@ -29403,39 +29402,41 @@
       </c>
       <c r="BB17" s="5"/>
       <c r="BC17" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="26"/>
+      <c r="D18" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>1.0</v>
+      </c>
       <c r="G18" s="26"/>
-      <c r="H18" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="25"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="N18" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
-      <c r="R18" s="26">
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26">
         <v>2.0</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
+      <c r="U18" s="46"/>
       <c r="V18" s="26"/>
       <c r="W18" s="25"/>
       <c r="X18" s="26"/>
@@ -29469,15 +29470,12 @@
       <c r="AZ18" s="6"/>
       <c r="BA18" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BB18" s="5">
-        <v>2.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BB18" s="5"/>
       <c r="BC18" s="5">
         <v>1.0</v>
       </c>
-      <c r="BF18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
@@ -29486,10 +29484,14 @@
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="26">
+        <v>2.0</v>
+      </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="26">
+        <v>2.0</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="25"/>
@@ -29498,11 +29500,9 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Q19" s="26"/>
       <c r="R19" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
@@ -29510,16 +29510,10 @@
       <c r="V19" s="26"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z19" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
-      <c r="AB19" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -29548,14 +29542,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BB19" s="5"/>
+      <c r="BB19" s="5">
+        <v>2.0</v>
+      </c>
       <c r="BC19" s="5">
         <v>1.0</v>
       </c>
+      <c r="BF19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -29563,36 +29560,36 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="26">
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26">
         <v>1.0</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="R20" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
-      <c r="U20" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="U20" s="26"/>
       <c r="V20" s="26"/>
       <c r="W20" s="25"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
+      <c r="Y20" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
@@ -29623,11 +29620,13 @@
         <v>6</v>
       </c>
       <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
+      <c r="BC20" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
@@ -29635,33 +29634,37 @@
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J21" s="26"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="M21" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N21" s="26">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26">
         <v>1.0</v>
       </c>
-      <c r="O21" s="26"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
+      <c r="U21" s="26">
+        <v>1.0</v>
+      </c>
       <c r="V21" s="26"/>
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="AB21" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
@@ -29688,43 +29691,41 @@
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB21" s="5"/>
-      <c r="BC21" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BC21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="L22" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R22" s="26"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
-      <c r="U22" s="47"/>
+      <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
@@ -29767,16 +29768,20 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26">
+        <v>3.0</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
       <c r="L23" s="26"/>
@@ -29785,10 +29790,12 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="R23" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
+      <c r="U23" s="46"/>
       <c r="V23" s="26"/>
       <c r="W23" s="25"/>
       <c r="X23" s="26"/>
@@ -29796,9 +29803,7 @@
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
-      <c r="AC23" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
@@ -29824,16 +29829,16 @@
       <c r="AZ23" s="6"/>
       <c r="BA23" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BB23" s="5">
+        <v>5</v>
+      </c>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
@@ -29848,9 +29853,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
@@ -29861,13 +29864,17 @@
       <c r="W24" s="25"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
+      <c r="AA24" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
+      <c r="AD24" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
       <c r="AG24" s="26"/>
@@ -29892,16 +29899,14 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB24" s="5"/>
-      <c r="BC24" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="BC24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -29910,18 +29915,14 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="25"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
@@ -29929,14 +29930,14 @@
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="W25" s="25"/>
-      <c r="X25" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
+      <c r="AC25" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
@@ -29964,23 +29965,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BB25" s="5"/>
+      <c r="BB25" s="5">
+        <v>1.0</v>
+      </c>
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -29988,7 +29987,9 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="O26" s="26">
+        <v>1.0</v>
+      </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
@@ -29998,10 +29999,10 @@
       <c r="V26" s="26"/>
       <c r="W26" s="25"/>
       <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Y26" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="Z26" s="26"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
@@ -30033,39 +30034,43 @@
         <v>3</v>
       </c>
       <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
+      <c r="BC26" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J27" s="26"/>
       <c r="K27" s="25"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="P27" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="26">
+      <c r="V27" s="26"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="26">
         <v>1.0</v>
       </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
       <c r="AA27" s="26"/>
@@ -30096,23 +30101,25 @@
       <c r="AZ27" s="6"/>
       <c r="BA27" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="26">
+        <v>1.0</v>
+      </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="26">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26">
         <v>1.0</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -30131,10 +30138,10 @@
       <c r="W28" s="25"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26">
+      <c r="Z28" s="26">
         <v>1.0</v>
       </c>
+      <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
@@ -30162,20 +30169,22 @@
       <c r="AZ28" s="6"/>
       <c r="BA28" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26">
+        <v>1.0</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -30191,16 +30200,14 @@
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
+      <c r="V29" s="26">
+        <v>1.0</v>
+      </c>
       <c r="W29" s="25"/>
       <c r="X29" s="26"/>
-      <c r="Y29" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
@@ -30235,12 +30242,14 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="26">
+        <v>1.0</v>
+      </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
@@ -30263,7 +30272,7 @@
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
@@ -30299,13 +30308,11 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -30328,7 +30335,9 @@
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
+      <c r="AA31" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="26"/>
@@ -30356,18 +30365,20 @@
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26">
+        <v>1.0</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -30391,9 +30402,7 @@
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
@@ -30427,7 +30436,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
@@ -30455,7 +30464,9 @@
       <c r="Y33" s="26"/>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="AB33" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AC33" s="26"/>
       <c r="AD33" s="26"/>
       <c r="AE33" s="26"/>
@@ -30482,14 +30493,14 @@
       <c r="AZ33" s="6"/>
       <c r="BA33" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="32" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
@@ -30551,7 +30562,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="32" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -30612,639 +30623,501 @@
       <c r="BC35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49">
-        <v>45664.0</v>
-      </c>
-      <c r="C36" s="49">
-        <v>45671.0</v>
-      </c>
-      <c r="D36" s="49">
-        <v>45678.0</v>
-      </c>
-      <c r="E36" s="49">
-        <v>45685.0</v>
-      </c>
-      <c r="F36" s="49">
-        <v>45692.0</v>
-      </c>
-      <c r="G36" s="49">
-        <v>45699.0</v>
-      </c>
-      <c r="H36" s="49">
-        <v>45706.0</v>
-      </c>
-      <c r="I36" s="49">
-        <v>45713.0</v>
-      </c>
-      <c r="J36" s="49">
-        <v>45720.0</v>
-      </c>
-      <c r="K36" s="49">
-        <v>45727.0</v>
-      </c>
-      <c r="L36" s="49">
-        <v>45734.0</v>
-      </c>
-      <c r="M36" s="49">
-        <v>45741.0</v>
-      </c>
-      <c r="N36" s="49">
-        <v>45748.0</v>
-      </c>
-      <c r="O36" s="49">
-        <v>45755.0</v>
-      </c>
-      <c r="P36" s="49">
-        <v>45762.0</v>
-      </c>
-      <c r="Q36" s="49">
-        <v>45769.0</v>
-      </c>
-      <c r="R36" s="49">
-        <v>45776.0</v>
-      </c>
-      <c r="S36" s="49">
-        <v>45783.0</v>
-      </c>
-      <c r="T36" s="49">
-        <v>45790.0</v>
-      </c>
-      <c r="U36" s="49">
-        <v>45797.0</v>
-      </c>
-      <c r="V36" s="49">
-        <v>45804.0</v>
-      </c>
-      <c r="W36" s="49">
-        <v>45811.0</v>
-      </c>
-      <c r="X36" s="49">
-        <v>45818.0</v>
-      </c>
-      <c r="Y36" s="49">
-        <v>45825.0</v>
-      </c>
-      <c r="Z36" s="49">
-        <v>45832.0</v>
-      </c>
-      <c r="AA36" s="49">
-        <v>45839.0</v>
-      </c>
-      <c r="AB36" s="49">
-        <v>45846.0</v>
-      </c>
-      <c r="AC36" s="49">
-        <v>45853.0</v>
-      </c>
-      <c r="AD36" s="49">
-        <v>45860.0</v>
-      </c>
-      <c r="AE36" s="49">
-        <v>45867.0</v>
-      </c>
-      <c r="AF36" s="49">
-        <v>45874.0</v>
-      </c>
-      <c r="AG36" s="49">
-        <v>45881.0</v>
-      </c>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="50"/>
-      <c r="AK36" s="50"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="50"/>
-      <c r="AN36" s="50"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
-      <c r="AQ36" s="50"/>
-      <c r="AR36" s="50"/>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="50"/>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
+      <c r="A36" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
       <c r="AZ36" s="6"/>
-      <c r="BA36" s="5"/>
+      <c r="BA36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48">
+        <v>45664.0</v>
+      </c>
+      <c r="C37" s="48">
+        <v>45671.0</v>
+      </c>
+      <c r="D37" s="48">
+        <v>45678.0</v>
+      </c>
+      <c r="E37" s="48">
+        <v>45685.0</v>
+      </c>
+      <c r="F37" s="48">
+        <v>45692.0</v>
+      </c>
+      <c r="G37" s="48">
+        <v>45699.0</v>
+      </c>
+      <c r="H37" s="48">
+        <v>45706.0</v>
+      </c>
+      <c r="I37" s="48">
+        <v>45713.0</v>
+      </c>
+      <c r="J37" s="48">
+        <v>45720.0</v>
+      </c>
+      <c r="K37" s="48">
+        <v>45727.0</v>
+      </c>
+      <c r="L37" s="48">
+        <v>45734.0</v>
+      </c>
+      <c r="M37" s="48">
+        <v>45741.0</v>
+      </c>
+      <c r="N37" s="48">
+        <v>45748.0</v>
+      </c>
+      <c r="O37" s="48">
+        <v>45755.0</v>
+      </c>
+      <c r="P37" s="48">
+        <v>45762.0</v>
+      </c>
+      <c r="Q37" s="48">
+        <v>45769.0</v>
+      </c>
+      <c r="R37" s="48">
+        <v>45776.0</v>
+      </c>
+      <c r="S37" s="48">
+        <v>45783.0</v>
+      </c>
+      <c r="T37" s="48">
+        <v>45790.0</v>
+      </c>
+      <c r="U37" s="48">
+        <v>45797.0</v>
+      </c>
+      <c r="V37" s="48">
+        <v>45804.0</v>
+      </c>
+      <c r="W37" s="48">
+        <v>45811.0</v>
+      </c>
+      <c r="X37" s="48">
+        <v>45818.0</v>
+      </c>
+      <c r="Y37" s="48">
+        <v>45825.0</v>
+      </c>
+      <c r="Z37" s="48">
+        <v>45832.0</v>
+      </c>
+      <c r="AA37" s="48">
+        <v>45839.0</v>
+      </c>
+      <c r="AB37" s="48">
+        <v>45846.0</v>
+      </c>
+      <c r="AC37" s="48">
+        <v>45853.0</v>
+      </c>
+      <c r="AD37" s="48">
+        <v>45860.0</v>
+      </c>
+      <c r="AE37" s="48">
+        <v>45867.0</v>
+      </c>
+      <c r="AF37" s="48">
+        <v>45874.0</v>
+      </c>
+      <c r="AG37" s="48">
+        <v>45881.0</v>
+      </c>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="49"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="49"/>
       <c r="AZ37" s="6"/>
-      <c r="BA37" s="6"/>
+      <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="U38" s="45"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
       <c r="AZ38" s="6"/>
-      <c r="BA38" s="5"/>
+      <c r="BA38" s="6"/>
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="39">
-        <f>'League Table'!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="39">
-        <f>'League Table'!C41</f>
-        <v>19</v>
-      </c>
-      <c r="D39" s="39">
-        <f>'League Table'!D41</f>
-        <v>20</v>
-      </c>
-      <c r="E39" s="39">
-        <f>'League Table'!E41</f>
-        <v>16</v>
-      </c>
-      <c r="F39" s="39">
-        <f>'League Table'!F41</f>
-        <v>18</v>
-      </c>
-      <c r="G39" s="39">
-        <f>'League Table'!G41</f>
-        <v>16</v>
-      </c>
-      <c r="H39" s="39">
-        <f>'League Table'!H41</f>
-        <v>20</v>
-      </c>
-      <c r="I39" s="39">
-        <f>'League Table'!I41</f>
-        <v>21</v>
-      </c>
-      <c r="J39" s="39">
-        <f>'League Table'!J41</f>
-        <v>15</v>
-      </c>
-      <c r="K39" s="39">
-        <f>'League Table'!K41</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="39">
-        <f>'League Table'!L41</f>
-        <v>18</v>
-      </c>
-      <c r="M39" s="39">
-        <f>'League Table'!M41</f>
-        <v>18</v>
-      </c>
-      <c r="N39" s="39">
-        <f>'League Table'!N41</f>
-        <v>17</v>
-      </c>
-      <c r="O39" s="39">
-        <f>'League Table'!O41</f>
-        <v>19</v>
-      </c>
-      <c r="P39" s="39">
-        <f>'League Table'!P41</f>
-        <v>16</v>
-      </c>
-      <c r="Q39" s="39">
-        <f>'League Table'!Q41</f>
-        <v>18</v>
-      </c>
-      <c r="R39" s="39">
-        <f>'League Table'!R41</f>
-        <v>16</v>
-      </c>
-      <c r="S39" s="39">
-        <f>'League Table'!S41</f>
-        <v>16</v>
-      </c>
-      <c r="T39" s="39">
-        <f>'League Table'!T41</f>
-        <v>20</v>
-      </c>
-      <c r="U39" s="45">
-        <f>'League Table'!U41</f>
-        <v>16</v>
-      </c>
-      <c r="V39" s="39">
-        <f>'League Table'!V41</f>
-        <v>15</v>
-      </c>
-      <c r="W39" s="39">
-        <f>'League Table'!W41</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="39">
-        <f>'League Table'!X41</f>
-        <v>14</v>
-      </c>
-      <c r="Y39" s="39">
-        <f>'League Table'!Y41</f>
-        <v>15</v>
-      </c>
-      <c r="Z39" s="39">
-        <f>'League Table'!Z41</f>
-        <v>14</v>
-      </c>
-      <c r="AA39" s="39">
-        <f>'League Table'!AA41</f>
-        <v>18</v>
-      </c>
-      <c r="AB39" s="39">
-        <f>'League Table'!AB41</f>
-        <v>16</v>
-      </c>
-      <c r="AC39" s="39">
-        <f>'League Table'!AC41</f>
-        <v>16</v>
-      </c>
-      <c r="AD39" s="39">
-        <f>'League Table'!AD41</f>
-        <v>16</v>
-      </c>
-      <c r="AE39" s="39">
-        <f>'League Table'!AE41</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="39">
-        <f>'League Table'!AF41</f>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="5">
-        <f>'League Table'!AG41</f>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="5">
-        <f>'League Table'!AH41</f>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="5">
-        <f>'League Table'!AI41</f>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="5">
-        <f>'League Table'!AJ41</f>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="5">
-        <f>'League Table'!AK41</f>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="5">
-        <f>'League Table'!AL41</f>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="5">
-        <f>'League Table'!AM41</f>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="5">
-        <f>'League Table'!AN41</f>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="5">
-        <f>'League Table'!AO41</f>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="5">
-        <f>'League Table'!AP41</f>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="5">
-        <f>'League Table'!AQ41</f>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="5">
-        <f>'League Table'!AR41</f>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="5">
-        <f>'League Table'!AS41</f>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="5">
-        <f>'League Table'!AT41</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="5">
-        <f>'League Table'!AU41</f>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="5">
-        <f>'League Table'!AV41</f>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
+      <c r="U39" s="45"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="U40" s="45"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
+      <c r="A40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="39">
+        <f>'League Table'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="39">
+        <f>'League Table'!C41</f>
+        <v>19</v>
+      </c>
+      <c r="D40" s="39">
+        <f>'League Table'!D41</f>
+        <v>20</v>
+      </c>
+      <c r="E40" s="39">
+        <f>'League Table'!E41</f>
+        <v>16</v>
+      </c>
+      <c r="F40" s="39">
+        <f>'League Table'!F41</f>
+        <v>18</v>
+      </c>
+      <c r="G40" s="39">
+        <f>'League Table'!G41</f>
+        <v>16</v>
+      </c>
+      <c r="H40" s="39">
+        <f>'League Table'!H41</f>
+        <v>20</v>
+      </c>
+      <c r="I40" s="39">
+        <f>'League Table'!I41</f>
+        <v>21</v>
+      </c>
+      <c r="J40" s="39">
+        <f>'League Table'!J41</f>
+        <v>15</v>
+      </c>
+      <c r="K40" s="39">
+        <f>'League Table'!K41</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="39">
+        <f>'League Table'!L41</f>
+        <v>18</v>
+      </c>
+      <c r="M40" s="39">
+        <f>'League Table'!M41</f>
+        <v>18</v>
+      </c>
+      <c r="N40" s="39">
+        <f>'League Table'!N41</f>
+        <v>17</v>
+      </c>
+      <c r="O40" s="39">
+        <f>'League Table'!O41</f>
+        <v>19</v>
+      </c>
+      <c r="P40" s="39">
+        <f>'League Table'!P41</f>
+        <v>16</v>
+      </c>
+      <c r="Q40" s="39">
+        <f>'League Table'!Q41</f>
+        <v>18</v>
+      </c>
+      <c r="R40" s="39">
+        <f>'League Table'!R41</f>
+        <v>16</v>
+      </c>
+      <c r="S40" s="39">
+        <f>'League Table'!S41</f>
+        <v>16</v>
+      </c>
+      <c r="T40" s="39">
+        <f>'League Table'!T41</f>
+        <v>20</v>
+      </c>
+      <c r="U40" s="45">
+        <f>'League Table'!U41</f>
+        <v>16</v>
+      </c>
+      <c r="V40" s="39">
+        <f>'League Table'!V41</f>
+        <v>15</v>
+      </c>
+      <c r="W40" s="39">
+        <f>'League Table'!W41</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="39">
+        <f>'League Table'!X41</f>
+        <v>14</v>
+      </c>
+      <c r="Y40" s="39">
+        <f>'League Table'!Y41</f>
+        <v>15</v>
+      </c>
+      <c r="Z40" s="39">
+        <f>'League Table'!Z41</f>
+        <v>14</v>
+      </c>
+      <c r="AA40" s="39">
+        <f>'League Table'!AA41</f>
+        <v>18</v>
+      </c>
+      <c r="AB40" s="39">
+        <f>'League Table'!AB41</f>
+        <v>16</v>
+      </c>
+      <c r="AC40" s="39">
+        <f>'League Table'!AC41</f>
+        <v>16</v>
+      </c>
+      <c r="AD40" s="39">
+        <f>'League Table'!AD41</f>
+        <v>16</v>
+      </c>
+      <c r="AE40" s="39">
+        <f>'League Table'!AE41</f>
+        <v>16</v>
+      </c>
+      <c r="AF40" s="39">
+        <f>'League Table'!AF41</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <f>'League Table'!AG41</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <f>'League Table'!AH41</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="5">
+        <f>'League Table'!AI41</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="5">
+        <f>'League Table'!AJ41</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="5">
+        <f>'League Table'!AK41</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="5">
+        <f>'League Table'!AL41</f>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="5">
+        <f>'League Table'!AM41</f>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="5">
+        <f>'League Table'!AN41</f>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="5">
+        <f>'League Table'!AO41</f>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="5">
+        <f>'League Table'!AP41</f>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="5">
+        <f>'League Table'!AQ41</f>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="5">
+        <f>'League Table'!AR41</f>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="5">
+        <f>'League Table'!AS41</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="5">
+        <f>'League Table'!AT41</f>
+        <v>0</v>
+      </c>
+      <c r="AU40" s="5">
+        <f>'League Table'!AU41</f>
+        <v>0</v>
+      </c>
+      <c r="AV40" s="5">
+        <f>'League Table'!AV41</f>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="18">
-        <f t="shared" ref="B41:AG41" si="2">SUM(B2:B35)</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D41" s="18">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G41" s="18">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H41" s="18">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I41" s="18">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M41" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N41" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O41" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q41" s="18">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="R41" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="S41" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T41" s="18">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="U41" s="18">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="V41" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="18">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Y41" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Z41" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AA41" s="18">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AB41" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AC41" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AD41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="6">
-        <f t="shared" ref="AH41:AV41" si="3">SUM(AH3:AH37)</f>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AP41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AU41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="U41" s="45"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="6"/>
       <c r="AW41" s="6"/>
       <c r="AX41" s="6"/>
       <c r="AY41" s="6"/>
@@ -31254,29 +31127,197 @@
       <c r="BC41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="U42" s="45"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6"/>
-      <c r="AV42" s="6"/>
+      <c r="A42" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="18">
+        <f t="shared" ref="B42:AG42" si="2">SUM(B3:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M42" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N42" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O42" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R42" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S42" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T42" s="18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U42" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="V42" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y42" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Z42" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AA42" s="18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AB42" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AC42" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AD42" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="6">
+        <f t="shared" ref="AH42:AV42" si="3">SUM(AH4:AH38)</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AW42" s="6"/>
       <c r="AX42" s="6"/>
       <c r="AY42" s="6"/>
@@ -61973,7 +62014,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
@@ -62138,10 +62179,10 @@
         <v>50</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA3" s="51" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="BA3" s="50" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -62293,22 +62334,22 @@
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51">
         <v>1.0</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51">
         <v>1.0</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="51">
         <v>1.0</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="30">
         <v>1.0</v>
       </c>
@@ -62380,7 +62421,7 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
@@ -62401,7 +62442,7 @@
       <c r="J7" s="26">
         <v>5.0</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26">
         <v>1.0</v>
@@ -62478,7 +62519,7 @@
       <c r="J8" s="16">
         <v>1.0</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16">
         <v>1.0</v>
@@ -62549,7 +62590,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -62624,7 +62665,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="54"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26">
@@ -62684,7 +62725,7 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -62701,7 +62742,7 @@
       <c r="J11" s="26">
         <v>1.0</v>
       </c>
-      <c r="K11" s="54"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="26">
         <v>1.0</v>
       </c>
@@ -62958,7 +62999,7 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -63084,7 +63125,7 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -63206,7 +63247,7 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -63328,7 +63369,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -63450,7 +63491,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -63511,7 +63552,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -63749,7 +63790,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -63867,7 +63908,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -63926,7 +63967,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -63985,7 +64026,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -64044,7 +64085,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -64162,7 +64203,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -64221,7 +64262,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -64413,7 +64454,7 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="57"/>
+      <c r="W39" s="56"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -64498,7 +64539,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" ref="B41:AY41" si="2">SUM(B5:B39)</f>
@@ -65689,19 +65730,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -65717,16 +65758,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="5"/>
@@ -65738,10 +65779,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -65755,16 +65796,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="5"/>
@@ -65776,16 +65817,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="5"/>
@@ -65797,27 +65838,27 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -65826,16 +65867,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="5"/>
@@ -65847,32 +65888,32 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I9" s="5">
         <v>5.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L9" s="5">
         <v>3.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N9" s="5">
         <v>7.0</v>
@@ -65883,32 +65924,32 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I10" s="5">
         <v>5.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L10" s="5">
         <v>2.0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N10" s="5">
         <v>6.0</v>
@@ -65919,32 +65960,32 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I11" s="5">
         <v>4.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="5">
         <v>2.0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="5">
         <v>5.0</v>
@@ -65955,32 +65996,32 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I12" s="5">
         <v>4.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L12" s="5">
         <v>2.0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N12" s="5">
         <v>4.0</v>
@@ -65991,33 +66032,33 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I13" s="5">
         <v>3.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13" s="5">
         <v>2.0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="5">
         <v>4.0</v>
@@ -66028,30 +66069,30 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I14" s="5">
         <v>3.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="5">
         <v>4.0</v>
@@ -66062,30 +66103,30 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I15" s="5">
         <v>3.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" s="5">
         <v>4.0</v>
@@ -66096,30 +66137,30 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I16" s="5">
         <v>3.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" s="5">
         <v>4.0</v>
@@ -66130,30 +66171,30 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I17" s="5">
         <v>2.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" s="5">
         <v>4.0</v>
@@ -66164,30 +66205,30 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I18" s="5">
         <v>2.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="5">
         <v>4.0</v>
@@ -66198,30 +66239,30 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I19" s="5">
         <v>2.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N19" s="5">
         <v>3.0</v>
@@ -66232,30 +66273,30 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I20" s="5">
         <v>2.0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N20" s="5">
         <v>3.0</v>
@@ -66266,28 +66307,28 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N21" s="5">
         <v>2.0</v>
@@ -66298,28 +66339,28 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N22" s="5">
         <v>2.0</v>
@@ -66330,28 +66371,28 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N23" s="5">
         <v>2.0</v>
@@ -66362,28 +66403,28 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N24" s="5">
         <v>2.0</v>
@@ -66394,28 +66435,28 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N25" s="5">
         <v>2.0</v>
@@ -66426,26 +66467,26 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="5">
         <v>2.0</v>
@@ -66456,27 +66497,27 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G27" s="45"/>
       <c r="H27" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N27" s="58">
+        <v>198</v>
+      </c>
+      <c r="N27" s="57">
         <v>1.0</v>
       </c>
     </row>
@@ -66485,25 +66526,25 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="N28" s="58">
+        <v>190</v>
+      </c>
+      <c r="N28" s="57">
         <v>1.0</v>
       </c>
     </row>
@@ -66512,24 +66553,24 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="K29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="N29" s="58">
+        <v>194</v>
+      </c>
+      <c r="N29" s="57">
         <v>1.0</v>
       </c>
     </row>
@@ -66538,24 +66579,24 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="K30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" s="58">
+        <v>189</v>
+      </c>
+      <c r="N30" s="57">
         <v>1.0</v>
       </c>
     </row>
@@ -66564,24 +66605,24 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="K31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N31" s="58">
+        <v>196</v>
+      </c>
+      <c r="N31" s="57">
         <v>1.0</v>
       </c>
     </row>
@@ -66589,17 +66630,25 @@
       <c r="A32" s="45">
         <v>30.0</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
+      <c r="B32" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>143</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="K32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="N32" s="58">
+        <v>201</v>
+      </c>
+      <c r="N32" s="57">
         <v>1.0</v>
       </c>
     </row>

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="wfYai8PF2pGsUMlrZvKUSRJlXtAz4kWyuHS/C8SkzUI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="2F6KVHz8FecYWasJzwnEivH5MSBjWz01hG6YqOG4NuE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="216">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -213,13 +213,16 @@
     <t>BRUCE</t>
   </si>
   <si>
+    <t>FATHER TED</t>
+  </si>
+  <si>
     <t>DOM</t>
   </si>
   <si>
     <t>KERMIT</t>
   </si>
   <si>
-    <t>FATHER TED</t>
+    <t>IAN</t>
   </si>
   <si>
     <t>WILSON</t>
@@ -228,7 +231,7 @@
     <t xml:space="preserve">MAMAS </t>
   </si>
   <si>
-    <t>IAN</t>
+    <t>ARTIST</t>
   </si>
   <si>
     <t>CAPTAIN KIRK</t>
@@ -243,19 +246,16 @@
     <t>DWARF</t>
   </si>
   <si>
+    <t>PRESTON</t>
+  </si>
+  <si>
     <t>FLO</t>
   </si>
   <si>
-    <t>ARTIST</t>
-  </si>
-  <si>
-    <t>PRESTON</t>
+    <t>RYAN</t>
   </si>
   <si>
     <t>TOY BOY</t>
-  </si>
-  <si>
-    <t>RYAN</t>
   </si>
   <si>
     <t>KRYTON</t>
@@ -273,19 +273,19 @@
     <t>PHANTOM</t>
   </si>
   <si>
+    <t xml:space="preserve">STRAIGHT ROB </t>
+  </si>
+  <si>
     <t>ELBOW</t>
   </si>
   <si>
     <t>FRED</t>
   </si>
   <si>
-    <t xml:space="preserve">STRAIGHT ROB </t>
+    <t>MOO</t>
   </si>
   <si>
     <t>MICK</t>
-  </si>
-  <si>
-    <t>MOO</t>
   </si>
   <si>
     <t>CARZOLA</t>
@@ -648,6 +648,9 @@
     <t>Carlos - Ian</t>
   </si>
   <si>
+    <t>Khen</t>
+  </si>
+  <si>
     <t>Gadget - Father Ted</t>
   </si>
   <si>
@@ -661,6 +664,12 @@
   </si>
   <si>
     <t>Drew 0-0</t>
+  </si>
+  <si>
+    <t>Mamas - Artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khen </t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1776,9 @@
       <c r="AE5" s="17">
         <v>0.0</v>
       </c>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
@@ -1791,11 +1802,11 @@
       </c>
       <c r="AZ5" s="5">
         <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" s="5">
         <f t="shared" ref="BB5:BB40" si="3">COUNTIF($B5:$AX5, "0")</f>
@@ -1807,15 +1818,15 @@
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF5" s="19">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>0.5733333333</v>
+        <v>0.5897435897</v>
       </c>
       <c r="BG5" s="19"/>
     </row>
@@ -1897,7 +1908,9 @@
       <c r="AE6" s="22">
         <v>0.0</v>
       </c>
-      <c r="AF6" s="22"/>
+      <c r="AF6" s="22">
+        <v>1.0</v>
+      </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
@@ -1921,11 +1934,11 @@
       </c>
       <c r="AZ6" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA6" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB6" s="5">
         <f t="shared" si="3"/>
@@ -1937,15 +1950,15 @@
       </c>
       <c r="BD6" s="5">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE6" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF6" s="19">
         <f t="shared" si="7"/>
-        <v>0.5909090909</v>
+        <v>0.6086956522</v>
       </c>
       <c r="BG6" s="19"/>
     </row>
@@ -2031,7 +2044,9 @@
       <c r="AE7" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF7" s="26"/>
+      <c r="AF7" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
@@ -2055,11 +2070,11 @@
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" s="5">
         <f t="shared" si="3"/>
@@ -2071,15 +2086,15 @@
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF7" s="19">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="BG7" s="19"/>
     </row>
@@ -2167,7 +2182,9 @@
       <c r="AE8" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
@@ -2191,11 +2208,11 @@
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
@@ -2207,15 +2224,15 @@
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BF8" s="19">
         <f t="shared" si="7"/>
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="BG8" s="19"/>
     </row>
@@ -2224,78 +2241,84 @@
         <v>63</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="30">
         <v>-3.0</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="30">
+        <v>0.0</v>
+      </c>
       <c r="F9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="30">
+        <v>-2.0</v>
+      </c>
+      <c r="G9" s="31">
         <v>-3.0</v>
       </c>
       <c r="H9" s="30">
         <v>3.0</v>
       </c>
       <c r="I9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="J9" s="31">
-        <v>2.0</v>
+        <v>-2.0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>-2.0</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="30">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="M9" s="30">
         <v>1.0</v>
       </c>
       <c r="N9" s="30">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="O9" s="30">
-        <v>-1.0</v>
-      </c>
-      <c r="P9" s="30">
         <v>1.0</v>
       </c>
+      <c r="P9" s="30"/>
       <c r="Q9" s="30">
         <v>-2.0</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="31">
         <v>0.0</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31">
+      <c r="S9" s="30">
+        <v>-2.0</v>
+      </c>
+      <c r="T9" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="U9" s="30">
         <v>0.0</v>
       </c>
-      <c r="V9" s="30"/>
+      <c r="V9" s="30">
+        <v>1.0</v>
+      </c>
       <c r="W9" s="29"/>
       <c r="X9" s="30">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y9" s="30">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z9" s="30"/>
       <c r="AA9" s="30">
-        <v>-3.0</v>
-      </c>
-      <c r="AB9" s="30">
-        <v>-3.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>3.0</v>
       </c>
       <c r="AC9" s="30">
         <v>1.0</v>
       </c>
       <c r="AD9" s="30">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
+      <c r="AF9" s="30">
+        <v>1.0</v>
+      </c>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
@@ -2319,7 +2342,7 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
@@ -2327,23 +2350,23 @@
       </c>
       <c r="BB9" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="BF9" s="19">
         <f t="shared" si="7"/>
-        <v>0.5555555556</v>
+        <v>0.5</v>
       </c>
       <c r="BG9" s="19"/>
     </row>
@@ -2356,22 +2379,22 @@
         <v>1.0</v>
       </c>
       <c r="D10" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0.0</v>
-      </c>
+        <v>-3.0</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="30">
-        <v>-2.0</v>
-      </c>
-      <c r="G10" s="30"/>
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>-3.0</v>
+      </c>
       <c r="H10" s="30">
         <v>3.0</v>
       </c>
       <c r="I10" s="30">
         <v>2.0</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <v>2.0</v>
       </c>
       <c r="K10" s="29"/>
@@ -2379,57 +2402,53 @@
         <v>3.0</v>
       </c>
       <c r="M10" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O10" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N10" s="26">
+      <c r="P10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" s="26">
         <v>-2.0</v>
-      </c>
-      <c r="O10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26">
-        <v>2.0</v>
       </c>
       <c r="R10" s="30">
         <v>0.0</v>
       </c>
-      <c r="S10" s="30">
-        <v>-2.0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>3.0</v>
-      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="31">
         <v>0.0</v>
       </c>
-      <c r="V10" s="30">
-        <v>-1.0</v>
-      </c>
+      <c r="V10" s="30"/>
       <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
+      <c r="X10" s="30">
+        <v>-2.0</v>
+      </c>
       <c r="Y10" s="30">
         <v>-1.0</v>
       </c>
-      <c r="Z10" s="30">
-        <v>-2.0</v>
-      </c>
+      <c r="Z10" s="30"/>
       <c r="AA10" s="30">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AB10" s="30">
         <v>-3.0</v>
       </c>
       <c r="AC10" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="AD10" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30">
         <v>-1.0</v>
       </c>
-      <c r="AD10" s="30">
-        <v>-5.0</v>
-      </c>
-      <c r="AE10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
@@ -2453,31 +2472,31 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF10" s="19">
         <f t="shared" si="7"/>
-        <v>0.4722222222</v>
+        <v>0.5303030303</v>
       </c>
       <c r="BG10" s="19"/>
     </row>
@@ -2486,34 +2505,34 @@
         <v>65</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="E11" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="27">
         <v>0.0</v>
       </c>
       <c r="F11" s="26">
         <v>-2.0</v>
       </c>
-      <c r="G11" s="27">
-        <v>-3.0</v>
-      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="26">
         <v>3.0</v>
       </c>
       <c r="I11" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="J11" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="M11" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="N11" s="26">
         <v>-2.0</v>
@@ -2523,9 +2542,9 @@
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="R11" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="R11" s="26">
         <v>0.0</v>
       </c>
       <c r="S11" s="26">
@@ -2534,34 +2553,38 @@
       <c r="T11" s="26">
         <v>3.0</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="27">
         <v>0.0</v>
       </c>
       <c r="V11" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="W11" s="25"/>
-      <c r="X11" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="X11" s="26"/>
       <c r="Y11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z11" s="26"/>
+        <v>-1.0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="AA11" s="26">
         <v>3.0</v>
       </c>
-      <c r="AB11" s="27">
-        <v>3.0</v>
+      <c r="AB11" s="26">
+        <v>-3.0</v>
       </c>
       <c r="AC11" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AD11" s="26">
         <v>-5.0</v>
       </c>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AE11" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AF11" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG11" s="26"/>
       <c r="AH11" s="26"/>
       <c r="AI11" s="26"/>
@@ -2585,7 +2608,7 @@
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
@@ -2593,23 +2616,23 @@
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="BF11" s="19">
         <f t="shared" si="7"/>
-        <v>0.4782608696</v>
+        <v>0.4533333333</v>
       </c>
       <c r="BG11" s="19"/>
     </row>
@@ -2619,7 +2642,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D12" s="26">
         <v>-3.0</v>
@@ -2628,68 +2651,78 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="J12" s="26">
         <v>2.0</v>
       </c>
-      <c r="G12" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>-3.0</v>
-      </c>
-      <c r="I12" s="26">
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="26">
         <v>-2.0</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M12" s="26">
+      <c r="O12" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="R12" s="26">
         <v>0.0</v>
       </c>
-      <c r="S12" s="27">
-        <v>2.0</v>
+      <c r="S12" s="26">
+        <v>-2.0</v>
       </c>
       <c r="T12" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="U12" s="26">
         <v>0.0</v>
       </c>
       <c r="V12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AC12" s="26">
         <v>-1.0</v>
       </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26">
+      <c r="AD12" s="26">
+        <v>-5.0</v>
+      </c>
+      <c r="AE12" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AF12" s="26">
         <v>1.0</v>
       </c>
-      <c r="AD12" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
       <c r="AI12" s="26"/>
@@ -2713,11 +2746,11 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
@@ -2725,19 +2758,19 @@
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="BF12" s="19">
         <f t="shared" si="7"/>
-        <v>0.4920634921</v>
+        <v>0.4358974359</v>
       </c>
       <c r="BG12" s="19"/>
     </row>
@@ -2746,11 +2779,11 @@
         <v>67</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="27">
-        <v>-1.0</v>
+      <c r="C13" s="26">
+        <v>1.0</v>
       </c>
       <c r="D13" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2761,37 +2794,33 @@
       <c r="G13" s="26">
         <v>3.0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="27">
         <v>-3.0</v>
       </c>
       <c r="I13" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J13" s="26">
         <v>-2.0</v>
       </c>
+      <c r="J13" s="26"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26">
         <v>3.0</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="M13" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="N13" s="26"/>
       <c r="O13" s="26">
         <v>1.0</v>
       </c>
       <c r="P13" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>2.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="Q13" s="26"/>
       <c r="R13" s="26">
         <v>0.0</v>
       </c>
-      <c r="S13" s="26">
-        <v>-2.0</v>
+      <c r="S13" s="27">
+        <v>2.0</v>
       </c>
       <c r="T13" s="26">
         <v>-3.0</v>
@@ -2799,20 +2828,26 @@
       <c r="U13" s="26">
         <v>0.0</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26">
         <v>1.0</v>
       </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26">
+      <c r="AD13" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AE13" s="27">
         <v>0.0</v>
       </c>
       <c r="AF13" s="26"/>
@@ -2839,7 +2874,7 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
@@ -2851,7 +2886,7 @@
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
@@ -2859,11 +2894,11 @@
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF13" s="19">
         <f t="shared" si="7"/>
-        <v>0.5166666667</v>
+        <v>0.4920634921</v>
       </c>
       <c r="BG13" s="19"/>
     </row>
@@ -2872,44 +2907,46 @@
         <v>68</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <v>-1.0</v>
       </c>
       <c r="D14" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
       </c>
       <c r="F14" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="26">
         <v>-2.0</v>
       </c>
-      <c r="G14" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="K14" s="25"/>
+      <c r="L14" s="26">
         <v>3.0</v>
       </c>
-      <c r="I14" s="27">
-        <v>-2.0</v>
-      </c>
-      <c r="J14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="M14" s="26"/>
       <c r="N14" s="26">
         <v>-2.0</v>
       </c>
       <c r="O14" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27">
-        <v>-2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>2.0</v>
       </c>
       <c r="R14" s="26">
         <v>0.0</v>
@@ -2918,40 +2955,30 @@
         <v>-2.0</v>
       </c>
       <c r="T14" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="U14" s="26">
         <v>0.0</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V14" s="27">
         <v>1.0</v>
       </c>
       <c r="W14" s="25"/>
       <c r="X14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="Y14" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA14" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AC14" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="AD14" s="26">
-        <v>-5.0</v>
-      </c>
+        <v>-2.0</v>
+      </c>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
       <c r="AE14" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF14" s="26"/>
+      <c r="AF14" s="27">
+        <v>-1.0</v>
+      </c>
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
       <c r="AI14" s="26"/>
@@ -2975,7 +3002,7 @@
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
@@ -2987,7 +3014,7 @@
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
@@ -2995,11 +3022,11 @@
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="BF14" s="19">
         <f t="shared" si="7"/>
-        <v>0.4133333333</v>
+        <v>0.4920634921</v>
       </c>
       <c r="BG14" s="19"/>
     </row>
@@ -3008,41 +3035,35 @@
         <v>69</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" s="26">
         <v>2.0</v>
       </c>
       <c r="J15" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M15" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O15" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="P15" s="26">
         <v>1.0</v>
-      </c>
-      <c r="N15" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27">
-        <v>-1.0</v>
       </c>
       <c r="Q15" s="26">
         <v>-2.0</v>
@@ -3053,21 +3074,41 @@
       <c r="S15" s="26">
         <v>2.0</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="T15" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>1.0</v>
+      </c>
       <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="X15" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
+      <c r="Z15" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AD15" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
+        <v>-5.0</v>
+      </c>
+      <c r="AE15" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AF15" s="27">
+        <v>1.0</v>
+      </c>
       <c r="AG15" s="26"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="26"/>
@@ -3091,7 +3132,7 @@
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
@@ -3099,23 +3140,23 @@
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="BF15" s="19">
         <f t="shared" si="7"/>
-        <v>0.6444444444</v>
+        <v>0.4545454545</v>
       </c>
       <c r="BG15" s="19"/>
     </row>
@@ -3124,7 +3165,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="26">
+      <c r="C16" s="27">
         <v>1.0</v>
       </c>
       <c r="D16" s="26">
@@ -3133,12 +3174,10 @@
       <c r="E16" s="26">
         <v>0.0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>-2.0</v>
       </c>
-      <c r="G16" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G16" s="26"/>
       <c r="H16" s="26">
         <v>-3.0</v>
       </c>
@@ -3146,58 +3185,48 @@
         <v>2.0</v>
       </c>
       <c r="J16" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="26">
+        <v>3.0</v>
+      </c>
       <c r="M16" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="N16" s="26">
         <v>2.0</v>
       </c>
-      <c r="O16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="26">
+      <c r="O16" s="26"/>
+      <c r="P16" s="27">
         <v>-1.0</v>
       </c>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="R16" s="26">
         <v>0.0</v>
       </c>
       <c r="S16" s="26">
         <v>2.0</v>
       </c>
-      <c r="T16" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="25"/>
-      <c r="X16" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="Y16" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z16" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AA16" s="27">
-        <v>-3.0</v>
-      </c>
-      <c r="AB16" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC16" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
       <c r="AD16" s="26">
         <v>5.0</v>
       </c>
       <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
+      <c r="AF16" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26"/>
@@ -3221,7 +3250,7 @@
       </c>
       <c r="AZ16" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BA16" s="5">
         <f t="shared" si="2"/>
@@ -3233,7 +3262,7 @@
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
@@ -3241,11 +3270,11 @@
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="BF16" s="19">
         <f t="shared" si="7"/>
-        <v>0.4393939394</v>
+        <v>0.6041666667</v>
       </c>
       <c r="BG16" s="19"/>
     </row>
@@ -3255,42 +3284,44 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="G17" s="26">
         <v>-3.0</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
+      <c r="H17" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="26">
         <v>-2.0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="J17" s="26">
-        <v>2.0</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="27">
-        <v>1.0</v>
+      <c r="M17" s="26">
+        <v>-1.0</v>
       </c>
       <c r="N17" s="26">
         <v>2.0</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="P17" s="26">
         <v>-1.0</v>
       </c>
-      <c r="P17" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="Q17" s="26"/>
       <c r="R17" s="26">
         <v>0.0</v>
       </c>
@@ -3298,36 +3329,36 @@
         <v>2.0</v>
       </c>
       <c r="T17" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U17" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="V17" s="27">
-        <v>-1.0</v>
-      </c>
+        <v>-3.0</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
       <c r="W17" s="25"/>
       <c r="X17" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="Y17" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z17" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="27">
         <v>-3.0</v>
       </c>
-      <c r="AB17" s="27">
-        <v>-3.0</v>
+      <c r="AB17" s="26">
+        <v>3.0</v>
       </c>
       <c r="AC17" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AD17" s="26"/>
+        <v>-1.0</v>
+      </c>
+      <c r="AD17" s="26">
+        <v>5.0</v>
+      </c>
       <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
+      <c r="AF17" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG17" s="26"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26"/>
@@ -3351,7 +3382,7 @@
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
@@ -3363,7 +3394,7 @@
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
@@ -3375,7 +3406,7 @@
       </c>
       <c r="BF17" s="19">
         <f t="shared" si="7"/>
-        <v>0.4393939394</v>
+        <v>0.4202898551</v>
       </c>
       <c r="BG17" s="19"/>
     </row>
@@ -3391,11 +3422,13 @@
         <v>-3.0</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27">
+      <c r="F18" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G18" s="26">
         <v>3.0</v>
       </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="26">
         <v>-2.0</v>
       </c>
@@ -3403,55 +3436,61 @@
         <v>2.0</v>
       </c>
       <c r="K18" s="25"/>
-      <c r="L18" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M18" s="26">
+      <c r="L18" s="26"/>
+      <c r="M18" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O18" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N18" s="26">
+      <c r="P18" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" s="26">
         <v>-2.0</v>
       </c>
-      <c r="O18" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="R18" s="26"/>
+      <c r="R18" s="26">
+        <v>0.0</v>
+      </c>
       <c r="S18" s="26">
         <v>2.0</v>
       </c>
       <c r="T18" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U18" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="27">
         <v>-1.0</v>
       </c>
       <c r="W18" s="25"/>
       <c r="X18" s="26">
         <v>2.0</v>
       </c>
-      <c r="Y18" s="27">
-        <v>1.0</v>
+      <c r="Y18" s="26">
+        <v>-1.0</v>
       </c>
       <c r="Z18" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AA18" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
+      <c r="AB18" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AD18" s="26"/>
-      <c r="AE18" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
@@ -3475,7 +3514,7 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
@@ -3483,23 +3522,23 @@
       </c>
       <c r="BB18" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="BF18" s="19">
         <f t="shared" si="7"/>
-        <v>0.4912280702</v>
+        <v>0.4202898551</v>
       </c>
       <c r="BG18" s="19"/>
     </row>
@@ -3509,38 +3548,40 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D19" s="26">
         <v>-3.0</v>
       </c>
-      <c r="E19" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="26">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27">
         <v>3.0</v>
       </c>
-      <c r="H19" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="J19" s="26">
         <v>2.0</v>
-      </c>
-      <c r="J19" s="26">
-        <v>-2.0</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="M19" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27">
+      <c r="N19" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O19" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Q19" s="26">
         <v>2.0</v>
       </c>
       <c r="R19" s="26"/>
@@ -3550,28 +3591,24 @@
       <c r="T19" s="26">
         <v>-3.0</v>
       </c>
-      <c r="U19" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="U19" s="26"/>
       <c r="V19" s="26">
         <v>-1.0</v>
       </c>
       <c r="W19" s="25"/>
       <c r="X19" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="Y19" s="26">
-        <v>-1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>1.0</v>
       </c>
       <c r="Z19" s="26">
         <v>2.0</v>
       </c>
       <c r="AA19" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB19" s="26">
-        <v>3.0</v>
-      </c>
+        <v>-3.0</v>
+      </c>
+      <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26">
@@ -3601,15 +3638,15 @@
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
@@ -3617,15 +3654,15 @@
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="19">
         <f t="shared" si="7"/>
-        <v>0.45</v>
+        <v>0.4912280702</v>
       </c>
       <c r="BG19" s="19"/>
     </row>
@@ -3634,78 +3671,84 @@
         <v>74</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.0</v>
+      </c>
       <c r="F20" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>-2.0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="H20" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I20" s="26">
         <v>2.0</v>
       </c>
       <c r="J20" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="26">
         <v>-3.0</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27">
+      <c r="M20" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="N20" s="26">
         <v>-2.0</v>
       </c>
       <c r="O20" s="26">
         <v>-1.0</v>
       </c>
       <c r="P20" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="Q20" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="R20" s="26">
         <v>0.0</v>
       </c>
-      <c r="S20" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="S20" s="26"/>
       <c r="T20" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="U20" s="26">
         <v>0.0</v>
       </c>
       <c r="V20" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="W20" s="25"/>
-      <c r="X20" s="27">
+      <c r="X20" s="26">
         <v>-2.0</v>
       </c>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA20" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AB20" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC20" s="26">
-        <v>-1.0</v>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="27">
+        <v>1.0</v>
       </c>
       <c r="AD20" s="26">
-        <v>-5.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE20" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF20" s="26"/>
+      <c r="AF20" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
@@ -3729,7 +3772,7 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
@@ -3737,23 +3780,23 @@
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="BF20" s="19">
         <f t="shared" si="7"/>
-        <v>0.4285714286</v>
+        <v>0.3888888889</v>
       </c>
       <c r="BG20" s="19"/>
     </row>
@@ -3765,50 +3808,42 @@
       <c r="C21" s="26">
         <v>1.0</v>
       </c>
-      <c r="D21" s="27">
-        <v>3.0</v>
+      <c r="D21" s="26">
+        <v>-3.0</v>
       </c>
       <c r="E21" s="26">
         <v>0.0</v>
       </c>
-      <c r="F21" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="F21" s="26"/>
       <c r="G21" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" s="26">
         <v>-3.0</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="27">
         <v>2.0</v>
       </c>
       <c r="J21" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="26">
         <v>-3.0</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N21" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="O21" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P21" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q21" s="26">
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27">
         <v>2.0</v>
       </c>
-      <c r="R21" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26">
+        <v>2.0</v>
+      </c>
       <c r="T21" s="26">
         <v>-3.0</v>
       </c>
@@ -3822,18 +3857,20 @@
       <c r="X21" s="26">
         <v>-2.0</v>
       </c>
-      <c r="Y21" s="26"/>
+      <c r="Y21" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="Z21" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AD21" s="26">
-        <v>5.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="AA21" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB21" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
       <c r="AE21" s="26">
         <v>0.0</v>
       </c>
@@ -3861,31 +3898,31 @@
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="BF21" s="19">
         <f t="shared" si="7"/>
-        <v>0.3623188406</v>
+        <v>0.45</v>
       </c>
       <c r="BG21" s="19"/>
     </row>
@@ -3894,50 +3931,56 @@
         <v>76</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="I22" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="25"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="O22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
+      <c r="Q22" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0.0</v>
+      </c>
       <c r="S22" s="26"/>
-      <c r="T22" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U22" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="Y22" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Z22" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AB22" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
+      <c r="AD22" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="AE22" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AF22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
@@ -3961,7 +4004,7 @@
       </c>
       <c r="AZ22" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA22" s="5">
         <f t="shared" si="2"/>
@@ -3969,23 +4012,23 @@
       </c>
       <c r="BB22" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD22" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE22" s="5">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BF22" s="19">
         <f t="shared" si="7"/>
-        <v>0.7619047619</v>
+        <v>0.5666666667</v>
       </c>
       <c r="BG22" s="19"/>
     </row>
@@ -3994,53 +4037,49 @@
         <v>77</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="F23" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2.0</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="R23" s="26">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U23" s="26">
         <v>0.0</v>
       </c>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="25"/>
       <c r="X23" s="26"/>
-      <c r="Y23" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Z23" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA23" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AB23" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
-      <c r="AD23" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AE23" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
@@ -4065,31 +4104,31 @@
       </c>
       <c r="AZ23" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA23" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB23" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE23" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BF23" s="19">
         <f t="shared" si="7"/>
-        <v>0.5185185185</v>
+        <v>0.7619047619</v>
       </c>
       <c r="BG23" s="19"/>
     </row>
@@ -4461,7 +4500,9 @@
       <c r="AE27" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF27" s="26"/>
+      <c r="AF27" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG27" s="26"/>
       <c r="AH27" s="26"/>
       <c r="AI27" s="26"/>
@@ -4485,7 +4526,7 @@
       </c>
       <c r="AZ27" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA27" s="5">
         <f t="shared" si="2"/>
@@ -4497,7 +4538,7 @@
       </c>
       <c r="BC27" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD27" s="5">
         <f t="shared" si="5"/>
@@ -4505,11 +4546,11 @@
       </c>
       <c r="BE27" s="5">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="BF27" s="19">
         <f t="shared" si="7"/>
-        <v>0.2222222222</v>
+        <v>0.2083333333</v>
       </c>
       <c r="BG27" s="19"/>
     </row>
@@ -4610,18 +4651,28 @@
         <v>83</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="L29" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="M29" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
@@ -4659,15 +4710,15 @@
       <c r="AW29" s="26"/>
       <c r="AX29" s="26"/>
       <c r="AY29" s="18">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="AZ29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB29" s="5">
         <f t="shared" si="3"/>
@@ -4675,19 +4726,19 @@
       </c>
       <c r="BC29" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF29" s="19" t="str">
+        <v>-2</v>
+      </c>
+      <c r="BF29" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="BG29" s="19"/>
     </row>
@@ -4745,7 +4796,7 @@
       <c r="AW30" s="26"/>
       <c r="AX30" s="26"/>
       <c r="AY30" s="18">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ30" s="5">
         <f t="shared" si="1"/>
@@ -4782,28 +4833,18 @@
         <v>85</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="M31" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -4841,15 +4882,15 @@
       <c r="AW31" s="26"/>
       <c r="AX31" s="26"/>
       <c r="AY31" s="18">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AZ31" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="5">
         <f t="shared" si="3"/>
@@ -4857,19 +4898,19 @@
       </c>
       <c r="BC31" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="BF31" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG31" s="19"/>
     </row>
@@ -4879,23 +4920,37 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="O32" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="P32" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
+      <c r="T32" s="26">
+        <v>3.0</v>
+      </c>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="25"/>
@@ -4907,7 +4962,9 @@
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
+      <c r="AF32" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG32" s="26"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
@@ -4927,15 +4984,15 @@
       <c r="AW32" s="26"/>
       <c r="AX32" s="26"/>
       <c r="AY32" s="18">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="AZ32" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA32" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB32" s="5">
         <f t="shared" si="3"/>
@@ -4943,19 +5000,19 @@
       </c>
       <c r="BC32" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF32" s="19" t="str">
+        <v>-6</v>
+      </c>
+      <c r="BF32" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="BG32" s="19"/>
     </row>
@@ -4965,37 +5022,23 @@
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="L33" s="26"/>
       <c r="M33" s="26"/>
-      <c r="N33" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="O33" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P33" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
-      <c r="T33" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
       <c r="W33" s="25"/>
@@ -5027,15 +5070,15 @@
       <c r="AW33" s="26"/>
       <c r="AX33" s="26"/>
       <c r="AY33" s="18">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="AZ33" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="5">
         <f t="shared" si="3"/>
@@ -5043,19 +5086,19 @@
       </c>
       <c r="BC33" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="BF33" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0.2857142857</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG33" s="19"/>
     </row>
@@ -5123,7 +5166,7 @@
       <c r="AW34" s="26"/>
       <c r="AX34" s="26"/>
       <c r="AY34" s="18">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="AZ34" s="5">
         <f t="shared" si="1"/>
@@ -5219,7 +5262,7 @@
       <c r="AW35" s="26"/>
       <c r="AX35" s="26"/>
       <c r="AY35" s="18">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AZ35" s="5">
         <f t="shared" si="1"/>
@@ -5307,7 +5350,7 @@
       <c r="AW36" s="26"/>
       <c r="AX36" s="26"/>
       <c r="AY36" s="18">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="AZ36" s="5">
         <f t="shared" si="1"/>
@@ -5397,7 +5440,7 @@
       <c r="AW37" s="26"/>
       <c r="AX37" s="26"/>
       <c r="AY37" s="18">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="AZ37" s="5">
         <f t="shared" si="1"/>
@@ -5487,7 +5530,7 @@
       <c r="AW38" s="26"/>
       <c r="AX38" s="26"/>
       <c r="AY38" s="18">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AZ38" s="5">
         <f t="shared" si="1"/>
@@ -5577,7 +5620,7 @@
       <c r="AW39" s="26"/>
       <c r="AX39" s="26"/>
       <c r="AY39" s="18">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="AZ39" s="5">
         <f t="shared" si="1"/>
@@ -5645,7 +5688,9 @@
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
+      <c r="AF40" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG40" s="26"/>
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
@@ -5665,11 +5710,11 @@
       <c r="AW40" s="26"/>
       <c r="AX40" s="26"/>
       <c r="AY40" s="18">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="AZ40" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA40" s="5">
         <f t="shared" si="2"/>
@@ -5681,7 +5726,7 @@
       </c>
       <c r="BC40" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD40" s="5">
         <f t="shared" si="5"/>
@@ -5689,7 +5734,7 @@
       </c>
       <c r="BE40" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="BF40" s="19">
         <f t="shared" si="7"/>
@@ -5823,7 +5868,7 @@
       </c>
       <c r="AF41" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG41" s="30">
         <f t="shared" si="8"/>
@@ -5991,7 +6036,9 @@
       <c r="AE42" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AF42" s="36"/>
+      <c r="AF42" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="AG42" s="5"/>
       <c r="AH42" s="36"/>
       <c r="AI42" s="5"/>
@@ -26306,7 +26353,7 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="41">
         <v>2.0</v>
@@ -26330,7 +26377,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="39">
         <v>2.0</v>
@@ -26385,7 +26432,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="39">
         <v>3.0</v>
@@ -26416,7 +26463,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="39">
         <v>2.0</v>
@@ -26478,7 +26525,7 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="39">
         <v>3.0</v>
@@ -26509,7 +26556,7 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="39">
         <v>1.0</v>
@@ -26534,7 +26581,7 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="39">
         <v>1.0</v>
@@ -26559,7 +26606,7 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="39">
         <v>1.0</v>
@@ -26585,7 +26632,7 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="39">
         <v>1.0</v>
@@ -26641,7 +26688,7 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="39">
         <v>2.0</v>
@@ -26673,7 +26720,7 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="39">
         <v>2.0</v>
@@ -26704,7 +26751,7 @@
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B18" s="39">
         <v>2.0</v>
@@ -26735,10 +26782,10 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B19" s="39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" s="39">
         <v>1.0</v>
@@ -26747,7 +26794,7 @@
         <v>0.0</v>
       </c>
       <c r="E19" s="39">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="39">
         <v>0.0</v>
@@ -26761,24 +26808,24 @@
       </c>
       <c r="J19" s="42">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>7.666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="39">
         <v>3.0</v>
       </c>
       <c r="C20" s="39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="39">
         <v>0.0</v>
-      </c>
-      <c r="E20" s="39">
-        <v>2.0</v>
       </c>
       <c r="F20" s="39">
         <v>0.0</v>
@@ -26797,7 +26844,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B21" s="39">
         <v>3.0</v>
@@ -26812,7 +26859,7 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="39">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G21" s="39">
         <f t="shared" si="1"/>
@@ -26828,7 +26875,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="39">
         <v>3.0</v>
@@ -26843,7 +26890,7 @@
         <v>2.0</v>
       </c>
       <c r="F22" s="39">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G22" s="39">
         <f t="shared" si="1"/>
@@ -26859,22 +26906,22 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B23" s="39">
         <v>3.0</v>
       </c>
       <c r="C23" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="39">
         <v>0.0</v>
       </c>
-      <c r="D23" s="39">
-        <v>3.0</v>
-      </c>
       <c r="E23" s="39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" s="39">
-        <v>0.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G23" s="39">
         <f t="shared" si="1"/>
@@ -26890,26 +26937,26 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B24" s="39">
         <v>3.0</v>
       </c>
       <c r="C24" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="39">
         <v>0.0</v>
       </c>
-      <c r="D24" s="39">
+      <c r="E24" s="39">
         <v>2.0</v>
       </c>
-      <c r="E24" s="39">
-        <v>1.0</v>
-      </c>
       <c r="F24" s="39">
-        <v>-2.0</v>
+        <v>-4.0</v>
       </c>
       <c r="G24" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="43">
         <v>5.0</v>
@@ -26921,38 +26968,38 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B25" s="39">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" s="39">
         <v>0.0</v>
       </c>
       <c r="D25" s="39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" s="39">
         <v>1.0</v>
       </c>
       <c r="F25" s="39">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G25" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="43">
         <v>12.0</v>
       </c>
       <c r="J25" s="42">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B26" s="39">
         <v>1.0</v>
@@ -26983,10 +27030,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B27" s="39">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C27" s="39">
         <v>0.0</v>
@@ -26995,10 +27042,10 @@
         <v>0.0</v>
       </c>
       <c r="E27" s="39">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" s="39">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
@@ -27009,7 +27056,7 @@
       </c>
       <c r="J27" s="42">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -28348,7 +28395,7 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30">
@@ -28428,7 +28475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26">
@@ -28510,7 +28557,7 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26">
@@ -28590,7 +28637,7 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -28629,7 +28676,9 @@
         <v>1.0</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
+      <c r="AE7" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
@@ -28653,7 +28702,7 @@
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB7" s="5">
         <v>1.0</v>
@@ -28662,48 +28711,54 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="26">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
         <v>1.0</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="J8" s="26"/>
       <c r="K8" s="25"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
-      <c r="N8" s="26">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26">
         <v>1.0</v>
-      </c>
-      <c r="O8" s="26">
-        <v>2.0</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="R8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
+      <c r="T8" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>3.0</v>
+      </c>
       <c r="V8" s="26"/>
       <c r="W8" s="25"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
+      <c r="AE8" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -28727,16 +28782,16 @@
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB8" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
@@ -28744,44 +28799,46 @@
       <c r="E9" s="26">
         <v>1.0</v>
       </c>
-      <c r="F9" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26">
         <v>1.0</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="26">
+        <v>1.0</v>
+      </c>
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="M9" s="26">
+        <v>2.0</v>
+      </c>
       <c r="N9" s="26"/>
       <c r="O9" s="26">
         <v>1.0</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
-      <c r="R9" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26">
         <v>1.0</v>
       </c>
-      <c r="U9" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="25"/>
       <c r="X9" s="26"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
+      <c r="AA9" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AB9" s="26"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
+      <c r="AE9" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF9" s="26"/>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -28805,60 +28862,56 @@
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="BB9" s="5">
+        <v>10</v>
+      </c>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26">
+      <c r="C10" s="26">
         <v>1.0</v>
       </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26">
+        <v>2.0</v>
+      </c>
       <c r="K10" s="25"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O10" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
-      <c r="U10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V10" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="25"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
-      <c r="Z10" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="AB10" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AC10" s="26"/>
-      <c r="AD10" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -28886,57 +28939,57 @@
         <v>9</v>
       </c>
       <c r="BB10" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
+      <c r="D11" s="26">
         <v>1.0</v>
       </c>
+      <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="J11" s="26"/>
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26">
         <v>1.0</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="26">
+      <c r="T11" s="26"/>
+      <c r="U11" s="26">
         <v>1.0</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="V11" s="26">
+        <v>3.0</v>
+      </c>
       <c r="W11" s="25"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="Z11" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
+      <c r="AD11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -28963,19 +29016,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5">
+      <c r="BB11" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="26">
+        <v>1.0</v>
+      </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -28983,31 +29038,37 @@
       <c r="J12" s="26"/>
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="26">
+        <v>1.0</v>
+      </c>
       <c r="N12" s="26"/>
-      <c r="O12" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="O12" s="26"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="S12" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
+      <c r="X12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AB12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
+      <c r="AE12" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
@@ -29031,18 +29092,16 @@
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BB12" s="5">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5">
         <v>2.0</v>
-      </c>
-      <c r="BC12" s="5">
-        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -29050,36 +29109,32 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="O13" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
-      <c r="R13" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="25"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
+      <c r="AA13" s="26">
+        <v>4.0</v>
+      </c>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
@@ -29109,58 +29164,58 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BB13" s="5"/>
+      <c r="BB13" s="5">
+        <v>2.0</v>
+      </c>
       <c r="BC13" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26">
+        <v>2.0</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26">
+      <c r="L14" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26">
         <v>1.0</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="S14" s="26"/>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="26">
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26">
         <v>1.0</v>
       </c>
-      <c r="Y14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
+      <c r="AE14" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
@@ -29186,14 +29241,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="BB14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="BC14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
@@ -29201,28 +29256,30 @@
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="H15" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="26">
-        <v>4.0</v>
-      </c>
+      <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26">
         <v>2.0</v>
       </c>
       <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="R15" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S15" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26">
         <v>1.0</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
       <c r="V15" s="26"/>
       <c r="W15" s="25"/>
       <c r="X15" s="26"/>
@@ -29260,37 +29317,39 @@
       </c>
       <c r="BB15" s="5"/>
       <c r="BC15" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J16" s="26"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="L16" s="26"/>
       <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="26"/>
+      <c r="N16" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="S16" s="26">
+        <v>1.0</v>
+      </c>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
@@ -29298,9 +29357,7 @@
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
@@ -29328,16 +29385,16 @@
       <c r="AZ16" s="6"/>
       <c r="BA16" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BB16" s="5">
+        <v>8</v>
+      </c>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5">
         <v>1.0</v>
       </c>
-      <c r="BC16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26">
@@ -29407,7 +29464,7 @@
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
@@ -29479,19 +29536,15 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="25"/>
@@ -29500,9 +29553,11 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="26">
+        <v>1.0</v>
+      </c>
       <c r="R19" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
@@ -29510,13 +29565,21 @@
       <c r="V19" s="26"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
+      <c r="Y19" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="AB19" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
+      <c r="AE19" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
@@ -29540,11 +29603,9 @@
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BB19" s="5">
-        <v>2.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BB19" s="5"/>
       <c r="BC19" s="5">
         <v>1.0</v>
       </c>
@@ -29552,15 +29613,19 @@
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="26">
+        <v>2.0</v>
+      </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="H20" s="26">
+        <v>2.0</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="25"/>
@@ -29569,11 +29634,9 @@
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
-      <c r="Q20" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Q20" s="26"/>
       <c r="R20" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
@@ -29581,16 +29644,10 @@
       <c r="V20" s="26"/>
       <c r="W20" s="25"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z20" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
-      <c r="AB20" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
@@ -29619,14 +29676,16 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BB20" s="5"/>
+      <c r="BB20" s="5">
+        <v>2.0</v>
+      </c>
       <c r="BC20" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
@@ -29698,27 +29757,25 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="C22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="M22" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N22" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -29730,12 +29787,16 @@
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="Z22" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
+      <c r="AE22" s="26">
+        <v>2.0</v>
+      </c>
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
@@ -29761,41 +29822,41 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5">
+      <c r="BB22" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="L23" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1.0</v>
+      </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="R23" s="26"/>
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="46"/>
+      <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="25"/>
       <c r="X23" s="26"/>
@@ -29838,16 +29899,20 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26">
+        <v>3.0</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="26">
+        <v>1.0</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="25"/>
       <c r="L24" s="26"/>
@@ -29856,25 +29921,21 @@
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
+      <c r="R24" s="26">
+        <v>1.0</v>
+      </c>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
+      <c r="U24" s="46"/>
       <c r="V24" s="26"/>
       <c r="W24" s="25"/>
       <c r="X24" s="26"/>
-      <c r="Y24" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
-      <c r="AD24" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
       <c r="AG24" s="26"/>
@@ -29899,14 +29960,16 @@
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
+      <c r="BC24" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -29931,15 +29994,21 @@
       <c r="V25" s="26"/>
       <c r="W25" s="25"/>
       <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
+      <c r="Y25" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
+      <c r="AA25" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AB25" s="26"/>
-      <c r="AC25" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE25" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
@@ -29963,16 +30032,14 @@
       <c r="AZ25" s="6"/>
       <c r="BA25" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BB25" s="5">
-        <v>1.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -29987,9 +30054,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
@@ -29999,13 +30064,13 @@
       <c r="V26" s="26"/>
       <c r="W26" s="25"/>
       <c r="X26" s="26"/>
-      <c r="Y26" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
+      <c r="AC26" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
       <c r="AF26" s="26"/>
@@ -30033,14 +30098,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5">
+      <c r="BB26" s="5">
         <v>1.0</v>
       </c>
+      <c r="BC26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -30049,18 +30114,16 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="25"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26">
+      <c r="O27" s="26">
         <v>1.0</v>
       </c>
+      <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
@@ -30068,10 +30131,10 @@
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
       <c r="W27" s="25"/>
-      <c r="X27" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Y27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26">
+        <v>2.0</v>
+      </c>
       <c r="Z27" s="26"/>
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
@@ -30104,31 +30167,33 @@
         <v>3</v>
       </c>
       <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
+      <c r="BC27" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="26">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26">
         <v>1.0</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="25"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="P28" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
@@ -30136,11 +30201,11 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
+      <c r="X28" s="26">
+        <v>1.0</v>
+      </c>
       <c r="Y28" s="26"/>
-      <c r="Z28" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
@@ -30436,7 +30501,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
@@ -30500,7 +30565,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
@@ -31020,7 +31085,7 @@
       </c>
       <c r="AF40" s="39">
         <f>'League Table'!AF41</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG40" s="5">
         <f>'League Table'!AG41</f>
@@ -31248,7 +31313,7 @@
       </c>
       <c r="AE42" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF42" s="18">
         <f t="shared" si="2"/>
@@ -62305,7 +62370,9 @@
         <v>4.0</v>
       </c>
       <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
@@ -62327,12 +62394,12 @@
       <c r="AY5" s="16"/>
       <c r="BA5" s="39">
         <f t="shared" ref="BA5:BA37" si="1">SUM(B5:AY5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -62394,7 +62461,9 @@
         <v>1.0</v>
       </c>
       <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
+      <c r="AF6" s="30">
+        <v>1.0</v>
+      </c>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
@@ -62416,12 +62485,12 @@
       <c r="AY6" s="30"/>
       <c r="BA6" s="39">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
@@ -62502,7 +62571,7 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16">
@@ -62577,55 +62646,53 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
         <v>1.0</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="J9" s="30">
+        <v>1.0</v>
+      </c>
       <c r="K9" s="55"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="L9" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1.0</v>
+      </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="R9" s="30">
+        <v>1.0</v>
+      </c>
       <c r="S9" s="30"/>
-      <c r="T9" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="V9" s="30"/>
       <c r="W9" s="29"/>
-      <c r="X9" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="Y9" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="Z9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30">
         <v>1.0</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
@@ -62652,51 +62719,53 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
+      <c r="F10" s="26">
         <v>1.0</v>
       </c>
+      <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="53"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
-      <c r="N10" s="26">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26">
         <v>1.0</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Z10" s="26">
         <v>2.0</v>
-      </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26">
-        <v>1.0</v>
       </c>
       <c r="AA10" s="26">
         <v>1.0</v>
       </c>
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
+      <c r="AD10" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -62720,38 +62789,34 @@
       <c r="AY10" s="26"/>
       <c r="BA10" s="39">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
         <v>1.0</v>
       </c>
+      <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="26">
+      <c r="J11" s="26"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26">
         <v>1.0</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="26">
+      <c r="O11" s="26"/>
+      <c r="P11" s="26">
         <v>1.0</v>
       </c>
-      <c r="M11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26">
         <v>1.0</v>
@@ -62759,12 +62824,18 @@
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="V11" s="26">
+        <v>2.0</v>
+      </c>
       <c r="W11" s="25"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
+      <c r="Z11" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
@@ -62796,7 +62867,7 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -62867,7 +62938,7 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -63062,7 +63133,7 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26">
@@ -63308,7 +63379,7 @@
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -63491,7 +63562,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -63552,7 +63623,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -63613,7 +63684,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -63731,7 +63802,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -63849,7 +63920,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -64026,7 +64097,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -64085,7 +64156,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -64144,7 +64215,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -64321,7 +64392,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -64663,7 +64734,7 @@
       </c>
       <c r="AF41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG41" s="5">
         <f t="shared" si="2"/>
@@ -64743,7 +64814,7 @@
       </c>
       <c r="BA41" s="39">
         <f>SUM(B41:AZ41)</f>
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -66024,7 +66095,7 @@
         <v>177</v>
       </c>
       <c r="N12" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -66061,7 +66132,7 @@
         <v>165</v>
       </c>
       <c r="N13" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -66090,7 +66161,9 @@
       <c r="K14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>2.0</v>
+      </c>
       <c r="M14" s="5" t="s">
         <v>171</v>
       </c>
@@ -66187,7 +66260,7 @@
         <v>177</v>
       </c>
       <c r="I17" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>182</v>
@@ -66538,7 +66611,9 @@
         <v>148</v>
       </c>
       <c r="G28" s="45"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5" t="s">
@@ -66553,7 +66628,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>179</v>
@@ -66579,7 +66654,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>188</v>
@@ -66605,10 +66680,10 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>154</v>
@@ -66634,7 +66709,7 @@
         <v>150</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>143</v>
@@ -66656,14 +66731,26 @@
       <c r="A33" s="45">
         <v>31.0</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="B33" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>208</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N33" s="57">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="45">

--- a/data/latest_data_prev.xlsx
+++ b/data/latest_data_prev.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="qEaCAOczQFLT8P2BWUe2Iuc6v6ldYNIsv8Ls51+Jkgk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="mfwTCxxcaJQfKVyBOjSnz1XbUsId7DBX64UxAwfLfj4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="220">
   <si>
     <t>MARLOW DUKES 2025</t>
   </si>
@@ -222,34 +222,34 @@
     <t>IAN</t>
   </si>
   <si>
+    <t>KERMIT</t>
+  </si>
+  <si>
+    <t>ARTIST</t>
+  </si>
+  <si>
     <t>CARLOS</t>
   </si>
   <si>
     <t>WILSON</t>
   </si>
   <si>
-    <t>KERMIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAMAS </t>
   </si>
   <si>
-    <t>ARTIST</t>
+    <t>INSPECTOR GADGET</t>
   </si>
   <si>
     <t>DWARF</t>
   </si>
   <si>
-    <t>INSPECTOR GADGET</t>
+    <t>FLO</t>
   </si>
   <si>
     <t>CAPTAIN KIRK</t>
   </si>
   <si>
     <t>PRESTON</t>
-  </si>
-  <si>
-    <t>FLO</t>
   </si>
   <si>
     <t>RYAN</t>
@@ -273,22 +273,22 @@
     <t>BANKSY</t>
   </si>
   <si>
+    <t>ELBOW</t>
+  </si>
+  <si>
     <t>PHANTOM</t>
   </si>
   <si>
-    <t>ELBOW</t>
+    <t>CARZOLA</t>
   </si>
   <si>
     <t xml:space="preserve">STRAIGHT ROB </t>
   </si>
   <si>
-    <t>MOO</t>
-  </si>
-  <si>
     <t>MICK</t>
   </si>
   <si>
-    <t>CARZOLA</t>
+    <t>MOO</t>
   </si>
   <si>
     <t>DOGGER</t>
@@ -303,10 +303,10 @@
     <t>VINCE</t>
   </si>
   <si>
-    <t>GUEST</t>
+    <t>KHEN</t>
   </si>
   <si>
-    <t>KHEN</t>
+    <t>GUEST</t>
   </si>
   <si>
     <t># PLAYERS</t>
@@ -540,7 +540,7 @@
     <t>Preston</t>
   </si>
   <si>
-    <t>Ian</t>
+    <t>Carlos</t>
   </si>
   <si>
     <t>Duncan - Dom</t>
@@ -549,7 +549,7 @@
     <t>Lost 4-6</t>
   </si>
   <si>
-    <t>Carlos</t>
+    <t>Ian</t>
   </si>
   <si>
     <t>Artist</t>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Preston - Dwarf</t>
+  </si>
+  <si>
+    <t>Carlos - Khen</t>
   </si>
 </sst>
 </file>
@@ -891,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1013,6 +1016,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,7 +1801,9 @@
       <c r="AI5" s="16">
         <v>3.0</v>
       </c>
-      <c r="AJ5" s="16"/>
+      <c r="AJ5" s="16">
+        <v>-3.0</v>
+      </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
@@ -1815,7 +1823,7 @@
       </c>
       <c r="AZ5" s="5">
         <f t="shared" ref="AZ5:AZ40" si="1">COUNT(B5:AX5)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" ref="BA5:BA40" si="2">COUNTIF($B5:$AX5, "&gt;=1")</f>
@@ -1827,7 +1835,7 @@
       </c>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC40" si="4">COUNTIF($B5:$AX5, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" ref="BD5:BD40" si="5">SUM(BA5*3)+BB5</f>
@@ -1835,11 +1843,11 @@
       </c>
       <c r="BE5" s="5">
         <f t="shared" ref="BE5:BE40" si="6">SUM(B5:AX5)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BF5" s="19">
         <f t="shared" ref="BF5:BF40" si="7">SUM(BA5*3+BB5*1)/SUM(AZ5*3)</f>
-        <v>0.6091954023</v>
+        <v>0.5888888889</v>
       </c>
       <c r="BG5" s="19"/>
     </row>
@@ -2075,7 +2083,9 @@
       <c r="AI7" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AJ7" s="26"/>
+      <c r="AJ7" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK7" s="26"/>
       <c r="AL7" s="26"/>
       <c r="AM7" s="26"/>
@@ -2095,7 +2105,7 @@
       </c>
       <c r="AZ7" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA7" s="5">
         <f t="shared" si="2"/>
@@ -2107,7 +2117,7 @@
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" s="5">
         <f t="shared" si="5"/>
@@ -2115,11 +2125,11 @@
       </c>
       <c r="BE7" s="5">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BF7" s="19">
         <f t="shared" si="7"/>
-        <v>0.5119047619</v>
+        <v>0.4942528736</v>
       </c>
       <c r="BG7" s="19"/>
     </row>
@@ -2217,7 +2227,9 @@
       <c r="AI8" s="16">
         <v>-3.0</v>
       </c>
-      <c r="AJ8" s="16"/>
+      <c r="AJ8" s="16">
+        <v>3.0</v>
+      </c>
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
@@ -2237,11 +2249,11 @@
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="3"/>
@@ -2253,15 +2265,15 @@
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="BF8" s="19">
         <f t="shared" si="7"/>
-        <v>0.4761904762</v>
+        <v>0.4942528736</v>
       </c>
       <c r="BG8" s="19"/>
     </row>
@@ -2353,7 +2365,9 @@
       <c r="AI9" s="30">
         <v>3.0</v>
       </c>
-      <c r="AJ9" s="30"/>
+      <c r="AJ9" s="30">
+        <v>3.0</v>
+      </c>
       <c r="AK9" s="30"/>
       <c r="AL9" s="30"/>
       <c r="AM9" s="30"/>
@@ -2373,11 +2387,11 @@
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" s="5">
         <f t="shared" si="3"/>
@@ -2389,15 +2403,15 @@
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BF9" s="19">
         <f t="shared" si="7"/>
-        <v>0.52</v>
+        <v>0.5384615385</v>
       </c>
       <c r="BG9" s="19"/>
     </row>
@@ -2489,7 +2503,9 @@
         <v>2.0</v>
       </c>
       <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
+      <c r="AJ10" s="30">
+        <v>3.0</v>
+      </c>
       <c r="AK10" s="30"/>
       <c r="AL10" s="30"/>
       <c r="AM10" s="30"/>
@@ -2509,11 +2525,11 @@
       </c>
       <c r="AZ10" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA10" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" s="5">
         <f t="shared" si="3"/>
@@ -2525,15 +2541,15 @@
       </c>
       <c r="BD10" s="5">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE10" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="BF10" s="19">
         <f t="shared" si="7"/>
-        <v>0.52</v>
+        <v>0.5384615385</v>
       </c>
       <c r="BG10" s="19"/>
     </row>
@@ -2631,7 +2647,9 @@
       <c r="AI11" s="26">
         <v>3.0</v>
       </c>
-      <c r="AJ11" s="26"/>
+      <c r="AJ11" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AK11" s="26"/>
       <c r="AL11" s="26"/>
       <c r="AM11" s="26"/>
@@ -2651,11 +2669,11 @@
       </c>
       <c r="AZ11" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA11" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="3"/>
@@ -2667,15 +2685,15 @@
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BE11" s="5">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="BF11" s="19">
         <f t="shared" si="7"/>
-        <v>0.4523809524</v>
+        <v>0.4712643678</v>
       </c>
       <c r="BG11" s="19"/>
     </row>
@@ -2690,73 +2708,77 @@
       <c r="D12" s="26">
         <v>3.0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="27">
         <v>0.0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>-2.0</v>
       </c>
-      <c r="G12" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" s="26">
         <v>2.0</v>
       </c>
       <c r="J12" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="26">
+        <v>3.0</v>
+      </c>
       <c r="M12" s="26">
         <v>-1.0</v>
       </c>
       <c r="N12" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26">
         <v>2.0</v>
       </c>
-      <c r="O12" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q12" s="26"/>
       <c r="R12" s="26">
         <v>0.0</v>
       </c>
       <c r="S12" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="T12" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+        <v>3.0</v>
+      </c>
+      <c r="U12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="V12" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="W12" s="25"/>
-      <c r="X12" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="X12" s="26"/>
       <c r="Y12" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="Z12" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AA12" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB12" s="26">
         <v>-3.0</v>
-      </c>
-      <c r="AB12" s="26">
-        <v>3.0</v>
       </c>
       <c r="AC12" s="26">
         <v>-1.0</v>
       </c>
       <c r="AD12" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE12" s="26"/>
+        <v>-5.0</v>
+      </c>
+      <c r="AE12" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AF12" s="26">
         <v>-1.0</v>
       </c>
@@ -2764,12 +2786,14 @@
         <v>0.0</v>
       </c>
       <c r="AH12" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AI12" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AJ12" s="26">
         <v>3.0</v>
       </c>
-      <c r="AJ12" s="26"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="26"/>
@@ -2789,7 +2813,7 @@
       </c>
       <c r="AZ12" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" s="5">
         <f t="shared" si="2"/>
@@ -2797,23 +2821,23 @@
       </c>
       <c r="BB12" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD12" s="5">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="19">
         <f t="shared" si="7"/>
-        <v>0.4615384615</v>
+        <v>0.4367816092</v>
       </c>
       <c r="BG12" s="19"/>
     </row>
@@ -2822,88 +2846,92 @@
         <v>67</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="26">
         <v>2.0</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26">
         <v>3.0</v>
       </c>
-      <c r="H13" s="27">
-        <v>-3.0</v>
-      </c>
       <c r="I13" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J13" s="26">
         <v>-2.0</v>
       </c>
-      <c r="J13" s="26"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M13" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O13" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26">
+      <c r="P13" s="26">
         <v>1.0</v>
       </c>
-      <c r="P13" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="R13" s="26">
         <v>0.0</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="26">
         <v>2.0</v>
       </c>
       <c r="T13" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="U13" s="26">
         <v>0.0</v>
       </c>
       <c r="V13" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
+      <c r="X13" s="27">
+        <v>-2.0</v>
+      </c>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26">
         <v>-2.0</v>
       </c>
       <c r="AA13" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="AB13" s="26">
         <v>3.0</v>
       </c>
-      <c r="AB13" s="26"/>
       <c r="AC13" s="26">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AD13" s="26">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
       <c r="AE13" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="27">
+      <c r="AF13" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AG13" s="26">
         <v>0.0</v>
       </c>
       <c r="AH13" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AI13" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AJ13" s="26"/>
+        <v>3.0</v>
+      </c>
+      <c r="AJ13" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AK13" s="26"/>
       <c r="AL13" s="26"/>
       <c r="AM13" s="26"/>
@@ -2923,31 +2951,31 @@
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BF13" s="19">
         <f t="shared" si="7"/>
-        <v>0.4861111111</v>
+        <v>0.4743589744</v>
       </c>
       <c r="BG13" s="19"/>
     </row>
@@ -2962,77 +2990,73 @@
       <c r="D14" s="26">
         <v>3.0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>0.0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="27">
         <v>-2.0</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="H14" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I14" s="26">
         <v>2.0</v>
       </c>
       <c r="J14" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="L14" s="26"/>
       <c r="M14" s="26">
         <v>-1.0</v>
       </c>
       <c r="N14" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="O14" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O14" s="27">
         <v>1.0</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="P14" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Q14" s="26"/>
       <c r="R14" s="26">
         <v>0.0</v>
       </c>
       <c r="S14" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26">
         <v>-2.0</v>
       </c>
-      <c r="T14" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="V14" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
       <c r="Y14" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z14" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="AB14" s="26">
         <v>3.0</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>-3.0</v>
       </c>
       <c r="AC14" s="26">
         <v>-1.0</v>
       </c>
       <c r="AD14" s="26">
-        <v>-5.0</v>
-      </c>
-      <c r="AE14" s="27">
-        <v>0.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="AE14" s="26"/>
       <c r="AF14" s="26">
         <v>-1.0</v>
       </c>
@@ -3040,12 +3064,14 @@
         <v>0.0</v>
       </c>
       <c r="AH14" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI14" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AJ14" s="27">
         <v>-3.0</v>
       </c>
-      <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="26"/>
       <c r="AM14" s="26"/>
@@ -3065,15 +3091,15 @@
       </c>
       <c r="AZ14" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA14" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="4"/>
@@ -3081,15 +3107,15 @@
       </c>
       <c r="BD14" s="5">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BE14" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="BF14" s="19">
         <f t="shared" si="7"/>
-        <v>0.4166666667</v>
+        <v>0.4444444444</v>
       </c>
       <c r="BG14" s="19"/>
     </row>
@@ -3098,11 +3124,11 @@
         <v>69</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="27">
-        <v>-1.0</v>
+      <c r="C15" s="26">
+        <v>1.0</v>
       </c>
       <c r="D15" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E15" s="26">
         <v>0.0</v>
@@ -3113,37 +3139,33 @@
       <c r="G15" s="26">
         <v>3.0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="27">
         <v>-3.0</v>
       </c>
       <c r="I15" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J15" s="26">
         <v>-2.0</v>
       </c>
+      <c r="J15" s="26"/>
       <c r="K15" s="25"/>
       <c r="L15" s="26">
         <v>3.0</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="M15" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="N15" s="26"/>
       <c r="O15" s="26">
         <v>1.0</v>
       </c>
       <c r="P15" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>2.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="Q15" s="26"/>
       <c r="R15" s="26">
         <v>0.0</v>
       </c>
-      <c r="S15" s="26">
-        <v>-2.0</v>
+      <c r="S15" s="27">
+        <v>2.0</v>
       </c>
       <c r="T15" s="26">
         <v>-3.0</v>
@@ -3151,33 +3173,41 @@
       <c r="U15" s="26">
         <v>0.0</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26">
         <v>1.0</v>
       </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
+      <c r="AD15" s="26">
+        <v>5.0</v>
+      </c>
       <c r="AE15" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF15" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="AG15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="27">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI15" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AJ15" s="26"/>
+        <v>-3.0</v>
+      </c>
+      <c r="AJ15" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK15" s="26"/>
       <c r="AL15" s="26"/>
       <c r="AM15" s="26"/>
@@ -3197,7 +3227,7 @@
       </c>
       <c r="AZ15" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA15" s="5">
         <f t="shared" si="2"/>
@@ -3205,23 +3235,23 @@
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD15" s="5">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BE15" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="19">
         <f t="shared" si="7"/>
-        <v>0.4927536232</v>
+        <v>0.4666666667</v>
       </c>
       <c r="BG15" s="19"/>
     </row>
@@ -3230,15 +3260,23 @@
         <v>70</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.0</v>
+      </c>
       <c r="F16" s="26">
         <v>2.0</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="26">
+        <v>3.0</v>
+      </c>
       <c r="H16" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I16" s="26">
         <v>2.0</v>
@@ -3248,72 +3286,62 @@
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="26">
-        <v>-3.0</v>
+        <v>3.0</v>
       </c>
       <c r="M16" s="26"/>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <v>-2.0</v>
       </c>
       <c r="O16" s="26">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" s="26">
         <v>1.0</v>
       </c>
       <c r="Q16" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="R16" s="26">
         <v>0.0</v>
       </c>
       <c r="S16" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="T16" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="U16" s="26">
         <v>0.0</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="27">
         <v>1.0</v>
       </c>
       <c r="W16" s="25"/>
-      <c r="X16" s="27">
+      <c r="X16" s="26">
         <v>-2.0</v>
       </c>
       <c r="Y16" s="26"/>
-      <c r="Z16" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AA16" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AB16" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC16" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="AD16" s="26">
-        <v>-5.0</v>
-      </c>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="26">
         <v>0.0</v>
       </c>
       <c r="AF16" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AG16" s="26">
-        <v>0.0</v>
-      </c>
+        <v>-1.0</v>
+      </c>
+      <c r="AG16" s="26"/>
       <c r="AH16" s="26">
         <v>-2.0</v>
       </c>
       <c r="AI16" s="26">
         <v>3.0</v>
       </c>
-      <c r="AJ16" s="26"/>
+      <c r="AJ16" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="26"/>
@@ -3333,7 +3361,7 @@
       </c>
       <c r="AZ16" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA16" s="5">
         <f t="shared" si="2"/>
@@ -3345,7 +3373,7 @@
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD16" s="5">
         <f t="shared" si="5"/>
@@ -3353,11 +3381,11 @@
       </c>
       <c r="BE16" s="5">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="19">
         <f t="shared" si="7"/>
-        <v>0.4533333333</v>
+        <v>0.4722222222</v>
       </c>
       <c r="BG16" s="19"/>
     </row>
@@ -3373,11 +3401,13 @@
         <v>-3.0</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27">
+      <c r="F17" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G17" s="26">
         <v>3.0</v>
       </c>
+      <c r="H17" s="26"/>
       <c r="I17" s="26">
         <v>-2.0</v>
       </c>
@@ -3385,61 +3415,71 @@
         <v>2.0</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M17" s="26">
+      <c r="L17" s="26"/>
+      <c r="M17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O17" s="26">
         <v>-1.0</v>
       </c>
-      <c r="N17" s="26">
+      <c r="P17" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" s="26">
         <v>-2.0</v>
       </c>
-      <c r="O17" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="P17" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="26">
+        <v>0.0</v>
+      </c>
       <c r="S17" s="26">
         <v>2.0</v>
       </c>
       <c r="T17" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="27">
         <v>-1.0</v>
       </c>
       <c r="W17" s="25"/>
       <c r="X17" s="26">
         <v>2.0</v>
       </c>
-      <c r="Y17" s="27">
-        <v>1.0</v>
+      <c r="Y17" s="26">
+        <v>-1.0</v>
       </c>
       <c r="Z17" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AA17" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
+      <c r="AB17" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AD17" s="26"/>
-      <c r="AE17" s="26">
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AG17" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="27">
+      <c r="AH17" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26">
         <v>3.0</v>
       </c>
-      <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="26"/>
@@ -3459,7 +3499,7 @@
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="2"/>
@@ -3467,23 +3507,23 @@
       </c>
       <c r="BB17" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="BF17" s="19">
         <f t="shared" si="7"/>
-        <v>0.5166666667</v>
+        <v>0.4230769231</v>
       </c>
       <c r="BG17" s="19"/>
     </row>
@@ -3499,13 +3539,11 @@
         <v>-3.0</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27">
         <v>3.0</v>
       </c>
-      <c r="H18" s="26"/>
       <c r="I18" s="26">
         <v>-2.0</v>
       </c>
@@ -3513,68 +3551,60 @@
         <v>2.0</v>
       </c>
       <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27">
+      <c r="L18" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O18" s="26">
         <v>1.0</v>
       </c>
-      <c r="N18" s="26">
+      <c r="P18" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Q18" s="26">
         <v>2.0</v>
       </c>
-      <c r="O18" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="R18" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="R18" s="26"/>
       <c r="S18" s="26">
         <v>2.0</v>
       </c>
       <c r="T18" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U18" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="V18" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26">
         <v>-1.0</v>
       </c>
       <c r="W18" s="25"/>
       <c r="X18" s="26">
         <v>2.0</v>
       </c>
-      <c r="Y18" s="26">
-        <v>-1.0</v>
+      <c r="Y18" s="27">
+        <v>1.0</v>
       </c>
       <c r="Z18" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA18" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AB18" s="27">
-        <v>-3.0</v>
-      </c>
-      <c r="AC18" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="AG18" s="26">
+      <c r="AE18" s="26">
         <v>0.0</v>
       </c>
-      <c r="AH18" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AI18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
       <c r="AL18" s="26"/>
@@ -3595,31 +3625,31 @@
       </c>
       <c r="AZ18" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA18" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB18" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD18" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE18" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="BF18" s="19">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.5166666667</v>
       </c>
       <c r="BG18" s="19"/>
     </row>
@@ -3628,74 +3658,82 @@
         <v>73</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>1.0</v>
       </c>
       <c r="D19" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E19" s="26">
         <v>0.0</v>
       </c>
-      <c r="F19" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="G19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
+        <v>3.0</v>
+      </c>
       <c r="H19" s="26">
         <v>-3.0</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="27">
         <v>2.0</v>
       </c>
       <c r="J19" s="26">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="M19" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N19" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27">
         <v>2.0</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27">
-        <v>-1.0</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="R19" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="R19" s="26"/>
       <c r="S19" s="26">
         <v>2.0</v>
       </c>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="T19" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="X19" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AC19" s="26"/>
-      <c r="AD19" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="AJ19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="26"/>
@@ -3715,7 +3753,7 @@
       </c>
       <c r="AZ19" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA19" s="5">
         <f t="shared" si="2"/>
@@ -3723,23 +3761,23 @@
       </c>
       <c r="BB19" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD19" s="5">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE19" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BF19" s="19">
         <f t="shared" si="7"/>
-        <v>0.568627451</v>
+        <v>0.4761904762</v>
       </c>
       <c r="BG19" s="19"/>
     </row>
@@ -3748,10 +3786,10 @@
         <v>74</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="26">
+      <c r="C20" s="27">
         <v>1.0</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>3.0</v>
       </c>
       <c r="E20" s="26">
@@ -3760,9 +3798,7 @@
       <c r="F20" s="26">
         <v>-2.0</v>
       </c>
-      <c r="G20" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G20" s="26"/>
       <c r="H20" s="26">
         <v>-3.0</v>
       </c>
@@ -3774,65 +3810,47 @@
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="M20" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27">
         <v>-1.0</v>
       </c>
-      <c r="N20" s="26">
+      <c r="Q20" s="26">
         <v>-2.0</v>
-      </c>
-      <c r="O20" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P20" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>2.0</v>
       </c>
       <c r="R20" s="26">
         <v>0.0</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="U20" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="V20" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="S20" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="25"/>
-      <c r="X20" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
-      <c r="Z20" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="27">
-        <v>1.0</v>
-      </c>
+      <c r="AC20" s="26"/>
       <c r="AD20" s="26">
         <v>5.0</v>
       </c>
-      <c r="AE20" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="AE20" s="26"/>
       <c r="AF20" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AG20" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AH20" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="AI20" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26">
         <v>-3.0</v>
       </c>
       <c r="AJ20" s="26"/>
@@ -3855,19 +3873,19 @@
       </c>
       <c r="AZ20" s="5">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="BA20" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB20" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD20" s="5">
         <f t="shared" si="5"/>
@@ -3875,11 +3893,11 @@
       </c>
       <c r="BE20" s="5">
         <f t="shared" si="6"/>
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="BF20" s="19">
         <f t="shared" si="7"/>
-        <v>0.3580246914</v>
+        <v>0.568627451</v>
       </c>
       <c r="BG20" s="19"/>
     </row>
@@ -3891,42 +3909,50 @@
       <c r="C21" s="26">
         <v>1.0</v>
       </c>
-      <c r="D21" s="26">
-        <v>-3.0</v>
+      <c r="D21" s="27">
+        <v>3.0</v>
       </c>
       <c r="E21" s="26">
         <v>0.0</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="G21" s="26">
-        <v>3.0</v>
+        <v>-3.0</v>
       </c>
       <c r="H21" s="26">
         <v>-3.0</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>2.0</v>
       </c>
       <c r="J21" s="26">
-        <v>-2.0</v>
+        <v>2.0</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="26">
         <v>-3.0</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="27">
         <v>-1.0</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27">
+      <c r="N21" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="Q21" s="26">
         <v>2.0</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26">
-        <v>2.0</v>
-      </c>
+      <c r="R21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="26"/>
       <c r="T21" s="26">
         <v>-3.0</v>
       </c>
@@ -3940,28 +3966,36 @@
       <c r="X21" s="26">
         <v>-2.0</v>
       </c>
-      <c r="Y21" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="Y21" s="26"/>
       <c r="Z21" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA21" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB21" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
+        <v>-2.0</v>
+      </c>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="AD21" s="26">
+        <v>5.0</v>
+      </c>
       <c r="AE21" s="26">
         <v>0.0</v>
       </c>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
+      <c r="AF21" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AG21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AH21" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="AI21" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="AJ21" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK21" s="26"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="26"/>
@@ -3981,7 +4015,7 @@
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="2"/>
@@ -3989,23 +4023,23 @@
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="BF21" s="19">
         <f t="shared" si="7"/>
-        <v>0.45</v>
+        <v>0.3452380952</v>
       </c>
       <c r="BG21" s="19"/>
     </row>
@@ -4387,7 +4421,9 @@
       <c r="AI25" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AJ25" s="26"/>
+      <c r="AJ25" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="26"/>
@@ -4407,7 +4443,7 @@
       </c>
       <c r="AZ25" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA25" s="5">
         <f t="shared" si="2"/>
@@ -4419,7 +4455,7 @@
       </c>
       <c r="BC25" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD25" s="5">
         <f t="shared" si="5"/>
@@ -4427,11 +4463,11 @@
       </c>
       <c r="BE25" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BF25" s="19">
         <f t="shared" si="7"/>
-        <v>0.4242424242</v>
+        <v>0.3888888889</v>
       </c>
       <c r="BG25" s="19"/>
     </row>
@@ -4581,7 +4617,9 @@
       <c r="AI27" s="26">
         <v>3.0</v>
       </c>
-      <c r="AJ27" s="26"/>
+      <c r="AJ27" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK27" s="26"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="26"/>
@@ -4601,7 +4639,7 @@
       </c>
       <c r="AZ27" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA27" s="5">
         <f t="shared" si="2"/>
@@ -4613,7 +4651,7 @@
       </c>
       <c r="BC27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD27" s="5">
         <f t="shared" si="5"/>
@@ -4621,11 +4659,11 @@
       </c>
       <c r="BE27" s="5">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BF27" s="19">
         <f t="shared" si="7"/>
-        <v>0.4761904762</v>
+        <v>0.4166666667</v>
       </c>
       <c r="BG27" s="19"/>
     </row>
@@ -4703,7 +4741,9 @@
       <c r="AI28" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AJ28" s="26"/>
+      <c r="AJ28" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK28" s="26"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="26"/>
@@ -4723,7 +4763,7 @@
       </c>
       <c r="AZ28" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA28" s="5">
         <f t="shared" si="2"/>
@@ -4735,7 +4775,7 @@
       </c>
       <c r="BC28" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD28" s="5">
         <f t="shared" si="5"/>
@@ -4743,11 +4783,11 @@
       </c>
       <c r="BE28" s="5">
         <f t="shared" si="6"/>
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="BF28" s="19">
         <f t="shared" si="7"/>
-        <v>0.1851851852</v>
+        <v>0.1754385965</v>
       </c>
       <c r="BG28" s="19"/>
     </row>
@@ -4781,20 +4821,12 @@
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
       <c r="AA29" s="26"/>
-      <c r="AB29" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC29" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
-      <c r="AE29" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="AE29" s="26"/>
       <c r="AF29" s="26"/>
-      <c r="AG29" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="AG29" s="26"/>
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
       <c r="AJ29" s="26"/>
@@ -4813,19 +4845,19 @@
       <c r="AW29" s="26"/>
       <c r="AX29" s="26"/>
       <c r="AY29" s="18">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ29" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="5">
         <f t="shared" si="4"/>
@@ -4833,15 +4865,15 @@
       </c>
       <c r="BD29" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BF29" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0.6666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BG29" s="19"/>
     </row>
@@ -4875,15 +4907,25 @@
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
+      <c r="AB30" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC30" s="26">
+        <v>1.0</v>
+      </c>
       <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
+      <c r="AE30" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
+      <c r="AG30" s="26">
+        <v>0.0</v>
+      </c>
       <c r="AH30" s="26"/>
       <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
+      <c r="AJ30" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AK30" s="26"/>
       <c r="AL30" s="26"/>
       <c r="AM30" s="26"/>
@@ -4899,35 +4941,35 @@
       <c r="AW30" s="26"/>
       <c r="AX30" s="26"/>
       <c r="AY30" s="18">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="AZ30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC30" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD30" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE30" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF30" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5333333333</v>
       </c>
       <c r="BG30" s="19"/>
     </row>
@@ -4936,36 +4978,36 @@
         <v>85</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="J31" s="26"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="M31" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="L31" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="T31" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="26">
+        <v>1.0</v>
+      </c>
       <c r="W31" s="25"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
@@ -4979,7 +5021,9 @@
       <c r="AG31" s="26"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
+      <c r="AJ31" s="26">
+        <v>3.0</v>
+      </c>
       <c r="AK31" s="26"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="26"/>
@@ -4999,7 +5043,7 @@
       </c>
       <c r="AZ31" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" s="5">
         <f t="shared" si="2"/>
@@ -5007,7 +5051,7 @@
       </c>
       <c r="BB31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC31" s="5">
         <f t="shared" si="4"/>
@@ -5015,15 +5059,15 @@
       </c>
       <c r="BD31" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE31" s="5">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="BF31" s="19">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.3888888889</v>
       </c>
       <c r="BG31" s="19"/>
     </row>
@@ -5032,38 +5076,34 @@
         <v>86</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26">
+      <c r="C32" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26">
         <v>-3.0</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="26">
-        <v>-3.0</v>
-      </c>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="O32" s="26">
-        <v>-1.0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="L32" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="M32" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="26">
-        <v>3.0</v>
-      </c>
+      <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="25"/>
@@ -5075,14 +5115,10 @@
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
-      <c r="AF32" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
       <c r="AH32" s="26"/>
-      <c r="AI32" s="26">
-        <v>-3.0</v>
-      </c>
+      <c r="AI32" s="26"/>
       <c r="AJ32" s="26"/>
       <c r="AK32" s="26"/>
       <c r="AL32" s="26"/>
@@ -5103,7 +5139,7 @@
       </c>
       <c r="AZ32" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA32" s="5">
         <f t="shared" si="2"/>
@@ -5115,7 +5151,7 @@
       </c>
       <c r="BC32" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD32" s="5">
         <f t="shared" si="5"/>
@@ -5123,11 +5159,11 @@
       </c>
       <c r="BE32" s="5">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="BF32" s="19">
         <f t="shared" si="7"/>
-        <v>0.2222222222</v>
+        <v>0.4</v>
       </c>
       <c r="BG32" s="19"/>
     </row>
@@ -5223,35 +5259,39 @@
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="D34" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="25"/>
       <c r="L34" s="26">
         <v>-3.0</v>
       </c>
       <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="N34" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="O34" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="P34" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
-      <c r="T34" s="27">
-        <v>-3.0</v>
-      </c>
-      <c r="U34" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="V34" s="26">
-        <v>1.0</v>
-      </c>
+      <c r="T34" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
       <c r="W34" s="25"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="26"/>
@@ -5261,10 +5301,14 @@
       <c r="AC34" s="26"/>
       <c r="AD34" s="26"/>
       <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
+      <c r="AF34" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG34" s="26"/>
       <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
+      <c r="AI34" s="26">
+        <v>-3.0</v>
+      </c>
       <c r="AJ34" s="26"/>
       <c r="AK34" s="26"/>
       <c r="AL34" s="26"/>
@@ -5285,31 +5329,31 @@
       </c>
       <c r="AZ34" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA34" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD34" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BE34" s="5">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="BF34" s="19">
         <f t="shared" si="7"/>
-        <v>0.2666666667</v>
+        <v>0.2222222222</v>
       </c>
       <c r="BG34" s="19"/>
     </row>
@@ -5678,9 +5722,7 @@
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="26">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
@@ -5702,18 +5744,24 @@
       <c r="X39" s="26"/>
       <c r="Y39" s="26"/>
       <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26">
+      <c r="AA39" s="26">
         <v>-3.0</v>
       </c>
+      <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
       <c r="AD39" s="26"/>
       <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
+      <c r="AF39" s="26">
+        <v>-1.0</v>
+      </c>
       <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
+      <c r="AH39" s="26">
+        <v>-2.0</v>
+      </c>
       <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
+      <c r="AJ39" s="27">
+        <v>3.0</v>
+      </c>
       <c r="AK39" s="26"/>
       <c r="AL39" s="26"/>
       <c r="AM39" s="26"/>
@@ -5733,23 +5781,23 @@
       </c>
       <c r="AZ39" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA39" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD39" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE39" s="5">
         <f t="shared" si="6"/>
@@ -5757,7 +5805,7 @@
       </c>
       <c r="BF39" s="19">
         <f t="shared" si="7"/>
-        <v>0.1666666667</v>
+        <v>0.25</v>
       </c>
       <c r="BG39" s="19"/>
     </row>
@@ -5768,7 +5816,9 @@
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="26">
+        <v>0.0</v>
+      </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -5790,20 +5840,16 @@
       <c r="X40" s="26"/>
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
-      <c r="AA40" s="26">
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
-      <c r="AF40" s="26">
-        <v>-1.0</v>
-      </c>
+      <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
-      <c r="AH40" s="26">
-        <v>-2.0</v>
-      </c>
+      <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
       <c r="AJ40" s="26"/>
       <c r="AK40" s="26"/>
@@ -5825,7 +5871,7 @@
       </c>
       <c r="AZ40" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA40" s="5">
         <f t="shared" si="2"/>
@@ -5833,23 +5879,23 @@
       </c>
       <c r="BB40" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC40" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD40" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE40" s="5">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="BF40" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.1666666667</v>
       </c>
       <c r="BG40" s="19"/>
     </row>
@@ -5995,7 +6041,7 @@
       </c>
       <c r="AJ41" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK41" s="30">
         <f t="shared" si="8"/>
@@ -6159,7 +6205,9 @@
       <c r="AI42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AJ42" s="5"/>
+      <c r="AJ42" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
@@ -26467,7 +26515,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="41">
         <v>3.0</v>
@@ -26485,7 +26533,7 @@
         <v>6.0</v>
       </c>
       <c r="G3" s="41">
-        <f t="shared" ref="G3:G28" si="1">SUM(C3*3)+D3</f>
+        <f t="shared" ref="G3:G29" si="1">SUM(C3*3)+D3</f>
         <v>9</v>
       </c>
     </row>
@@ -26515,7 +26563,7 @@
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="39">
         <v>2.0</v>
@@ -26539,7 +26587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="39">
         <v>3.0</v>
@@ -26668,7 +26716,7 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="39">
         <v>3.0</v>
@@ -26752,7 +26800,7 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="39">
         <v>1.0</v>
@@ -26803,7 +26851,7 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B15" s="39">
         <v>1.0</v>
@@ -26818,7 +26866,7 @@
         <v>0.0</v>
       </c>
       <c r="F15" s="39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" s="39">
         <f t="shared" si="1"/>
@@ -26834,7 +26882,7 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B16" s="39">
         <v>1.0</v>
@@ -26866,10 +26914,10 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B17" s="39">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="39">
         <v>1.0</v>
@@ -26878,10 +26926,10 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="1"/>
@@ -26892,15 +26940,15 @@
       </c>
       <c r="J17" s="42">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B18" s="39">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" s="39">
         <v>1.0</v>
@@ -26909,7 +26957,7 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="39">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="39">
         <v>0.0</v>
@@ -26923,27 +26971,26 @@
       </c>
       <c r="J18" s="42">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
       <c r="N18" s="34"/>
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="39">
         <v>3.0</v>
       </c>
       <c r="C19" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="39">
         <v>0.0</v>
       </c>
-      <c r="D19" s="39">
-        <v>3.0</v>
-      </c>
       <c r="E19" s="39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="39">
         <v>0.0</v>
@@ -26962,22 +27009,22 @@
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B20" s="39">
         <v>3.0</v>
       </c>
       <c r="C20" s="39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="39">
         <v>0.0</v>
       </c>
-      <c r="E20" s="39">
-        <v>2.0</v>
-      </c>
       <c r="F20" s="39">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="39">
         <f t="shared" si="1"/>
@@ -26994,7 +27041,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B21" s="39">
         <v>3.0</v>
@@ -27009,7 +27056,7 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="39">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G21" s="39">
         <f t="shared" si="1"/>
@@ -27025,7 +27072,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="39">
         <v>3.0</v>
@@ -27057,7 +27104,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="39">
         <v>3.0</v>
@@ -27072,7 +27119,7 @@
         <v>2.0</v>
       </c>
       <c r="F23" s="39">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G23" s="39">
         <f t="shared" si="1"/>
@@ -27085,75 +27132,75 @@
         <f t="shared" si="3"/>
         <v>8.333333333</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B24" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="39">
         <v>3.0</v>
       </c>
-      <c r="C24" s="39">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="39">
-        <v>1.0</v>
-      </c>
       <c r="F24" s="39">
-        <v>-2.0</v>
+        <v>-7.0</v>
       </c>
       <c r="G24" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="44">
         <v>5.0</v>
       </c>
       <c r="J24" s="42">
         <f t="shared" si="3"/>
-        <v>1.666666667</v>
+        <v>1.25</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B25" s="39">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" s="39">
         <v>0.0</v>
       </c>
       <c r="D25" s="39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" s="39">
         <v>1.0</v>
       </c>
       <c r="F25" s="39">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="G25" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="44">
         <v>12.0</v>
       </c>
       <c r="J25" s="42">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B26" s="39">
         <v>1.0</v>
@@ -27184,7 +27231,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B27" s="39">
         <v>1.0</v>
@@ -27199,7 +27246,7 @@
         <v>1.0</v>
       </c>
       <c r="F27" s="39">
-        <v>-5.0</v>
+        <v>-3.0</v>
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
@@ -27215,10 +27262,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-    